--- a/Factures_Excel/1502 - Sina.xlsx
+++ b/Factures_Excel/1502 - Sina.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28526"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\Administration\APP\GCF\Factures_Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D17DF306-B4FF-4440-8ED8-8922DB714FD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAA1815B-C844-45D9-9D4B-9664005E76D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="06-03-20" sheetId="4" r:id="rId1"/>
@@ -21,6 +21,7 @@
     <sheet name="18-02-24" sheetId="10" r:id="rId6"/>
     <sheet name="Activités" sheetId="5" r:id="rId7"/>
     <sheet name="2024-10-13 - 24-24522" sheetId="11" r:id="rId8"/>
+    <sheet name="2025-03-30 - 25-24833" sheetId="13" r:id="rId9"/>
   </sheets>
   <definedNames>
     <definedName name="Liste_Activités">Activités!$C$5:$C$45</definedName>
@@ -37,6 +38,7 @@
     <definedName name="_xlnm.Print_Area" localSheetId="5">'18-02-24'!$A$1:$F$88</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">'20-12-22'!$A$1:$F$89</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="7">'2024-10-13 - 24-24522'!$A$1:$F$89</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="8">'2025-03-30 - 25-24833'!$A$1:$F$88</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="3">'29-04-23'!$A$1:$F$89</definedName>
     <definedName name="Zone_impres_MI">#REF!</definedName>
   </definedNames>
@@ -56,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="111">
   <si>
     <t>NOTE D'HONORAIRES</t>
   </si>
@@ -367,6 +369,30 @@
   </si>
   <si>
     <t>Le 13 OCTOBRE 2024</t>
+  </si>
+  <si>
+    <t>Le 30 MARS 2025</t>
+  </si>
+  <si>
+    <t>25-24833</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - Préparation à diverses rencontres et rencontres avec vous par Vidéoconférence;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - Recueullir les différentes informations pertinentes à l'élaboration de la planification fiscale;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - Rédaction de diverses directives aux juristes afin de mettre en place la planification fiscale;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - Analyse des différents questionnaires complétés et modifications;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - Analyses et recherches fiscales requises en lien avec l'optimisation de la mise en place d'une structure de projet immobilier;</t>
+  </si>
+  <si>
+    <t>Frais d'expert en impôts international</t>
   </si>
 </sst>
 </file>
@@ -385,7 +411,7 @@
     <numFmt numFmtId="170" formatCode="&quot;$&quot;#,##0.00_);\(&quot;$&quot;#,##0.00\)"/>
     <numFmt numFmtId="171" formatCode="##0.00"/>
   </numFmts>
-  <fonts count="32" x14ac:knownFonts="1">
+  <fonts count="36" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -595,8 +621,34 @@
       <name val="Verdana"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="10"/>
+      <color rgb="FF625850"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -618,6 +670,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="2" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39994506668294322"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -818,7 +876,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="8">
+  <cellStyleXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -827,8 +885,9 @@
     <xf numFmtId="169" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="32" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="139">
+  <cellXfs count="164">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -927,64 +986,13 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" indent="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="4"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="3" applyFont="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="3" applyFont="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="168" fontId="18" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -1001,12 +1009,6 @@
     </xf>
     <xf numFmtId="4" fontId="21" fillId="3" borderId="15" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="15" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="14" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1120,42 +1122,166 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="168" fontId="18" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="18" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="17" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="17" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="31" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="4" fontId="31" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="3" applyFont="1"/>
+    <xf numFmtId="4" fontId="31" fillId="5" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="13" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="13" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="3" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="3" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="33" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="168" fontId="33" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="171" fontId="23" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="171" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="171" fontId="13" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="13" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="7" fontId="13" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="168" fontId="17" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="168" fontId="18" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="7" fontId="18" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="18" fillId="0" borderId="0" xfId="8" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="18" fillId="0" borderId="0" xfId="8" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="17" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="17" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="35" fillId="3" borderId="15" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="34" fillId="3" borderId="15" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="13" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="18" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="18" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="14" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="15" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="17" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="17" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="17" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="31" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="4" fontId="31" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="3" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="3" borderId="14" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="3" borderId="15" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="8">
+  <cellStyles count="9">
     <cellStyle name="Milliers" xfId="1" builtinId="3"/>
     <cellStyle name="Milliers 2" xfId="6" xr:uid="{767760DA-45FC-4E37-AF70-0E3292E24036}"/>
     <cellStyle name="Monétaire" xfId="2" builtinId="4"/>
@@ -1163,6 +1289,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="3" xr:uid="{05AE08AC-AFEC-4B9B-A8E8-E482E13645AE}"/>
     <cellStyle name="Normal 3" xfId="4" xr:uid="{277423CF-8E54-43FE-BFCF-F0663BDD7728}"/>
+    <cellStyle name="Pourcentage" xfId="8" builtinId="5"/>
     <cellStyle name="Pourcentage 2" xfId="7" xr:uid="{333B01E5-2A24-4D4B-B78D-EF6DDFE3D5E2}"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1635,6 +1762,72 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>210062</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>98425</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9217" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EEA0010D-BF87-D26A-B011-51FC641511D4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1" y="0"/>
+          <a:ext cx="11678161" cy="3175000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
@@ -2063,14 +2256,14 @@
       <c r="F29" s="20"/>
     </row>
     <row r="30" spans="1:6" s="40" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="57" t="s">
+      <c r="A30" s="144" t="s">
         <v>0</v>
       </c>
-      <c r="B30" s="57"/>
-      <c r="C30" s="57"/>
-      <c r="D30" s="57"/>
-      <c r="E30" s="57"/>
-      <c r="F30" s="57"/>
+      <c r="B30" s="144"/>
+      <c r="C30" s="144"/>
+      <c r="D30" s="144"/>
+      <c r="E30" s="144"/>
+      <c r="F30" s="144"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" s="17"/>
@@ -2091,259 +2284,259 @@
     </row>
     <row r="33" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A33" s="21"/>
-      <c r="B33" s="56"/>
-      <c r="C33" s="56"/>
-      <c r="D33" s="56"/>
+      <c r="B33" s="143"/>
+      <c r="C33" s="143"/>
+      <c r="D33" s="143"/>
       <c r="E33" s="28"/>
       <c r="F33" s="21"/>
     </row>
     <row r="34" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A34" s="21"/>
-      <c r="B34" s="56"/>
-      <c r="C34" s="56"/>
-      <c r="D34" s="56"/>
+      <c r="B34" s="143"/>
+      <c r="C34" s="143"/>
+      <c r="D34" s="143"/>
       <c r="E34" s="28"/>
       <c r="F34" s="21"/>
     </row>
     <row r="35" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A35" s="21"/>
-      <c r="B35" s="56" t="s">
+      <c r="B35" s="143" t="s">
         <v>10</v>
       </c>
-      <c r="C35" s="56"/>
-      <c r="D35" s="56"/>
+      <c r="C35" s="143"/>
+      <c r="D35" s="143"/>
       <c r="E35" s="28"/>
       <c r="F35" s="21"/>
     </row>
     <row r="36" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A36" s="21"/>
-      <c r="B36" s="56"/>
-      <c r="C36" s="56"/>
-      <c r="D36" s="56"/>
+      <c r="B36" s="143"/>
+      <c r="C36" s="143"/>
+      <c r="D36" s="143"/>
       <c r="E36" s="28"/>
       <c r="F36" s="21"/>
     </row>
     <row r="37" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A37" s="21"/>
-      <c r="B37" s="56"/>
-      <c r="C37" s="56"/>
-      <c r="D37" s="56"/>
+      <c r="B37" s="143"/>
+      <c r="C37" s="143"/>
+      <c r="D37" s="143"/>
       <c r="E37" s="28"/>
       <c r="F37" s="21"/>
     </row>
     <row r="38" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A38" s="21"/>
-      <c r="B38" s="56"/>
-      <c r="C38" s="56"/>
-      <c r="D38" s="56"/>
+      <c r="B38" s="143"/>
+      <c r="C38" s="143"/>
+      <c r="D38" s="143"/>
       <c r="E38" s="28"/>
       <c r="F38" s="21"/>
     </row>
     <row r="39" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A39" s="21"/>
-      <c r="B39" s="56"/>
-      <c r="C39" s="56"/>
-      <c r="D39" s="56"/>
+      <c r="B39" s="143"/>
+      <c r="C39" s="143"/>
+      <c r="D39" s="143"/>
       <c r="E39" s="28"/>
       <c r="F39" s="21"/>
     </row>
     <row r="40" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A40" s="21"/>
-      <c r="B40" s="56"/>
-      <c r="C40" s="56"/>
-      <c r="D40" s="56"/>
+      <c r="B40" s="143"/>
+      <c r="C40" s="143"/>
+      <c r="D40" s="143"/>
       <c r="E40" s="28"/>
       <c r="F40" s="21"/>
     </row>
     <row r="41" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A41" s="21"/>
-      <c r="B41" s="56"/>
-      <c r="C41" s="56"/>
-      <c r="D41" s="56"/>
+      <c r="B41" s="143"/>
+      <c r="C41" s="143"/>
+      <c r="D41" s="143"/>
       <c r="E41" s="28"/>
       <c r="F41" s="21"/>
     </row>
     <row r="42" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A42" s="21"/>
-      <c r="B42" s="56"/>
-      <c r="C42" s="56"/>
-      <c r="D42" s="56"/>
+      <c r="B42" s="143"/>
+      <c r="C42" s="143"/>
+      <c r="D42" s="143"/>
       <c r="E42" s="28"/>
       <c r="F42" s="21"/>
     </row>
     <row r="43" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A43" s="21"/>
-      <c r="B43" s="56"/>
-      <c r="C43" s="56"/>
-      <c r="D43" s="56"/>
+      <c r="B43" s="143"/>
+      <c r="C43" s="143"/>
+      <c r="D43" s="143"/>
       <c r="E43" s="28"/>
       <c r="F43" s="21"/>
     </row>
     <row r="44" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A44" s="21"/>
-      <c r="B44" s="56"/>
-      <c r="C44" s="56"/>
-      <c r="D44" s="56"/>
+      <c r="B44" s="143"/>
+      <c r="C44" s="143"/>
+      <c r="D44" s="143"/>
       <c r="E44" s="28"/>
       <c r="F44" s="21"/>
     </row>
     <row r="45" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A45" s="21"/>
-      <c r="B45" s="56"/>
-      <c r="C45" s="56"/>
-      <c r="D45" s="56"/>
+      <c r="B45" s="143"/>
+      <c r="C45" s="143"/>
+      <c r="D45" s="143"/>
       <c r="E45" s="28"/>
       <c r="F45" s="21"/>
     </row>
     <row r="46" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A46" s="21"/>
-      <c r="B46" s="56"/>
-      <c r="C46" s="56"/>
-      <c r="D46" s="56"/>
+      <c r="B46" s="143"/>
+      <c r="C46" s="143"/>
+      <c r="D46" s="143"/>
       <c r="E46" s="28"/>
       <c r="F46" s="21"/>
     </row>
     <row r="47" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A47" s="21"/>
-      <c r="B47" s="56"/>
-      <c r="C47" s="56"/>
-      <c r="D47" s="56"/>
+      <c r="B47" s="143"/>
+      <c r="C47" s="143"/>
+      <c r="D47" s="143"/>
       <c r="E47" s="28"/>
       <c r="F47" s="21"/>
     </row>
     <row r="48" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A48" s="21"/>
-      <c r="B48" s="56"/>
-      <c r="C48" s="56"/>
-      <c r="D48" s="56"/>
+      <c r="B48" s="143"/>
+      <c r="C48" s="143"/>
+      <c r="D48" s="143"/>
       <c r="E48" s="28"/>
       <c r="F48" s="21"/>
     </row>
     <row r="49" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A49" s="21"/>
-      <c r="B49" s="56"/>
-      <c r="C49" s="56"/>
-      <c r="D49" s="56"/>
+      <c r="B49" s="143"/>
+      <c r="C49" s="143"/>
+      <c r="D49" s="143"/>
       <c r="E49" s="28"/>
       <c r="F49" s="21"/>
     </row>
     <row r="50" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A50" s="21"/>
-      <c r="B50" s="56"/>
-      <c r="C50" s="56"/>
-      <c r="D50" s="56"/>
+      <c r="B50" s="143"/>
+      <c r="C50" s="143"/>
+      <c r="D50" s="143"/>
       <c r="E50" s="28"/>
       <c r="F50" s="21"/>
     </row>
     <row r="51" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A51" s="21"/>
-      <c r="B51" s="56"/>
-      <c r="C51" s="56"/>
-      <c r="D51" s="56"/>
+      <c r="B51" s="143"/>
+      <c r="C51" s="143"/>
+      <c r="D51" s="143"/>
       <c r="E51" s="28"/>
       <c r="F51" s="21"/>
     </row>
     <row r="52" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A52" s="21"/>
-      <c r="B52" s="56"/>
-      <c r="C52" s="56"/>
-      <c r="D52" s="56"/>
+      <c r="B52" s="143"/>
+      <c r="C52" s="143"/>
+      <c r="D52" s="143"/>
       <c r="E52" s="28"/>
       <c r="F52" s="21"/>
     </row>
     <row r="53" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A53" s="21"/>
-      <c r="B53" s="56"/>
-      <c r="C53" s="56"/>
-      <c r="D53" s="56"/>
+      <c r="B53" s="143"/>
+      <c r="C53" s="143"/>
+      <c r="D53" s="143"/>
       <c r="E53" s="28"/>
       <c r="F53" s="21"/>
     </row>
     <row r="54" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A54" s="21"/>
-      <c r="B54" s="56"/>
-      <c r="C54" s="56"/>
-      <c r="D54" s="56"/>
+      <c r="B54" s="143"/>
+      <c r="C54" s="143"/>
+      <c r="D54" s="143"/>
       <c r="E54" s="28"/>
       <c r="F54" s="21"/>
     </row>
     <row r="55" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A55" s="21"/>
-      <c r="B55" s="56"/>
-      <c r="C55" s="56"/>
-      <c r="D55" s="56"/>
+      <c r="B55" s="143"/>
+      <c r="C55" s="143"/>
+      <c r="D55" s="143"/>
       <c r="E55" s="28"/>
       <c r="F55" s="21"/>
     </row>
     <row r="56" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A56" s="21"/>
-      <c r="B56" s="56"/>
-      <c r="C56" s="56"/>
-      <c r="D56" s="56"/>
+      <c r="B56" s="143"/>
+      <c r="C56" s="143"/>
+      <c r="D56" s="143"/>
       <c r="E56" s="28"/>
       <c r="F56" s="21"/>
     </row>
     <row r="57" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A57" s="21"/>
-      <c r="B57" s="56"/>
-      <c r="C57" s="56"/>
-      <c r="D57" s="56"/>
+      <c r="B57" s="143"/>
+      <c r="C57" s="143"/>
+      <c r="D57" s="143"/>
       <c r="E57" s="28"/>
       <c r="F57" s="21"/>
     </row>
     <row r="58" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A58" s="21"/>
-      <c r="B58" s="56"/>
-      <c r="C58" s="56"/>
-      <c r="D58" s="56"/>
+      <c r="B58" s="143"/>
+      <c r="C58" s="143"/>
+      <c r="D58" s="143"/>
       <c r="E58" s="28"/>
       <c r="F58" s="21"/>
     </row>
     <row r="59" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A59" s="21"/>
-      <c r="B59" s="56"/>
-      <c r="C59" s="56"/>
-      <c r="D59" s="56"/>
+      <c r="B59" s="143"/>
+      <c r="C59" s="143"/>
+      <c r="D59" s="143"/>
       <c r="E59" s="28"/>
       <c r="F59" s="21"/>
     </row>
     <row r="60" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A60" s="21"/>
-      <c r="B60" s="56"/>
-      <c r="C60" s="56"/>
-      <c r="D60" s="56"/>
+      <c r="B60" s="143"/>
+      <c r="C60" s="143"/>
+      <c r="D60" s="143"/>
       <c r="E60" s="28"/>
       <c r="F60" s="21"/>
     </row>
     <row r="61" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A61" s="21"/>
-      <c r="B61" s="56"/>
-      <c r="C61" s="56"/>
-      <c r="D61" s="56"/>
+      <c r="B61" s="143"/>
+      <c r="C61" s="143"/>
+      <c r="D61" s="143"/>
       <c r="E61" s="28"/>
       <c r="F61" s="21"/>
     </row>
     <row r="62" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A62" s="21"/>
-      <c r="B62" s="56"/>
-      <c r="C62" s="56"/>
-      <c r="D62" s="56"/>
+      <c r="B62" s="143"/>
+      <c r="C62" s="143"/>
+      <c r="D62" s="143"/>
       <c r="E62" s="28"/>
       <c r="F62" s="21"/>
     </row>
     <row r="63" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A63" s="21"/>
-      <c r="B63" s="56"/>
-      <c r="C63" s="56"/>
-      <c r="D63" s="56"/>
+      <c r="B63" s="143"/>
+      <c r="C63" s="143"/>
+      <c r="D63" s="143"/>
       <c r="E63" s="28"/>
       <c r="F63" s="21"/>
     </row>
     <row r="64" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A64" s="21"/>
-      <c r="B64" s="56"/>
-      <c r="C64" s="56"/>
-      <c r="D64" s="56"/>
+      <c r="B64" s="143"/>
+      <c r="C64" s="143"/>
+      <c r="D64" s="143"/>
       <c r="E64" s="28"/>
       <c r="F64" s="21"/>
     </row>
@@ -2373,17 +2566,17 @@
     </row>
     <row r="67" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A67" s="21"/>
-      <c r="B67" s="56"/>
-      <c r="C67" s="56"/>
-      <c r="D67" s="56"/>
+      <c r="B67" s="143"/>
+      <c r="C67" s="143"/>
+      <c r="D67" s="143"/>
       <c r="E67" s="28"/>
       <c r="F67" s="21"/>
     </row>
     <row r="68" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="21"/>
-      <c r="B68" s="56"/>
-      <c r="C68" s="56"/>
-      <c r="D68" s="56"/>
+      <c r="B68" s="143"/>
+      <c r="C68" s="143"/>
+      <c r="D68" s="143"/>
       <c r="E68" s="28"/>
       <c r="F68" s="21"/>
     </row>
@@ -2490,19 +2683,19 @@
     </row>
     <row r="77" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A77" s="21"/>
-      <c r="B77" s="58"/>
-      <c r="C77" s="58"/>
-      <c r="D77" s="58"/>
+      <c r="B77" s="145"/>
+      <c r="C77" s="145"/>
+      <c r="D77" s="145"/>
       <c r="E77" s="36"/>
       <c r="F77" s="21"/>
     </row>
     <row r="78" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A78" s="21"/>
-      <c r="B78" s="63" t="s">
+      <c r="B78" s="150" t="s">
         <v>18</v>
       </c>
-      <c r="C78" s="63"/>
-      <c r="D78" s="63"/>
+      <c r="C78" s="150"/>
+      <c r="D78" s="150"/>
       <c r="E78" s="36">
         <v>0</v>
       </c>
@@ -2510,9 +2703,9 @@
     </row>
     <row r="79" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A79" s="21"/>
-      <c r="B79" s="58"/>
-      <c r="C79" s="58"/>
-      <c r="D79" s="58"/>
+      <c r="B79" s="145"/>
+      <c r="C79" s="145"/>
+      <c r="D79" s="145"/>
       <c r="E79" s="36"/>
       <c r="F79" s="21"/>
     </row>
@@ -2547,31 +2740,31 @@
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A83" s="21"/>
-      <c r="B83" s="61"/>
-      <c r="C83" s="61"/>
-      <c r="D83" s="61"/>
-      <c r="E83" s="61"/>
+      <c r="B83" s="148"/>
+      <c r="C83" s="148"/>
+      <c r="D83" s="148"/>
+      <c r="E83" s="148"/>
       <c r="F83" s="21"/>
     </row>
     <row r="84" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A84" s="55" t="s">
+      <c r="A84" s="142" t="s">
         <v>29</v>
       </c>
-      <c r="B84" s="55"/>
-      <c r="C84" s="55"/>
-      <c r="D84" s="55"/>
-      <c r="E84" s="55"/>
-      <c r="F84" s="55"/>
+      <c r="B84" s="142"/>
+      <c r="C84" s="142"/>
+      <c r="D84" s="142"/>
+      <c r="E84" s="142"/>
+      <c r="F84" s="142"/>
     </row>
     <row r="85" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A85" s="64" t="s">
+      <c r="A85" s="151" t="s">
         <v>30</v>
       </c>
-      <c r="B85" s="64"/>
-      <c r="C85" s="64"/>
-      <c r="D85" s="64"/>
-      <c r="E85" s="64"/>
-      <c r="F85" s="64"/>
+      <c r="B85" s="151"/>
+      <c r="C85" s="151"/>
+      <c r="D85" s="151"/>
+      <c r="E85" s="151"/>
+      <c r="F85" s="151"/>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A86" s="21"/>
@@ -2583,26 +2776,26 @@
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A87" s="21"/>
-      <c r="B87" s="62"/>
-      <c r="C87" s="62"/>
-      <c r="D87" s="62"/>
-      <c r="E87" s="62"/>
+      <c r="B87" s="149"/>
+      <c r="C87" s="149"/>
+      <c r="D87" s="149"/>
+      <c r="E87" s="149"/>
       <c r="F87" s="21"/>
     </row>
     <row r="88" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A88" s="54" t="s">
+      <c r="A88" s="141" t="s">
         <v>7</v>
       </c>
-      <c r="B88" s="54"/>
-      <c r="C88" s="54"/>
-      <c r="D88" s="54"/>
-      <c r="E88" s="54"/>
-      <c r="F88" s="54"/>
+      <c r="B88" s="141"/>
+      <c r="C88" s="141"/>
+      <c r="D88" s="141"/>
+      <c r="E88" s="141"/>
+      <c r="F88" s="141"/>
     </row>
     <row r="90" spans="1:6" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B90" s="59"/>
-      <c r="C90" s="60"/>
-      <c r="D90" s="60"/>
+      <c r="B90" s="146"/>
+      <c r="C90" s="147"/>
+      <c r="D90" s="147"/>
     </row>
     <row r="91" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="92" spans="1:6" x14ac:dyDescent="0.2">
@@ -2665,7 +2858,7 @@
   </dataValidations>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
-  <pageSetup paperSize="131" scale="62" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <pageSetup paperSize="131" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
   <headerFooter scaleWithDoc="0" alignWithMargins="0"/>
   <drawing r:id="rId2"/>
 </worksheet>
@@ -2814,14 +3007,14 @@
       <c r="F29" s="20"/>
     </row>
     <row r="30" spans="1:6" s="40" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="57" t="s">
+      <c r="A30" s="144" t="s">
         <v>0</v>
       </c>
-      <c r="B30" s="57"/>
-      <c r="C30" s="57"/>
-      <c r="D30" s="57"/>
-      <c r="E30" s="57"/>
-      <c r="F30" s="57"/>
+      <c r="B30" s="144"/>
+      <c r="C30" s="144"/>
+      <c r="D30" s="144"/>
+      <c r="E30" s="144"/>
+      <c r="F30" s="144"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" s="17"/>
@@ -2842,283 +3035,283 @@
     </row>
     <row r="33" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A33" s="21"/>
-      <c r="B33" s="56"/>
-      <c r="C33" s="56"/>
-      <c r="D33" s="56"/>
+      <c r="B33" s="143"/>
+      <c r="C33" s="143"/>
+      <c r="D33" s="143"/>
       <c r="E33" s="28"/>
       <c r="F33" s="21"/>
     </row>
     <row r="34" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A34" s="21"/>
-      <c r="B34" s="56" t="s">
+      <c r="B34" s="143" t="s">
         <v>67</v>
       </c>
-      <c r="C34" s="56"/>
-      <c r="D34" s="56"/>
+      <c r="C34" s="143"/>
+      <c r="D34" s="143"/>
       <c r="E34" s="28"/>
       <c r="F34" s="21"/>
     </row>
     <row r="35" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A35" s="21"/>
-      <c r="B35" s="56"/>
-      <c r="C35" s="56"/>
-      <c r="D35" s="56"/>
+      <c r="B35" s="143"/>
+      <c r="C35" s="143"/>
+      <c r="D35" s="143"/>
       <c r="E35" s="28"/>
       <c r="F35" s="21"/>
     </row>
     <row r="36" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A36" s="21"/>
-      <c r="B36" s="56" t="s">
+      <c r="B36" s="143" t="s">
         <v>50</v>
       </c>
-      <c r="C36" s="56"/>
-      <c r="D36" s="56"/>
+      <c r="C36" s="143"/>
+      <c r="D36" s="143"/>
       <c r="E36" s="28"/>
       <c r="F36" s="21"/>
     </row>
     <row r="37" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A37" s="21"/>
-      <c r="B37" s="56"/>
-      <c r="C37" s="56"/>
-      <c r="D37" s="56"/>
+      <c r="B37" s="143"/>
+      <c r="C37" s="143"/>
+      <c r="D37" s="143"/>
       <c r="E37" s="28"/>
       <c r="F37" s="21"/>
     </row>
     <row r="38" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A38" s="21"/>
-      <c r="B38" s="56" t="s">
+      <c r="B38" s="143" t="s">
         <v>32</v>
       </c>
-      <c r="C38" s="56"/>
-      <c r="D38" s="56"/>
+      <c r="C38" s="143"/>
+      <c r="D38" s="143"/>
       <c r="E38" s="28"/>
       <c r="F38" s="21"/>
     </row>
     <row r="39" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A39" s="21"/>
-      <c r="B39" s="56"/>
-      <c r="C39" s="56"/>
-      <c r="D39" s="56"/>
+      <c r="B39" s="143"/>
+      <c r="C39" s="143"/>
+      <c r="D39" s="143"/>
       <c r="E39" s="28"/>
       <c r="F39" s="21"/>
     </row>
     <row r="40" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A40" s="21"/>
-      <c r="B40" s="56" t="s">
+      <c r="B40" s="143" t="s">
         <v>2</v>
       </c>
-      <c r="C40" s="56"/>
-      <c r="D40" s="56"/>
+      <c r="C40" s="143"/>
+      <c r="D40" s="143"/>
       <c r="E40" s="28"/>
       <c r="F40" s="21"/>
     </row>
     <row r="41" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A41" s="21"/>
-      <c r="B41" s="56"/>
-      <c r="C41" s="56"/>
-      <c r="D41" s="56"/>
+      <c r="B41" s="143"/>
+      <c r="C41" s="143"/>
+      <c r="D41" s="143"/>
       <c r="E41" s="28"/>
       <c r="F41" s="21"/>
     </row>
     <row r="42" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A42" s="21"/>
-      <c r="B42" s="56" t="s">
+      <c r="B42" s="143" t="s">
         <v>21</v>
       </c>
-      <c r="C42" s="56"/>
-      <c r="D42" s="56"/>
+      <c r="C42" s="143"/>
+      <c r="D42" s="143"/>
       <c r="E42" s="28"/>
       <c r="F42" s="21"/>
     </row>
     <row r="43" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A43" s="21"/>
-      <c r="B43" s="56"/>
-      <c r="C43" s="56"/>
-      <c r="D43" s="56"/>
+      <c r="B43" s="143"/>
+      <c r="C43" s="143"/>
+      <c r="D43" s="143"/>
       <c r="E43" s="28"/>
       <c r="F43" s="21"/>
     </row>
     <row r="44" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A44" s="21"/>
-      <c r="B44" s="56" t="s">
+      <c r="B44" s="143" t="s">
         <v>51</v>
       </c>
-      <c r="C44" s="56"/>
-      <c r="D44" s="56"/>
+      <c r="C44" s="143"/>
+      <c r="D44" s="143"/>
       <c r="E44" s="28"/>
       <c r="F44" s="21"/>
     </row>
     <row r="45" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A45" s="21"/>
-      <c r="B45" s="56"/>
-      <c r="C45" s="56"/>
-      <c r="D45" s="56"/>
+      <c r="B45" s="143"/>
+      <c r="C45" s="143"/>
+      <c r="D45" s="143"/>
       <c r="E45" s="28"/>
       <c r="F45" s="21"/>
     </row>
     <row r="46" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A46" s="21"/>
-      <c r="B46" s="56" t="s">
+      <c r="B46" s="143" t="s">
         <v>52</v>
       </c>
-      <c r="C46" s="56"/>
-      <c r="D46" s="56"/>
+      <c r="C46" s="143"/>
+      <c r="D46" s="143"/>
       <c r="E46" s="28"/>
       <c r="F46" s="21"/>
     </row>
     <row r="47" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A47" s="21"/>
-      <c r="B47" s="56"/>
-      <c r="C47" s="56"/>
-      <c r="D47" s="56"/>
+      <c r="B47" s="143"/>
+      <c r="C47" s="143"/>
+      <c r="D47" s="143"/>
       <c r="E47" s="28"/>
       <c r="F47" s="21"/>
     </row>
     <row r="48" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A48" s="21"/>
-      <c r="B48" s="56" t="s">
+      <c r="B48" s="143" t="s">
         <v>54</v>
       </c>
-      <c r="C48" s="56"/>
-      <c r="D48" s="56"/>
+      <c r="C48" s="143"/>
+      <c r="D48" s="143"/>
       <c r="E48" s="28"/>
       <c r="F48" s="21"/>
     </row>
     <row r="49" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A49" s="21"/>
-      <c r="B49" s="56"/>
-      <c r="C49" s="56"/>
-      <c r="D49" s="56"/>
+      <c r="B49" s="143"/>
+      <c r="C49" s="143"/>
+      <c r="D49" s="143"/>
       <c r="E49" s="28"/>
       <c r="F49" s="21"/>
     </row>
     <row r="50" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A50" s="21"/>
-      <c r="B50" s="56" t="s">
+      <c r="B50" s="143" t="s">
         <v>20</v>
       </c>
-      <c r="C50" s="56"/>
-      <c r="D50" s="56"/>
+      <c r="C50" s="143"/>
+      <c r="D50" s="143"/>
       <c r="E50" s="28"/>
       <c r="F50" s="21"/>
     </row>
     <row r="51" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A51" s="21"/>
-      <c r="B51" s="56"/>
-      <c r="C51" s="56"/>
-      <c r="D51" s="56"/>
+      <c r="B51" s="143"/>
+      <c r="C51" s="143"/>
+      <c r="D51" s="143"/>
       <c r="E51" s="28"/>
       <c r="F51" s="21"/>
     </row>
     <row r="52" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A52" s="21"/>
-      <c r="B52" s="56" t="s">
+      <c r="B52" s="143" t="s">
         <v>22</v>
       </c>
-      <c r="C52" s="56"/>
-      <c r="D52" s="56"/>
+      <c r="C52" s="143"/>
+      <c r="D52" s="143"/>
       <c r="E52" s="28"/>
       <c r="F52" s="21"/>
     </row>
     <row r="53" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A53" s="21"/>
-      <c r="B53" s="56"/>
-      <c r="C53" s="56"/>
-      <c r="D53" s="56"/>
+      <c r="B53" s="143"/>
+      <c r="C53" s="143"/>
+      <c r="D53" s="143"/>
       <c r="E53" s="28"/>
       <c r="F53" s="21"/>
     </row>
     <row r="54" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A54" s="21"/>
-      <c r="B54" s="56" t="s">
+      <c r="B54" s="143" t="s">
         <v>33</v>
       </c>
-      <c r="C54" s="56"/>
-      <c r="D54" s="56"/>
+      <c r="C54" s="143"/>
+      <c r="D54" s="143"/>
       <c r="E54" s="28"/>
       <c r="F54" s="21"/>
     </row>
     <row r="55" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A55" s="21"/>
-      <c r="B55" s="56"/>
-      <c r="C55" s="56"/>
-      <c r="D55" s="56"/>
+      <c r="B55" s="143"/>
+      <c r="C55" s="143"/>
+      <c r="D55" s="143"/>
       <c r="E55" s="28"/>
       <c r="F55" s="21"/>
     </row>
     <row r="56" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A56" s="21"/>
-      <c r="B56" s="56" t="s">
+      <c r="B56" s="143" t="s">
         <v>34</v>
       </c>
-      <c r="C56" s="56"/>
-      <c r="D56" s="56"/>
+      <c r="C56" s="143"/>
+      <c r="D56" s="143"/>
       <c r="E56" s="28"/>
       <c r="F56" s="21"/>
     </row>
     <row r="57" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A57" s="21"/>
-      <c r="B57" s="56"/>
-      <c r="C57" s="56"/>
-      <c r="D57" s="56"/>
+      <c r="B57" s="143"/>
+      <c r="C57" s="143"/>
+      <c r="D57" s="143"/>
       <c r="E57" s="28"/>
       <c r="F57" s="21"/>
     </row>
     <row r="58" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A58" s="21"/>
-      <c r="B58" s="56" t="s">
+      <c r="B58" s="143" t="s">
         <v>61</v>
       </c>
-      <c r="C58" s="56"/>
-      <c r="D58" s="56"/>
+      <c r="C58" s="143"/>
+      <c r="D58" s="143"/>
       <c r="E58" s="28"/>
       <c r="F58" s="21"/>
     </row>
     <row r="59" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A59" s="21"/>
-      <c r="B59" s="56"/>
-      <c r="C59" s="56"/>
-      <c r="D59" s="56"/>
+      <c r="B59" s="143"/>
+      <c r="C59" s="143"/>
+      <c r="D59" s="143"/>
       <c r="E59" s="28"/>
       <c r="F59" s="21"/>
     </row>
     <row r="60" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A60" s="21"/>
-      <c r="B60" s="56"/>
-      <c r="C60" s="56"/>
-      <c r="D60" s="56"/>
+      <c r="B60" s="143"/>
+      <c r="C60" s="143"/>
+      <c r="D60" s="143"/>
       <c r="E60" s="28"/>
       <c r="F60" s="21"/>
     </row>
     <row r="61" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A61" s="21"/>
-      <c r="B61" s="56"/>
-      <c r="C61" s="56"/>
-      <c r="D61" s="56"/>
+      <c r="B61" s="143"/>
+      <c r="C61" s="143"/>
+      <c r="D61" s="143"/>
       <c r="E61" s="28"/>
       <c r="F61" s="21"/>
     </row>
     <row r="62" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A62" s="21"/>
-      <c r="B62" s="56"/>
-      <c r="C62" s="56"/>
-      <c r="D62" s="56"/>
+      <c r="B62" s="143"/>
+      <c r="C62" s="143"/>
+      <c r="D62" s="143"/>
       <c r="E62" s="28"/>
       <c r="F62" s="21"/>
     </row>
     <row r="63" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A63" s="21"/>
-      <c r="B63" s="56"/>
-      <c r="C63" s="56"/>
-      <c r="D63" s="56"/>
+      <c r="B63" s="143"/>
+      <c r="C63" s="143"/>
+      <c r="D63" s="143"/>
       <c r="E63" s="28"/>
       <c r="F63" s="21"/>
     </row>
     <row r="64" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A64" s="21"/>
-      <c r="B64" s="56"/>
-      <c r="C64" s="56"/>
-      <c r="D64" s="56"/>
+      <c r="B64" s="143"/>
+      <c r="C64" s="143"/>
+      <c r="D64" s="143"/>
       <c r="E64" s="28"/>
       <c r="F64" s="21"/>
     </row>
@@ -3148,17 +3341,17 @@
     </row>
     <row r="67" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A67" s="21"/>
-      <c r="B67" s="56"/>
-      <c r="C67" s="56"/>
-      <c r="D67" s="56"/>
+      <c r="B67" s="143"/>
+      <c r="C67" s="143"/>
+      <c r="D67" s="143"/>
       <c r="E67" s="28"/>
       <c r="F67" s="21"/>
     </row>
     <row r="68" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="21"/>
-      <c r="B68" s="56"/>
-      <c r="C68" s="56"/>
-      <c r="D68" s="56"/>
+      <c r="B68" s="143"/>
+      <c r="C68" s="143"/>
+      <c r="D68" s="143"/>
       <c r="E68" s="28"/>
       <c r="F68" s="21"/>
     </row>
@@ -3265,19 +3458,19 @@
     </row>
     <row r="77" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A77" s="21"/>
-      <c r="B77" s="58"/>
-      <c r="C77" s="58"/>
-      <c r="D77" s="58"/>
+      <c r="B77" s="145"/>
+      <c r="C77" s="145"/>
+      <c r="D77" s="145"/>
       <c r="E77" s="36"/>
       <c r="F77" s="21"/>
     </row>
     <row r="78" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A78" s="21"/>
-      <c r="B78" s="63" t="s">
+      <c r="B78" s="150" t="s">
         <v>18</v>
       </c>
-      <c r="C78" s="63"/>
-      <c r="D78" s="63"/>
+      <c r="C78" s="150"/>
+      <c r="D78" s="150"/>
       <c r="E78" s="36">
         <v>0</v>
       </c>
@@ -3285,9 +3478,9 @@
     </row>
     <row r="79" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A79" s="21"/>
-      <c r="B79" s="58"/>
-      <c r="C79" s="58"/>
-      <c r="D79" s="58"/>
+      <c r="B79" s="145"/>
+      <c r="C79" s="145"/>
+      <c r="D79" s="145"/>
       <c r="E79" s="36"/>
       <c r="F79" s="21"/>
     </row>
@@ -3322,31 +3515,31 @@
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A83" s="21"/>
-      <c r="B83" s="61"/>
-      <c r="C83" s="61"/>
-      <c r="D83" s="61"/>
-      <c r="E83" s="61"/>
+      <c r="B83" s="148"/>
+      <c r="C83" s="148"/>
+      <c r="D83" s="148"/>
+      <c r="E83" s="148"/>
       <c r="F83" s="21"/>
     </row>
     <row r="84" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A84" s="55" t="s">
+      <c r="A84" s="142" t="s">
         <v>29</v>
       </c>
-      <c r="B84" s="55"/>
-      <c r="C84" s="55"/>
-      <c r="D84" s="55"/>
-      <c r="E84" s="55"/>
-      <c r="F84" s="55"/>
+      <c r="B84" s="142"/>
+      <c r="C84" s="142"/>
+      <c r="D84" s="142"/>
+      <c r="E84" s="142"/>
+      <c r="F84" s="142"/>
     </row>
     <row r="85" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A85" s="64" t="s">
+      <c r="A85" s="151" t="s">
         <v>30</v>
       </c>
-      <c r="B85" s="64"/>
-      <c r="C85" s="64"/>
-      <c r="D85" s="64"/>
-      <c r="E85" s="64"/>
-      <c r="F85" s="64"/>
+      <c r="B85" s="151"/>
+      <c r="C85" s="151"/>
+      <c r="D85" s="151"/>
+      <c r="E85" s="151"/>
+      <c r="F85" s="151"/>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A86" s="21"/>
@@ -3358,26 +3551,26 @@
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A87" s="21"/>
-      <c r="B87" s="62"/>
-      <c r="C87" s="62"/>
-      <c r="D87" s="62"/>
-      <c r="E87" s="62"/>
+      <c r="B87" s="149"/>
+      <c r="C87" s="149"/>
+      <c r="D87" s="149"/>
+      <c r="E87" s="149"/>
       <c r="F87" s="21"/>
     </row>
     <row r="88" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A88" s="54" t="s">
+      <c r="A88" s="141" t="s">
         <v>7</v>
       </c>
-      <c r="B88" s="54"/>
-      <c r="C88" s="54"/>
-      <c r="D88" s="54"/>
-      <c r="E88" s="54"/>
-      <c r="F88" s="54"/>
+      <c r="B88" s="141"/>
+      <c r="C88" s="141"/>
+      <c r="D88" s="141"/>
+      <c r="E88" s="141"/>
+      <c r="F88" s="141"/>
     </row>
     <row r="90" spans="1:6" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B90" s="59"/>
-      <c r="C90" s="60"/>
-      <c r="D90" s="60"/>
+      <c r="B90" s="146"/>
+      <c r="C90" s="147"/>
+      <c r="D90" s="147"/>
     </row>
     <row r="91" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="92" spans="1:6" x14ac:dyDescent="0.2">
@@ -3439,7 +3632,7 @@
   </dataValidations>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
-  <pageSetup paperSize="131" scale="62" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <pageSetup paperSize="131" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
   <headerFooter scaleWithDoc="0" alignWithMargins="0"/>
   <drawing r:id="rId2"/>
 </worksheet>
@@ -3588,14 +3781,14 @@
       <c r="F29" s="20"/>
     </row>
     <row r="30" spans="1:6" s="40" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="57" t="s">
+      <c r="A30" s="144" t="s">
         <v>0</v>
       </c>
-      <c r="B30" s="57"/>
-      <c r="C30" s="57"/>
-      <c r="D30" s="57"/>
-      <c r="E30" s="57"/>
-      <c r="F30" s="57"/>
+      <c r="B30" s="144"/>
+      <c r="C30" s="144"/>
+      <c r="D30" s="144"/>
+      <c r="E30" s="144"/>
+      <c r="F30" s="144"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" s="17"/>
@@ -3616,269 +3809,269 @@
     </row>
     <row r="33" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A33" s="21"/>
-      <c r="B33" s="56"/>
-      <c r="C33" s="56"/>
-      <c r="D33" s="56"/>
+      <c r="B33" s="143"/>
+      <c r="C33" s="143"/>
+      <c r="D33" s="143"/>
       <c r="E33" s="28"/>
       <c r="F33" s="21"/>
     </row>
     <row r="34" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A34" s="21"/>
-      <c r="B34" s="56" t="s">
+      <c r="B34" s="143" t="s">
         <v>69</v>
       </c>
-      <c r="C34" s="56"/>
-      <c r="D34" s="56"/>
+      <c r="C34" s="143"/>
+      <c r="D34" s="143"/>
       <c r="E34" s="28"/>
       <c r="F34" s="21"/>
     </row>
     <row r="35" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A35" s="21"/>
-      <c r="B35" s="56"/>
-      <c r="C35" s="56"/>
-      <c r="D35" s="56"/>
+      <c r="B35" s="143"/>
+      <c r="C35" s="143"/>
+      <c r="D35" s="143"/>
       <c r="E35" s="28"/>
       <c r="F35" s="21"/>
     </row>
     <row r="36" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A36" s="21"/>
-      <c r="B36" s="56" t="s">
+      <c r="B36" s="143" t="s">
         <v>34</v>
       </c>
-      <c r="C36" s="56"/>
-      <c r="D36" s="56"/>
+      <c r="C36" s="143"/>
+      <c r="D36" s="143"/>
       <c r="E36" s="28"/>
       <c r="F36" s="21"/>
     </row>
     <row r="37" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A37" s="21"/>
-      <c r="B37" s="56"/>
-      <c r="C37" s="56"/>
-      <c r="D37" s="56"/>
+      <c r="B37" s="143"/>
+      <c r="C37" s="143"/>
+      <c r="D37" s="143"/>
       <c r="E37" s="28"/>
       <c r="F37" s="21"/>
     </row>
     <row r="38" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A38" s="21"/>
-      <c r="B38" s="56" t="s">
+      <c r="B38" s="143" t="s">
         <v>9</v>
       </c>
-      <c r="C38" s="56"/>
-      <c r="D38" s="56"/>
+      <c r="C38" s="143"/>
+      <c r="D38" s="143"/>
       <c r="E38" s="28"/>
       <c r="F38" s="21"/>
     </row>
     <row r="39" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A39" s="21"/>
-      <c r="B39" s="56"/>
-      <c r="C39" s="56"/>
-      <c r="D39" s="56"/>
+      <c r="B39" s="143"/>
+      <c r="C39" s="143"/>
+      <c r="D39" s="143"/>
       <c r="E39" s="28"/>
       <c r="F39" s="21"/>
     </row>
     <row r="40" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A40" s="21"/>
-      <c r="B40" s="56" t="s">
+      <c r="B40" s="143" t="s">
         <v>70</v>
       </c>
-      <c r="C40" s="56"/>
-      <c r="D40" s="56"/>
+      <c r="C40" s="143"/>
+      <c r="D40" s="143"/>
       <c r="E40" s="28"/>
       <c r="F40" s="21"/>
     </row>
     <row r="41" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A41" s="21"/>
-      <c r="B41" s="56"/>
-      <c r="C41" s="56"/>
-      <c r="D41" s="56"/>
+      <c r="B41" s="143"/>
+      <c r="C41" s="143"/>
+      <c r="D41" s="143"/>
       <c r="E41" s="28"/>
       <c r="F41" s="21"/>
     </row>
     <row r="42" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A42" s="21"/>
-      <c r="B42" s="56" t="s">
+      <c r="B42" s="143" t="s">
         <v>61</v>
       </c>
-      <c r="C42" s="56"/>
-      <c r="D42" s="56"/>
+      <c r="C42" s="143"/>
+      <c r="D42" s="143"/>
       <c r="E42" s="28"/>
       <c r="F42" s="21"/>
     </row>
     <row r="43" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A43" s="21"/>
-      <c r="B43" s="56"/>
-      <c r="C43" s="56"/>
-      <c r="D43" s="56"/>
+      <c r="B43" s="143"/>
+      <c r="C43" s="143"/>
+      <c r="D43" s="143"/>
       <c r="E43" s="28"/>
       <c r="F43" s="21"/>
     </row>
     <row r="44" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A44" s="21"/>
-      <c r="B44" s="56" t="s">
+      <c r="B44" s="143" t="s">
         <v>71</v>
       </c>
-      <c r="C44" s="56"/>
-      <c r="D44" s="56"/>
+      <c r="C44" s="143"/>
+      <c r="D44" s="143"/>
       <c r="E44" s="28"/>
       <c r="F44" s="21"/>
     </row>
     <row r="45" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A45" s="21"/>
-      <c r="B45" s="56"/>
-      <c r="C45" s="56"/>
-      <c r="D45" s="56"/>
+      <c r="B45" s="143"/>
+      <c r="C45" s="143"/>
+      <c r="D45" s="143"/>
       <c r="E45" s="28"/>
       <c r="F45" s="21"/>
     </row>
     <row r="46" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A46" s="21"/>
-      <c r="B46" s="56"/>
-      <c r="C46" s="56"/>
-      <c r="D46" s="56"/>
+      <c r="B46" s="143"/>
+      <c r="C46" s="143"/>
+      <c r="D46" s="143"/>
       <c r="E46" s="28"/>
       <c r="F46" s="21"/>
     </row>
     <row r="47" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A47" s="21"/>
-      <c r="B47" s="56"/>
-      <c r="C47" s="56"/>
-      <c r="D47" s="56"/>
+      <c r="B47" s="143"/>
+      <c r="C47" s="143"/>
+      <c r="D47" s="143"/>
       <c r="E47" s="28"/>
       <c r="F47" s="21"/>
     </row>
     <row r="48" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A48" s="21"/>
-      <c r="B48" s="56"/>
-      <c r="C48" s="56"/>
-      <c r="D48" s="56"/>
+      <c r="B48" s="143"/>
+      <c r="C48" s="143"/>
+      <c r="D48" s="143"/>
       <c r="E48" s="28"/>
       <c r="F48" s="21"/>
     </row>
     <row r="49" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A49" s="21"/>
-      <c r="B49" s="56"/>
-      <c r="C49" s="56"/>
-      <c r="D49" s="56"/>
+      <c r="B49" s="143"/>
+      <c r="C49" s="143"/>
+      <c r="D49" s="143"/>
       <c r="E49" s="28"/>
       <c r="F49" s="21"/>
     </row>
     <row r="50" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A50" s="21"/>
-      <c r="B50" s="56"/>
-      <c r="C50" s="56"/>
-      <c r="D50" s="56"/>
+      <c r="B50" s="143"/>
+      <c r="C50" s="143"/>
+      <c r="D50" s="143"/>
       <c r="E50" s="28"/>
       <c r="F50" s="21"/>
     </row>
     <row r="51" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A51" s="21"/>
-      <c r="B51" s="56"/>
-      <c r="C51" s="56"/>
-      <c r="D51" s="56"/>
+      <c r="B51" s="143"/>
+      <c r="C51" s="143"/>
+      <c r="D51" s="143"/>
       <c r="E51" s="28"/>
       <c r="F51" s="21"/>
     </row>
     <row r="52" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A52" s="21"/>
-      <c r="B52" s="56"/>
-      <c r="C52" s="56"/>
-      <c r="D52" s="56"/>
+      <c r="B52" s="143"/>
+      <c r="C52" s="143"/>
+      <c r="D52" s="143"/>
       <c r="E52" s="28"/>
       <c r="F52" s="21"/>
     </row>
     <row r="53" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A53" s="21"/>
-      <c r="B53" s="56"/>
-      <c r="C53" s="56"/>
-      <c r="D53" s="56"/>
+      <c r="B53" s="143"/>
+      <c r="C53" s="143"/>
+      <c r="D53" s="143"/>
       <c r="E53" s="28"/>
       <c r="F53" s="21"/>
     </row>
     <row r="54" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A54" s="21"/>
-      <c r="B54" s="56"/>
-      <c r="C54" s="56"/>
-      <c r="D54" s="56"/>
+      <c r="B54" s="143"/>
+      <c r="C54" s="143"/>
+      <c r="D54" s="143"/>
       <c r="E54" s="28"/>
       <c r="F54" s="21"/>
     </row>
     <row r="55" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A55" s="21"/>
-      <c r="B55" s="56"/>
-      <c r="C55" s="56"/>
-      <c r="D55" s="56"/>
+      <c r="B55" s="143"/>
+      <c r="C55" s="143"/>
+      <c r="D55" s="143"/>
       <c r="E55" s="28"/>
       <c r="F55" s="21"/>
     </row>
     <row r="56" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A56" s="21"/>
-      <c r="B56" s="56"/>
-      <c r="C56" s="56"/>
-      <c r="D56" s="56"/>
+      <c r="B56" s="143"/>
+      <c r="C56" s="143"/>
+      <c r="D56" s="143"/>
       <c r="E56" s="28"/>
       <c r="F56" s="21"/>
     </row>
     <row r="57" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A57" s="21"/>
-      <c r="B57" s="56"/>
-      <c r="C57" s="56"/>
-      <c r="D57" s="56"/>
+      <c r="B57" s="143"/>
+      <c r="C57" s="143"/>
+      <c r="D57" s="143"/>
       <c r="E57" s="28"/>
       <c r="F57" s="21"/>
     </row>
     <row r="58" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A58" s="21"/>
-      <c r="B58" s="56"/>
-      <c r="C58" s="56"/>
-      <c r="D58" s="56"/>
+      <c r="B58" s="143"/>
+      <c r="C58" s="143"/>
+      <c r="D58" s="143"/>
       <c r="E58" s="28"/>
       <c r="F58" s="21"/>
     </row>
     <row r="59" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A59" s="21"/>
-      <c r="B59" s="56"/>
-      <c r="C59" s="56"/>
-      <c r="D59" s="56"/>
+      <c r="B59" s="143"/>
+      <c r="C59" s="143"/>
+      <c r="D59" s="143"/>
       <c r="E59" s="28"/>
       <c r="F59" s="21"/>
     </row>
     <row r="60" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A60" s="21"/>
-      <c r="B60" s="56"/>
-      <c r="C60" s="56"/>
-      <c r="D60" s="56"/>
+      <c r="B60" s="143"/>
+      <c r="C60" s="143"/>
+      <c r="D60" s="143"/>
       <c r="E60" s="28"/>
       <c r="F60" s="21"/>
     </row>
     <row r="61" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A61" s="21"/>
-      <c r="B61" s="56"/>
-      <c r="C61" s="56"/>
-      <c r="D61" s="56"/>
+      <c r="B61" s="143"/>
+      <c r="C61" s="143"/>
+      <c r="D61" s="143"/>
       <c r="E61" s="28"/>
       <c r="F61" s="21"/>
     </row>
     <row r="62" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A62" s="21"/>
-      <c r="B62" s="56"/>
-      <c r="C62" s="56"/>
-      <c r="D62" s="56"/>
+      <c r="B62" s="143"/>
+      <c r="C62" s="143"/>
+      <c r="D62" s="143"/>
       <c r="E62" s="28"/>
       <c r="F62" s="21"/>
     </row>
     <row r="63" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A63" s="21"/>
-      <c r="B63" s="56"/>
-      <c r="C63" s="56"/>
-      <c r="D63" s="56"/>
+      <c r="B63" s="143"/>
+      <c r="C63" s="143"/>
+      <c r="D63" s="143"/>
       <c r="E63" s="28"/>
       <c r="F63" s="21"/>
     </row>
     <row r="64" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A64" s="21"/>
-      <c r="B64" s="56"/>
-      <c r="C64" s="56"/>
-      <c r="D64" s="56"/>
+      <c r="B64" s="143"/>
+      <c r="C64" s="143"/>
+      <c r="D64" s="143"/>
       <c r="E64" s="28"/>
       <c r="F64" s="21"/>
     </row>
@@ -3908,17 +4101,17 @@
     </row>
     <row r="67" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A67" s="21"/>
-      <c r="B67" s="56"/>
-      <c r="C67" s="56"/>
-      <c r="D67" s="56"/>
+      <c r="B67" s="143"/>
+      <c r="C67" s="143"/>
+      <c r="D67" s="143"/>
       <c r="E67" s="28"/>
       <c r="F67" s="21"/>
     </row>
     <row r="68" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="21"/>
-      <c r="B68" s="56"/>
-      <c r="C68" s="56"/>
-      <c r="D68" s="56"/>
+      <c r="B68" s="143"/>
+      <c r="C68" s="143"/>
+      <c r="D68" s="143"/>
       <c r="E68" s="28"/>
       <c r="F68" s="21"/>
     </row>
@@ -4025,19 +4218,19 @@
     </row>
     <row r="77" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A77" s="21"/>
-      <c r="B77" s="58"/>
-      <c r="C77" s="58"/>
-      <c r="D77" s="58"/>
+      <c r="B77" s="145"/>
+      <c r="C77" s="145"/>
+      <c r="D77" s="145"/>
       <c r="E77" s="36"/>
       <c r="F77" s="21"/>
     </row>
     <row r="78" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A78" s="21"/>
-      <c r="B78" s="63" t="s">
+      <c r="B78" s="150" t="s">
         <v>18</v>
       </c>
-      <c r="C78" s="63"/>
-      <c r="D78" s="63"/>
+      <c r="C78" s="150"/>
+      <c r="D78" s="150"/>
       <c r="E78" s="36">
         <v>0</v>
       </c>
@@ -4045,9 +4238,9 @@
     </row>
     <row r="79" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A79" s="21"/>
-      <c r="B79" s="58"/>
-      <c r="C79" s="58"/>
-      <c r="D79" s="58"/>
+      <c r="B79" s="145"/>
+      <c r="C79" s="145"/>
+      <c r="D79" s="145"/>
       <c r="E79" s="36"/>
       <c r="F79" s="21"/>
     </row>
@@ -4082,31 +4275,31 @@
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A83" s="21"/>
-      <c r="B83" s="61"/>
-      <c r="C83" s="61"/>
-      <c r="D83" s="61"/>
-      <c r="E83" s="61"/>
+      <c r="B83" s="148"/>
+      <c r="C83" s="148"/>
+      <c r="D83" s="148"/>
+      <c r="E83" s="148"/>
       <c r="F83" s="21"/>
     </row>
     <row r="84" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A84" s="55" t="s">
+      <c r="A84" s="142" t="s">
         <v>29</v>
       </c>
-      <c r="B84" s="55"/>
-      <c r="C84" s="55"/>
-      <c r="D84" s="55"/>
-      <c r="E84" s="55"/>
-      <c r="F84" s="55"/>
+      <c r="B84" s="142"/>
+      <c r="C84" s="142"/>
+      <c r="D84" s="142"/>
+      <c r="E84" s="142"/>
+      <c r="F84" s="142"/>
     </row>
     <row r="85" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A85" s="64" t="s">
+      <c r="A85" s="151" t="s">
         <v>30</v>
       </c>
-      <c r="B85" s="64"/>
-      <c r="C85" s="64"/>
-      <c r="D85" s="64"/>
-      <c r="E85" s="64"/>
-      <c r="F85" s="64"/>
+      <c r="B85" s="151"/>
+      <c r="C85" s="151"/>
+      <c r="D85" s="151"/>
+      <c r="E85" s="151"/>
+      <c r="F85" s="151"/>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A86" s="21"/>
@@ -4118,26 +4311,26 @@
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A87" s="21"/>
-      <c r="B87" s="62"/>
-      <c r="C87" s="62"/>
-      <c r="D87" s="62"/>
-      <c r="E87" s="62"/>
+      <c r="B87" s="149"/>
+      <c r="C87" s="149"/>
+      <c r="D87" s="149"/>
+      <c r="E87" s="149"/>
       <c r="F87" s="21"/>
     </row>
     <row r="88" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A88" s="54" t="s">
+      <c r="A88" s="141" t="s">
         <v>7</v>
       </c>
-      <c r="B88" s="54"/>
-      <c r="C88" s="54"/>
-      <c r="D88" s="54"/>
-      <c r="E88" s="54"/>
-      <c r="F88" s="54"/>
+      <c r="B88" s="141"/>
+      <c r="C88" s="141"/>
+      <c r="D88" s="141"/>
+      <c r="E88" s="141"/>
+      <c r="F88" s="141"/>
     </row>
     <row r="90" spans="1:6" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B90" s="59"/>
-      <c r="C90" s="60"/>
-      <c r="D90" s="60"/>
+      <c r="B90" s="146"/>
+      <c r="C90" s="147"/>
+      <c r="D90" s="147"/>
     </row>
     <row r="91" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="92" spans="1:6" x14ac:dyDescent="0.2">
@@ -4199,7 +4392,7 @@
   </dataValidations>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
-  <pageSetup paperSize="131" scale="62" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <pageSetup paperSize="131" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
   <headerFooter scaleWithDoc="0" alignWithMargins="0"/>
   <drawing r:id="rId2"/>
 </worksheet>
@@ -4348,14 +4541,14 @@
       <c r="F29" s="20"/>
     </row>
     <row r="30" spans="1:6" s="40" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="57" t="s">
+      <c r="A30" s="144" t="s">
         <v>0</v>
       </c>
-      <c r="B30" s="57"/>
-      <c r="C30" s="57"/>
-      <c r="D30" s="57"/>
-      <c r="E30" s="57"/>
-      <c r="F30" s="57"/>
+      <c r="B30" s="144"/>
+      <c r="C30" s="144"/>
+      <c r="D30" s="144"/>
+      <c r="E30" s="144"/>
+      <c r="F30" s="144"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" s="17"/>
@@ -4376,265 +4569,265 @@
     </row>
     <row r="33" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A33" s="21"/>
-      <c r="B33" s="56"/>
-      <c r="C33" s="56"/>
-      <c r="D33" s="56"/>
+      <c r="B33" s="143"/>
+      <c r="C33" s="143"/>
+      <c r="D33" s="143"/>
       <c r="E33" s="28"/>
       <c r="F33" s="21"/>
     </row>
     <row r="34" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A34" s="21"/>
-      <c r="B34" s="56" t="s">
+      <c r="B34" s="143" t="s">
         <v>75</v>
       </c>
-      <c r="C34" s="56"/>
-      <c r="D34" s="56"/>
+      <c r="C34" s="143"/>
+      <c r="D34" s="143"/>
       <c r="E34" s="28"/>
       <c r="F34" s="21"/>
     </row>
     <row r="35" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A35" s="21"/>
-      <c r="B35" s="56"/>
-      <c r="C35" s="56"/>
-      <c r="D35" s="56"/>
+      <c r="B35" s="143"/>
+      <c r="C35" s="143"/>
+      <c r="D35" s="143"/>
       <c r="E35" s="28"/>
       <c r="F35" s="21"/>
     </row>
     <row r="36" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A36" s="21"/>
-      <c r="B36" s="56" t="s">
+      <c r="B36" s="143" t="s">
         <v>61</v>
       </c>
-      <c r="C36" s="56"/>
-      <c r="D36" s="56"/>
+      <c r="C36" s="143"/>
+      <c r="D36" s="143"/>
       <c r="E36" s="28"/>
       <c r="F36" s="21"/>
     </row>
     <row r="37" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A37" s="21"/>
-      <c r="B37" s="56"/>
-      <c r="C37" s="56"/>
-      <c r="D37" s="56"/>
+      <c r="B37" s="143"/>
+      <c r="C37" s="143"/>
+      <c r="D37" s="143"/>
       <c r="E37" s="28"/>
       <c r="F37" s="21"/>
     </row>
     <row r="38" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A38" s="21"/>
-      <c r="B38" s="56" t="s">
+      <c r="B38" s="143" t="s">
         <v>49</v>
       </c>
-      <c r="C38" s="56"/>
-      <c r="D38" s="56"/>
+      <c r="C38" s="143"/>
+      <c r="D38" s="143"/>
       <c r="E38" s="28"/>
       <c r="F38" s="21"/>
     </row>
     <row r="39" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A39" s="21"/>
-      <c r="B39" s="56"/>
-      <c r="C39" s="56"/>
-      <c r="D39" s="56"/>
+      <c r="B39" s="143"/>
+      <c r="C39" s="143"/>
+      <c r="D39" s="143"/>
       <c r="E39" s="28"/>
       <c r="F39" s="21"/>
     </row>
     <row r="40" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A40" s="21"/>
-      <c r="B40" s="56" t="s">
+      <c r="B40" s="143" t="s">
         <v>76</v>
       </c>
-      <c r="C40" s="56"/>
-      <c r="D40" s="56"/>
+      <c r="C40" s="143"/>
+      <c r="D40" s="143"/>
       <c r="E40" s="28"/>
       <c r="F40" s="21"/>
     </row>
     <row r="41" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A41" s="21"/>
-      <c r="B41" s="56"/>
-      <c r="C41" s="56"/>
-      <c r="D41" s="56"/>
+      <c r="B41" s="143"/>
+      <c r="C41" s="143"/>
+      <c r="D41" s="143"/>
       <c r="E41" s="28"/>
       <c r="F41" s="21"/>
     </row>
     <row r="42" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A42" s="21"/>
-      <c r="B42" s="56"/>
-      <c r="C42" s="56"/>
-      <c r="D42" s="56"/>
+      <c r="B42" s="143"/>
+      <c r="C42" s="143"/>
+      <c r="D42" s="143"/>
       <c r="E42" s="28"/>
       <c r="F42" s="21"/>
     </row>
     <row r="43" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A43" s="21"/>
-      <c r="B43" s="56"/>
-      <c r="C43" s="56"/>
-      <c r="D43" s="56"/>
+      <c r="B43" s="143"/>
+      <c r="C43" s="143"/>
+      <c r="D43" s="143"/>
       <c r="E43" s="28"/>
       <c r="F43" s="21"/>
     </row>
     <row r="44" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A44" s="21"/>
-      <c r="B44" s="56"/>
-      <c r="C44" s="56"/>
-      <c r="D44" s="56"/>
+      <c r="B44" s="143"/>
+      <c r="C44" s="143"/>
+      <c r="D44" s="143"/>
       <c r="E44" s="28"/>
       <c r="F44" s="21"/>
     </row>
     <row r="45" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A45" s="21"/>
-      <c r="B45" s="56"/>
-      <c r="C45" s="56"/>
-      <c r="D45" s="56"/>
+      <c r="B45" s="143"/>
+      <c r="C45" s="143"/>
+      <c r="D45" s="143"/>
       <c r="E45" s="28"/>
       <c r="F45" s="21"/>
     </row>
     <row r="46" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A46" s="21"/>
-      <c r="B46" s="56"/>
-      <c r="C46" s="56"/>
-      <c r="D46" s="56"/>
+      <c r="B46" s="143"/>
+      <c r="C46" s="143"/>
+      <c r="D46" s="143"/>
       <c r="E46" s="28"/>
       <c r="F46" s="21"/>
     </row>
     <row r="47" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A47" s="21"/>
-      <c r="B47" s="56"/>
-      <c r="C47" s="56"/>
-      <c r="D47" s="56"/>
+      <c r="B47" s="143"/>
+      <c r="C47" s="143"/>
+      <c r="D47" s="143"/>
       <c r="E47" s="28"/>
       <c r="F47" s="21"/>
     </row>
     <row r="48" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A48" s="21"/>
-      <c r="B48" s="56"/>
-      <c r="C48" s="56"/>
-      <c r="D48" s="56"/>
+      <c r="B48" s="143"/>
+      <c r="C48" s="143"/>
+      <c r="D48" s="143"/>
       <c r="E48" s="28"/>
       <c r="F48" s="21"/>
     </row>
     <row r="49" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A49" s="21"/>
-      <c r="B49" s="56"/>
-      <c r="C49" s="56"/>
-      <c r="D49" s="56"/>
+      <c r="B49" s="143"/>
+      <c r="C49" s="143"/>
+      <c r="D49" s="143"/>
       <c r="E49" s="28"/>
       <c r="F49" s="21"/>
     </row>
     <row r="50" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A50" s="21"/>
-      <c r="B50" s="56"/>
-      <c r="C50" s="56"/>
-      <c r="D50" s="56"/>
+      <c r="B50" s="143"/>
+      <c r="C50" s="143"/>
+      <c r="D50" s="143"/>
       <c r="E50" s="28"/>
       <c r="F50" s="21"/>
     </row>
     <row r="51" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A51" s="21"/>
-      <c r="B51" s="56"/>
-      <c r="C51" s="56"/>
-      <c r="D51" s="56"/>
+      <c r="B51" s="143"/>
+      <c r="C51" s="143"/>
+      <c r="D51" s="143"/>
       <c r="E51" s="28"/>
       <c r="F51" s="21"/>
     </row>
     <row r="52" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A52" s="21"/>
-      <c r="B52" s="56"/>
-      <c r="C52" s="56"/>
-      <c r="D52" s="56"/>
+      <c r="B52" s="143"/>
+      <c r="C52" s="143"/>
+      <c r="D52" s="143"/>
       <c r="E52" s="28"/>
       <c r="F52" s="21"/>
     </row>
     <row r="53" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A53" s="21"/>
-      <c r="B53" s="56"/>
-      <c r="C53" s="56"/>
-      <c r="D53" s="56"/>
+      <c r="B53" s="143"/>
+      <c r="C53" s="143"/>
+      <c r="D53" s="143"/>
       <c r="E53" s="28"/>
       <c r="F53" s="21"/>
     </row>
     <row r="54" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A54" s="21"/>
-      <c r="B54" s="56"/>
-      <c r="C54" s="56"/>
-      <c r="D54" s="56"/>
+      <c r="B54" s="143"/>
+      <c r="C54" s="143"/>
+      <c r="D54" s="143"/>
       <c r="E54" s="28"/>
       <c r="F54" s="21"/>
     </row>
     <row r="55" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A55" s="21"/>
-      <c r="B55" s="56"/>
-      <c r="C55" s="56"/>
-      <c r="D55" s="56"/>
+      <c r="B55" s="143"/>
+      <c r="C55" s="143"/>
+      <c r="D55" s="143"/>
       <c r="E55" s="28"/>
       <c r="F55" s="21"/>
     </row>
     <row r="56" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A56" s="21"/>
-      <c r="B56" s="56"/>
-      <c r="C56" s="56"/>
-      <c r="D56" s="56"/>
+      <c r="B56" s="143"/>
+      <c r="C56" s="143"/>
+      <c r="D56" s="143"/>
       <c r="E56" s="28"/>
       <c r="F56" s="21"/>
     </row>
     <row r="57" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A57" s="21"/>
-      <c r="B57" s="56"/>
-      <c r="C57" s="56"/>
-      <c r="D57" s="56"/>
+      <c r="B57" s="143"/>
+      <c r="C57" s="143"/>
+      <c r="D57" s="143"/>
       <c r="E57" s="28"/>
       <c r="F57" s="21"/>
     </row>
     <row r="58" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A58" s="21"/>
-      <c r="B58" s="56"/>
-      <c r="C58" s="56"/>
-      <c r="D58" s="56"/>
+      <c r="B58" s="143"/>
+      <c r="C58" s="143"/>
+      <c r="D58" s="143"/>
       <c r="E58" s="28"/>
       <c r="F58" s="21"/>
     </row>
     <row r="59" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A59" s="21"/>
-      <c r="B59" s="56"/>
-      <c r="C59" s="56"/>
-      <c r="D59" s="56"/>
+      <c r="B59" s="143"/>
+      <c r="C59" s="143"/>
+      <c r="D59" s="143"/>
       <c r="E59" s="28"/>
       <c r="F59" s="21"/>
     </row>
     <row r="60" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A60" s="21"/>
-      <c r="B60" s="56"/>
-      <c r="C60" s="56"/>
-      <c r="D60" s="56"/>
+      <c r="B60" s="143"/>
+      <c r="C60" s="143"/>
+      <c r="D60" s="143"/>
       <c r="E60" s="28"/>
       <c r="F60" s="21"/>
     </row>
     <row r="61" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A61" s="21"/>
-      <c r="B61" s="56"/>
-      <c r="C61" s="56"/>
-      <c r="D61" s="56"/>
+      <c r="B61" s="143"/>
+      <c r="C61" s="143"/>
+      <c r="D61" s="143"/>
       <c r="E61" s="28"/>
       <c r="F61" s="21"/>
     </row>
     <row r="62" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A62" s="21"/>
-      <c r="B62" s="56"/>
-      <c r="C62" s="56"/>
-      <c r="D62" s="56"/>
+      <c r="B62" s="143"/>
+      <c r="C62" s="143"/>
+      <c r="D62" s="143"/>
       <c r="E62" s="28"/>
       <c r="F62" s="21"/>
     </row>
     <row r="63" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A63" s="21"/>
-      <c r="B63" s="56"/>
-      <c r="C63" s="56"/>
-      <c r="D63" s="56"/>
+      <c r="B63" s="143"/>
+      <c r="C63" s="143"/>
+      <c r="D63" s="143"/>
       <c r="E63" s="28"/>
       <c r="F63" s="21"/>
     </row>
     <row r="64" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A64" s="21"/>
-      <c r="B64" s="56"/>
-      <c r="C64" s="56"/>
-      <c r="D64" s="56"/>
+      <c r="B64" s="143"/>
+      <c r="C64" s="143"/>
+      <c r="D64" s="143"/>
       <c r="E64" s="28"/>
       <c r="F64" s="21"/>
     </row>
@@ -4664,17 +4857,17 @@
     </row>
     <row r="67" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A67" s="21"/>
-      <c r="B67" s="56"/>
-      <c r="C67" s="56"/>
-      <c r="D67" s="56"/>
+      <c r="B67" s="143"/>
+      <c r="C67" s="143"/>
+      <c r="D67" s="143"/>
       <c r="E67" s="28"/>
       <c r="F67" s="21"/>
     </row>
     <row r="68" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="21"/>
-      <c r="B68" s="56"/>
-      <c r="C68" s="56"/>
-      <c r="D68" s="56"/>
+      <c r="B68" s="143"/>
+      <c r="C68" s="143"/>
+      <c r="D68" s="143"/>
       <c r="E68" s="28"/>
       <c r="F68" s="21"/>
     </row>
@@ -4781,19 +4974,19 @@
     </row>
     <row r="77" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A77" s="21"/>
-      <c r="B77" s="58"/>
-      <c r="C77" s="58"/>
-      <c r="D77" s="58"/>
+      <c r="B77" s="145"/>
+      <c r="C77" s="145"/>
+      <c r="D77" s="145"/>
       <c r="E77" s="36"/>
       <c r="F77" s="21"/>
     </row>
     <row r="78" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A78" s="21"/>
-      <c r="B78" s="63" t="s">
+      <c r="B78" s="150" t="s">
         <v>18</v>
       </c>
-      <c r="C78" s="63"/>
-      <c r="D78" s="63"/>
+      <c r="C78" s="150"/>
+      <c r="D78" s="150"/>
       <c r="E78" s="36">
         <v>0</v>
       </c>
@@ -4801,9 +4994,9 @@
     </row>
     <row r="79" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A79" s="21"/>
-      <c r="B79" s="58"/>
-      <c r="C79" s="58"/>
-      <c r="D79" s="58"/>
+      <c r="B79" s="145"/>
+      <c r="C79" s="145"/>
+      <c r="D79" s="145"/>
       <c r="E79" s="36"/>
       <c r="F79" s="21"/>
     </row>
@@ -4838,31 +5031,31 @@
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A83" s="21"/>
-      <c r="B83" s="61"/>
-      <c r="C83" s="61"/>
-      <c r="D83" s="61"/>
-      <c r="E83" s="61"/>
+      <c r="B83" s="148"/>
+      <c r="C83" s="148"/>
+      <c r="D83" s="148"/>
+      <c r="E83" s="148"/>
       <c r="F83" s="21"/>
     </row>
     <row r="84" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A84" s="55" t="s">
+      <c r="A84" s="142" t="s">
         <v>29</v>
       </c>
-      <c r="B84" s="55"/>
-      <c r="C84" s="55"/>
-      <c r="D84" s="55"/>
-      <c r="E84" s="55"/>
-      <c r="F84" s="55"/>
+      <c r="B84" s="142"/>
+      <c r="C84" s="142"/>
+      <c r="D84" s="142"/>
+      <c r="E84" s="142"/>
+      <c r="F84" s="142"/>
     </row>
     <row r="85" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A85" s="64" t="s">
+      <c r="A85" s="151" t="s">
         <v>30</v>
       </c>
-      <c r="B85" s="64"/>
-      <c r="C85" s="64"/>
-      <c r="D85" s="64"/>
-      <c r="E85" s="64"/>
-      <c r="F85" s="64"/>
+      <c r="B85" s="151"/>
+      <c r="C85" s="151"/>
+      <c r="D85" s="151"/>
+      <c r="E85" s="151"/>
+      <c r="F85" s="151"/>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A86" s="21"/>
@@ -4874,26 +5067,26 @@
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A87" s="21"/>
-      <c r="B87" s="62"/>
-      <c r="C87" s="62"/>
-      <c r="D87" s="62"/>
-      <c r="E87" s="62"/>
+      <c r="B87" s="149"/>
+      <c r="C87" s="149"/>
+      <c r="D87" s="149"/>
+      <c r="E87" s="149"/>
       <c r="F87" s="21"/>
     </row>
     <row r="88" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A88" s="54" t="s">
+      <c r="A88" s="141" t="s">
         <v>7</v>
       </c>
-      <c r="B88" s="54"/>
-      <c r="C88" s="54"/>
-      <c r="D88" s="54"/>
-      <c r="E88" s="54"/>
-      <c r="F88" s="54"/>
+      <c r="B88" s="141"/>
+      <c r="C88" s="141"/>
+      <c r="D88" s="141"/>
+      <c r="E88" s="141"/>
+      <c r="F88" s="141"/>
     </row>
     <row r="90" spans="1:6" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B90" s="59"/>
-      <c r="C90" s="60"/>
-      <c r="D90" s="60"/>
+      <c r="B90" s="146"/>
+      <c r="C90" s="147"/>
+      <c r="D90" s="147"/>
     </row>
     <row r="91" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="92" spans="1:6" x14ac:dyDescent="0.2">
@@ -4955,7 +5148,7 @@
   </dataValidations>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
-  <pageSetup paperSize="131" scale="62" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <pageSetup paperSize="131" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
   <headerFooter scaleWithDoc="0" alignWithMargins="0"/>
   <drawing r:id="rId2"/>
 </worksheet>
@@ -5104,14 +5297,14 @@
       <c r="F29" s="20"/>
     </row>
     <row r="30" spans="1:6" s="40" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="57" t="s">
+      <c r="A30" s="144" t="s">
         <v>0</v>
       </c>
-      <c r="B30" s="57"/>
-      <c r="C30" s="57"/>
-      <c r="D30" s="57"/>
-      <c r="E30" s="57"/>
-      <c r="F30" s="57"/>
+      <c r="B30" s="144"/>
+      <c r="C30" s="144"/>
+      <c r="D30" s="144"/>
+      <c r="E30" s="144"/>
+      <c r="F30" s="144"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" s="17"/>
@@ -5132,263 +5325,263 @@
     </row>
     <row r="33" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A33" s="21"/>
-      <c r="B33" s="56"/>
-      <c r="C33" s="56"/>
-      <c r="D33" s="56"/>
+      <c r="B33" s="143"/>
+      <c r="C33" s="143"/>
+      <c r="D33" s="143"/>
       <c r="E33" s="28"/>
       <c r="F33" s="21"/>
     </row>
     <row r="34" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A34" s="21"/>
-      <c r="B34" s="56" t="s">
+      <c r="B34" s="143" t="s">
         <v>79</v>
       </c>
-      <c r="C34" s="56"/>
-      <c r="D34" s="56"/>
+      <c r="C34" s="143"/>
+      <c r="D34" s="143"/>
       <c r="E34" s="28"/>
       <c r="F34" s="21"/>
     </row>
     <row r="35" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A35" s="21"/>
-      <c r="B35" s="56"/>
-      <c r="C35" s="56"/>
-      <c r="D35" s="56"/>
+      <c r="B35" s="143"/>
+      <c r="C35" s="143"/>
+      <c r="D35" s="143"/>
       <c r="E35" s="28"/>
       <c r="F35" s="21"/>
     </row>
     <row r="36" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A36" s="21"/>
-      <c r="B36" s="56" t="s">
+      <c r="B36" s="143" t="s">
         <v>80</v>
       </c>
-      <c r="C36" s="56"/>
-      <c r="D36" s="56"/>
+      <c r="C36" s="143"/>
+      <c r="D36" s="143"/>
       <c r="E36" s="28"/>
       <c r="F36" s="21"/>
     </row>
     <row r="37" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A37" s="21"/>
-      <c r="B37" s="56"/>
-      <c r="C37" s="56"/>
-      <c r="D37" s="56"/>
+      <c r="B37" s="143"/>
+      <c r="C37" s="143"/>
+      <c r="D37" s="143"/>
       <c r="E37" s="28"/>
       <c r="F37" s="21"/>
     </row>
     <row r="38" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A38" s="21"/>
-      <c r="B38" s="56" t="s">
+      <c r="B38" s="143" t="s">
         <v>81</v>
       </c>
-      <c r="C38" s="56"/>
-      <c r="D38" s="56"/>
+      <c r="C38" s="143"/>
+      <c r="D38" s="143"/>
       <c r="E38" s="28"/>
       <c r="F38" s="21"/>
     </row>
     <row r="39" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A39" s="21"/>
-      <c r="B39" s="56"/>
-      <c r="C39" s="56"/>
-      <c r="D39" s="56"/>
+      <c r="B39" s="143"/>
+      <c r="C39" s="143"/>
+      <c r="D39" s="143"/>
       <c r="E39" s="28"/>
       <c r="F39" s="21"/>
     </row>
     <row r="40" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A40" s="21"/>
-      <c r="B40" s="56"/>
-      <c r="C40" s="56"/>
-      <c r="D40" s="56"/>
+      <c r="B40" s="143"/>
+      <c r="C40" s="143"/>
+      <c r="D40" s="143"/>
       <c r="E40" s="28"/>
       <c r="F40" s="21"/>
     </row>
     <row r="41" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A41" s="21"/>
-      <c r="B41" s="56"/>
-      <c r="C41" s="56"/>
-      <c r="D41" s="56"/>
+      <c r="B41" s="143"/>
+      <c r="C41" s="143"/>
+      <c r="D41" s="143"/>
       <c r="E41" s="28"/>
       <c r="F41" s="21"/>
     </row>
     <row r="42" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A42" s="21"/>
-      <c r="B42" s="56"/>
-      <c r="C42" s="56"/>
-      <c r="D42" s="56"/>
+      <c r="B42" s="143"/>
+      <c r="C42" s="143"/>
+      <c r="D42" s="143"/>
       <c r="E42" s="28"/>
       <c r="F42" s="21"/>
     </row>
     <row r="43" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A43" s="21"/>
-      <c r="B43" s="56"/>
-      <c r="C43" s="56"/>
-      <c r="D43" s="56"/>
+      <c r="B43" s="143"/>
+      <c r="C43" s="143"/>
+      <c r="D43" s="143"/>
       <c r="E43" s="28"/>
       <c r="F43" s="21"/>
     </row>
     <row r="44" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A44" s="21"/>
-      <c r="B44" s="56"/>
-      <c r="C44" s="56"/>
-      <c r="D44" s="56"/>
+      <c r="B44" s="143"/>
+      <c r="C44" s="143"/>
+      <c r="D44" s="143"/>
       <c r="E44" s="28"/>
       <c r="F44" s="21"/>
     </row>
     <row r="45" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A45" s="21"/>
-      <c r="B45" s="56"/>
-      <c r="C45" s="56"/>
-      <c r="D45" s="56"/>
+      <c r="B45" s="143"/>
+      <c r="C45" s="143"/>
+      <c r="D45" s="143"/>
       <c r="E45" s="28"/>
       <c r="F45" s="21"/>
     </row>
     <row r="46" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A46" s="21"/>
-      <c r="B46" s="56"/>
-      <c r="C46" s="56"/>
-      <c r="D46" s="56"/>
+      <c r="B46" s="143"/>
+      <c r="C46" s="143"/>
+      <c r="D46" s="143"/>
       <c r="E46" s="28"/>
       <c r="F46" s="21"/>
     </row>
     <row r="47" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A47" s="21"/>
-      <c r="B47" s="56"/>
-      <c r="C47" s="56"/>
-      <c r="D47" s="56"/>
+      <c r="B47" s="143"/>
+      <c r="C47" s="143"/>
+      <c r="D47" s="143"/>
       <c r="E47" s="28"/>
       <c r="F47" s="21"/>
     </row>
     <row r="48" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A48" s="21"/>
-      <c r="B48" s="56"/>
-      <c r="C48" s="56"/>
-      <c r="D48" s="56"/>
+      <c r="B48" s="143"/>
+      <c r="C48" s="143"/>
+      <c r="D48" s="143"/>
       <c r="E48" s="28"/>
       <c r="F48" s="21"/>
     </row>
     <row r="49" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A49" s="21"/>
-      <c r="B49" s="56"/>
-      <c r="C49" s="56"/>
-      <c r="D49" s="56"/>
+      <c r="B49" s="143"/>
+      <c r="C49" s="143"/>
+      <c r="D49" s="143"/>
       <c r="E49" s="28"/>
       <c r="F49" s="21"/>
     </row>
     <row r="50" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A50" s="21"/>
-      <c r="B50" s="56"/>
-      <c r="C50" s="56"/>
-      <c r="D50" s="56"/>
+      <c r="B50" s="143"/>
+      <c r="C50" s="143"/>
+      <c r="D50" s="143"/>
       <c r="E50" s="28"/>
       <c r="F50" s="21"/>
     </row>
     <row r="51" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A51" s="21"/>
-      <c r="B51" s="56"/>
-      <c r="C51" s="56"/>
-      <c r="D51" s="56"/>
+      <c r="B51" s="143"/>
+      <c r="C51" s="143"/>
+      <c r="D51" s="143"/>
       <c r="E51" s="28"/>
       <c r="F51" s="21"/>
     </row>
     <row r="52" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A52" s="21"/>
-      <c r="B52" s="56"/>
-      <c r="C52" s="56"/>
-      <c r="D52" s="56"/>
+      <c r="B52" s="143"/>
+      <c r="C52" s="143"/>
+      <c r="D52" s="143"/>
       <c r="E52" s="28"/>
       <c r="F52" s="21"/>
     </row>
     <row r="53" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A53" s="21"/>
-      <c r="B53" s="56"/>
-      <c r="C53" s="56"/>
-      <c r="D53" s="56"/>
+      <c r="B53" s="143"/>
+      <c r="C53" s="143"/>
+      <c r="D53" s="143"/>
       <c r="E53" s="28"/>
       <c r="F53" s="21"/>
     </row>
     <row r="54" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A54" s="21"/>
-      <c r="B54" s="56"/>
-      <c r="C54" s="56"/>
-      <c r="D54" s="56"/>
+      <c r="B54" s="143"/>
+      <c r="C54" s="143"/>
+      <c r="D54" s="143"/>
       <c r="E54" s="28"/>
       <c r="F54" s="21"/>
     </row>
     <row r="55" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A55" s="21"/>
-      <c r="B55" s="56"/>
-      <c r="C55" s="56"/>
-      <c r="D55" s="56"/>
+      <c r="B55" s="143"/>
+      <c r="C55" s="143"/>
+      <c r="D55" s="143"/>
       <c r="E55" s="28"/>
       <c r="F55" s="21"/>
     </row>
     <row r="56" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A56" s="21"/>
-      <c r="B56" s="56"/>
-      <c r="C56" s="56"/>
-      <c r="D56" s="56"/>
+      <c r="B56" s="143"/>
+      <c r="C56" s="143"/>
+      <c r="D56" s="143"/>
       <c r="E56" s="28"/>
       <c r="F56" s="21"/>
     </row>
     <row r="57" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A57" s="21"/>
-      <c r="B57" s="56"/>
-      <c r="C57" s="56"/>
-      <c r="D57" s="56"/>
+      <c r="B57" s="143"/>
+      <c r="C57" s="143"/>
+      <c r="D57" s="143"/>
       <c r="E57" s="28"/>
       <c r="F57" s="21"/>
     </row>
     <row r="58" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A58" s="21"/>
-      <c r="B58" s="56"/>
-      <c r="C58" s="56"/>
-      <c r="D58" s="56"/>
+      <c r="B58" s="143"/>
+      <c r="C58" s="143"/>
+      <c r="D58" s="143"/>
       <c r="E58" s="28"/>
       <c r="F58" s="21"/>
     </row>
     <row r="59" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A59" s="21"/>
-      <c r="B59" s="56"/>
-      <c r="C59" s="56"/>
-      <c r="D59" s="56"/>
+      <c r="B59" s="143"/>
+      <c r="C59" s="143"/>
+      <c r="D59" s="143"/>
       <c r="E59" s="28"/>
       <c r="F59" s="21"/>
     </row>
     <row r="60" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A60" s="21"/>
-      <c r="B60" s="56"/>
-      <c r="C60" s="56"/>
-      <c r="D60" s="56"/>
+      <c r="B60" s="143"/>
+      <c r="C60" s="143"/>
+      <c r="D60" s="143"/>
       <c r="E60" s="28"/>
       <c r="F60" s="21"/>
     </row>
     <row r="61" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A61" s="21"/>
-      <c r="B61" s="56"/>
-      <c r="C61" s="56"/>
-      <c r="D61" s="56"/>
+      <c r="B61" s="143"/>
+      <c r="C61" s="143"/>
+      <c r="D61" s="143"/>
       <c r="E61" s="28"/>
       <c r="F61" s="21"/>
     </row>
     <row r="62" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A62" s="21"/>
-      <c r="B62" s="56"/>
-      <c r="C62" s="56"/>
-      <c r="D62" s="56"/>
+      <c r="B62" s="143"/>
+      <c r="C62" s="143"/>
+      <c r="D62" s="143"/>
       <c r="E62" s="28"/>
       <c r="F62" s="21"/>
     </row>
     <row r="63" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A63" s="21"/>
-      <c r="B63" s="56"/>
-      <c r="C63" s="56"/>
-      <c r="D63" s="56"/>
+      <c r="B63" s="143"/>
+      <c r="C63" s="143"/>
+      <c r="D63" s="143"/>
       <c r="E63" s="28"/>
       <c r="F63" s="21"/>
     </row>
     <row r="64" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A64" s="21"/>
-      <c r="B64" s="56"/>
-      <c r="C64" s="56"/>
-      <c r="D64" s="56"/>
+      <c r="B64" s="143"/>
+      <c r="C64" s="143"/>
+      <c r="D64" s="143"/>
       <c r="E64" s="28"/>
       <c r="F64" s="21"/>
     </row>
@@ -5418,17 +5611,17 @@
     </row>
     <row r="67" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A67" s="21"/>
-      <c r="B67" s="56"/>
-      <c r="C67" s="56"/>
-      <c r="D67" s="56"/>
+      <c r="B67" s="143"/>
+      <c r="C67" s="143"/>
+      <c r="D67" s="143"/>
       <c r="E67" s="28"/>
       <c r="F67" s="21"/>
     </row>
     <row r="68" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="21"/>
-      <c r="B68" s="56"/>
-      <c r="C68" s="56"/>
-      <c r="D68" s="56"/>
+      <c r="B68" s="143"/>
+      <c r="C68" s="143"/>
+      <c r="D68" s="143"/>
       <c r="E68" s="28"/>
       <c r="F68" s="21"/>
     </row>
@@ -5535,19 +5728,19 @@
     </row>
     <row r="77" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A77" s="21"/>
-      <c r="B77" s="58"/>
-      <c r="C77" s="58"/>
-      <c r="D77" s="58"/>
+      <c r="B77" s="145"/>
+      <c r="C77" s="145"/>
+      <c r="D77" s="145"/>
       <c r="E77" s="36"/>
       <c r="F77" s="21"/>
     </row>
     <row r="78" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A78" s="21"/>
-      <c r="B78" s="63" t="s">
+      <c r="B78" s="150" t="s">
         <v>18</v>
       </c>
-      <c r="C78" s="63"/>
-      <c r="D78" s="63"/>
+      <c r="C78" s="150"/>
+      <c r="D78" s="150"/>
       <c r="E78" s="36">
         <v>0</v>
       </c>
@@ -5555,9 +5748,9 @@
     </row>
     <row r="79" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A79" s="21"/>
-      <c r="B79" s="58"/>
-      <c r="C79" s="58"/>
-      <c r="D79" s="58"/>
+      <c r="B79" s="145"/>
+      <c r="C79" s="145"/>
+      <c r="D79" s="145"/>
       <c r="E79" s="36"/>
       <c r="F79" s="21"/>
     </row>
@@ -5592,31 +5785,31 @@
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A83" s="21"/>
-      <c r="B83" s="61"/>
-      <c r="C83" s="61"/>
-      <c r="D83" s="61"/>
-      <c r="E83" s="61"/>
+      <c r="B83" s="148"/>
+      <c r="C83" s="148"/>
+      <c r="D83" s="148"/>
+      <c r="E83" s="148"/>
       <c r="F83" s="21"/>
     </row>
     <row r="84" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A84" s="55" t="s">
+      <c r="A84" s="142" t="s">
         <v>29</v>
       </c>
-      <c r="B84" s="55"/>
-      <c r="C84" s="55"/>
-      <c r="D84" s="55"/>
-      <c r="E84" s="55"/>
-      <c r="F84" s="55"/>
+      <c r="B84" s="142"/>
+      <c r="C84" s="142"/>
+      <c r="D84" s="142"/>
+      <c r="E84" s="142"/>
+      <c r="F84" s="142"/>
     </row>
     <row r="85" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A85" s="64" t="s">
+      <c r="A85" s="151" t="s">
         <v>30</v>
       </c>
-      <c r="B85" s="64"/>
-      <c r="C85" s="64"/>
-      <c r="D85" s="64"/>
-      <c r="E85" s="64"/>
-      <c r="F85" s="64"/>
+      <c r="B85" s="151"/>
+      <c r="C85" s="151"/>
+      <c r="D85" s="151"/>
+      <c r="E85" s="151"/>
+      <c r="F85" s="151"/>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A86" s="21"/>
@@ -5628,26 +5821,26 @@
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A87" s="21"/>
-      <c r="B87" s="62"/>
-      <c r="C87" s="62"/>
-      <c r="D87" s="62"/>
-      <c r="E87" s="62"/>
+      <c r="B87" s="149"/>
+      <c r="C87" s="149"/>
+      <c r="D87" s="149"/>
+      <c r="E87" s="149"/>
       <c r="F87" s="21"/>
     </row>
     <row r="88" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A88" s="54" t="s">
+      <c r="A88" s="141" t="s">
         <v>7</v>
       </c>
-      <c r="B88" s="54"/>
-      <c r="C88" s="54"/>
-      <c r="D88" s="54"/>
-      <c r="E88" s="54"/>
-      <c r="F88" s="54"/>
+      <c r="B88" s="141"/>
+      <c r="C88" s="141"/>
+      <c r="D88" s="141"/>
+      <c r="E88" s="141"/>
+      <c r="F88" s="141"/>
     </row>
     <row r="90" spans="1:6" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B90" s="59"/>
-      <c r="C90" s="60"/>
-      <c r="D90" s="60"/>
+      <c r="B90" s="146"/>
+      <c r="C90" s="147"/>
+      <c r="D90" s="147"/>
     </row>
     <row r="91" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="92" spans="1:6" x14ac:dyDescent="0.2">
@@ -5709,7 +5902,7 @@
   </dataValidations>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
-  <pageSetup paperSize="131" scale="62" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <pageSetup paperSize="131" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
   <headerFooter scaleWithDoc="0" alignWithMargins="0"/>
   <drawing r:id="rId2"/>
 </worksheet>
@@ -5858,14 +6051,14 @@
       <c r="F29" s="20"/>
     </row>
     <row r="30" spans="1:6" s="40" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="57" t="s">
+      <c r="A30" s="144" t="s">
         <v>0</v>
       </c>
-      <c r="B30" s="57"/>
-      <c r="C30" s="57"/>
-      <c r="D30" s="57"/>
-      <c r="E30" s="57"/>
-      <c r="F30" s="57"/>
+      <c r="B30" s="144"/>
+      <c r="C30" s="144"/>
+      <c r="D30" s="144"/>
+      <c r="E30" s="144"/>
+      <c r="F30" s="144"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" s="17"/>
@@ -5886,257 +6079,257 @@
     </row>
     <row r="33" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A33" s="21"/>
-      <c r="B33" s="56"/>
-      <c r="C33" s="56"/>
-      <c r="D33" s="56"/>
+      <c r="B33" s="143"/>
+      <c r="C33" s="143"/>
+      <c r="D33" s="143"/>
       <c r="E33" s="28"/>
       <c r="F33" s="21"/>
     </row>
     <row r="34" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="21"/>
-      <c r="B34" s="56" t="s">
+      <c r="B34" s="143" t="s">
         <v>85</v>
       </c>
-      <c r="C34" s="56"/>
-      <c r="D34" s="56"/>
+      <c r="C34" s="143"/>
+      <c r="D34" s="143"/>
       <c r="E34" s="28"/>
       <c r="F34" s="21"/>
     </row>
     <row r="35" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A35" s="21"/>
-      <c r="B35" s="56"/>
-      <c r="C35" s="56"/>
-      <c r="D35" s="56"/>
+      <c r="B35" s="143"/>
+      <c r="C35" s="143"/>
+      <c r="D35" s="143"/>
       <c r="E35" s="28"/>
       <c r="F35" s="21"/>
     </row>
     <row r="36" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A36" s="21"/>
-      <c r="B36" s="56" t="s">
+      <c r="B36" s="143" t="s">
         <v>49</v>
       </c>
-      <c r="C36" s="56"/>
-      <c r="D36" s="56"/>
+      <c r="C36" s="143"/>
+      <c r="D36" s="143"/>
       <c r="E36" s="28"/>
       <c r="F36" s="21"/>
     </row>
     <row r="37" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A37" s="21"/>
-      <c r="B37" s="56"/>
-      <c r="C37" s="56"/>
-      <c r="D37" s="56"/>
+      <c r="B37" s="143"/>
+      <c r="C37" s="143"/>
+      <c r="D37" s="143"/>
       <c r="E37" s="28"/>
       <c r="F37" s="21"/>
     </row>
     <row r="38" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A38" s="21"/>
-      <c r="B38" s="56" t="s">
+      <c r="B38" s="143" t="s">
         <v>86</v>
       </c>
-      <c r="C38" s="56"/>
-      <c r="D38" s="56"/>
+      <c r="C38" s="143"/>
+      <c r="D38" s="143"/>
       <c r="E38" s="28"/>
       <c r="F38" s="21"/>
     </row>
     <row r="39" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A39" s="21"/>
-      <c r="B39" s="56"/>
-      <c r="C39" s="56"/>
-      <c r="D39" s="56"/>
+      <c r="B39" s="143"/>
+      <c r="C39" s="143"/>
+      <c r="D39" s="143"/>
       <c r="E39" s="28"/>
       <c r="F39" s="21"/>
     </row>
     <row r="40" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A40" s="21"/>
-      <c r="B40" s="56" t="s">
+      <c r="B40" s="143" t="s">
         <v>87</v>
       </c>
-      <c r="C40" s="56"/>
-      <c r="D40" s="56"/>
+      <c r="C40" s="143"/>
+      <c r="D40" s="143"/>
       <c r="E40" s="28"/>
       <c r="F40" s="21"/>
     </row>
     <row r="41" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A41" s="21"/>
-      <c r="B41" s="56"/>
-      <c r="C41" s="56"/>
-      <c r="D41" s="56"/>
+      <c r="B41" s="143"/>
+      <c r="C41" s="143"/>
+      <c r="D41" s="143"/>
       <c r="E41" s="28"/>
       <c r="F41" s="21"/>
     </row>
     <row r="42" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A42" s="21"/>
-      <c r="B42" s="56"/>
-      <c r="C42" s="56"/>
-      <c r="D42" s="56"/>
+      <c r="B42" s="143"/>
+      <c r="C42" s="143"/>
+      <c r="D42" s="143"/>
       <c r="E42" s="28"/>
       <c r="F42" s="21"/>
     </row>
     <row r="43" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A43" s="21"/>
-      <c r="B43" s="56"/>
-      <c r="C43" s="56"/>
-      <c r="D43" s="56"/>
+      <c r="B43" s="143"/>
+      <c r="C43" s="143"/>
+      <c r="D43" s="143"/>
       <c r="E43" s="28"/>
       <c r="F43" s="21"/>
     </row>
     <row r="44" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A44" s="21"/>
-      <c r="B44" s="56"/>
-      <c r="C44" s="56"/>
-      <c r="D44" s="56"/>
+      <c r="B44" s="143"/>
+      <c r="C44" s="143"/>
+      <c r="D44" s="143"/>
       <c r="E44" s="28"/>
       <c r="F44" s="21"/>
     </row>
     <row r="45" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A45" s="21"/>
-      <c r="B45" s="56"/>
-      <c r="C45" s="56"/>
-      <c r="D45" s="56"/>
+      <c r="B45" s="143"/>
+      <c r="C45" s="143"/>
+      <c r="D45" s="143"/>
       <c r="E45" s="28"/>
       <c r="F45" s="21"/>
     </row>
     <row r="46" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A46" s="21"/>
-      <c r="B46" s="56"/>
-      <c r="C46" s="56"/>
-      <c r="D46" s="56"/>
+      <c r="B46" s="143"/>
+      <c r="C46" s="143"/>
+      <c r="D46" s="143"/>
       <c r="E46" s="28"/>
       <c r="F46" s="21"/>
     </row>
     <row r="47" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A47" s="21"/>
-      <c r="B47" s="56"/>
-      <c r="C47" s="56"/>
-      <c r="D47" s="56"/>
+      <c r="B47" s="143"/>
+      <c r="C47" s="143"/>
+      <c r="D47" s="143"/>
       <c r="E47" s="28"/>
       <c r="F47" s="21"/>
     </row>
     <row r="48" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A48" s="21"/>
-      <c r="B48" s="56"/>
-      <c r="C48" s="56"/>
-      <c r="D48" s="56"/>
+      <c r="B48" s="143"/>
+      <c r="C48" s="143"/>
+      <c r="D48" s="143"/>
       <c r="E48" s="28"/>
       <c r="F48" s="21"/>
     </row>
     <row r="49" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A49" s="21"/>
-      <c r="B49" s="56"/>
-      <c r="C49" s="56"/>
-      <c r="D49" s="56"/>
+      <c r="B49" s="143"/>
+      <c r="C49" s="143"/>
+      <c r="D49" s="143"/>
       <c r="E49" s="28"/>
       <c r="F49" s="21"/>
     </row>
     <row r="50" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A50" s="21"/>
-      <c r="B50" s="56"/>
-      <c r="C50" s="56"/>
-      <c r="D50" s="56"/>
+      <c r="B50" s="143"/>
+      <c r="C50" s="143"/>
+      <c r="D50" s="143"/>
       <c r="E50" s="28"/>
       <c r="F50" s="21"/>
     </row>
     <row r="51" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A51" s="21"/>
-      <c r="B51" s="56"/>
-      <c r="C51" s="56"/>
-      <c r="D51" s="56"/>
+      <c r="B51" s="143"/>
+      <c r="C51" s="143"/>
+      <c r="D51" s="143"/>
       <c r="E51" s="28"/>
       <c r="F51" s="21"/>
     </row>
     <row r="52" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A52" s="21"/>
-      <c r="B52" s="56"/>
-      <c r="C52" s="56"/>
-      <c r="D52" s="56"/>
+      <c r="B52" s="143"/>
+      <c r="C52" s="143"/>
+      <c r="D52" s="143"/>
       <c r="E52" s="28"/>
       <c r="F52" s="21"/>
     </row>
     <row r="53" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A53" s="21"/>
-      <c r="B53" s="56"/>
-      <c r="C53" s="56"/>
-      <c r="D53" s="56"/>
+      <c r="B53" s="143"/>
+      <c r="C53" s="143"/>
+      <c r="D53" s="143"/>
       <c r="E53" s="28"/>
       <c r="F53" s="21"/>
     </row>
     <row r="54" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A54" s="21"/>
-      <c r="B54" s="56"/>
-      <c r="C54" s="56"/>
-      <c r="D54" s="56"/>
+      <c r="B54" s="143"/>
+      <c r="C54" s="143"/>
+      <c r="D54" s="143"/>
       <c r="E54" s="28"/>
       <c r="F54" s="21"/>
     </row>
     <row r="55" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A55" s="21"/>
-      <c r="B55" s="56"/>
-      <c r="C55" s="56"/>
-      <c r="D55" s="56"/>
+      <c r="B55" s="143"/>
+      <c r="C55" s="143"/>
+      <c r="D55" s="143"/>
       <c r="E55" s="28"/>
       <c r="F55" s="21"/>
     </row>
     <row r="56" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A56" s="21"/>
-      <c r="B56" s="56"/>
-      <c r="C56" s="56"/>
-      <c r="D56" s="56"/>
+      <c r="B56" s="143"/>
+      <c r="C56" s="143"/>
+      <c r="D56" s="143"/>
       <c r="E56" s="28"/>
       <c r="F56" s="21"/>
     </row>
     <row r="57" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A57" s="21"/>
-      <c r="B57" s="56"/>
-      <c r="C57" s="56"/>
-      <c r="D57" s="56"/>
+      <c r="B57" s="143"/>
+      <c r="C57" s="143"/>
+      <c r="D57" s="143"/>
       <c r="E57" s="28"/>
       <c r="F57" s="21"/>
     </row>
     <row r="58" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A58" s="21"/>
-      <c r="B58" s="56"/>
-      <c r="C58" s="56"/>
-      <c r="D58" s="56"/>
+      <c r="B58" s="143"/>
+      <c r="C58" s="143"/>
+      <c r="D58" s="143"/>
       <c r="E58" s="28"/>
       <c r="F58" s="21"/>
     </row>
     <row r="59" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A59" s="21"/>
-      <c r="B59" s="56"/>
-      <c r="C59" s="56"/>
-      <c r="D59" s="56"/>
+      <c r="B59" s="143"/>
+      <c r="C59" s="143"/>
+      <c r="D59" s="143"/>
       <c r="E59" s="28"/>
       <c r="F59" s="21"/>
     </row>
     <row r="60" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A60" s="21"/>
-      <c r="B60" s="56"/>
-      <c r="C60" s="56"/>
-      <c r="D60" s="56"/>
+      <c r="B60" s="143"/>
+      <c r="C60" s="143"/>
+      <c r="D60" s="143"/>
       <c r="E60" s="28"/>
       <c r="F60" s="21"/>
     </row>
     <row r="61" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A61" s="21"/>
-      <c r="B61" s="56"/>
-      <c r="C61" s="56"/>
-      <c r="D61" s="56"/>
+      <c r="B61" s="143"/>
+      <c r="C61" s="143"/>
+      <c r="D61" s="143"/>
       <c r="E61" s="28"/>
       <c r="F61" s="21"/>
     </row>
     <row r="62" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A62" s="21"/>
-      <c r="B62" s="56"/>
-      <c r="C62" s="56"/>
-      <c r="D62" s="56"/>
+      <c r="B62" s="143"/>
+      <c r="C62" s="143"/>
+      <c r="D62" s="143"/>
       <c r="E62" s="28"/>
       <c r="F62" s="21"/>
     </row>
     <row r="63" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A63" s="21"/>
-      <c r="B63" s="56"/>
-      <c r="C63" s="56"/>
-      <c r="D63" s="56"/>
+      <c r="B63" s="143"/>
+      <c r="C63" s="143"/>
+      <c r="D63" s="143"/>
       <c r="E63" s="28"/>
       <c r="F63" s="21"/>
     </row>
@@ -6166,17 +6359,17 @@
     </row>
     <row r="66" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A66" s="21"/>
-      <c r="B66" s="56"/>
-      <c r="C66" s="56"/>
-      <c r="D66" s="56"/>
+      <c r="B66" s="143"/>
+      <c r="C66" s="143"/>
+      <c r="D66" s="143"/>
       <c r="E66" s="28"/>
       <c r="F66" s="21"/>
     </row>
     <row r="67" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="21"/>
-      <c r="B67" s="56"/>
-      <c r="C67" s="56"/>
-      <c r="D67" s="56"/>
+      <c r="B67" s="143"/>
+      <c r="C67" s="143"/>
+      <c r="D67" s="143"/>
       <c r="E67" s="28"/>
       <c r="F67" s="21"/>
     </row>
@@ -6283,19 +6476,19 @@
     </row>
     <row r="76" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A76" s="21"/>
-      <c r="B76" s="58"/>
-      <c r="C76" s="58"/>
-      <c r="D76" s="58"/>
+      <c r="B76" s="145"/>
+      <c r="C76" s="145"/>
+      <c r="D76" s="145"/>
       <c r="E76" s="36"/>
       <c r="F76" s="21"/>
     </row>
     <row r="77" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A77" s="21"/>
-      <c r="B77" s="63" t="s">
+      <c r="B77" s="150" t="s">
         <v>18</v>
       </c>
-      <c r="C77" s="63"/>
-      <c r="D77" s="63"/>
+      <c r="C77" s="150"/>
+      <c r="D77" s="150"/>
       <c r="E77" s="36">
         <v>0</v>
       </c>
@@ -6303,9 +6496,9 @@
     </row>
     <row r="78" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A78" s="21"/>
-      <c r="B78" s="58"/>
-      <c r="C78" s="58"/>
-      <c r="D78" s="58"/>
+      <c r="B78" s="145"/>
+      <c r="C78" s="145"/>
+      <c r="D78" s="145"/>
       <c r="E78" s="36"/>
       <c r="F78" s="21"/>
     </row>
@@ -6340,31 +6533,31 @@
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A82" s="21"/>
-      <c r="B82" s="61"/>
-      <c r="C82" s="61"/>
-      <c r="D82" s="61"/>
-      <c r="E82" s="61"/>
+      <c r="B82" s="148"/>
+      <c r="C82" s="148"/>
+      <c r="D82" s="148"/>
+      <c r="E82" s="148"/>
       <c r="F82" s="21"/>
     </row>
     <row r="83" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A83" s="55" t="s">
+      <c r="A83" s="142" t="s">
         <v>29</v>
       </c>
-      <c r="B83" s="55"/>
-      <c r="C83" s="55"/>
-      <c r="D83" s="55"/>
-      <c r="E83" s="55"/>
-      <c r="F83" s="55"/>
+      <c r="B83" s="142"/>
+      <c r="C83" s="142"/>
+      <c r="D83" s="142"/>
+      <c r="E83" s="142"/>
+      <c r="F83" s="142"/>
     </row>
     <row r="84" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A84" s="64" t="s">
+      <c r="A84" s="151" t="s">
         <v>30</v>
       </c>
-      <c r="B84" s="64"/>
-      <c r="C84" s="64"/>
-      <c r="D84" s="64"/>
-      <c r="E84" s="64"/>
-      <c r="F84" s="64"/>
+      <c r="B84" s="151"/>
+      <c r="C84" s="151"/>
+      <c r="D84" s="151"/>
+      <c r="E84" s="151"/>
+      <c r="F84" s="151"/>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A85" s="21"/>
@@ -6376,26 +6569,26 @@
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A86" s="21"/>
-      <c r="B86" s="62"/>
-      <c r="C86" s="62"/>
-      <c r="D86" s="62"/>
-      <c r="E86" s="62"/>
+      <c r="B86" s="149"/>
+      <c r="C86" s="149"/>
+      <c r="D86" s="149"/>
+      <c r="E86" s="149"/>
       <c r="F86" s="21"/>
     </row>
     <row r="87" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A87" s="54" t="s">
+      <c r="A87" s="141" t="s">
         <v>7</v>
       </c>
-      <c r="B87" s="54"/>
-      <c r="C87" s="54"/>
-      <c r="D87" s="54"/>
-      <c r="E87" s="54"/>
-      <c r="F87" s="54"/>
+      <c r="B87" s="141"/>
+      <c r="C87" s="141"/>
+      <c r="D87" s="141"/>
+      <c r="E87" s="141"/>
+      <c r="F87" s="141"/>
     </row>
     <row r="89" spans="1:6" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B89" s="59"/>
-      <c r="C89" s="60"/>
-      <c r="D89" s="60"/>
+      <c r="B89" s="146"/>
+      <c r="C89" s="147"/>
+      <c r="D89" s="147"/>
     </row>
     <row r="90" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="91" spans="1:6" x14ac:dyDescent="0.2">
@@ -6456,7 +6649,7 @@
   </dataValidations>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
-  <pageSetup paperSize="131" scale="62" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <pageSetup paperSize="131" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
   <headerFooter scaleWithDoc="0" alignWithMargins="0"/>
   <drawing r:id="rId2"/>
 </worksheet>
@@ -6483,10 +6676,10 @@
   <sheetData>
     <row r="1" spans="1:4" ht="22.5" x14ac:dyDescent="0.3">
       <c r="A1" s="5"/>
-      <c r="B1" s="65" t="s">
+      <c r="B1" s="152" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="65"/>
+      <c r="C1" s="152"/>
       <c r="D1" s="12"/>
     </row>
     <row r="2" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -6851,822 +7044,822 @@
   </sheetPr>
   <dimension ref="A1:F88"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A30" sqref="A30:E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.140625" style="66" customWidth="1"/>
-    <col min="2" max="2" width="120" style="66" customWidth="1"/>
-    <col min="3" max="3" width="11.5703125" style="66" customWidth="1"/>
-    <col min="4" max="4" width="17.5703125" style="66" customWidth="1"/>
-    <col min="5" max="5" width="17.7109375" style="66" customWidth="1"/>
-    <col min="6" max="6" width="10.5703125" style="66" customWidth="1"/>
-    <col min="7" max="16384" width="11.42578125" style="66"/>
+    <col min="1" max="1" width="5.140625" style="54" customWidth="1"/>
+    <col min="2" max="2" width="120" style="54" customWidth="1"/>
+    <col min="3" max="3" width="11.5703125" style="54" customWidth="1"/>
+    <col min="4" max="4" width="17.5703125" style="54" customWidth="1"/>
+    <col min="5" max="5" width="17.7109375" style="54" customWidth="1"/>
+    <col min="6" max="6" width="10.5703125" style="54" customWidth="1"/>
+    <col min="7" max="16384" width="11.42578125" style="54"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="138"/>
-      <c r="B1" s="138"/>
-      <c r="C1" s="138"/>
-      <c r="D1" s="136"/>
-      <c r="E1" s="135"/>
-      <c r="F1" s="135"/>
+      <c r="A1" s="118"/>
+      <c r="B1" s="118"/>
+      <c r="C1" s="118"/>
+      <c r="D1" s="116"/>
+      <c r="E1" s="115"/>
+      <c r="F1" s="115"/>
     </row>
     <row r="2" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="138"/>
-      <c r="B2" s="138"/>
-      <c r="C2" s="138"/>
-      <c r="D2" s="136"/>
-      <c r="E2" s="135"/>
-      <c r="F2" s="135"/>
+      <c r="A2" s="118"/>
+      <c r="B2" s="118"/>
+      <c r="C2" s="118"/>
+      <c r="D2" s="116"/>
+      <c r="E2" s="115"/>
+      <c r="F2" s="115"/>
     </row>
     <row r="3" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="138"/>
-      <c r="B3" s="138"/>
-      <c r="C3" s="138"/>
-      <c r="D3" s="136"/>
-      <c r="E3" s="135"/>
-      <c r="F3" s="135"/>
+      <c r="A3" s="118"/>
+      <c r="B3" s="118"/>
+      <c r="C3" s="118"/>
+      <c r="D3" s="116"/>
+      <c r="E3" s="115"/>
+      <c r="F3" s="115"/>
     </row>
     <row r="4" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="138"/>
-      <c r="B4" s="138"/>
-      <c r="C4" s="138"/>
-      <c r="D4" s="136"/>
-      <c r="E4" s="135"/>
-      <c r="F4" s="135"/>
+      <c r="A4" s="118"/>
+      <c r="B4" s="118"/>
+      <c r="C4" s="118"/>
+      <c r="D4" s="116"/>
+      <c r="E4" s="115"/>
+      <c r="F4" s="115"/>
     </row>
     <row r="5" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="138"/>
-      <c r="B5" s="138"/>
-      <c r="C5" s="138"/>
-      <c r="D5" s="136"/>
-      <c r="E5" s="135"/>
-      <c r="F5" s="135"/>
+      <c r="A5" s="118"/>
+      <c r="B5" s="118"/>
+      <c r="C5" s="118"/>
+      <c r="D5" s="116"/>
+      <c r="E5" s="115"/>
+      <c r="F5" s="115"/>
     </row>
     <row r="6" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="138"/>
-      <c r="B6" s="138"/>
-      <c r="C6" s="138"/>
-      <c r="D6" s="136"/>
-      <c r="E6" s="135"/>
-      <c r="F6" s="135"/>
+      <c r="A6" s="118"/>
+      <c r="B6" s="118"/>
+      <c r="C6" s="118"/>
+      <c r="D6" s="116"/>
+      <c r="E6" s="115"/>
+      <c r="F6" s="115"/>
     </row>
     <row r="7" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="138"/>
-      <c r="B7" s="138"/>
-      <c r="C7" s="138"/>
-      <c r="D7" s="136"/>
-      <c r="E7" s="135"/>
-      <c r="F7" s="135"/>
+      <c r="A7" s="118"/>
+      <c r="B7" s="118"/>
+      <c r="C7" s="118"/>
+      <c r="D7" s="116"/>
+      <c r="E7" s="115"/>
+      <c r="F7" s="115"/>
     </row>
     <row r="8" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="138"/>
-      <c r="B8" s="138"/>
-      <c r="C8" s="138"/>
-      <c r="D8" s="136"/>
-      <c r="E8" s="135"/>
-      <c r="F8" s="135"/>
+      <c r="A8" s="118"/>
+      <c r="B8" s="118"/>
+      <c r="C8" s="118"/>
+      <c r="D8" s="116"/>
+      <c r="E8" s="115"/>
+      <c r="F8" s="115"/>
     </row>
     <row r="9" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="138"/>
-      <c r="B9" s="138"/>
-      <c r="C9" s="138"/>
-      <c r="D9" s="136"/>
-      <c r="E9" s="135"/>
-      <c r="F9" s="135"/>
+      <c r="A9" s="118"/>
+      <c r="B9" s="118"/>
+      <c r="C9" s="118"/>
+      <c r="D9" s="116"/>
+      <c r="E9" s="115"/>
+      <c r="F9" s="115"/>
     </row>
     <row r="10" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="138"/>
-      <c r="B10" s="138"/>
-      <c r="C10" s="138"/>
-      <c r="D10" s="136"/>
-      <c r="E10" s="135"/>
-      <c r="F10" s="135"/>
+      <c r="A10" s="118"/>
+      <c r="B10" s="118"/>
+      <c r="C10" s="118"/>
+      <c r="D10" s="116"/>
+      <c r="E10" s="115"/>
+      <c r="F10" s="115"/>
     </row>
     <row r="11" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="138"/>
-      <c r="B11" s="138"/>
-      <c r="C11" s="138"/>
-      <c r="D11" s="136"/>
-      <c r="E11" s="135"/>
-      <c r="F11" s="135"/>
+      <c r="A11" s="118"/>
+      <c r="B11" s="118"/>
+      <c r="C11" s="118"/>
+      <c r="D11" s="116"/>
+      <c r="E11" s="115"/>
+      <c r="F11" s="115"/>
     </row>
     <row r="12" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="138"/>
-      <c r="B12" s="137"/>
-      <c r="C12" s="137"/>
-      <c r="D12" s="136"/>
-      <c r="E12" s="135"/>
-      <c r="F12" s="135"/>
+      <c r="A12" s="118"/>
+      <c r="B12" s="117"/>
+      <c r="C12" s="117"/>
+      <c r="D12" s="116"/>
+      <c r="E12" s="115"/>
+      <c r="F12" s="115"/>
     </row>
     <row r="13" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="138"/>
-      <c r="B13" s="137"/>
-      <c r="C13" s="137"/>
-      <c r="D13" s="136"/>
-      <c r="E13" s="135"/>
-      <c r="F13" s="135"/>
+      <c r="A13" s="118"/>
+      <c r="B13" s="117"/>
+      <c r="C13" s="117"/>
+      <c r="D13" s="116"/>
+      <c r="E13" s="115"/>
+      <c r="F13" s="115"/>
     </row>
     <row r="14" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="138"/>
-      <c r="B14" s="137"/>
-      <c r="C14" s="137"/>
-      <c r="D14" s="136"/>
-      <c r="E14" s="135"/>
-      <c r="F14" s="135"/>
+      <c r="A14" s="118"/>
+      <c r="B14" s="117"/>
+      <c r="C14" s="117"/>
+      <c r="D14" s="116"/>
+      <c r="E14" s="115"/>
+      <c r="F14" s="115"/>
     </row>
     <row r="15" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="138"/>
-      <c r="B15" s="137"/>
-      <c r="C15" s="137"/>
-      <c r="D15" s="136"/>
-      <c r="E15" s="135"/>
-      <c r="F15" s="135"/>
+      <c r="A15" s="118"/>
+      <c r="B15" s="117"/>
+      <c r="C15" s="117"/>
+      <c r="D15" s="116"/>
+      <c r="E15" s="115"/>
+      <c r="F15" s="115"/>
     </row>
     <row r="16" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="138"/>
-      <c r="B16" s="137"/>
-      <c r="C16" s="137"/>
-      <c r="D16" s="136"/>
-      <c r="E16" s="135"/>
-      <c r="F16" s="135"/>
+      <c r="A16" s="118"/>
+      <c r="B16" s="117"/>
+      <c r="C16" s="117"/>
+      <c r="D16" s="116"/>
+      <c r="E16" s="115"/>
+      <c r="F16" s="115"/>
     </row>
     <row r="17" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="138"/>
-      <c r="B17" s="137"/>
-      <c r="C17" s="137"/>
-      <c r="D17" s="136"/>
-      <c r="E17" s="135"/>
-      <c r="F17" s="135"/>
+      <c r="A17" s="118"/>
+      <c r="B17" s="117"/>
+      <c r="C17" s="117"/>
+      <c r="D17" s="116"/>
+      <c r="E17" s="115"/>
+      <c r="F17" s="115"/>
     </row>
     <row r="18" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="138"/>
-      <c r="B18" s="137"/>
-      <c r="C18" s="137"/>
-      <c r="D18" s="136"/>
-      <c r="E18" s="135"/>
-      <c r="F18" s="135"/>
+      <c r="A18" s="118"/>
+      <c r="B18" s="117"/>
+      <c r="C18" s="117"/>
+      <c r="D18" s="116"/>
+      <c r="E18" s="115"/>
+      <c r="F18" s="115"/>
     </row>
     <row r="19" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="138"/>
-      <c r="B19" s="137"/>
-      <c r="C19" s="137"/>
-      <c r="D19" s="136"/>
-      <c r="E19" s="135"/>
-      <c r="F19" s="135"/>
+      <c r="A19" s="118"/>
+      <c r="B19" s="117"/>
+      <c r="C19" s="117"/>
+      <c r="D19" s="116"/>
+      <c r="E19" s="115"/>
+      <c r="F19" s="115"/>
     </row>
     <row r="20" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="138"/>
-      <c r="B20" s="137"/>
-      <c r="C20" s="137"/>
-      <c r="D20" s="136"/>
-      <c r="E20" s="135"/>
-      <c r="F20" s="135"/>
+      <c r="A20" s="118"/>
+      <c r="B20" s="117"/>
+      <c r="C20" s="117"/>
+      <c r="D20" s="116"/>
+      <c r="E20" s="115"/>
+      <c r="F20" s="115"/>
     </row>
     <row r="21" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="78"/>
-      <c r="B21" s="96" t="s">
+      <c r="A21" s="61"/>
+      <c r="B21" s="77" t="s">
         <v>102</v>
       </c>
-      <c r="C21" s="96"/>
-      <c r="D21" s="77"/>
-      <c r="E21" s="76"/>
-      <c r="F21" s="76"/>
+      <c r="C21" s="77"/>
+      <c r="D21" s="60"/>
+      <c r="E21" s="59"/>
+      <c r="F21" s="59"/>
     </row>
     <row r="22" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="78"/>
-      <c r="B22" s="78"/>
-      <c r="C22" s="78"/>
-      <c r="D22" s="77"/>
-      <c r="E22" s="76"/>
-      <c r="F22" s="76"/>
+      <c r="A22" s="61"/>
+      <c r="B22" s="61"/>
+      <c r="C22" s="61"/>
+      <c r="D22" s="60"/>
+      <c r="E22" s="59"/>
+      <c r="F22" s="59"/>
     </row>
     <row r="23" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="78"/>
-      <c r="B23" s="96" t="s">
+      <c r="A23" s="61"/>
+      <c r="B23" s="77" t="s">
         <v>101</v>
       </c>
-      <c r="C23" s="96"/>
-      <c r="D23" s="77"/>
-      <c r="E23" s="76"/>
-      <c r="F23" s="76"/>
+      <c r="C23" s="77"/>
+      <c r="D23" s="60"/>
+      <c r="E23" s="59"/>
+      <c r="F23" s="59"/>
     </row>
     <row r="24" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="78"/>
-      <c r="B24" s="134" t="s">
+      <c r="A24" s="61"/>
+      <c r="B24" s="114" t="s">
         <v>100</v>
       </c>
-      <c r="C24" s="78"/>
-      <c r="D24" s="77"/>
-      <c r="E24" s="76"/>
-      <c r="F24" s="76"/>
+      <c r="C24" s="61"/>
+      <c r="D24" s="60"/>
+      <c r="E24" s="59"/>
+      <c r="F24" s="59"/>
     </row>
     <row r="25" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="78"/>
-      <c r="B25" s="78" t="s">
+      <c r="A25" s="61"/>
+      <c r="B25" s="61" t="s">
         <v>99</v>
       </c>
-      <c r="C25" s="78"/>
-      <c r="D25" s="77"/>
-      <c r="E25" s="76"/>
-      <c r="F25" s="76"/>
+      <c r="C25" s="61"/>
+      <c r="D25" s="60"/>
+      <c r="E25" s="59"/>
+      <c r="F25" s="59"/>
     </row>
     <row r="26" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="78"/>
-      <c r="B26" s="78" t="s">
+      <c r="A26" s="61"/>
+      <c r="B26" s="61" t="s">
         <v>98</v>
       </c>
-      <c r="C26" s="78"/>
-      <c r="D26" s="77"/>
-      <c r="E26" s="76"/>
-      <c r="F26" s="76"/>
+      <c r="C26" s="61"/>
+      <c r="D26" s="60"/>
+      <c r="E26" s="59"/>
+      <c r="F26" s="59"/>
     </row>
     <row r="27" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="96"/>
-      <c r="B27" s="78" t="s">
+      <c r="A27" s="77"/>
+      <c r="B27" s="61" t="s">
         <v>97</v>
       </c>
-      <c r="C27" s="78"/>
-      <c r="D27" s="133"/>
-      <c r="E27" s="132"/>
-      <c r="F27" s="132"/>
+      <c r="C27" s="61"/>
+      <c r="D27" s="113"/>
+      <c r="E27" s="112"/>
+      <c r="F27" s="112"/>
     </row>
     <row r="28" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="78"/>
-      <c r="B28" s="96"/>
-      <c r="C28" s="96"/>
-      <c r="D28" s="132" t="s">
+      <c r="A28" s="61"/>
+      <c r="B28" s="77"/>
+      <c r="C28" s="77"/>
+      <c r="D28" s="112" t="s">
         <v>11</v>
       </c>
-      <c r="E28" s="131" t="s">
+      <c r="E28" s="111" t="s">
         <v>96</v>
       </c>
-      <c r="F28" s="131"/>
+      <c r="F28" s="111"/>
     </row>
     <row r="29" spans="1:6" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="130"/>
-      <c r="B29" s="130"/>
-      <c r="C29" s="130"/>
-      <c r="D29" s="129"/>
-      <c r="E29" s="128"/>
-      <c r="F29" s="128"/>
+      <c r="A29" s="110"/>
+      <c r="B29" s="110"/>
+      <c r="C29" s="110"/>
+      <c r="D29" s="109"/>
+      <c r="E29" s="108"/>
+      <c r="F29" s="108"/>
     </row>
     <row r="30" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="127" t="s">
+      <c r="A30" s="154" t="s">
         <v>0</v>
       </c>
-      <c r="B30" s="127"/>
-      <c r="C30" s="127"/>
-      <c r="D30" s="127"/>
-      <c r="E30" s="127"/>
-      <c r="F30" s="126"/>
+      <c r="B30" s="154"/>
+      <c r="C30" s="154"/>
+      <c r="D30" s="154"/>
+      <c r="E30" s="154"/>
+      <c r="F30" s="107"/>
     </row>
     <row r="31" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="125"/>
-      <c r="B31" s="125"/>
-      <c r="C31" s="125"/>
-      <c r="D31" s="125"/>
-      <c r="E31" s="125"/>
-      <c r="F31" s="125"/>
+      <c r="A31" s="106"/>
+      <c r="B31" s="106"/>
+      <c r="C31" s="106"/>
+      <c r="D31" s="106"/>
+      <c r="E31" s="106"/>
+      <c r="F31" s="106"/>
     </row>
     <row r="32" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="101"/>
-      <c r="B32" s="70" t="s">
+      <c r="A32" s="82"/>
+      <c r="B32" s="56" t="s">
         <v>6</v>
       </c>
-      <c r="C32" s="124"/>
-      <c r="D32" s="123"/>
-      <c r="E32" s="122"/>
-      <c r="F32" s="122"/>
+      <c r="C32" s="105"/>
+      <c r="D32" s="104"/>
+      <c r="E32" s="103"/>
+      <c r="F32" s="103"/>
     </row>
     <row r="33" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="101"/>
-      <c r="B33" s="101"/>
-      <c r="C33" s="101"/>
-      <c r="D33" s="123"/>
-      <c r="E33" s="122"/>
-      <c r="F33" s="122"/>
+      <c r="A33" s="82"/>
+      <c r="B33" s="82"/>
+      <c r="C33" s="82"/>
+      <c r="D33" s="104"/>
+      <c r="E33" s="103"/>
+      <c r="F33" s="103"/>
     </row>
     <row r="34" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="101"/>
-      <c r="B34" s="119" t="s">
+      <c r="A34" s="82"/>
+      <c r="B34" s="100" t="s">
         <v>95</v>
       </c>
-      <c r="C34" s="118"/>
-      <c r="D34" s="115"/>
-      <c r="E34" s="115"/>
-      <c r="F34" s="104"/>
+      <c r="C34" s="99"/>
+      <c r="D34" s="96"/>
+      <c r="E34" s="96"/>
+      <c r="F34" s="85"/>
     </row>
     <row r="35" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="101"/>
-      <c r="B35" s="119" t="s">
+      <c r="A35" s="82"/>
+      <c r="B35" s="100" t="s">
         <v>90</v>
       </c>
-      <c r="C35" s="121"/>
-      <c r="D35" s="115"/>
-      <c r="E35" s="115"/>
-      <c r="F35" s="104"/>
+      <c r="C35" s="102"/>
+      <c r="D35" s="96"/>
+      <c r="E35" s="96"/>
+      <c r="F35" s="85"/>
     </row>
     <row r="36" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="101"/>
-      <c r="B36" s="119" t="s">
+      <c r="A36" s="82"/>
+      <c r="B36" s="100" t="s">
         <v>94</v>
       </c>
-      <c r="C36" s="118"/>
-      <c r="D36" s="115"/>
-      <c r="E36" s="115"/>
-      <c r="F36" s="104"/>
+      <c r="C36" s="99"/>
+      <c r="D36" s="96"/>
+      <c r="E36" s="96"/>
+      <c r="F36" s="85"/>
     </row>
     <row r="37" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="101"/>
-      <c r="B37" s="119" t="s">
+      <c r="A37" s="82"/>
+      <c r="B37" s="100" t="s">
         <v>93</v>
       </c>
-      <c r="C37" s="118"/>
-      <c r="D37" s="115"/>
-      <c r="E37" s="115"/>
-      <c r="F37" s="104"/>
+      <c r="C37" s="99"/>
+      <c r="D37" s="96"/>
+      <c r="E37" s="96"/>
+      <c r="F37" s="85"/>
     </row>
     <row r="38" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="101"/>
-      <c r="B38" s="119" t="s">
+      <c r="A38" s="82"/>
+      <c r="B38" s="100" t="s">
         <v>90</v>
       </c>
-      <c r="C38" s="118"/>
-      <c r="D38" s="115"/>
-      <c r="E38" s="115"/>
-      <c r="F38" s="104"/>
+      <c r="C38" s="99"/>
+      <c r="D38" s="96"/>
+      <c r="E38" s="96"/>
+      <c r="F38" s="85"/>
     </row>
     <row r="39" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="101"/>
-      <c r="B39" s="119" t="s">
+      <c r="A39" s="82"/>
+      <c r="B39" s="100" t="s">
         <v>92</v>
       </c>
-      <c r="C39" s="118"/>
-      <c r="D39" s="115"/>
-      <c r="E39" s="115"/>
-      <c r="F39" s="104"/>
+      <c r="C39" s="99"/>
+      <c r="D39" s="96"/>
+      <c r="E39" s="96"/>
+      <c r="F39" s="85"/>
     </row>
     <row r="40" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="101"/>
-      <c r="B40" s="119" t="s">
+      <c r="A40" s="82"/>
+      <c r="B40" s="100" t="s">
         <v>90</v>
       </c>
-      <c r="C40" s="121"/>
-      <c r="D40" s="115"/>
-      <c r="E40" s="115"/>
-      <c r="F40" s="104"/>
+      <c r="C40" s="102"/>
+      <c r="D40" s="96"/>
+      <c r="E40" s="96"/>
+      <c r="F40" s="85"/>
     </row>
     <row r="41" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="101"/>
-      <c r="B41" s="119" t="s">
+      <c r="A41" s="82"/>
+      <c r="B41" s="100" t="s">
         <v>91</v>
       </c>
-      <c r="C41" s="118"/>
-      <c r="D41" s="115"/>
-      <c r="E41" s="115"/>
-      <c r="F41" s="104"/>
+      <c r="C41" s="99"/>
+      <c r="D41" s="96"/>
+      <c r="E41" s="96"/>
+      <c r="F41" s="85"/>
     </row>
     <row r="42" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="101"/>
-      <c r="B42" s="119" t="s">
+      <c r="A42" s="82"/>
+      <c r="B42" s="100" t="s">
         <v>90</v>
       </c>
-      <c r="C42" s="118"/>
-      <c r="D42" s="115"/>
-      <c r="E42" s="115"/>
-      <c r="F42" s="104"/>
+      <c r="C42" s="99"/>
+      <c r="D42" s="96"/>
+      <c r="E42" s="96"/>
+      <c r="F42" s="85"/>
     </row>
     <row r="43" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="101"/>
-      <c r="B43" s="119" t="s">
+      <c r="A43" s="82"/>
+      <c r="B43" s="100" t="s">
         <v>89</v>
       </c>
-      <c r="C43" s="118"/>
-      <c r="D43" s="115"/>
-      <c r="E43" s="115"/>
-      <c r="F43" s="104"/>
+      <c r="C43" s="99"/>
+      <c r="D43" s="96"/>
+      <c r="E43" s="96"/>
+      <c r="F43" s="85"/>
     </row>
     <row r="44" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="101"/>
-      <c r="B44" s="119"/>
-      <c r="C44" s="118"/>
-      <c r="D44" s="115"/>
-      <c r="E44" s="115"/>
-      <c r="F44" s="104"/>
+      <c r="A44" s="82"/>
+      <c r="B44" s="100"/>
+      <c r="C44" s="99"/>
+      <c r="D44" s="96"/>
+      <c r="E44" s="96"/>
+      <c r="F44" s="85"/>
     </row>
     <row r="45" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="101"/>
-      <c r="B45" s="119"/>
-      <c r="C45" s="118"/>
-      <c r="D45" s="115"/>
-      <c r="E45" s="115"/>
-      <c r="F45" s="104"/>
+      <c r="A45" s="82"/>
+      <c r="B45" s="100"/>
+      <c r="C45" s="99"/>
+      <c r="D45" s="96"/>
+      <c r="E45" s="96"/>
+      <c r="F45" s="85"/>
     </row>
     <row r="46" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="101"/>
-      <c r="B46" s="119"/>
-      <c r="C46" s="118"/>
-      <c r="D46" s="115"/>
-      <c r="E46" s="115"/>
-      <c r="F46" s="104"/>
+      <c r="A46" s="82"/>
+      <c r="B46" s="100"/>
+      <c r="C46" s="99"/>
+      <c r="D46" s="96"/>
+      <c r="E46" s="96"/>
+      <c r="F46" s="85"/>
     </row>
     <row r="47" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="101"/>
-      <c r="B47" s="119"/>
-      <c r="C47" s="118"/>
-      <c r="D47" s="115"/>
-      <c r="E47" s="115"/>
-      <c r="F47" s="104"/>
+      <c r="A47" s="82"/>
+      <c r="B47" s="100"/>
+      <c r="C47" s="99"/>
+      <c r="D47" s="96"/>
+      <c r="E47" s="96"/>
+      <c r="F47" s="85"/>
     </row>
     <row r="48" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="101"/>
-      <c r="B48" s="119"/>
-      <c r="C48" s="118"/>
-      <c r="D48" s="115"/>
-      <c r="E48" s="115"/>
-      <c r="F48" s="104"/>
+      <c r="A48" s="82"/>
+      <c r="B48" s="100"/>
+      <c r="C48" s="99"/>
+      <c r="D48" s="96"/>
+      <c r="E48" s="96"/>
+      <c r="F48" s="85"/>
     </row>
     <row r="49" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="101"/>
-      <c r="B49" s="119"/>
-      <c r="C49" s="118"/>
-      <c r="D49" s="115"/>
-      <c r="E49" s="115"/>
-      <c r="F49" s="104"/>
+      <c r="A49" s="82"/>
+      <c r="B49" s="100"/>
+      <c r="C49" s="99"/>
+      <c r="D49" s="96"/>
+      <c r="E49" s="96"/>
+      <c r="F49" s="85"/>
     </row>
     <row r="50" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="101"/>
-      <c r="B50" s="119"/>
-      <c r="C50" s="120"/>
-      <c r="D50" s="120"/>
-      <c r="E50" s="115"/>
-      <c r="F50" s="104"/>
+      <c r="A50" s="82"/>
+      <c r="B50" s="100"/>
+      <c r="C50" s="101"/>
+      <c r="D50" s="101"/>
+      <c r="E50" s="96"/>
+      <c r="F50" s="85"/>
     </row>
     <row r="51" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="101"/>
-      <c r="B51" s="119"/>
-      <c r="C51" s="118"/>
-      <c r="D51" s="115"/>
-      <c r="E51" s="115"/>
-      <c r="F51" s="104"/>
+      <c r="A51" s="82"/>
+      <c r="B51" s="100"/>
+      <c r="C51" s="99"/>
+      <c r="D51" s="96"/>
+      <c r="E51" s="96"/>
+      <c r="F51" s="85"/>
     </row>
     <row r="52" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="101"/>
-      <c r="B52" s="119"/>
-      <c r="C52" s="118"/>
-      <c r="D52" s="115"/>
-      <c r="E52" s="115"/>
-      <c r="F52" s="104"/>
+      <c r="A52" s="82"/>
+      <c r="B52" s="100"/>
+      <c r="C52" s="99"/>
+      <c r="D52" s="96"/>
+      <c r="E52" s="96"/>
+      <c r="F52" s="85"/>
     </row>
     <row r="53" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="101"/>
-      <c r="B53" s="119"/>
-      <c r="C53" s="118"/>
-      <c r="D53" s="115"/>
-      <c r="E53" s="115"/>
-      <c r="F53" s="104"/>
+      <c r="A53" s="82"/>
+      <c r="B53" s="100"/>
+      <c r="C53" s="99"/>
+      <c r="D53" s="96"/>
+      <c r="E53" s="96"/>
+      <c r="F53" s="85"/>
     </row>
     <row r="54" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="101"/>
-      <c r="B54" s="119"/>
-      <c r="C54" s="118"/>
-      <c r="D54" s="115"/>
-      <c r="E54" s="115"/>
-      <c r="F54" s="104"/>
+      <c r="A54" s="82"/>
+      <c r="B54" s="100"/>
+      <c r="C54" s="99"/>
+      <c r="D54" s="96"/>
+      <c r="E54" s="96"/>
+      <c r="F54" s="85"/>
     </row>
     <row r="55" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="101"/>
-      <c r="B55" s="119"/>
-      <c r="C55" s="118"/>
-      <c r="D55" s="115"/>
-      <c r="E55" s="115"/>
-      <c r="F55" s="104"/>
+      <c r="A55" s="82"/>
+      <c r="B55" s="100"/>
+      <c r="C55" s="99"/>
+      <c r="D55" s="96"/>
+      <c r="E55" s="96"/>
+      <c r="F55" s="85"/>
     </row>
     <row r="56" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="101"/>
-      <c r="B56" s="119"/>
-      <c r="C56" s="118"/>
-      <c r="D56" s="115"/>
-      <c r="E56" s="115"/>
-      <c r="F56" s="104"/>
+      <c r="A56" s="82"/>
+      <c r="B56" s="100"/>
+      <c r="C56" s="99"/>
+      <c r="D56" s="96"/>
+      <c r="E56" s="96"/>
+      <c r="F56" s="85"/>
     </row>
     <row r="57" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="101"/>
-      <c r="B57" s="119"/>
-      <c r="C57" s="118"/>
-      <c r="D57" s="115"/>
-      <c r="E57" s="115"/>
-      <c r="F57" s="104"/>
+      <c r="A57" s="82"/>
+      <c r="B57" s="100"/>
+      <c r="C57" s="99"/>
+      <c r="D57" s="96"/>
+      <c r="E57" s="96"/>
+      <c r="F57" s="85"/>
     </row>
     <row r="58" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="101"/>
-      <c r="B58" s="112"/>
-      <c r="C58" s="118"/>
-      <c r="D58" s="115"/>
-      <c r="E58" s="115"/>
-      <c r="F58" s="104"/>
+      <c r="A58" s="82"/>
+      <c r="B58" s="93"/>
+      <c r="C58" s="99"/>
+      <c r="D58" s="96"/>
+      <c r="E58" s="96"/>
+      <c r="F58" s="85"/>
     </row>
     <row r="59" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="101"/>
-      <c r="B59" s="112"/>
-      <c r="C59" s="118"/>
-      <c r="D59" s="115"/>
-      <c r="E59" s="115"/>
-      <c r="F59" s="104"/>
+      <c r="A59" s="82"/>
+      <c r="B59" s="93"/>
+      <c r="C59" s="99"/>
+      <c r="D59" s="96"/>
+      <c r="E59" s="96"/>
+      <c r="F59" s="85"/>
     </row>
     <row r="60" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="101"/>
-      <c r="B60" s="112"/>
-      <c r="C60" s="118"/>
-      <c r="D60" s="115"/>
-      <c r="E60" s="115"/>
-      <c r="F60" s="104"/>
+      <c r="A60" s="82"/>
+      <c r="B60" s="93"/>
+      <c r="C60" s="99"/>
+      <c r="D60" s="96"/>
+      <c r="E60" s="96"/>
+      <c r="F60" s="85"/>
     </row>
     <row r="61" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="101"/>
-      <c r="B61" s="112"/>
-      <c r="C61" s="118"/>
-      <c r="D61" s="115"/>
-      <c r="E61" s="115"/>
-      <c r="F61" s="104"/>
+      <c r="A61" s="82"/>
+      <c r="B61" s="93"/>
+      <c r="C61" s="99"/>
+      <c r="D61" s="96"/>
+      <c r="E61" s="96"/>
+      <c r="F61" s="85"/>
     </row>
     <row r="62" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="101"/>
-      <c r="B62" s="112"/>
-      <c r="C62" s="118"/>
-      <c r="D62" s="115"/>
-      <c r="E62" s="115"/>
-      <c r="F62" s="104"/>
+      <c r="A62" s="82"/>
+      <c r="B62" s="93"/>
+      <c r="C62" s="99"/>
+      <c r="D62" s="96"/>
+      <c r="E62" s="96"/>
+      <c r="F62" s="85"/>
     </row>
     <row r="63" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="101"/>
-      <c r="B63" s="105"/>
-      <c r="C63" s="117"/>
-      <c r="D63" s="116"/>
-      <c r="E63" s="115"/>
-      <c r="F63" s="104"/>
+      <c r="A63" s="82"/>
+      <c r="B63" s="86"/>
+      <c r="C63" s="98"/>
+      <c r="D63" s="97"/>
+      <c r="E63" s="96"/>
+      <c r="F63" s="85"/>
     </row>
     <row r="64" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="101"/>
-      <c r="B64" s="105"/>
-      <c r="C64" s="114"/>
-      <c r="D64" s="113"/>
-      <c r="E64" s="104"/>
-      <c r="F64" s="104"/>
+      <c r="A64" s="82"/>
+      <c r="B64" s="86"/>
+      <c r="C64" s="95"/>
+      <c r="D64" s="94"/>
+      <c r="E64" s="85"/>
+      <c r="F64" s="85"/>
     </row>
     <row r="65" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="101"/>
-      <c r="B65" s="112"/>
-      <c r="C65" s="111" t="s">
+      <c r="A65" s="82"/>
+      <c r="B65" s="93"/>
+      <c r="C65" s="92" t="s">
         <v>37</v>
       </c>
-      <c r="D65" s="110" t="s">
+      <c r="D65" s="91" t="s">
         <v>38</v>
       </c>
-      <c r="E65" s="104"/>
-      <c r="F65" s="104"/>
+      <c r="E65" s="85"/>
+      <c r="F65" s="85"/>
     </row>
     <row r="66" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="101"/>
-      <c r="B66" s="109"/>
-      <c r="C66" s="108">
+      <c r="A66" s="82"/>
+      <c r="B66" s="90"/>
+      <c r="C66" s="89">
         <v>4.5</v>
       </c>
-      <c r="D66" s="107">
+      <c r="D66" s="88">
         <v>350</v>
       </c>
-      <c r="E66" s="106"/>
-      <c r="F66" s="106"/>
+      <c r="E66" s="87"/>
+      <c r="F66" s="87"/>
     </row>
     <row r="67" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="101"/>
-      <c r="B67" s="105"/>
-      <c r="C67" s="101"/>
-      <c r="D67" s="101"/>
-      <c r="E67" s="104"/>
-      <c r="F67" s="104"/>
+      <c r="A67" s="82"/>
+      <c r="B67" s="86"/>
+      <c r="C67" s="82"/>
+      <c r="D67" s="82"/>
+      <c r="E67" s="85"/>
+      <c r="F67" s="85"/>
     </row>
     <row r="68" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="101"/>
-      <c r="B68" s="103"/>
-      <c r="C68" s="102"/>
-      <c r="D68" s="102"/>
-      <c r="E68" s="102"/>
-      <c r="F68" s="101"/>
+      <c r="A68" s="82"/>
+      <c r="B68" s="84"/>
+      <c r="C68" s="83"/>
+      <c r="D68" s="83"/>
+      <c r="E68" s="83"/>
+      <c r="F68" s="82"/>
     </row>
     <row r="69" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="78"/>
-      <c r="B69" s="85" t="s">
+      <c r="A69" s="61"/>
+      <c r="B69" s="66" t="s">
         <v>15</v>
       </c>
-      <c r="C69" s="85"/>
-      <c r="D69" s="77"/>
-      <c r="E69" s="100">
+      <c r="C69" s="66"/>
+      <c r="D69" s="60"/>
+      <c r="E69" s="81">
         <v>1575</v>
       </c>
-      <c r="F69" s="100"/>
+      <c r="F69" s="81"/>
     </row>
     <row r="70" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="78"/>
-      <c r="B70" s="99" t="s">
+      <c r="A70" s="61"/>
+      <c r="B70" s="80" t="s">
         <v>12</v>
       </c>
-      <c r="C70" s="92"/>
-      <c r="D70" s="77"/>
-      <c r="E70" s="97">
+      <c r="C70" s="73"/>
+      <c r="D70" s="60"/>
+      <c r="E70" s="78">
         <v>0</v>
       </c>
-      <c r="F70" s="97"/>
+      <c r="F70" s="78"/>
     </row>
     <row r="71" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="78"/>
-      <c r="B71" s="98" t="s">
+      <c r="A71" s="61"/>
+      <c r="B71" s="79" t="s">
         <v>88</v>
       </c>
-      <c r="C71" s="92"/>
-      <c r="D71" s="77"/>
-      <c r="E71" s="97">
+      <c r="C71" s="73"/>
+      <c r="D71" s="60"/>
+      <c r="E71" s="78">
         <v>0</v>
       </c>
-      <c r="F71" s="97"/>
+      <c r="F71" s="78"/>
     </row>
     <row r="72" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="78"/>
-      <c r="B72" s="98" t="s">
+      <c r="A72" s="61"/>
+      <c r="B72" s="79" t="s">
         <v>13</v>
       </c>
-      <c r="C72" s="92"/>
-      <c r="D72" s="77"/>
-      <c r="E72" s="97">
+      <c r="C72" s="73"/>
+      <c r="D72" s="60"/>
+      <c r="E72" s="78">
         <v>0</v>
       </c>
-      <c r="F72" s="97"/>
+      <c r="F72" s="78"/>
     </row>
     <row r="73" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="78"/>
-      <c r="B73" s="96" t="s">
+      <c r="A73" s="61"/>
+      <c r="B73" s="77" t="s">
         <v>14</v>
       </c>
-      <c r="C73" s="85"/>
-      <c r="D73" s="77"/>
-      <c r="E73" s="95">
+      <c r="C73" s="66"/>
+      <c r="D73" s="60"/>
+      <c r="E73" s="76">
         <v>1575</v>
       </c>
-      <c r="F73" s="95"/>
+      <c r="F73" s="76"/>
     </row>
     <row r="74" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="78"/>
-      <c r="B74" s="92" t="s">
+      <c r="A74" s="61"/>
+      <c r="B74" s="73" t="s">
         <v>5</v>
       </c>
-      <c r="C74" s="94">
+      <c r="C74" s="75">
         <v>0.05</v>
       </c>
-      <c r="D74" s="92"/>
-      <c r="E74" s="90">
+      <c r="D74" s="73"/>
+      <c r="E74" s="71">
         <v>78.75</v>
       </c>
-      <c r="F74" s="90"/>
+      <c r="F74" s="71"/>
     </row>
     <row r="75" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="78"/>
-      <c r="B75" s="83" t="s">
+      <c r="A75" s="61"/>
+      <c r="B75" s="64" t="s">
         <v>4</v>
       </c>
-      <c r="C75" s="93">
+      <c r="C75" s="74">
         <v>9.9750000000000005E-2</v>
       </c>
-      <c r="D75" s="92"/>
-      <c r="E75" s="91">
+      <c r="D75" s="73"/>
+      <c r="E75" s="72">
         <v>157.11000000000001</v>
       </c>
-      <c r="F75" s="90"/>
+      <c r="F75" s="71"/>
     </row>
     <row r="76" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="78"/>
-      <c r="B76" s="70"/>
-      <c r="C76" s="78"/>
-      <c r="D76" s="77"/>
-      <c r="E76" s="76"/>
-      <c r="F76" s="76"/>
+      <c r="A76" s="61"/>
+      <c r="B76" s="56"/>
+      <c r="C76" s="61"/>
+      <c r="D76" s="60"/>
+      <c r="E76" s="59"/>
+      <c r="F76" s="59"/>
     </row>
     <row r="77" spans="1:6" ht="15.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A77" s="78"/>
-      <c r="B77" s="89" t="s">
+      <c r="A77" s="61"/>
+      <c r="B77" s="70" t="s">
         <v>16</v>
       </c>
-      <c r="C77" s="85"/>
-      <c r="D77" s="88"/>
-      <c r="E77" s="87">
+      <c r="C77" s="66"/>
+      <c r="D77" s="69"/>
+      <c r="E77" s="68">
         <v>1810.8600000000001</v>
       </c>
-      <c r="F77" s="86"/>
+      <c r="F77" s="67"/>
     </row>
     <row r="78" spans="1:6" ht="15.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="78"/>
-      <c r="B78" s="83"/>
-      <c r="C78" s="83"/>
-      <c r="D78" s="83"/>
-      <c r="E78" s="84"/>
-      <c r="F78" s="83"/>
+      <c r="A78" s="61"/>
+      <c r="B78" s="64"/>
+      <c r="C78" s="64"/>
+      <c r="D78" s="64"/>
+      <c r="E78" s="65"/>
+      <c r="F78" s="64"/>
     </row>
     <row r="79" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="78"/>
-      <c r="B79" s="70" t="s">
+      <c r="A79" s="61"/>
+      <c r="B79" s="56" t="s">
         <v>18</v>
       </c>
-      <c r="C79" s="83"/>
-      <c r="D79" s="77"/>
-      <c r="E79" s="76">
+      <c r="C79" s="64"/>
+      <c r="D79" s="60"/>
+      <c r="E79" s="59">
         <v>0</v>
       </c>
-      <c r="F79" s="76"/>
+      <c r="F79" s="59"/>
     </row>
     <row r="80" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="78"/>
-      <c r="B80" s="85"/>
-      <c r="C80" s="83"/>
-      <c r="D80" s="83"/>
-      <c r="E80" s="84"/>
-      <c r="F80" s="83"/>
+      <c r="A80" s="61"/>
+      <c r="B80" s="66"/>
+      <c r="C80" s="64"/>
+      <c r="D80" s="64"/>
+      <c r="E80" s="65"/>
+      <c r="F80" s="64"/>
     </row>
     <row r="81" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="78"/>
-      <c r="B81" s="82" t="s">
+      <c r="A81" s="61"/>
+      <c r="B81" s="155" t="s">
         <v>17</v>
       </c>
-      <c r="C81" s="81"/>
-      <c r="D81" s="80"/>
-      <c r="E81" s="79">
+      <c r="C81" s="156"/>
+      <c r="D81" s="63"/>
+      <c r="E81" s="62">
         <v>1810.8600000000001</v>
       </c>
-      <c r="F81" s="76"/>
+      <c r="F81" s="59"/>
     </row>
     <row r="82" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="78"/>
-      <c r="B82" s="78"/>
-      <c r="C82" s="78"/>
-      <c r="D82" s="77"/>
-      <c r="E82" s="76"/>
-      <c r="F82" s="76"/>
+      <c r="A82" s="61"/>
+      <c r="B82" s="61"/>
+      <c r="C82" s="61"/>
+      <c r="D82" s="60"/>
+      <c r="E82" s="59"/>
+      <c r="F82" s="59"/>
     </row>
     <row r="83" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="75"/>
-      <c r="B83" s="74"/>
-      <c r="C83" s="73"/>
-      <c r="D83" s="73"/>
-      <c r="E83" s="73"/>
-      <c r="F83" s="72"/>
+      <c r="A83" s="58"/>
+      <c r="B83" s="157"/>
+      <c r="C83" s="158"/>
+      <c r="D83" s="158"/>
+      <c r="E83" s="158"/>
+      <c r="F83" s="57"/>
     </row>
     <row r="84" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="71" t="s">
+      <c r="A84" s="159" t="s">
         <v>29</v>
       </c>
-      <c r="B84" s="71"/>
-      <c r="C84" s="71"/>
-      <c r="D84" s="71"/>
-      <c r="E84" s="71"/>
-      <c r="F84" s="70"/>
+      <c r="B84" s="159"/>
+      <c r="C84" s="159"/>
+      <c r="D84" s="159"/>
+      <c r="E84" s="159"/>
+      <c r="F84" s="56"/>
     </row>
     <row r="85" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="69" t="s">
+      <c r="A85" s="160" t="s">
         <v>30</v>
       </c>
-      <c r="B85" s="69"/>
-      <c r="C85" s="69"/>
-      <c r="D85" s="69"/>
-      <c r="E85" s="69"/>
+      <c r="B85" s="160"/>
+      <c r="C85" s="160"/>
+      <c r="D85" s="160"/>
+      <c r="E85" s="160"/>
       <c r="F85" s="46"/>
     </row>
     <row r="86" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="68"/>
-      <c r="B86" s="68"/>
-      <c r="C86" s="68"/>
-      <c r="D86" s="68"/>
-      <c r="E86" s="68"/>
+      <c r="A86" s="55"/>
+      <c r="B86" s="55"/>
+      <c r="C86" s="55"/>
+      <c r="D86" s="55"/>
+      <c r="E86" s="55"/>
       <c r="F86" s="46"/>
     </row>
     <row r="87" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="68"/>
-      <c r="B87" s="68"/>
-      <c r="C87" s="68"/>
-      <c r="D87" s="68"/>
-      <c r="E87" s="68"/>
+      <c r="A87" s="55"/>
+      <c r="B87" s="55"/>
+      <c r="C87" s="55"/>
+      <c r="D87" s="55"/>
+      <c r="E87" s="55"/>
       <c r="F87" s="46"/>
     </row>
     <row r="88" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="67" t="s">
+      <c r="A88" s="153" t="s">
         <v>7</v>
       </c>
-      <c r="B88" s="67"/>
-      <c r="C88" s="67"/>
-      <c r="D88" s="67"/>
-      <c r="E88" s="67"/>
-      <c r="F88" s="67"/>
+      <c r="B88" s="153"/>
+      <c r="C88" s="153"/>
+      <c r="D88" s="153"/>
+      <c r="E88" s="153"/>
+      <c r="F88" s="153"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -7682,4 +7875,857 @@
   <pageSetup paperSize="119" scale="60" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27F5D0D9-1E5F-4327-956B-EA116086E1AA}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:F88"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:F88"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="5.140625" customWidth="1"/>
+    <col min="2" max="2" width="120" customWidth="1"/>
+    <col min="3" max="3" width="11.5703125" customWidth="1"/>
+    <col min="4" max="4" width="17.5703125" customWidth="1"/>
+    <col min="5" max="5" width="17.7109375" customWidth="1"/>
+    <col min="6" max="6" width="10.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="118"/>
+      <c r="B1" s="118"/>
+      <c r="C1" s="118"/>
+      <c r="D1" s="116"/>
+      <c r="E1" s="115"/>
+      <c r="F1" s="115"/>
+    </row>
+    <row r="2" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="118"/>
+      <c r="B2" s="118"/>
+      <c r="C2" s="118"/>
+      <c r="D2" s="116"/>
+      <c r="E2" s="115"/>
+      <c r="F2" s="115"/>
+    </row>
+    <row r="3" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="118"/>
+      <c r="B3" s="118"/>
+      <c r="C3" s="118"/>
+      <c r="D3" s="116"/>
+      <c r="E3" s="115"/>
+      <c r="F3" s="115"/>
+    </row>
+    <row r="4" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="118"/>
+      <c r="B4" s="118"/>
+      <c r="C4" s="118"/>
+      <c r="D4" s="116"/>
+      <c r="E4" s="115"/>
+      <c r="F4" s="115"/>
+    </row>
+    <row r="5" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="118"/>
+      <c r="B5" s="118"/>
+      <c r="C5" s="118"/>
+      <c r="D5" s="116"/>
+      <c r="E5" s="115"/>
+      <c r="F5" s="115"/>
+    </row>
+    <row r="6" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="118"/>
+      <c r="B6" s="118"/>
+      <c r="C6" s="118"/>
+      <c r="D6" s="116"/>
+      <c r="E6" s="115"/>
+      <c r="F6" s="115"/>
+    </row>
+    <row r="7" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="118"/>
+      <c r="B7" s="118"/>
+      <c r="C7" s="118"/>
+      <c r="D7" s="116"/>
+      <c r="E7" s="115"/>
+      <c r="F7" s="115"/>
+    </row>
+    <row r="8" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="118"/>
+      <c r="B8" s="118"/>
+      <c r="C8" s="118"/>
+      <c r="D8" s="116"/>
+      <c r="E8" s="115"/>
+      <c r="F8" s="115"/>
+    </row>
+    <row r="9" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="118"/>
+      <c r="B9" s="118"/>
+      <c r="C9" s="118"/>
+      <c r="D9" s="119"/>
+      <c r="E9" s="115"/>
+      <c r="F9" s="115"/>
+    </row>
+    <row r="10" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="118"/>
+      <c r="B10" s="118"/>
+      <c r="C10" s="118"/>
+      <c r="D10" s="116"/>
+      <c r="E10" s="115"/>
+      <c r="F10" s="115"/>
+    </row>
+    <row r="11" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="118"/>
+      <c r="B11" s="118"/>
+      <c r="C11" s="118"/>
+      <c r="D11" s="116"/>
+      <c r="E11" s="115"/>
+      <c r="F11" s="115"/>
+    </row>
+    <row r="12" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="118"/>
+      <c r="B12" s="117"/>
+      <c r="C12" s="117"/>
+      <c r="D12" s="116"/>
+      <c r="E12" s="115"/>
+      <c r="F12" s="115"/>
+    </row>
+    <row r="13" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="118"/>
+      <c r="B13" s="117"/>
+      <c r="C13" s="117"/>
+      <c r="D13" s="116"/>
+      <c r="E13" s="115"/>
+      <c r="F13" s="115"/>
+    </row>
+    <row r="14" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="118"/>
+      <c r="B14" s="117"/>
+      <c r="C14" s="117"/>
+      <c r="D14" s="116"/>
+      <c r="E14" s="115"/>
+      <c r="F14" s="115"/>
+    </row>
+    <row r="15" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="118"/>
+      <c r="B15" s="117"/>
+      <c r="C15" s="117"/>
+      <c r="D15" s="116"/>
+      <c r="E15" s="115"/>
+      <c r="F15" s="115"/>
+    </row>
+    <row r="16" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="118"/>
+      <c r="B16" s="117"/>
+      <c r="C16" s="117"/>
+      <c r="D16" s="116"/>
+      <c r="E16" s="115"/>
+      <c r="F16" s="115"/>
+    </row>
+    <row r="17" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="118"/>
+      <c r="B17" s="117"/>
+      <c r="C17" s="117"/>
+      <c r="D17" s="116"/>
+      <c r="E17" s="115"/>
+      <c r="F17" s="115"/>
+    </row>
+    <row r="18" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="118"/>
+      <c r="B18" s="117"/>
+      <c r="C18" s="117"/>
+      <c r="D18" s="116"/>
+      <c r="E18" s="115"/>
+      <c r="F18" s="115"/>
+    </row>
+    <row r="19" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="118"/>
+      <c r="B19" s="117"/>
+      <c r="C19" s="117"/>
+      <c r="D19" s="116"/>
+      <c r="E19" s="115"/>
+      <c r="F19" s="115"/>
+    </row>
+    <row r="20" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="118"/>
+      <c r="B20" s="117"/>
+      <c r="C20" s="117"/>
+      <c r="D20" s="116"/>
+      <c r="E20" s="115"/>
+      <c r="F20" s="115"/>
+    </row>
+    <row r="21" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="61"/>
+      <c r="B21" s="77" t="s">
+        <v>103</v>
+      </c>
+      <c r="C21" s="77"/>
+      <c r="D21" s="60"/>
+      <c r="E21" s="59"/>
+      <c r="F21" s="59"/>
+    </row>
+    <row r="22" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="61"/>
+      <c r="B22" s="61"/>
+      <c r="C22" s="61"/>
+      <c r="D22" s="60"/>
+      <c r="E22" s="59"/>
+      <c r="F22" s="59"/>
+    </row>
+    <row r="23" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="61"/>
+      <c r="B23" s="77" t="s">
+        <v>101</v>
+      </c>
+      <c r="C23" s="77"/>
+      <c r="D23" s="60"/>
+      <c r="E23" s="59"/>
+      <c r="F23" s="59"/>
+    </row>
+    <row r="24" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="61"/>
+      <c r="B24" s="114" t="s">
+        <v>100</v>
+      </c>
+      <c r="C24" s="61"/>
+      <c r="D24" s="60"/>
+      <c r="E24" s="59"/>
+      <c r="F24" s="59"/>
+    </row>
+    <row r="25" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="61"/>
+      <c r="B25" s="61" t="s">
+        <v>99</v>
+      </c>
+      <c r="C25" s="61"/>
+      <c r="D25" s="60"/>
+      <c r="E25" s="59"/>
+      <c r="F25" s="59"/>
+    </row>
+    <row r="26" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="61"/>
+      <c r="B26" s="61" t="s">
+        <v>98</v>
+      </c>
+      <c r="C26" s="61"/>
+      <c r="D26" s="60"/>
+      <c r="E26" s="59"/>
+      <c r="F26" s="59"/>
+    </row>
+    <row r="27" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="77"/>
+      <c r="B27" s="61" t="s">
+        <v>97</v>
+      </c>
+      <c r="C27" s="61"/>
+      <c r="D27" s="113"/>
+      <c r="E27" s="112"/>
+      <c r="F27" s="112"/>
+    </row>
+    <row r="28" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="61"/>
+      <c r="B28" s="77"/>
+      <c r="C28" s="77"/>
+      <c r="D28" s="112" t="s">
+        <v>11</v>
+      </c>
+      <c r="E28" s="111" t="s">
+        <v>104</v>
+      </c>
+      <c r="F28" s="111"/>
+    </row>
+    <row r="29" spans="1:6" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="110"/>
+      <c r="B29" s="110"/>
+      <c r="C29" s="110"/>
+      <c r="D29" s="109"/>
+      <c r="E29" s="108"/>
+      <c r="F29" s="108"/>
+    </row>
+    <row r="30" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="154" t="s">
+        <v>0</v>
+      </c>
+      <c r="B30" s="154"/>
+      <c r="C30" s="154"/>
+      <c r="D30" s="154"/>
+      <c r="E30" s="154"/>
+      <c r="F30" s="107"/>
+    </row>
+    <row r="31" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="106"/>
+      <c r="B31" s="106"/>
+      <c r="C31" s="106"/>
+      <c r="D31" s="106"/>
+      <c r="E31" s="106"/>
+      <c r="F31" s="106"/>
+    </row>
+    <row r="32" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="82"/>
+      <c r="B32" s="56" t="s">
+        <v>6</v>
+      </c>
+      <c r="C32" s="105"/>
+      <c r="D32" s="104"/>
+      <c r="E32" s="103"/>
+      <c r="F32" s="103"/>
+    </row>
+    <row r="33" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="82"/>
+      <c r="B33" s="82"/>
+      <c r="C33" s="82"/>
+      <c r="D33" s="104"/>
+      <c r="E33" s="103"/>
+      <c r="F33" s="103"/>
+    </row>
+    <row r="34" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="82"/>
+      <c r="B34" s="100" t="s">
+        <v>105</v>
+      </c>
+      <c r="C34" s="120"/>
+      <c r="D34" s="85"/>
+      <c r="E34" s="85"/>
+      <c r="F34" s="85"/>
+    </row>
+    <row r="35" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="82"/>
+      <c r="B35" s="100" t="s">
+        <v>90</v>
+      </c>
+      <c r="C35" s="121"/>
+      <c r="D35" s="85"/>
+      <c r="E35" s="85"/>
+      <c r="F35" s="85"/>
+    </row>
+    <row r="36" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="82"/>
+      <c r="B36" s="100" t="s">
+        <v>106</v>
+      </c>
+      <c r="C36" s="120"/>
+      <c r="D36" s="85"/>
+      <c r="E36" s="85"/>
+      <c r="F36" s="85"/>
+    </row>
+    <row r="37" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="82"/>
+      <c r="B37" s="100" t="s">
+        <v>90</v>
+      </c>
+      <c r="C37" s="120"/>
+      <c r="D37" s="85"/>
+      <c r="E37" s="85"/>
+      <c r="F37" s="85"/>
+    </row>
+    <row r="38" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="82"/>
+      <c r="B38" s="100" t="s">
+        <v>2</v>
+      </c>
+      <c r="C38" s="120"/>
+      <c r="D38" s="85"/>
+      <c r="E38" s="85"/>
+      <c r="F38" s="85"/>
+    </row>
+    <row r="39" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="82"/>
+      <c r="B39" s="100" t="s">
+        <v>90</v>
+      </c>
+      <c r="C39" s="120"/>
+      <c r="D39" s="85"/>
+      <c r="E39" s="85"/>
+      <c r="F39" s="85"/>
+    </row>
+    <row r="40" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="82"/>
+      <c r="B40" s="100" t="s">
+        <v>107</v>
+      </c>
+      <c r="C40" s="121"/>
+      <c r="D40" s="85"/>
+      <c r="E40" s="85"/>
+      <c r="F40" s="85"/>
+    </row>
+    <row r="41" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="82"/>
+      <c r="B41" s="100" t="s">
+        <v>90</v>
+      </c>
+      <c r="C41" s="120"/>
+      <c r="D41" s="85"/>
+      <c r="E41" s="85"/>
+      <c r="F41" s="85"/>
+    </row>
+    <row r="42" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="82"/>
+      <c r="B42" s="100" t="s">
+        <v>108</v>
+      </c>
+      <c r="C42" s="120"/>
+      <c r="D42" s="85"/>
+      <c r="E42" s="85"/>
+      <c r="F42" s="85"/>
+    </row>
+    <row r="43" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="82"/>
+      <c r="B43" s="100" t="s">
+        <v>90</v>
+      </c>
+      <c r="C43" s="120"/>
+      <c r="D43" s="85"/>
+      <c r="E43" s="85"/>
+      <c r="F43" s="85"/>
+    </row>
+    <row r="44" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="82"/>
+      <c r="B44" s="100" t="s">
+        <v>9</v>
+      </c>
+      <c r="C44" s="120"/>
+      <c r="D44" s="85"/>
+      <c r="E44" s="85"/>
+      <c r="F44" s="85"/>
+    </row>
+    <row r="45" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="82"/>
+      <c r="B45" s="100" t="s">
+        <v>90</v>
+      </c>
+      <c r="C45" s="120"/>
+      <c r="D45" s="85"/>
+      <c r="E45" s="85"/>
+      <c r="F45" s="85"/>
+    </row>
+    <row r="46" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="82"/>
+      <c r="B46" s="100" t="s">
+        <v>34</v>
+      </c>
+      <c r="C46" s="120"/>
+      <c r="D46" s="85"/>
+      <c r="E46" s="85"/>
+      <c r="F46" s="85"/>
+    </row>
+    <row r="47" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="82"/>
+      <c r="B47" s="100" t="s">
+        <v>90</v>
+      </c>
+      <c r="C47" s="120"/>
+      <c r="D47" s="85"/>
+      <c r="E47" s="85"/>
+      <c r="F47" s="85"/>
+    </row>
+    <row r="48" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="82"/>
+      <c r="B48" s="100" t="s">
+        <v>61</v>
+      </c>
+      <c r="C48" s="120"/>
+      <c r="D48" s="85"/>
+      <c r="E48" s="85"/>
+      <c r="F48" s="85"/>
+    </row>
+    <row r="49" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="82"/>
+      <c r="B49" s="100" t="s">
+        <v>90</v>
+      </c>
+      <c r="C49" s="120"/>
+      <c r="D49" s="85"/>
+      <c r="E49" s="85"/>
+      <c r="F49" s="85"/>
+    </row>
+    <row r="50" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="82"/>
+      <c r="B50" s="100" t="s">
+        <v>109</v>
+      </c>
+      <c r="C50" s="122"/>
+      <c r="D50" s="122"/>
+      <c r="E50" s="85"/>
+      <c r="F50" s="85"/>
+    </row>
+    <row r="51" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A51" s="82"/>
+      <c r="B51" s="100"/>
+      <c r="C51" s="120"/>
+      <c r="D51" s="85"/>
+      <c r="E51" s="85"/>
+      <c r="F51" s="85"/>
+    </row>
+    <row r="52" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A52" s="82"/>
+      <c r="B52" s="100"/>
+      <c r="C52" s="120"/>
+      <c r="D52" s="85"/>
+      <c r="E52" s="85"/>
+      <c r="F52" s="85"/>
+    </row>
+    <row r="53" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A53" s="82"/>
+      <c r="B53" s="100"/>
+      <c r="C53" s="120"/>
+      <c r="D53" s="85"/>
+      <c r="E53" s="85"/>
+      <c r="F53" s="85"/>
+    </row>
+    <row r="54" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A54" s="82"/>
+      <c r="B54" s="100"/>
+      <c r="C54" s="120"/>
+      <c r="D54" s="85"/>
+      <c r="E54" s="85"/>
+      <c r="F54" s="85"/>
+    </row>
+    <row r="55" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A55" s="82"/>
+      <c r="B55" s="100"/>
+      <c r="C55" s="120"/>
+      <c r="D55" s="85"/>
+      <c r="E55" s="85"/>
+      <c r="F55" s="85"/>
+    </row>
+    <row r="56" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A56" s="82"/>
+      <c r="B56" s="100"/>
+      <c r="C56" s="120"/>
+      <c r="D56" s="85"/>
+      <c r="E56" s="85"/>
+      <c r="F56" s="85"/>
+    </row>
+    <row r="57" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A57" s="82"/>
+      <c r="B57" s="100"/>
+      <c r="C57" s="120"/>
+      <c r="D57" s="85"/>
+      <c r="E57" s="85"/>
+      <c r="F57" s="85"/>
+    </row>
+    <row r="58" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A58" s="82"/>
+      <c r="B58" s="100"/>
+      <c r="C58" s="120"/>
+      <c r="D58" s="85"/>
+      <c r="E58" s="85"/>
+      <c r="F58" s="85"/>
+    </row>
+    <row r="59" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A59" s="82"/>
+      <c r="B59" s="100"/>
+      <c r="C59" s="120"/>
+      <c r="D59" s="85"/>
+      <c r="E59" s="85"/>
+      <c r="F59" s="85"/>
+    </row>
+    <row r="60" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A60" s="82"/>
+      <c r="B60" s="100"/>
+      <c r="C60" s="120"/>
+      <c r="D60" s="85"/>
+      <c r="E60" s="85"/>
+      <c r="F60" s="85"/>
+    </row>
+    <row r="61" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A61" s="82"/>
+      <c r="B61" s="100"/>
+      <c r="C61" s="120"/>
+      <c r="D61" s="85"/>
+      <c r="E61" s="85"/>
+      <c r="F61" s="85"/>
+    </row>
+    <row r="62" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A62" s="82"/>
+      <c r="B62" s="100"/>
+      <c r="C62" s="120"/>
+      <c r="D62" s="85"/>
+      <c r="E62" s="85"/>
+      <c r="F62" s="85"/>
+    </row>
+    <row r="63" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A63" s="82"/>
+      <c r="B63" s="123"/>
+      <c r="C63" s="124"/>
+      <c r="D63" s="125"/>
+      <c r="E63" s="85"/>
+      <c r="F63" s="85"/>
+    </row>
+    <row r="64" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A64" s="82"/>
+      <c r="B64" s="123"/>
+      <c r="C64" s="126"/>
+      <c r="D64" s="103"/>
+      <c r="E64" s="85"/>
+      <c r="F64" s="85"/>
+    </row>
+    <row r="65" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A65" s="82"/>
+      <c r="B65" s="100"/>
+      <c r="C65" s="127" t="s">
+        <v>37</v>
+      </c>
+      <c r="D65" s="128" t="s">
+        <v>38</v>
+      </c>
+      <c r="E65" s="85"/>
+      <c r="F65" s="85"/>
+    </row>
+    <row r="66" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A66" s="82"/>
+      <c r="B66" s="100"/>
+      <c r="C66" s="129">
+        <v>22</v>
+      </c>
+      <c r="D66" s="130">
+        <v>385</v>
+      </c>
+      <c r="E66" s="131"/>
+      <c r="F66" s="131"/>
+    </row>
+    <row r="67" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A67" s="82"/>
+      <c r="B67" s="123"/>
+      <c r="C67" s="129"/>
+      <c r="D67" s="130"/>
+      <c r="E67" s="85"/>
+      <c r="F67" s="85"/>
+    </row>
+    <row r="68" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A68" s="82"/>
+      <c r="B68" s="123"/>
+      <c r="C68" s="83"/>
+      <c r="D68" s="83"/>
+      <c r="E68" s="83"/>
+      <c r="F68" s="82"/>
+    </row>
+    <row r="69" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A69" s="61"/>
+      <c r="B69" s="66" t="s">
+        <v>15</v>
+      </c>
+      <c r="C69" s="66"/>
+      <c r="D69" s="60"/>
+      <c r="E69" s="132">
+        <v>8470</v>
+      </c>
+      <c r="F69" s="132"/>
+    </row>
+    <row r="70" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A70" s="61"/>
+      <c r="B70" s="80" t="s">
+        <v>12</v>
+      </c>
+      <c r="C70" s="73"/>
+      <c r="D70" s="60"/>
+      <c r="E70" s="133">
+        <v>0</v>
+      </c>
+      <c r="F70" s="133"/>
+    </row>
+    <row r="71" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A71" s="61"/>
+      <c r="B71" s="134" t="s">
+        <v>110</v>
+      </c>
+      <c r="C71" s="73"/>
+      <c r="D71" s="60"/>
+      <c r="E71" s="133">
+        <v>350</v>
+      </c>
+      <c r="F71" s="133"/>
+    </row>
+    <row r="72" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A72" s="61"/>
+      <c r="B72" s="134" t="s">
+        <v>13</v>
+      </c>
+      <c r="C72" s="73"/>
+      <c r="D72" s="60"/>
+      <c r="E72" s="133">
+        <v>0</v>
+      </c>
+      <c r="F72" s="133"/>
+    </row>
+    <row r="73" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A73" s="61"/>
+      <c r="B73" s="77" t="s">
+        <v>14</v>
+      </c>
+      <c r="C73" s="66"/>
+      <c r="D73" s="60"/>
+      <c r="E73" s="76">
+        <v>8820</v>
+      </c>
+      <c r="F73" s="76"/>
+    </row>
+    <row r="74" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A74" s="61"/>
+      <c r="B74" s="73" t="s">
+        <v>5</v>
+      </c>
+      <c r="C74" s="135">
+        <v>0.05</v>
+      </c>
+      <c r="D74" s="73"/>
+      <c r="E74" s="71">
+        <v>441</v>
+      </c>
+      <c r="F74" s="71"/>
+    </row>
+    <row r="75" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A75" s="61"/>
+      <c r="B75" s="64" t="s">
+        <v>4</v>
+      </c>
+      <c r="C75" s="136">
+        <v>9.9750000000000005E-2</v>
+      </c>
+      <c r="D75" s="73"/>
+      <c r="E75" s="72">
+        <v>879.8</v>
+      </c>
+      <c r="F75" s="71"/>
+    </row>
+    <row r="76" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A76" s="61"/>
+      <c r="B76" s="56"/>
+      <c r="C76" s="61"/>
+      <c r="D76" s="60"/>
+      <c r="E76" s="59"/>
+      <c r="F76" s="59"/>
+    </row>
+    <row r="77" spans="1:6" ht="15.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="61"/>
+      <c r="B77" s="70" t="s">
+        <v>16</v>
+      </c>
+      <c r="C77" s="66"/>
+      <c r="D77" s="69"/>
+      <c r="E77" s="137">
+        <v>10140.799999999999</v>
+      </c>
+      <c r="F77" s="138"/>
+    </row>
+    <row r="78" spans="1:6" ht="15.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A78" s="61"/>
+      <c r="B78" s="64"/>
+      <c r="C78" s="64"/>
+      <c r="D78" s="64"/>
+      <c r="E78" s="65"/>
+      <c r="F78" s="64"/>
+    </row>
+    <row r="79" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A79" s="61"/>
+      <c r="B79" s="56" t="s">
+        <v>18</v>
+      </c>
+      <c r="C79" s="64"/>
+      <c r="D79" s="60"/>
+      <c r="E79" s="59">
+        <v>0</v>
+      </c>
+      <c r="F79" s="59"/>
+    </row>
+    <row r="80" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A80" s="61"/>
+      <c r="B80" s="66"/>
+      <c r="C80" s="64"/>
+      <c r="D80" s="64"/>
+      <c r="E80" s="65"/>
+      <c r="F80" s="64"/>
+    </row>
+    <row r="81" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A81" s="61"/>
+      <c r="B81" s="161" t="s">
+        <v>17</v>
+      </c>
+      <c r="C81" s="162"/>
+      <c r="D81" s="139"/>
+      <c r="E81" s="140">
+        <v>10140.799999999999</v>
+      </c>
+      <c r="F81" s="59"/>
+    </row>
+    <row r="82" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A82" s="61"/>
+      <c r="B82" s="61"/>
+      <c r="C82" s="61"/>
+      <c r="D82" s="60"/>
+      <c r="E82" s="59"/>
+      <c r="F82" s="59"/>
+    </row>
+    <row r="83" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A83" s="58"/>
+      <c r="B83" s="157"/>
+      <c r="C83" s="158"/>
+      <c r="D83" s="158"/>
+      <c r="E83" s="158"/>
+      <c r="F83" s="57"/>
+    </row>
+    <row r="84" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A84" s="159" t="s">
+        <v>29</v>
+      </c>
+      <c r="B84" s="159"/>
+      <c r="C84" s="159"/>
+      <c r="D84" s="159"/>
+      <c r="E84" s="159"/>
+      <c r="F84" s="56"/>
+    </row>
+    <row r="85" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A85" s="160" t="s">
+        <v>30</v>
+      </c>
+      <c r="B85" s="160"/>
+      <c r="C85" s="160"/>
+      <c r="D85" s="160"/>
+      <c r="E85" s="160"/>
+      <c r="F85" s="46"/>
+    </row>
+    <row r="86" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A86" s="55"/>
+      <c r="B86" s="55"/>
+      <c r="C86" s="55"/>
+      <c r="D86" s="55"/>
+      <c r="E86" s="55"/>
+      <c r="F86" s="46"/>
+    </row>
+    <row r="87" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A87" s="55"/>
+      <c r="B87" s="55"/>
+      <c r="C87" s="55"/>
+      <c r="D87" s="55"/>
+      <c r="E87" s="55"/>
+      <c r="F87" s="46"/>
+    </row>
+    <row r="88" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A88" s="163" t="s">
+        <v>7</v>
+      </c>
+      <c r="B88" s="163"/>
+      <c r="C88" s="163"/>
+      <c r="D88" s="163"/>
+      <c r="E88" s="163"/>
+      <c r="F88" s="163"/>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="A30:E30"/>
+    <mergeCell ref="B81:C81"/>
+    <mergeCell ref="B83:E83"/>
+    <mergeCell ref="A84:E84"/>
+    <mergeCell ref="A85:E85"/>
+    <mergeCell ref="A88:F88"/>
+  </mergeCells>
+  <printOptions horizontalCentered="1"/>
+  <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
+  <pageSetup paperSize="119" scale="63" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>
--- a/Factures_Excel/1502 - Sina.xlsx
+++ b/Factures_Excel/1502 - Sina.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28730"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\Administration\APP\GCF\Factures_Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAA1815B-C844-45D9-9D4B-9664005E76D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9D7170C-012D-425B-9F43-16BD322D969D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="06-03-20" sheetId="4" r:id="rId1"/>
@@ -22,6 +22,7 @@
     <sheet name="Activités" sheetId="5" r:id="rId7"/>
     <sheet name="2024-10-13 - 24-24522" sheetId="11" r:id="rId8"/>
     <sheet name="2025-03-30 - 25-24833" sheetId="13" r:id="rId9"/>
+    <sheet name="2025-05-17 - 25-24931" sheetId="14" r:id="rId10"/>
   </sheets>
   <definedNames>
     <definedName name="Liste_Activités">Activités!$C$5:$C$45</definedName>
@@ -39,6 +40,7 @@
     <definedName name="_xlnm.Print_Area" localSheetId="1">'20-12-22'!$A$1:$F$89</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="7">'2024-10-13 - 24-24522'!$A$1:$F$89</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="8">'2025-03-30 - 25-24833'!$A$1:$F$88</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="9">'2025-05-17 - 25-24931'!$A$1:$F$88</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="3">'29-04-23'!$A$1:$F$89</definedName>
     <definedName name="Zone_impres_MI">#REF!</definedName>
   </definedNames>
@@ -58,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="115">
   <si>
     <t>NOTE D'HONORAIRES</t>
   </si>
@@ -393,6 +395,18 @@
   </si>
   <si>
     <t>Frais d'expert en impôts international</t>
+  </si>
+  <si>
+    <t>Le 17 MAI 2025</t>
+  </si>
+  <si>
+    <t>25-24931</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - Diverses discussions téléphoniques avec vous;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - Recherches et analyses fiscales requises;</t>
   </si>
 </sst>
 </file>
@@ -1211,37 +1225,37 @@
     <xf numFmtId="168" fontId="34" fillId="3" borderId="15" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" indent="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1828,6 +1842,72 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>210062</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>98425</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9217" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BFED71B0-76DA-7024-96DA-FDF35AF514A9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1" y="0"/>
+          <a:ext cx="11678161" cy="3175000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
@@ -2256,14 +2336,14 @@
       <c r="F29" s="20"/>
     </row>
     <row r="30" spans="1:6" s="40" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="144" t="s">
+      <c r="A30" s="148" t="s">
         <v>0</v>
       </c>
-      <c r="B30" s="144"/>
-      <c r="C30" s="144"/>
-      <c r="D30" s="144"/>
-      <c r="E30" s="144"/>
-      <c r="F30" s="144"/>
+      <c r="B30" s="148"/>
+      <c r="C30" s="148"/>
+      <c r="D30" s="148"/>
+      <c r="E30" s="148"/>
+      <c r="F30" s="148"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" s="17"/>
@@ -2284,259 +2364,259 @@
     </row>
     <row r="33" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A33" s="21"/>
-      <c r="B33" s="143"/>
-      <c r="C33" s="143"/>
-      <c r="D33" s="143"/>
+      <c r="B33" s="145"/>
+      <c r="C33" s="145"/>
+      <c r="D33" s="145"/>
       <c r="E33" s="28"/>
       <c r="F33" s="21"/>
     </row>
     <row r="34" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A34" s="21"/>
-      <c r="B34" s="143"/>
-      <c r="C34" s="143"/>
-      <c r="D34" s="143"/>
+      <c r="B34" s="145"/>
+      <c r="C34" s="145"/>
+      <c r="D34" s="145"/>
       <c r="E34" s="28"/>
       <c r="F34" s="21"/>
     </row>
     <row r="35" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A35" s="21"/>
-      <c r="B35" s="143" t="s">
+      <c r="B35" s="145" t="s">
         <v>10</v>
       </c>
-      <c r="C35" s="143"/>
-      <c r="D35" s="143"/>
+      <c r="C35" s="145"/>
+      <c r="D35" s="145"/>
       <c r="E35" s="28"/>
       <c r="F35" s="21"/>
     </row>
     <row r="36" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A36" s="21"/>
-      <c r="B36" s="143"/>
-      <c r="C36" s="143"/>
-      <c r="D36" s="143"/>
+      <c r="B36" s="145"/>
+      <c r="C36" s="145"/>
+      <c r="D36" s="145"/>
       <c r="E36" s="28"/>
       <c r="F36" s="21"/>
     </row>
     <row r="37" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A37" s="21"/>
-      <c r="B37" s="143"/>
-      <c r="C37" s="143"/>
-      <c r="D37" s="143"/>
+      <c r="B37" s="145"/>
+      <c r="C37" s="145"/>
+      <c r="D37" s="145"/>
       <c r="E37" s="28"/>
       <c r="F37" s="21"/>
     </row>
     <row r="38" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A38" s="21"/>
-      <c r="B38" s="143"/>
-      <c r="C38" s="143"/>
-      <c r="D38" s="143"/>
+      <c r="B38" s="145"/>
+      <c r="C38" s="145"/>
+      <c r="D38" s="145"/>
       <c r="E38" s="28"/>
       <c r="F38" s="21"/>
     </row>
     <row r="39" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A39" s="21"/>
-      <c r="B39" s="143"/>
-      <c r="C39" s="143"/>
-      <c r="D39" s="143"/>
+      <c r="B39" s="145"/>
+      <c r="C39" s="145"/>
+      <c r="D39" s="145"/>
       <c r="E39" s="28"/>
       <c r="F39" s="21"/>
     </row>
     <row r="40" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A40" s="21"/>
-      <c r="B40" s="143"/>
-      <c r="C40" s="143"/>
-      <c r="D40" s="143"/>
+      <c r="B40" s="145"/>
+      <c r="C40" s="145"/>
+      <c r="D40" s="145"/>
       <c r="E40" s="28"/>
       <c r="F40" s="21"/>
     </row>
     <row r="41" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A41" s="21"/>
-      <c r="B41" s="143"/>
-      <c r="C41" s="143"/>
-      <c r="D41" s="143"/>
+      <c r="B41" s="145"/>
+      <c r="C41" s="145"/>
+      <c r="D41" s="145"/>
       <c r="E41" s="28"/>
       <c r="F41" s="21"/>
     </row>
     <row r="42" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A42" s="21"/>
-      <c r="B42" s="143"/>
-      <c r="C42" s="143"/>
-      <c r="D42" s="143"/>
+      <c r="B42" s="145"/>
+      <c r="C42" s="145"/>
+      <c r="D42" s="145"/>
       <c r="E42" s="28"/>
       <c r="F42" s="21"/>
     </row>
     <row r="43" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A43" s="21"/>
-      <c r="B43" s="143"/>
-      <c r="C43" s="143"/>
-      <c r="D43" s="143"/>
+      <c r="B43" s="145"/>
+      <c r="C43" s="145"/>
+      <c r="D43" s="145"/>
       <c r="E43" s="28"/>
       <c r="F43" s="21"/>
     </row>
     <row r="44" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A44" s="21"/>
-      <c r="B44" s="143"/>
-      <c r="C44" s="143"/>
-      <c r="D44" s="143"/>
+      <c r="B44" s="145"/>
+      <c r="C44" s="145"/>
+      <c r="D44" s="145"/>
       <c r="E44" s="28"/>
       <c r="F44" s="21"/>
     </row>
     <row r="45" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A45" s="21"/>
-      <c r="B45" s="143"/>
-      <c r="C45" s="143"/>
-      <c r="D45" s="143"/>
+      <c r="B45" s="145"/>
+      <c r="C45" s="145"/>
+      <c r="D45" s="145"/>
       <c r="E45" s="28"/>
       <c r="F45" s="21"/>
     </row>
     <row r="46" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A46" s="21"/>
-      <c r="B46" s="143"/>
-      <c r="C46" s="143"/>
-      <c r="D46" s="143"/>
+      <c r="B46" s="145"/>
+      <c r="C46" s="145"/>
+      <c r="D46" s="145"/>
       <c r="E46" s="28"/>
       <c r="F46" s="21"/>
     </row>
     <row r="47" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A47" s="21"/>
-      <c r="B47" s="143"/>
-      <c r="C47" s="143"/>
-      <c r="D47" s="143"/>
+      <c r="B47" s="145"/>
+      <c r="C47" s="145"/>
+      <c r="D47" s="145"/>
       <c r="E47" s="28"/>
       <c r="F47" s="21"/>
     </row>
     <row r="48" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A48" s="21"/>
-      <c r="B48" s="143"/>
-      <c r="C48" s="143"/>
-      <c r="D48" s="143"/>
+      <c r="B48" s="145"/>
+      <c r="C48" s="145"/>
+      <c r="D48" s="145"/>
       <c r="E48" s="28"/>
       <c r="F48" s="21"/>
     </row>
     <row r="49" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A49" s="21"/>
-      <c r="B49" s="143"/>
-      <c r="C49" s="143"/>
-      <c r="D49" s="143"/>
+      <c r="B49" s="145"/>
+      <c r="C49" s="145"/>
+      <c r="D49" s="145"/>
       <c r="E49" s="28"/>
       <c r="F49" s="21"/>
     </row>
     <row r="50" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A50" s="21"/>
-      <c r="B50" s="143"/>
-      <c r="C50" s="143"/>
-      <c r="D50" s="143"/>
+      <c r="B50" s="145"/>
+      <c r="C50" s="145"/>
+      <c r="D50" s="145"/>
       <c r="E50" s="28"/>
       <c r="F50" s="21"/>
     </row>
     <row r="51" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A51" s="21"/>
-      <c r="B51" s="143"/>
-      <c r="C51" s="143"/>
-      <c r="D51" s="143"/>
+      <c r="B51" s="145"/>
+      <c r="C51" s="145"/>
+      <c r="D51" s="145"/>
       <c r="E51" s="28"/>
       <c r="F51" s="21"/>
     </row>
     <row r="52" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A52" s="21"/>
-      <c r="B52" s="143"/>
-      <c r="C52" s="143"/>
-      <c r="D52" s="143"/>
+      <c r="B52" s="145"/>
+      <c r="C52" s="145"/>
+      <c r="D52" s="145"/>
       <c r="E52" s="28"/>
       <c r="F52" s="21"/>
     </row>
     <row r="53" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A53" s="21"/>
-      <c r="B53" s="143"/>
-      <c r="C53" s="143"/>
-      <c r="D53" s="143"/>
+      <c r="B53" s="145"/>
+      <c r="C53" s="145"/>
+      <c r="D53" s="145"/>
       <c r="E53" s="28"/>
       <c r="F53" s="21"/>
     </row>
     <row r="54" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A54" s="21"/>
-      <c r="B54" s="143"/>
-      <c r="C54" s="143"/>
-      <c r="D54" s="143"/>
+      <c r="B54" s="145"/>
+      <c r="C54" s="145"/>
+      <c r="D54" s="145"/>
       <c r="E54" s="28"/>
       <c r="F54" s="21"/>
     </row>
     <row r="55" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A55" s="21"/>
-      <c r="B55" s="143"/>
-      <c r="C55" s="143"/>
-      <c r="D55" s="143"/>
+      <c r="B55" s="145"/>
+      <c r="C55" s="145"/>
+      <c r="D55" s="145"/>
       <c r="E55" s="28"/>
       <c r="F55" s="21"/>
     </row>
     <row r="56" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A56" s="21"/>
-      <c r="B56" s="143"/>
-      <c r="C56" s="143"/>
-      <c r="D56" s="143"/>
+      <c r="B56" s="145"/>
+      <c r="C56" s="145"/>
+      <c r="D56" s="145"/>
       <c r="E56" s="28"/>
       <c r="F56" s="21"/>
     </row>
     <row r="57" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A57" s="21"/>
-      <c r="B57" s="143"/>
-      <c r="C57" s="143"/>
-      <c r="D57" s="143"/>
+      <c r="B57" s="145"/>
+      <c r="C57" s="145"/>
+      <c r="D57" s="145"/>
       <c r="E57" s="28"/>
       <c r="F57" s="21"/>
     </row>
     <row r="58" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A58" s="21"/>
-      <c r="B58" s="143"/>
-      <c r="C58" s="143"/>
-      <c r="D58" s="143"/>
+      <c r="B58" s="145"/>
+      <c r="C58" s="145"/>
+      <c r="D58" s="145"/>
       <c r="E58" s="28"/>
       <c r="F58" s="21"/>
     </row>
     <row r="59" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A59" s="21"/>
-      <c r="B59" s="143"/>
-      <c r="C59" s="143"/>
-      <c r="D59" s="143"/>
+      <c r="B59" s="145"/>
+      <c r="C59" s="145"/>
+      <c r="D59" s="145"/>
       <c r="E59" s="28"/>
       <c r="F59" s="21"/>
     </row>
     <row r="60" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A60" s="21"/>
-      <c r="B60" s="143"/>
-      <c r="C60" s="143"/>
-      <c r="D60" s="143"/>
+      <c r="B60" s="145"/>
+      <c r="C60" s="145"/>
+      <c r="D60" s="145"/>
       <c r="E60" s="28"/>
       <c r="F60" s="21"/>
     </row>
     <row r="61" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A61" s="21"/>
-      <c r="B61" s="143"/>
-      <c r="C61" s="143"/>
-      <c r="D61" s="143"/>
+      <c r="B61" s="145"/>
+      <c r="C61" s="145"/>
+      <c r="D61" s="145"/>
       <c r="E61" s="28"/>
       <c r="F61" s="21"/>
     </row>
     <row r="62" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A62" s="21"/>
-      <c r="B62" s="143"/>
-      <c r="C62" s="143"/>
-      <c r="D62" s="143"/>
+      <c r="B62" s="145"/>
+      <c r="C62" s="145"/>
+      <c r="D62" s="145"/>
       <c r="E62" s="28"/>
       <c r="F62" s="21"/>
     </row>
     <row r="63" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A63" s="21"/>
-      <c r="B63" s="143"/>
-      <c r="C63" s="143"/>
-      <c r="D63" s="143"/>
+      <c r="B63" s="145"/>
+      <c r="C63" s="145"/>
+      <c r="D63" s="145"/>
       <c r="E63" s="28"/>
       <c r="F63" s="21"/>
     </row>
     <row r="64" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A64" s="21"/>
-      <c r="B64" s="143"/>
-      <c r="C64" s="143"/>
-      <c r="D64" s="143"/>
+      <c r="B64" s="145"/>
+      <c r="C64" s="145"/>
+      <c r="D64" s="145"/>
       <c r="E64" s="28"/>
       <c r="F64" s="21"/>
     </row>
@@ -2566,17 +2646,17 @@
     </row>
     <row r="67" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A67" s="21"/>
-      <c r="B67" s="143"/>
-      <c r="C67" s="143"/>
-      <c r="D67" s="143"/>
+      <c r="B67" s="145"/>
+      <c r="C67" s="145"/>
+      <c r="D67" s="145"/>
       <c r="E67" s="28"/>
       <c r="F67" s="21"/>
     </row>
     <row r="68" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="21"/>
-      <c r="B68" s="143"/>
-      <c r="C68" s="143"/>
-      <c r="D68" s="143"/>
+      <c r="B68" s="145"/>
+      <c r="C68" s="145"/>
+      <c r="D68" s="145"/>
       <c r="E68" s="28"/>
       <c r="F68" s="21"/>
     </row>
@@ -2683,19 +2763,19 @@
     </row>
     <row r="77" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A77" s="21"/>
-      <c r="B77" s="145"/>
-      <c r="C77" s="145"/>
-      <c r="D77" s="145"/>
+      <c r="B77" s="149"/>
+      <c r="C77" s="149"/>
+      <c r="D77" s="149"/>
       <c r="E77" s="36"/>
       <c r="F77" s="21"/>
     </row>
     <row r="78" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A78" s="21"/>
-      <c r="B78" s="150" t="s">
+      <c r="B78" s="146" t="s">
         <v>18</v>
       </c>
-      <c r="C78" s="150"/>
-      <c r="D78" s="150"/>
+      <c r="C78" s="146"/>
+      <c r="D78" s="146"/>
       <c r="E78" s="36">
         <v>0</v>
       </c>
@@ -2703,9 +2783,9 @@
     </row>
     <row r="79" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A79" s="21"/>
-      <c r="B79" s="145"/>
-      <c r="C79" s="145"/>
-      <c r="D79" s="145"/>
+      <c r="B79" s="149"/>
+      <c r="C79" s="149"/>
+      <c r="D79" s="149"/>
       <c r="E79" s="36"/>
       <c r="F79" s="21"/>
     </row>
@@ -2740,31 +2820,31 @@
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A83" s="21"/>
-      <c r="B83" s="148"/>
-      <c r="C83" s="148"/>
-      <c r="D83" s="148"/>
-      <c r="E83" s="148"/>
+      <c r="B83" s="143"/>
+      <c r="C83" s="143"/>
+      <c r="D83" s="143"/>
+      <c r="E83" s="143"/>
       <c r="F83" s="21"/>
     </row>
     <row r="84" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A84" s="142" t="s">
+      <c r="A84" s="151" t="s">
         <v>29</v>
       </c>
-      <c r="B84" s="142"/>
-      <c r="C84" s="142"/>
-      <c r="D84" s="142"/>
-      <c r="E84" s="142"/>
-      <c r="F84" s="142"/>
+      <c r="B84" s="151"/>
+      <c r="C84" s="151"/>
+      <c r="D84" s="151"/>
+      <c r="E84" s="151"/>
+      <c r="F84" s="151"/>
     </row>
     <row r="85" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A85" s="151" t="s">
+      <c r="A85" s="147" t="s">
         <v>30</v>
       </c>
-      <c r="B85" s="151"/>
-      <c r="C85" s="151"/>
-      <c r="D85" s="151"/>
-      <c r="E85" s="151"/>
-      <c r="F85" s="151"/>
+      <c r="B85" s="147"/>
+      <c r="C85" s="147"/>
+      <c r="D85" s="147"/>
+      <c r="E85" s="147"/>
+      <c r="F85" s="147"/>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A86" s="21"/>
@@ -2776,26 +2856,26 @@
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A87" s="21"/>
-      <c r="B87" s="149"/>
-      <c r="C87" s="149"/>
-      <c r="D87" s="149"/>
-      <c r="E87" s="149"/>
+      <c r="B87" s="144"/>
+      <c r="C87" s="144"/>
+      <c r="D87" s="144"/>
+      <c r="E87" s="144"/>
       <c r="F87" s="21"/>
     </row>
     <row r="88" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A88" s="141" t="s">
+      <c r="A88" s="150" t="s">
         <v>7</v>
       </c>
-      <c r="B88" s="141"/>
-      <c r="C88" s="141"/>
-      <c r="D88" s="141"/>
-      <c r="E88" s="141"/>
-      <c r="F88" s="141"/>
+      <c r="B88" s="150"/>
+      <c r="C88" s="150"/>
+      <c r="D88" s="150"/>
+      <c r="E88" s="150"/>
+      <c r="F88" s="150"/>
     </row>
     <row r="90" spans="1:6" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B90" s="146"/>
-      <c r="C90" s="147"/>
-      <c r="D90" s="147"/>
+      <c r="B90" s="141"/>
+      <c r="C90" s="142"/>
+      <c r="D90" s="142"/>
     </row>
     <row r="91" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="92" spans="1:6" x14ac:dyDescent="0.2">
@@ -2805,6 +2885,34 @@
     </row>
   </sheetData>
   <mergeCells count="44">
+    <mergeCell ref="A88:F88"/>
+    <mergeCell ref="A84:F84"/>
+    <mergeCell ref="B33:D33"/>
+    <mergeCell ref="B34:D34"/>
+    <mergeCell ref="B64:D64"/>
+    <mergeCell ref="B67:D67"/>
+    <mergeCell ref="B68:D68"/>
+    <mergeCell ref="B59:D59"/>
+    <mergeCell ref="B60:D60"/>
+    <mergeCell ref="B61:D61"/>
+    <mergeCell ref="B62:D62"/>
+    <mergeCell ref="B63:D63"/>
+    <mergeCell ref="B53:D53"/>
+    <mergeCell ref="A30:F30"/>
+    <mergeCell ref="B79:D79"/>
+    <mergeCell ref="B51:D51"/>
+    <mergeCell ref="B52:D52"/>
+    <mergeCell ref="B46:D46"/>
+    <mergeCell ref="B47:D47"/>
+    <mergeCell ref="B48:D48"/>
+    <mergeCell ref="B49:D49"/>
+    <mergeCell ref="B50:D50"/>
+    <mergeCell ref="B54:D54"/>
+    <mergeCell ref="B56:D56"/>
+    <mergeCell ref="B57:D57"/>
+    <mergeCell ref="B58:D58"/>
+    <mergeCell ref="B77:D77"/>
+    <mergeCell ref="B55:D55"/>
     <mergeCell ref="B90:D90"/>
     <mergeCell ref="B83:E83"/>
     <mergeCell ref="B87:E87"/>
@@ -2821,34 +2929,6 @@
     <mergeCell ref="B45:D45"/>
     <mergeCell ref="B78:D78"/>
     <mergeCell ref="A85:F85"/>
-    <mergeCell ref="A30:F30"/>
-    <mergeCell ref="B79:D79"/>
-    <mergeCell ref="B51:D51"/>
-    <mergeCell ref="B52:D52"/>
-    <mergeCell ref="B46:D46"/>
-    <mergeCell ref="B47:D47"/>
-    <mergeCell ref="B48:D48"/>
-    <mergeCell ref="B49:D49"/>
-    <mergeCell ref="B50:D50"/>
-    <mergeCell ref="B54:D54"/>
-    <mergeCell ref="B56:D56"/>
-    <mergeCell ref="B57:D57"/>
-    <mergeCell ref="B58:D58"/>
-    <mergeCell ref="B77:D77"/>
-    <mergeCell ref="B55:D55"/>
-    <mergeCell ref="A88:F88"/>
-    <mergeCell ref="A84:F84"/>
-    <mergeCell ref="B33:D33"/>
-    <mergeCell ref="B34:D34"/>
-    <mergeCell ref="B64:D64"/>
-    <mergeCell ref="B67:D67"/>
-    <mergeCell ref="B68:D68"/>
-    <mergeCell ref="B59:D59"/>
-    <mergeCell ref="B60:D60"/>
-    <mergeCell ref="B61:D61"/>
-    <mergeCell ref="B62:D62"/>
-    <mergeCell ref="B63:D63"/>
-    <mergeCell ref="B53:D53"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <dataValidations count="1">
@@ -2860,6 +2940,843 @@
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
   <pageSetup paperSize="131" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
   <headerFooter scaleWithDoc="0" alignWithMargins="0"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E792292E-775E-438B-81CE-FD756145F553}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:F88"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:F88"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="5.140625" customWidth="1"/>
+    <col min="2" max="2" width="120" customWidth="1"/>
+    <col min="3" max="3" width="11.5703125" customWidth="1"/>
+    <col min="4" max="4" width="17.5703125" customWidth="1"/>
+    <col min="5" max="5" width="17.7109375" customWidth="1"/>
+    <col min="6" max="6" width="10.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="118"/>
+      <c r="B1" s="118"/>
+      <c r="C1" s="118"/>
+      <c r="D1" s="116"/>
+      <c r="E1" s="115"/>
+      <c r="F1" s="115"/>
+    </row>
+    <row r="2" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="118"/>
+      <c r="B2" s="118"/>
+      <c r="C2" s="118"/>
+      <c r="D2" s="116"/>
+      <c r="E2" s="115"/>
+      <c r="F2" s="115"/>
+    </row>
+    <row r="3" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="118"/>
+      <c r="B3" s="118"/>
+      <c r="C3" s="118"/>
+      <c r="D3" s="116"/>
+      <c r="E3" s="115"/>
+      <c r="F3" s="115"/>
+    </row>
+    <row r="4" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="118"/>
+      <c r="B4" s="118"/>
+      <c r="C4" s="118"/>
+      <c r="D4" s="116"/>
+      <c r="E4" s="115"/>
+      <c r="F4" s="115"/>
+    </row>
+    <row r="5" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="118"/>
+      <c r="B5" s="118"/>
+      <c r="C5" s="118"/>
+      <c r="D5" s="116"/>
+      <c r="E5" s="115"/>
+      <c r="F5" s="115"/>
+    </row>
+    <row r="6" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="118"/>
+      <c r="B6" s="118"/>
+      <c r="C6" s="118"/>
+      <c r="D6" s="116"/>
+      <c r="E6" s="115"/>
+      <c r="F6" s="115"/>
+    </row>
+    <row r="7" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="118"/>
+      <c r="B7" s="118"/>
+      <c r="C7" s="118"/>
+      <c r="D7" s="116"/>
+      <c r="E7" s="115"/>
+      <c r="F7" s="115"/>
+    </row>
+    <row r="8" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="118"/>
+      <c r="B8" s="118"/>
+      <c r="C8" s="118"/>
+      <c r="D8" s="116"/>
+      <c r="E8" s="115"/>
+      <c r="F8" s="115"/>
+    </row>
+    <row r="9" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="118"/>
+      <c r="B9" s="118"/>
+      <c r="C9" s="118"/>
+      <c r="D9" s="119"/>
+      <c r="E9" s="115"/>
+      <c r="F9" s="115"/>
+    </row>
+    <row r="10" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="118"/>
+      <c r="B10" s="118"/>
+      <c r="C10" s="118"/>
+      <c r="D10" s="116"/>
+      <c r="E10" s="115"/>
+      <c r="F10" s="115"/>
+    </row>
+    <row r="11" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="118"/>
+      <c r="B11" s="118"/>
+      <c r="C11" s="118"/>
+      <c r="D11" s="116"/>
+      <c r="E11" s="115"/>
+      <c r="F11" s="115"/>
+    </row>
+    <row r="12" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="118"/>
+      <c r="B12" s="117"/>
+      <c r="C12" s="117"/>
+      <c r="D12" s="116"/>
+      <c r="E12" s="115"/>
+      <c r="F12" s="115"/>
+    </row>
+    <row r="13" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="118"/>
+      <c r="B13" s="117"/>
+      <c r="C13" s="117"/>
+      <c r="D13" s="116"/>
+      <c r="E13" s="115"/>
+      <c r="F13" s="115"/>
+    </row>
+    <row r="14" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="118"/>
+      <c r="B14" s="117"/>
+      <c r="C14" s="117"/>
+      <c r="D14" s="116"/>
+      <c r="E14" s="115"/>
+      <c r="F14" s="115"/>
+    </row>
+    <row r="15" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="118"/>
+      <c r="B15" s="117"/>
+      <c r="C15" s="117"/>
+      <c r="D15" s="116"/>
+      <c r="E15" s="115"/>
+      <c r="F15" s="115"/>
+    </row>
+    <row r="16" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="118"/>
+      <c r="B16" s="117"/>
+      <c r="C16" s="117"/>
+      <c r="D16" s="116"/>
+      <c r="E16" s="115"/>
+      <c r="F16" s="115"/>
+    </row>
+    <row r="17" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="118"/>
+      <c r="B17" s="117"/>
+      <c r="C17" s="117"/>
+      <c r="D17" s="116"/>
+      <c r="E17" s="115"/>
+      <c r="F17" s="115"/>
+    </row>
+    <row r="18" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="118"/>
+      <c r="B18" s="117"/>
+      <c r="C18" s="117"/>
+      <c r="D18" s="116"/>
+      <c r="E18" s="115"/>
+      <c r="F18" s="115"/>
+    </row>
+    <row r="19" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="118"/>
+      <c r="B19" s="117"/>
+      <c r="C19" s="117"/>
+      <c r="D19" s="116"/>
+      <c r="E19" s="115"/>
+      <c r="F19" s="115"/>
+    </row>
+    <row r="20" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="118"/>
+      <c r="B20" s="117"/>
+      <c r="C20" s="117"/>
+      <c r="D20" s="116"/>
+      <c r="E20" s="115"/>
+      <c r="F20" s="115"/>
+    </row>
+    <row r="21" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="61"/>
+      <c r="B21" s="77" t="s">
+        <v>111</v>
+      </c>
+      <c r="C21" s="77"/>
+      <c r="D21" s="60"/>
+      <c r="E21" s="59"/>
+      <c r="F21" s="59"/>
+    </row>
+    <row r="22" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="61"/>
+      <c r="B22" s="61"/>
+      <c r="C22" s="61"/>
+      <c r="D22" s="60"/>
+      <c r="E22" s="59"/>
+      <c r="F22" s="59"/>
+    </row>
+    <row r="23" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="61"/>
+      <c r="B23" s="77" t="s">
+        <v>101</v>
+      </c>
+      <c r="C23" s="77"/>
+      <c r="D23" s="60"/>
+      <c r="E23" s="59"/>
+      <c r="F23" s="59"/>
+    </row>
+    <row r="24" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="61"/>
+      <c r="B24" s="114" t="s">
+        <v>100</v>
+      </c>
+      <c r="C24" s="61"/>
+      <c r="D24" s="60"/>
+      <c r="E24" s="59"/>
+      <c r="F24" s="59"/>
+    </row>
+    <row r="25" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="61"/>
+      <c r="B25" s="61" t="s">
+        <v>99</v>
+      </c>
+      <c r="C25" s="61"/>
+      <c r="D25" s="60"/>
+      <c r="E25" s="59"/>
+      <c r="F25" s="59"/>
+    </row>
+    <row r="26" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="61"/>
+      <c r="B26" s="61" t="s">
+        <v>98</v>
+      </c>
+      <c r="C26" s="61"/>
+      <c r="D26" s="60"/>
+      <c r="E26" s="59"/>
+      <c r="F26" s="59"/>
+    </row>
+    <row r="27" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="77"/>
+      <c r="B27" s="61" t="s">
+        <v>97</v>
+      </c>
+      <c r="C27" s="61"/>
+      <c r="D27" s="113"/>
+      <c r="E27" s="112"/>
+      <c r="F27" s="112"/>
+    </row>
+    <row r="28" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="61"/>
+      <c r="B28" s="77"/>
+      <c r="C28" s="77"/>
+      <c r="D28" s="112" t="s">
+        <v>11</v>
+      </c>
+      <c r="E28" s="111" t="s">
+        <v>112</v>
+      </c>
+      <c r="F28" s="111"/>
+    </row>
+    <row r="29" spans="1:6" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="110"/>
+      <c r="B29" s="110"/>
+      <c r="C29" s="110"/>
+      <c r="D29" s="109"/>
+      <c r="E29" s="108"/>
+      <c r="F29" s="108"/>
+    </row>
+    <row r="30" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="154" t="s">
+        <v>0</v>
+      </c>
+      <c r="B30" s="154"/>
+      <c r="C30" s="154"/>
+      <c r="D30" s="154"/>
+      <c r="E30" s="154"/>
+      <c r="F30" s="107"/>
+    </row>
+    <row r="31" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="106"/>
+      <c r="B31" s="106"/>
+      <c r="C31" s="106"/>
+      <c r="D31" s="106"/>
+      <c r="E31" s="106"/>
+      <c r="F31" s="106"/>
+    </row>
+    <row r="32" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="82"/>
+      <c r="B32" s="56" t="s">
+        <v>6</v>
+      </c>
+      <c r="C32" s="105"/>
+      <c r="D32" s="104"/>
+      <c r="E32" s="103"/>
+      <c r="F32" s="103"/>
+    </row>
+    <row r="33" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="82"/>
+      <c r="B33" s="82"/>
+      <c r="C33" s="82"/>
+      <c r="D33" s="104"/>
+      <c r="E33" s="103"/>
+      <c r="F33" s="103"/>
+    </row>
+    <row r="34" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="82"/>
+      <c r="B34" s="100" t="s">
+        <v>105</v>
+      </c>
+      <c r="C34" s="120"/>
+      <c r="D34" s="85"/>
+      <c r="E34" s="85"/>
+      <c r="F34" s="85"/>
+    </row>
+    <row r="35" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="82"/>
+      <c r="B35" s="100" t="s">
+        <v>90</v>
+      </c>
+      <c r="C35" s="121"/>
+      <c r="D35" s="85"/>
+      <c r="E35" s="85"/>
+      <c r="F35" s="85"/>
+    </row>
+    <row r="36" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="82"/>
+      <c r="B36" s="100" t="s">
+        <v>2</v>
+      </c>
+      <c r="C36" s="120"/>
+      <c r="D36" s="85"/>
+      <c r="E36" s="85"/>
+      <c r="F36" s="85"/>
+    </row>
+    <row r="37" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="82"/>
+      <c r="B37" s="100" t="s">
+        <v>90</v>
+      </c>
+      <c r="C37" s="120"/>
+      <c r="D37" s="85"/>
+      <c r="E37" s="85"/>
+      <c r="F37" s="85"/>
+    </row>
+    <row r="38" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="82"/>
+      <c r="B38" s="100" t="s">
+        <v>61</v>
+      </c>
+      <c r="C38" s="120"/>
+      <c r="D38" s="85"/>
+      <c r="E38" s="85"/>
+      <c r="F38" s="85"/>
+    </row>
+    <row r="39" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="82"/>
+      <c r="B39" s="100" t="s">
+        <v>90</v>
+      </c>
+      <c r="C39" s="120"/>
+      <c r="D39" s="85"/>
+      <c r="E39" s="85"/>
+      <c r="F39" s="85"/>
+    </row>
+    <row r="40" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="82"/>
+      <c r="B40" s="100" t="s">
+        <v>113</v>
+      </c>
+      <c r="C40" s="121"/>
+      <c r="D40" s="85"/>
+      <c r="E40" s="85"/>
+      <c r="F40" s="85"/>
+    </row>
+    <row r="41" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="82"/>
+      <c r="B41" s="100" t="s">
+        <v>90</v>
+      </c>
+      <c r="C41" s="120"/>
+      <c r="D41" s="85"/>
+      <c r="E41" s="85"/>
+      <c r="F41" s="85"/>
+    </row>
+    <row r="42" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="82"/>
+      <c r="B42" s="100" t="s">
+        <v>114</v>
+      </c>
+      <c r="C42" s="120"/>
+      <c r="D42" s="85"/>
+      <c r="E42" s="85"/>
+      <c r="F42" s="85"/>
+    </row>
+    <row r="43" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="82"/>
+      <c r="B43" s="100"/>
+      <c r="C43" s="120"/>
+      <c r="D43" s="85"/>
+      <c r="E43" s="85"/>
+      <c r="F43" s="85"/>
+    </row>
+    <row r="44" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="82"/>
+      <c r="B44" s="100"/>
+      <c r="C44" s="120"/>
+      <c r="D44" s="85"/>
+      <c r="E44" s="85"/>
+      <c r="F44" s="85"/>
+    </row>
+    <row r="45" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="82"/>
+      <c r="B45" s="100"/>
+      <c r="C45" s="120"/>
+      <c r="D45" s="85"/>
+      <c r="E45" s="85"/>
+      <c r="F45" s="85"/>
+    </row>
+    <row r="46" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="82"/>
+      <c r="B46" s="100"/>
+      <c r="C46" s="120"/>
+      <c r="D46" s="85"/>
+      <c r="E46" s="85"/>
+      <c r="F46" s="85"/>
+    </row>
+    <row r="47" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="82"/>
+      <c r="B47" s="100"/>
+      <c r="C47" s="120"/>
+      <c r="D47" s="85"/>
+      <c r="E47" s="85"/>
+      <c r="F47" s="85"/>
+    </row>
+    <row r="48" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="82"/>
+      <c r="B48" s="100"/>
+      <c r="C48" s="120"/>
+      <c r="D48" s="85"/>
+      <c r="E48" s="85"/>
+      <c r="F48" s="85"/>
+    </row>
+    <row r="49" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="82"/>
+      <c r="B49" s="100"/>
+      <c r="C49" s="120"/>
+      <c r="D49" s="85"/>
+      <c r="E49" s="85"/>
+      <c r="F49" s="85"/>
+    </row>
+    <row r="50" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="82"/>
+      <c r="B50" s="100"/>
+      <c r="C50" s="122"/>
+      <c r="D50" s="122"/>
+      <c r="E50" s="85"/>
+      <c r="F50" s="85"/>
+    </row>
+    <row r="51" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A51" s="82"/>
+      <c r="B51" s="100"/>
+      <c r="C51" s="120"/>
+      <c r="D51" s="85"/>
+      <c r="E51" s="85"/>
+      <c r="F51" s="85"/>
+    </row>
+    <row r="52" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A52" s="82"/>
+      <c r="B52" s="100"/>
+      <c r="C52" s="120"/>
+      <c r="D52" s="85"/>
+      <c r="E52" s="85"/>
+      <c r="F52" s="85"/>
+    </row>
+    <row r="53" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A53" s="82"/>
+      <c r="B53" s="100"/>
+      <c r="C53" s="120"/>
+      <c r="D53" s="85"/>
+      <c r="E53" s="85"/>
+      <c r="F53" s="85"/>
+    </row>
+    <row r="54" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A54" s="82"/>
+      <c r="B54" s="100"/>
+      <c r="C54" s="120"/>
+      <c r="D54" s="85"/>
+      <c r="E54" s="85"/>
+      <c r="F54" s="85"/>
+    </row>
+    <row r="55" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A55" s="82"/>
+      <c r="B55" s="100"/>
+      <c r="C55" s="120"/>
+      <c r="D55" s="85"/>
+      <c r="E55" s="85"/>
+      <c r="F55" s="85"/>
+    </row>
+    <row r="56" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A56" s="82"/>
+      <c r="B56" s="100"/>
+      <c r="C56" s="120"/>
+      <c r="D56" s="85"/>
+      <c r="E56" s="85"/>
+      <c r="F56" s="85"/>
+    </row>
+    <row r="57" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A57" s="82"/>
+      <c r="B57" s="100"/>
+      <c r="C57" s="120"/>
+      <c r="D57" s="85"/>
+      <c r="E57" s="85"/>
+      <c r="F57" s="85"/>
+    </row>
+    <row r="58" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A58" s="82"/>
+      <c r="B58" s="100"/>
+      <c r="C58" s="120"/>
+      <c r="D58" s="85"/>
+      <c r="E58" s="85"/>
+      <c r="F58" s="85"/>
+    </row>
+    <row r="59" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A59" s="82"/>
+      <c r="B59" s="100"/>
+      <c r="C59" s="120"/>
+      <c r="D59" s="85"/>
+      <c r="E59" s="85"/>
+      <c r="F59" s="85"/>
+    </row>
+    <row r="60" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A60" s="82"/>
+      <c r="B60" s="100"/>
+      <c r="C60" s="120"/>
+      <c r="D60" s="85"/>
+      <c r="E60" s="85"/>
+      <c r="F60" s="85"/>
+    </row>
+    <row r="61" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A61" s="82"/>
+      <c r="B61" s="100"/>
+      <c r="C61" s="120"/>
+      <c r="D61" s="85"/>
+      <c r="E61" s="85"/>
+      <c r="F61" s="85"/>
+    </row>
+    <row r="62" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A62" s="82"/>
+      <c r="B62" s="100"/>
+      <c r="C62" s="120"/>
+      <c r="D62" s="85"/>
+      <c r="E62" s="85"/>
+      <c r="F62" s="85"/>
+    </row>
+    <row r="63" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A63" s="82"/>
+      <c r="B63" s="123"/>
+      <c r="C63" s="124"/>
+      <c r="D63" s="125"/>
+      <c r="E63" s="85"/>
+      <c r="F63" s="85"/>
+    </row>
+    <row r="64" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A64" s="82"/>
+      <c r="B64" s="123"/>
+      <c r="C64" s="126"/>
+      <c r="D64" s="103"/>
+      <c r="E64" s="85"/>
+      <c r="F64" s="85"/>
+    </row>
+    <row r="65" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A65" s="82"/>
+      <c r="B65" s="100"/>
+      <c r="C65" s="127" t="s">
+        <v>37</v>
+      </c>
+      <c r="D65" s="128" t="s">
+        <v>38</v>
+      </c>
+      <c r="E65" s="85"/>
+      <c r="F65" s="85"/>
+    </row>
+    <row r="66" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A66" s="82"/>
+      <c r="B66" s="100"/>
+      <c r="C66" s="129">
+        <v>15.5</v>
+      </c>
+      <c r="D66" s="130">
+        <v>385</v>
+      </c>
+      <c r="E66" s="131"/>
+      <c r="F66" s="131"/>
+    </row>
+    <row r="67" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A67" s="82"/>
+      <c r="B67" s="123"/>
+      <c r="C67" s="129"/>
+      <c r="D67" s="130"/>
+      <c r="E67" s="85"/>
+      <c r="F67" s="85"/>
+    </row>
+    <row r="68" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A68" s="82"/>
+      <c r="B68" s="123"/>
+      <c r="C68" s="83"/>
+      <c r="D68" s="83"/>
+      <c r="E68" s="83"/>
+      <c r="F68" s="82"/>
+    </row>
+    <row r="69" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A69" s="61"/>
+      <c r="B69" s="66" t="s">
+        <v>15</v>
+      </c>
+      <c r="C69" s="66"/>
+      <c r="D69" s="60"/>
+      <c r="E69" s="132">
+        <v>5967.5</v>
+      </c>
+      <c r="F69" s="132"/>
+    </row>
+    <row r="70" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A70" s="61"/>
+      <c r="B70" s="80" t="s">
+        <v>12</v>
+      </c>
+      <c r="C70" s="73"/>
+      <c r="D70" s="60"/>
+      <c r="E70" s="133">
+        <v>0</v>
+      </c>
+      <c r="F70" s="133"/>
+    </row>
+    <row r="71" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A71" s="61"/>
+      <c r="B71" s="134" t="s">
+        <v>88</v>
+      </c>
+      <c r="C71" s="73"/>
+      <c r="D71" s="60"/>
+      <c r="E71" s="133">
+        <v>0</v>
+      </c>
+      <c r="F71" s="133"/>
+    </row>
+    <row r="72" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A72" s="61"/>
+      <c r="B72" s="134" t="s">
+        <v>13</v>
+      </c>
+      <c r="C72" s="73"/>
+      <c r="D72" s="60"/>
+      <c r="E72" s="133">
+        <v>0</v>
+      </c>
+      <c r="F72" s="133"/>
+    </row>
+    <row r="73" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A73" s="61"/>
+      <c r="B73" s="77" t="s">
+        <v>14</v>
+      </c>
+      <c r="C73" s="66"/>
+      <c r="D73" s="60"/>
+      <c r="E73" s="76">
+        <v>5967.5</v>
+      </c>
+      <c r="F73" s="76"/>
+    </row>
+    <row r="74" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A74" s="61"/>
+      <c r="B74" s="73" t="s">
+        <v>5</v>
+      </c>
+      <c r="C74" s="135">
+        <v>0.05</v>
+      </c>
+      <c r="D74" s="73"/>
+      <c r="E74" s="71">
+        <v>298.38</v>
+      </c>
+      <c r="F74" s="71"/>
+    </row>
+    <row r="75" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A75" s="61"/>
+      <c r="B75" s="64" t="s">
+        <v>4</v>
+      </c>
+      <c r="C75" s="136">
+        <v>9.9750000000000005E-2</v>
+      </c>
+      <c r="D75" s="73"/>
+      <c r="E75" s="72">
+        <v>595.26</v>
+      </c>
+      <c r="F75" s="71"/>
+    </row>
+    <row r="76" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A76" s="61"/>
+      <c r="B76" s="56"/>
+      <c r="C76" s="61"/>
+      <c r="D76" s="60"/>
+      <c r="E76" s="59"/>
+      <c r="F76" s="59"/>
+    </row>
+    <row r="77" spans="1:6" ht="15.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="61"/>
+      <c r="B77" s="70" t="s">
+        <v>16</v>
+      </c>
+      <c r="C77" s="66"/>
+      <c r="D77" s="69"/>
+      <c r="E77" s="137">
+        <v>6861.14</v>
+      </c>
+      <c r="F77" s="138"/>
+    </row>
+    <row r="78" spans="1:6" ht="15.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A78" s="61"/>
+      <c r="B78" s="64"/>
+      <c r="C78" s="64"/>
+      <c r="D78" s="64"/>
+      <c r="E78" s="65"/>
+      <c r="F78" s="64"/>
+    </row>
+    <row r="79" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A79" s="61"/>
+      <c r="B79" s="56" t="s">
+        <v>18</v>
+      </c>
+      <c r="C79" s="64"/>
+      <c r="D79" s="60"/>
+      <c r="E79" s="59">
+        <v>0</v>
+      </c>
+      <c r="F79" s="59"/>
+    </row>
+    <row r="80" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A80" s="61"/>
+      <c r="B80" s="66"/>
+      <c r="C80" s="64"/>
+      <c r="D80" s="64"/>
+      <c r="E80" s="65"/>
+      <c r="F80" s="64"/>
+    </row>
+    <row r="81" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A81" s="61"/>
+      <c r="B81" s="161" t="s">
+        <v>17</v>
+      </c>
+      <c r="C81" s="162"/>
+      <c r="D81" s="139"/>
+      <c r="E81" s="140">
+        <v>6861.14</v>
+      </c>
+      <c r="F81" s="59"/>
+    </row>
+    <row r="82" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A82" s="61"/>
+      <c r="B82" s="61"/>
+      <c r="C82" s="61"/>
+      <c r="D82" s="60"/>
+      <c r="E82" s="59"/>
+      <c r="F82" s="59"/>
+    </row>
+    <row r="83" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A83" s="58"/>
+      <c r="B83" s="157"/>
+      <c r="C83" s="158"/>
+      <c r="D83" s="158"/>
+      <c r="E83" s="158"/>
+      <c r="F83" s="57"/>
+    </row>
+    <row r="84" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A84" s="159" t="s">
+        <v>29</v>
+      </c>
+      <c r="B84" s="159"/>
+      <c r="C84" s="159"/>
+      <c r="D84" s="159"/>
+      <c r="E84" s="159"/>
+      <c r="F84" s="56"/>
+    </row>
+    <row r="85" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A85" s="160" t="s">
+        <v>30</v>
+      </c>
+      <c r="B85" s="160"/>
+      <c r="C85" s="160"/>
+      <c r="D85" s="160"/>
+      <c r="E85" s="160"/>
+      <c r="F85" s="46"/>
+    </row>
+    <row r="86" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A86" s="55"/>
+      <c r="B86" s="55"/>
+      <c r="C86" s="55"/>
+      <c r="D86" s="55"/>
+      <c r="E86" s="55"/>
+      <c r="F86" s="46"/>
+    </row>
+    <row r="87" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A87" s="55"/>
+      <c r="B87" s="55"/>
+      <c r="C87" s="55"/>
+      <c r="D87" s="55"/>
+      <c r="E87" s="55"/>
+      <c r="F87" s="46"/>
+    </row>
+    <row r="88" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A88" s="163" t="s">
+        <v>7</v>
+      </c>
+      <c r="B88" s="163"/>
+      <c r="C88" s="163"/>
+      <c r="D88" s="163"/>
+      <c r="E88" s="163"/>
+      <c r="F88" s="163"/>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="A30:E30"/>
+    <mergeCell ref="B81:C81"/>
+    <mergeCell ref="B83:E83"/>
+    <mergeCell ref="A84:E84"/>
+    <mergeCell ref="A85:E85"/>
+    <mergeCell ref="A88:F88"/>
+  </mergeCells>
+  <printOptions horizontalCentered="1"/>
+  <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
+  <pageSetup paperSize="119" scale="63" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
@@ -3007,14 +3924,14 @@
       <c r="F29" s="20"/>
     </row>
     <row r="30" spans="1:6" s="40" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="144" t="s">
+      <c r="A30" s="148" t="s">
         <v>0</v>
       </c>
-      <c r="B30" s="144"/>
-      <c r="C30" s="144"/>
-      <c r="D30" s="144"/>
-      <c r="E30" s="144"/>
-      <c r="F30" s="144"/>
+      <c r="B30" s="148"/>
+      <c r="C30" s="148"/>
+      <c r="D30" s="148"/>
+      <c r="E30" s="148"/>
+      <c r="F30" s="148"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" s="17"/>
@@ -3035,283 +3952,283 @@
     </row>
     <row r="33" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A33" s="21"/>
-      <c r="B33" s="143"/>
-      <c r="C33" s="143"/>
-      <c r="D33" s="143"/>
+      <c r="B33" s="145"/>
+      <c r="C33" s="145"/>
+      <c r="D33" s="145"/>
       <c r="E33" s="28"/>
       <c r="F33" s="21"/>
     </row>
     <row r="34" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A34" s="21"/>
-      <c r="B34" s="143" t="s">
+      <c r="B34" s="145" t="s">
         <v>67</v>
       </c>
-      <c r="C34" s="143"/>
-      <c r="D34" s="143"/>
+      <c r="C34" s="145"/>
+      <c r="D34" s="145"/>
       <c r="E34" s="28"/>
       <c r="F34" s="21"/>
     </row>
     <row r="35" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A35" s="21"/>
-      <c r="B35" s="143"/>
-      <c r="C35" s="143"/>
-      <c r="D35" s="143"/>
+      <c r="B35" s="145"/>
+      <c r="C35" s="145"/>
+      <c r="D35" s="145"/>
       <c r="E35" s="28"/>
       <c r="F35" s="21"/>
     </row>
     <row r="36" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A36" s="21"/>
-      <c r="B36" s="143" t="s">
+      <c r="B36" s="145" t="s">
         <v>50</v>
       </c>
-      <c r="C36" s="143"/>
-      <c r="D36" s="143"/>
+      <c r="C36" s="145"/>
+      <c r="D36" s="145"/>
       <c r="E36" s="28"/>
       <c r="F36" s="21"/>
     </row>
     <row r="37" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A37" s="21"/>
-      <c r="B37" s="143"/>
-      <c r="C37" s="143"/>
-      <c r="D37" s="143"/>
+      <c r="B37" s="145"/>
+      <c r="C37" s="145"/>
+      <c r="D37" s="145"/>
       <c r="E37" s="28"/>
       <c r="F37" s="21"/>
     </row>
     <row r="38" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A38" s="21"/>
-      <c r="B38" s="143" t="s">
+      <c r="B38" s="145" t="s">
         <v>32</v>
       </c>
-      <c r="C38" s="143"/>
-      <c r="D38" s="143"/>
+      <c r="C38" s="145"/>
+      <c r="D38" s="145"/>
       <c r="E38" s="28"/>
       <c r="F38" s="21"/>
     </row>
     <row r="39" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A39" s="21"/>
-      <c r="B39" s="143"/>
-      <c r="C39" s="143"/>
-      <c r="D39" s="143"/>
+      <c r="B39" s="145"/>
+      <c r="C39" s="145"/>
+      <c r="D39" s="145"/>
       <c r="E39" s="28"/>
       <c r="F39" s="21"/>
     </row>
     <row r="40" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A40" s="21"/>
-      <c r="B40" s="143" t="s">
+      <c r="B40" s="145" t="s">
         <v>2</v>
       </c>
-      <c r="C40" s="143"/>
-      <c r="D40" s="143"/>
+      <c r="C40" s="145"/>
+      <c r="D40" s="145"/>
       <c r="E40" s="28"/>
       <c r="F40" s="21"/>
     </row>
     <row r="41" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A41" s="21"/>
-      <c r="B41" s="143"/>
-      <c r="C41" s="143"/>
-      <c r="D41" s="143"/>
+      <c r="B41" s="145"/>
+      <c r="C41" s="145"/>
+      <c r="D41" s="145"/>
       <c r="E41" s="28"/>
       <c r="F41" s="21"/>
     </row>
     <row r="42" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A42" s="21"/>
-      <c r="B42" s="143" t="s">
+      <c r="B42" s="145" t="s">
         <v>21</v>
       </c>
-      <c r="C42" s="143"/>
-      <c r="D42" s="143"/>
+      <c r="C42" s="145"/>
+      <c r="D42" s="145"/>
       <c r="E42" s="28"/>
       <c r="F42" s="21"/>
     </row>
     <row r="43" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A43" s="21"/>
-      <c r="B43" s="143"/>
-      <c r="C43" s="143"/>
-      <c r="D43" s="143"/>
+      <c r="B43" s="145"/>
+      <c r="C43" s="145"/>
+      <c r="D43" s="145"/>
       <c r="E43" s="28"/>
       <c r="F43" s="21"/>
     </row>
     <row r="44" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A44" s="21"/>
-      <c r="B44" s="143" t="s">
+      <c r="B44" s="145" t="s">
         <v>51</v>
       </c>
-      <c r="C44" s="143"/>
-      <c r="D44" s="143"/>
+      <c r="C44" s="145"/>
+      <c r="D44" s="145"/>
       <c r="E44" s="28"/>
       <c r="F44" s="21"/>
     </row>
     <row r="45" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A45" s="21"/>
-      <c r="B45" s="143"/>
-      <c r="C45" s="143"/>
-      <c r="D45" s="143"/>
+      <c r="B45" s="145"/>
+      <c r="C45" s="145"/>
+      <c r="D45" s="145"/>
       <c r="E45" s="28"/>
       <c r="F45" s="21"/>
     </row>
     <row r="46" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A46" s="21"/>
-      <c r="B46" s="143" t="s">
+      <c r="B46" s="145" t="s">
         <v>52</v>
       </c>
-      <c r="C46" s="143"/>
-      <c r="D46" s="143"/>
+      <c r="C46" s="145"/>
+      <c r="D46" s="145"/>
       <c r="E46" s="28"/>
       <c r="F46" s="21"/>
     </row>
     <row r="47" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A47" s="21"/>
-      <c r="B47" s="143"/>
-      <c r="C47" s="143"/>
-      <c r="D47" s="143"/>
+      <c r="B47" s="145"/>
+      <c r="C47" s="145"/>
+      <c r="D47" s="145"/>
       <c r="E47" s="28"/>
       <c r="F47" s="21"/>
     </row>
     <row r="48" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A48" s="21"/>
-      <c r="B48" s="143" t="s">
+      <c r="B48" s="145" t="s">
         <v>54</v>
       </c>
-      <c r="C48" s="143"/>
-      <c r="D48" s="143"/>
+      <c r="C48" s="145"/>
+      <c r="D48" s="145"/>
       <c r="E48" s="28"/>
       <c r="F48" s="21"/>
     </row>
     <row r="49" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A49" s="21"/>
-      <c r="B49" s="143"/>
-      <c r="C49" s="143"/>
-      <c r="D49" s="143"/>
+      <c r="B49" s="145"/>
+      <c r="C49" s="145"/>
+      <c r="D49" s="145"/>
       <c r="E49" s="28"/>
       <c r="F49" s="21"/>
     </row>
     <row r="50" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A50" s="21"/>
-      <c r="B50" s="143" t="s">
+      <c r="B50" s="145" t="s">
         <v>20</v>
       </c>
-      <c r="C50" s="143"/>
-      <c r="D50" s="143"/>
+      <c r="C50" s="145"/>
+      <c r="D50" s="145"/>
       <c r="E50" s="28"/>
       <c r="F50" s="21"/>
     </row>
     <row r="51" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A51" s="21"/>
-      <c r="B51" s="143"/>
-      <c r="C51" s="143"/>
-      <c r="D51" s="143"/>
+      <c r="B51" s="145"/>
+      <c r="C51" s="145"/>
+      <c r="D51" s="145"/>
       <c r="E51" s="28"/>
       <c r="F51" s="21"/>
     </row>
     <row r="52" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A52" s="21"/>
-      <c r="B52" s="143" t="s">
+      <c r="B52" s="145" t="s">
         <v>22</v>
       </c>
-      <c r="C52" s="143"/>
-      <c r="D52" s="143"/>
+      <c r="C52" s="145"/>
+      <c r="D52" s="145"/>
       <c r="E52" s="28"/>
       <c r="F52" s="21"/>
     </row>
     <row r="53" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A53" s="21"/>
-      <c r="B53" s="143"/>
-      <c r="C53" s="143"/>
-      <c r="D53" s="143"/>
+      <c r="B53" s="145"/>
+      <c r="C53" s="145"/>
+      <c r="D53" s="145"/>
       <c r="E53" s="28"/>
       <c r="F53" s="21"/>
     </row>
     <row r="54" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A54" s="21"/>
-      <c r="B54" s="143" t="s">
+      <c r="B54" s="145" t="s">
         <v>33</v>
       </c>
-      <c r="C54" s="143"/>
-      <c r="D54" s="143"/>
+      <c r="C54" s="145"/>
+      <c r="D54" s="145"/>
       <c r="E54" s="28"/>
       <c r="F54" s="21"/>
     </row>
     <row r="55" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A55" s="21"/>
-      <c r="B55" s="143"/>
-      <c r="C55" s="143"/>
-      <c r="D55" s="143"/>
+      <c r="B55" s="145"/>
+      <c r="C55" s="145"/>
+      <c r="D55" s="145"/>
       <c r="E55" s="28"/>
       <c r="F55" s="21"/>
     </row>
     <row r="56" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A56" s="21"/>
-      <c r="B56" s="143" t="s">
+      <c r="B56" s="145" t="s">
         <v>34</v>
       </c>
-      <c r="C56" s="143"/>
-      <c r="D56" s="143"/>
+      <c r="C56" s="145"/>
+      <c r="D56" s="145"/>
       <c r="E56" s="28"/>
       <c r="F56" s="21"/>
     </row>
     <row r="57" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A57" s="21"/>
-      <c r="B57" s="143"/>
-      <c r="C57" s="143"/>
-      <c r="D57" s="143"/>
+      <c r="B57" s="145"/>
+      <c r="C57" s="145"/>
+      <c r="D57" s="145"/>
       <c r="E57" s="28"/>
       <c r="F57" s="21"/>
     </row>
     <row r="58" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A58" s="21"/>
-      <c r="B58" s="143" t="s">
+      <c r="B58" s="145" t="s">
         <v>61</v>
       </c>
-      <c r="C58" s="143"/>
-      <c r="D58" s="143"/>
+      <c r="C58" s="145"/>
+      <c r="D58" s="145"/>
       <c r="E58" s="28"/>
       <c r="F58" s="21"/>
     </row>
     <row r="59" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A59" s="21"/>
-      <c r="B59" s="143"/>
-      <c r="C59" s="143"/>
-      <c r="D59" s="143"/>
+      <c r="B59" s="145"/>
+      <c r="C59" s="145"/>
+      <c r="D59" s="145"/>
       <c r="E59" s="28"/>
       <c r="F59" s="21"/>
     </row>
     <row r="60" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A60" s="21"/>
-      <c r="B60" s="143"/>
-      <c r="C60" s="143"/>
-      <c r="D60" s="143"/>
+      <c r="B60" s="145"/>
+      <c r="C60" s="145"/>
+      <c r="D60" s="145"/>
       <c r="E60" s="28"/>
       <c r="F60" s="21"/>
     </row>
     <row r="61" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A61" s="21"/>
-      <c r="B61" s="143"/>
-      <c r="C61" s="143"/>
-      <c r="D61" s="143"/>
+      <c r="B61" s="145"/>
+      <c r="C61" s="145"/>
+      <c r="D61" s="145"/>
       <c r="E61" s="28"/>
       <c r="F61" s="21"/>
     </row>
     <row r="62" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A62" s="21"/>
-      <c r="B62" s="143"/>
-      <c r="C62" s="143"/>
-      <c r="D62" s="143"/>
+      <c r="B62" s="145"/>
+      <c r="C62" s="145"/>
+      <c r="D62" s="145"/>
       <c r="E62" s="28"/>
       <c r="F62" s="21"/>
     </row>
     <row r="63" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A63" s="21"/>
-      <c r="B63" s="143"/>
-      <c r="C63" s="143"/>
-      <c r="D63" s="143"/>
+      <c r="B63" s="145"/>
+      <c r="C63" s="145"/>
+      <c r="D63" s="145"/>
       <c r="E63" s="28"/>
       <c r="F63" s="21"/>
     </row>
     <row r="64" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A64" s="21"/>
-      <c r="B64" s="143"/>
-      <c r="C64" s="143"/>
-      <c r="D64" s="143"/>
+      <c r="B64" s="145"/>
+      <c r="C64" s="145"/>
+      <c r="D64" s="145"/>
       <c r="E64" s="28"/>
       <c r="F64" s="21"/>
     </row>
@@ -3341,17 +4258,17 @@
     </row>
     <row r="67" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A67" s="21"/>
-      <c r="B67" s="143"/>
-      <c r="C67" s="143"/>
-      <c r="D67" s="143"/>
+      <c r="B67" s="145"/>
+      <c r="C67" s="145"/>
+      <c r="D67" s="145"/>
       <c r="E67" s="28"/>
       <c r="F67" s="21"/>
     </row>
     <row r="68" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="21"/>
-      <c r="B68" s="143"/>
-      <c r="C68" s="143"/>
-      <c r="D68" s="143"/>
+      <c r="B68" s="145"/>
+      <c r="C68" s="145"/>
+      <c r="D68" s="145"/>
       <c r="E68" s="28"/>
       <c r="F68" s="21"/>
     </row>
@@ -3458,19 +4375,19 @@
     </row>
     <row r="77" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A77" s="21"/>
-      <c r="B77" s="145"/>
-      <c r="C77" s="145"/>
-      <c r="D77" s="145"/>
+      <c r="B77" s="149"/>
+      <c r="C77" s="149"/>
+      <c r="D77" s="149"/>
       <c r="E77" s="36"/>
       <c r="F77" s="21"/>
     </row>
     <row r="78" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A78" s="21"/>
-      <c r="B78" s="150" t="s">
+      <c r="B78" s="146" t="s">
         <v>18</v>
       </c>
-      <c r="C78" s="150"/>
-      <c r="D78" s="150"/>
+      <c r="C78" s="146"/>
+      <c r="D78" s="146"/>
       <c r="E78" s="36">
         <v>0</v>
       </c>
@@ -3478,9 +4395,9 @@
     </row>
     <row r="79" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A79" s="21"/>
-      <c r="B79" s="145"/>
-      <c r="C79" s="145"/>
-      <c r="D79" s="145"/>
+      <c r="B79" s="149"/>
+      <c r="C79" s="149"/>
+      <c r="D79" s="149"/>
       <c r="E79" s="36"/>
       <c r="F79" s="21"/>
     </row>
@@ -3515,31 +4432,31 @@
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A83" s="21"/>
-      <c r="B83" s="148"/>
-      <c r="C83" s="148"/>
-      <c r="D83" s="148"/>
-      <c r="E83" s="148"/>
+      <c r="B83" s="143"/>
+      <c r="C83" s="143"/>
+      <c r="D83" s="143"/>
+      <c r="E83" s="143"/>
       <c r="F83" s="21"/>
     </row>
     <row r="84" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A84" s="142" t="s">
+      <c r="A84" s="151" t="s">
         <v>29</v>
       </c>
-      <c r="B84" s="142"/>
-      <c r="C84" s="142"/>
-      <c r="D84" s="142"/>
-      <c r="E84" s="142"/>
-      <c r="F84" s="142"/>
+      <c r="B84" s="151"/>
+      <c r="C84" s="151"/>
+      <c r="D84" s="151"/>
+      <c r="E84" s="151"/>
+      <c r="F84" s="151"/>
     </row>
     <row r="85" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A85" s="151" t="s">
+      <c r="A85" s="147" t="s">
         <v>30</v>
       </c>
-      <c r="B85" s="151"/>
-      <c r="C85" s="151"/>
-      <c r="D85" s="151"/>
-      <c r="E85" s="151"/>
-      <c r="F85" s="151"/>
+      <c r="B85" s="147"/>
+      <c r="C85" s="147"/>
+      <c r="D85" s="147"/>
+      <c r="E85" s="147"/>
+      <c r="F85" s="147"/>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A86" s="21"/>
@@ -3551,26 +4468,786 @@
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A87" s="21"/>
-      <c r="B87" s="149"/>
-      <c r="C87" s="149"/>
-      <c r="D87" s="149"/>
-      <c r="E87" s="149"/>
+      <c r="B87" s="144"/>
+      <c r="C87" s="144"/>
+      <c r="D87" s="144"/>
+      <c r="E87" s="144"/>
       <c r="F87" s="21"/>
     </row>
     <row r="88" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A88" s="141" t="s">
+      <c r="A88" s="150" t="s">
         <v>7</v>
       </c>
-      <c r="B88" s="141"/>
-      <c r="C88" s="141"/>
-      <c r="D88" s="141"/>
-      <c r="E88" s="141"/>
-      <c r="F88" s="141"/>
+      <c r="B88" s="150"/>
+      <c r="C88" s="150"/>
+      <c r="D88" s="150"/>
+      <c r="E88" s="150"/>
+      <c r="F88" s="150"/>
     </row>
     <row r="90" spans="1:6" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B90" s="146"/>
-      <c r="C90" s="147"/>
-      <c r="D90" s="147"/>
+      <c r="B90" s="141"/>
+      <c r="C90" s="142"/>
+      <c r="D90" s="142"/>
+    </row>
+    <row r="91" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B92" s="16"/>
+      <c r="C92" s="16"/>
+      <c r="D92" s="16"/>
+    </row>
+  </sheetData>
+  <mergeCells count="44">
+    <mergeCell ref="A88:F88"/>
+    <mergeCell ref="B90:D90"/>
+    <mergeCell ref="B78:D78"/>
+    <mergeCell ref="B79:D79"/>
+    <mergeCell ref="B83:E83"/>
+    <mergeCell ref="A84:F84"/>
+    <mergeCell ref="A85:F85"/>
+    <mergeCell ref="B87:E87"/>
+    <mergeCell ref="B77:D77"/>
+    <mergeCell ref="B56:D56"/>
+    <mergeCell ref="B57:D57"/>
+    <mergeCell ref="B58:D58"/>
+    <mergeCell ref="B59:D59"/>
+    <mergeCell ref="B60:D60"/>
+    <mergeCell ref="B61:D61"/>
+    <mergeCell ref="B62:D62"/>
+    <mergeCell ref="B63:D63"/>
+    <mergeCell ref="B64:D64"/>
+    <mergeCell ref="B67:D67"/>
+    <mergeCell ref="B68:D68"/>
+    <mergeCell ref="B55:D55"/>
+    <mergeCell ref="B44:D44"/>
+    <mergeCell ref="B45:D45"/>
+    <mergeCell ref="B46:D46"/>
+    <mergeCell ref="B47:D47"/>
+    <mergeCell ref="B48:D48"/>
+    <mergeCell ref="B49:D49"/>
+    <mergeCell ref="B50:D50"/>
+    <mergeCell ref="B51:D51"/>
+    <mergeCell ref="B52:D52"/>
+    <mergeCell ref="B53:D53"/>
+    <mergeCell ref="B54:D54"/>
+    <mergeCell ref="B43:D43"/>
+    <mergeCell ref="A30:F30"/>
+    <mergeCell ref="B33:D33"/>
+    <mergeCell ref="B34:D34"/>
+    <mergeCell ref="B35:D35"/>
+    <mergeCell ref="B36:D36"/>
+    <mergeCell ref="B37:D37"/>
+    <mergeCell ref="B38:D38"/>
+    <mergeCell ref="B39:D39"/>
+    <mergeCell ref="B40:D40"/>
+    <mergeCell ref="B41:D41"/>
+    <mergeCell ref="B42:D42"/>
+  </mergeCells>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B77:B79 B12:B20 B33:B68" xr:uid="{9872749B-12C9-405E-8FB9-B369F1A7434D}">
+      <formula1>Liste_Activités</formula1>
+    </dataValidation>
+  </dataValidations>
+  <printOptions horizontalCentered="1"/>
+  <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
+  <pageSetup paperSize="131" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <headerFooter scaleWithDoc="0" alignWithMargins="0"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB7E2FEB-1A1B-435C-983E-EC4F4D401881}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A12:F92"/>
+  <sheetViews>
+    <sheetView view="pageBreakPreview" topLeftCell="A46" zoomScale="80" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="5.140625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="120" style="2" customWidth="1"/>
+    <col min="3" max="3" width="11.5703125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="17.5703125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="17.7109375" style="2" customWidth="1"/>
+    <col min="6" max="6" width="10.5703125" style="2" customWidth="1"/>
+    <col min="7" max="16384" width="11.42578125" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="12" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B12" s="3"/>
+      <c r="E12" s="4"/>
+    </row>
+    <row r="13" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B13" s="3"/>
+      <c r="E13" s="4"/>
+    </row>
+    <row r="14" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B14" s="3"/>
+      <c r="E14" s="4"/>
+    </row>
+    <row r="15" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B15" s="3"/>
+      <c r="E15" s="4"/>
+    </row>
+    <row r="16" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B16" s="3"/>
+      <c r="E16" s="4"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B17" s="3"/>
+      <c r="E17" s="4"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B18" s="3"/>
+      <c r="E18" s="4"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B19" s="3"/>
+      <c r="E19" s="4"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B20" s="3"/>
+      <c r="E20" s="4"/>
+    </row>
+    <row r="21" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+      <c r="A21" s="17"/>
+      <c r="B21" s="25" t="s">
+        <v>72</v>
+      </c>
+      <c r="C21" s="21"/>
+      <c r="D21" s="21"/>
+      <c r="E21" s="21"/>
+      <c r="F21" s="21"/>
+    </row>
+    <row r="22" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+      <c r="A22" s="17"/>
+      <c r="B22" s="26"/>
+      <c r="C22" s="21"/>
+      <c r="D22" s="21"/>
+      <c r="E22" s="21"/>
+      <c r="F22" s="21"/>
+    </row>
+    <row r="23" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+      <c r="A23" s="17"/>
+      <c r="B23" s="26"/>
+      <c r="C23" s="21"/>
+      <c r="D23" s="21"/>
+      <c r="E23" s="21"/>
+      <c r="F23" s="21"/>
+    </row>
+    <row r="24" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+      <c r="A24" s="17"/>
+      <c r="B24" s="25" t="s">
+        <v>41</v>
+      </c>
+      <c r="C24" s="21"/>
+      <c r="D24" s="21"/>
+      <c r="E24" s="21"/>
+      <c r="F24" s="21"/>
+    </row>
+    <row r="25" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+      <c r="A25" s="17"/>
+      <c r="B25" s="25" t="s">
+        <v>40</v>
+      </c>
+      <c r="C25" s="21"/>
+      <c r="D25" s="21"/>
+      <c r="E25" s="21"/>
+      <c r="F25" s="21"/>
+    </row>
+    <row r="26" spans="1:6" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="17"/>
+      <c r="B26" s="53" t="s">
+        <v>66</v>
+      </c>
+      <c r="C26" s="21"/>
+      <c r="D26" s="21"/>
+      <c r="E26" s="21"/>
+      <c r="F26" s="21"/>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A27" s="18"/>
+      <c r="B27" s="21"/>
+      <c r="C27" s="23"/>
+      <c r="D27" s="23"/>
+      <c r="E27" s="24"/>
+      <c r="F27" s="21"/>
+    </row>
+    <row r="28" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+      <c r="A28" s="17"/>
+      <c r="B28" s="23"/>
+      <c r="C28" s="23"/>
+      <c r="D28" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="E28" s="27" t="s">
+        <v>68</v>
+      </c>
+      <c r="F28" s="21"/>
+    </row>
+    <row r="29" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="19"/>
+      <c r="B29" s="19"/>
+      <c r="C29" s="19"/>
+      <c r="D29" s="19"/>
+      <c r="E29" s="19"/>
+      <c r="F29" s="20"/>
+    </row>
+    <row r="30" spans="1:6" s="40" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="148" t="s">
+        <v>0</v>
+      </c>
+      <c r="B30" s="148"/>
+      <c r="C30" s="148"/>
+      <c r="D30" s="148"/>
+      <c r="E30" s="148"/>
+      <c r="F30" s="148"/>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A31" s="17"/>
+      <c r="B31" s="18"/>
+      <c r="C31" s="17"/>
+      <c r="D31" s="17"/>
+      <c r="E31" s="17"/>
+    </row>
+    <row r="32" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A32" s="21"/>
+      <c r="B32" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="C32" s="22"/>
+      <c r="D32" s="22"/>
+      <c r="E32" s="28"/>
+      <c r="F32" s="21"/>
+    </row>
+    <row r="33" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A33" s="21"/>
+      <c r="B33" s="145"/>
+      <c r="C33" s="145"/>
+      <c r="D33" s="145"/>
+      <c r="E33" s="28"/>
+      <c r="F33" s="21"/>
+    </row>
+    <row r="34" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A34" s="21"/>
+      <c r="B34" s="145" t="s">
+        <v>69</v>
+      </c>
+      <c r="C34" s="145"/>
+      <c r="D34" s="145"/>
+      <c r="E34" s="28"/>
+      <c r="F34" s="21"/>
+    </row>
+    <row r="35" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A35" s="21"/>
+      <c r="B35" s="145"/>
+      <c r="C35" s="145"/>
+      <c r="D35" s="145"/>
+      <c r="E35" s="28"/>
+      <c r="F35" s="21"/>
+    </row>
+    <row r="36" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A36" s="21"/>
+      <c r="B36" s="145" t="s">
+        <v>34</v>
+      </c>
+      <c r="C36" s="145"/>
+      <c r="D36" s="145"/>
+      <c r="E36" s="28"/>
+      <c r="F36" s="21"/>
+    </row>
+    <row r="37" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A37" s="21"/>
+      <c r="B37" s="145"/>
+      <c r="C37" s="145"/>
+      <c r="D37" s="145"/>
+      <c r="E37" s="28"/>
+      <c r="F37" s="21"/>
+    </row>
+    <row r="38" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A38" s="21"/>
+      <c r="B38" s="145" t="s">
+        <v>9</v>
+      </c>
+      <c r="C38" s="145"/>
+      <c r="D38" s="145"/>
+      <c r="E38" s="28"/>
+      <c r="F38" s="21"/>
+    </row>
+    <row r="39" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A39" s="21"/>
+      <c r="B39" s="145"/>
+      <c r="C39" s="145"/>
+      <c r="D39" s="145"/>
+      <c r="E39" s="28"/>
+      <c r="F39" s="21"/>
+    </row>
+    <row r="40" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A40" s="21"/>
+      <c r="B40" s="145" t="s">
+        <v>70</v>
+      </c>
+      <c r="C40" s="145"/>
+      <c r="D40" s="145"/>
+      <c r="E40" s="28"/>
+      <c r="F40" s="21"/>
+    </row>
+    <row r="41" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A41" s="21"/>
+      <c r="B41" s="145"/>
+      <c r="C41" s="145"/>
+      <c r="D41" s="145"/>
+      <c r="E41" s="28"/>
+      <c r="F41" s="21"/>
+    </row>
+    <row r="42" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A42" s="21"/>
+      <c r="B42" s="145" t="s">
+        <v>61</v>
+      </c>
+      <c r="C42" s="145"/>
+      <c r="D42" s="145"/>
+      <c r="E42" s="28"/>
+      <c r="F42" s="21"/>
+    </row>
+    <row r="43" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A43" s="21"/>
+      <c r="B43" s="145"/>
+      <c r="C43" s="145"/>
+      <c r="D43" s="145"/>
+      <c r="E43" s="28"/>
+      <c r="F43" s="21"/>
+    </row>
+    <row r="44" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A44" s="21"/>
+      <c r="B44" s="145" t="s">
+        <v>71</v>
+      </c>
+      <c r="C44" s="145"/>
+      <c r="D44" s="145"/>
+      <c r="E44" s="28"/>
+      <c r="F44" s="21"/>
+    </row>
+    <row r="45" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A45" s="21"/>
+      <c r="B45" s="145"/>
+      <c r="C45" s="145"/>
+      <c r="D45" s="145"/>
+      <c r="E45" s="28"/>
+      <c r="F45" s="21"/>
+    </row>
+    <row r="46" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A46" s="21"/>
+      <c r="B46" s="145"/>
+      <c r="C46" s="145"/>
+      <c r="D46" s="145"/>
+      <c r="E46" s="28"/>
+      <c r="F46" s="21"/>
+    </row>
+    <row r="47" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A47" s="21"/>
+      <c r="B47" s="145"/>
+      <c r="C47" s="145"/>
+      <c r="D47" s="145"/>
+      <c r="E47" s="28"/>
+      <c r="F47" s="21"/>
+    </row>
+    <row r="48" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A48" s="21"/>
+      <c r="B48" s="145"/>
+      <c r="C48" s="145"/>
+      <c r="D48" s="145"/>
+      <c r="E48" s="28"/>
+      <c r="F48" s="21"/>
+    </row>
+    <row r="49" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A49" s="21"/>
+      <c r="B49" s="145"/>
+      <c r="C49" s="145"/>
+      <c r="D49" s="145"/>
+      <c r="E49" s="28"/>
+      <c r="F49" s="21"/>
+    </row>
+    <row r="50" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A50" s="21"/>
+      <c r="B50" s="145"/>
+      <c r="C50" s="145"/>
+      <c r="D50" s="145"/>
+      <c r="E50" s="28"/>
+      <c r="F50" s="21"/>
+    </row>
+    <row r="51" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A51" s="21"/>
+      <c r="B51" s="145"/>
+      <c r="C51" s="145"/>
+      <c r="D51" s="145"/>
+      <c r="E51" s="28"/>
+      <c r="F51" s="21"/>
+    </row>
+    <row r="52" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A52" s="21"/>
+      <c r="B52" s="145"/>
+      <c r="C52" s="145"/>
+      <c r="D52" s="145"/>
+      <c r="E52" s="28"/>
+      <c r="F52" s="21"/>
+    </row>
+    <row r="53" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A53" s="21"/>
+      <c r="B53" s="145"/>
+      <c r="C53" s="145"/>
+      <c r="D53" s="145"/>
+      <c r="E53" s="28"/>
+      <c r="F53" s="21"/>
+    </row>
+    <row r="54" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A54" s="21"/>
+      <c r="B54" s="145"/>
+      <c r="C54" s="145"/>
+      <c r="D54" s="145"/>
+      <c r="E54" s="28"/>
+      <c r="F54" s="21"/>
+    </row>
+    <row r="55" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A55" s="21"/>
+      <c r="B55" s="145"/>
+      <c r="C55" s="145"/>
+      <c r="D55" s="145"/>
+      <c r="E55" s="28"/>
+      <c r="F55" s="21"/>
+    </row>
+    <row r="56" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A56" s="21"/>
+      <c r="B56" s="145"/>
+      <c r="C56" s="145"/>
+      <c r="D56" s="145"/>
+      <c r="E56" s="28"/>
+      <c r="F56" s="21"/>
+    </row>
+    <row r="57" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A57" s="21"/>
+      <c r="B57" s="145"/>
+      <c r="C57" s="145"/>
+      <c r="D57" s="145"/>
+      <c r="E57" s="28"/>
+      <c r="F57" s="21"/>
+    </row>
+    <row r="58" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A58" s="21"/>
+      <c r="B58" s="145"/>
+      <c r="C58" s="145"/>
+      <c r="D58" s="145"/>
+      <c r="E58" s="28"/>
+      <c r="F58" s="21"/>
+    </row>
+    <row r="59" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A59" s="21"/>
+      <c r="B59" s="145"/>
+      <c r="C59" s="145"/>
+      <c r="D59" s="145"/>
+      <c r="E59" s="28"/>
+      <c r="F59" s="21"/>
+    </row>
+    <row r="60" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A60" s="21"/>
+      <c r="B60" s="145"/>
+      <c r="C60" s="145"/>
+      <c r="D60" s="145"/>
+      <c r="E60" s="28"/>
+      <c r="F60" s="21"/>
+    </row>
+    <row r="61" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A61" s="21"/>
+      <c r="B61" s="145"/>
+      <c r="C61" s="145"/>
+      <c r="D61" s="145"/>
+      <c r="E61" s="28"/>
+      <c r="F61" s="21"/>
+    </row>
+    <row r="62" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A62" s="21"/>
+      <c r="B62" s="145"/>
+      <c r="C62" s="145"/>
+      <c r="D62" s="145"/>
+      <c r="E62" s="28"/>
+      <c r="F62" s="21"/>
+    </row>
+    <row r="63" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A63" s="21"/>
+      <c r="B63" s="145"/>
+      <c r="C63" s="145"/>
+      <c r="D63" s="145"/>
+      <c r="E63" s="28"/>
+      <c r="F63" s="21"/>
+    </row>
+    <row r="64" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A64" s="21"/>
+      <c r="B64" s="145"/>
+      <c r="C64" s="145"/>
+      <c r="D64" s="145"/>
+      <c r="E64" s="28"/>
+      <c r="F64" s="21"/>
+    </row>
+    <row r="65" spans="1:6" s="50" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A65" s="46"/>
+      <c r="B65" s="47"/>
+      <c r="C65" s="48" t="s">
+        <v>37</v>
+      </c>
+      <c r="D65" s="48" t="s">
+        <v>38</v>
+      </c>
+      <c r="E65" s="49"/>
+      <c r="F65" s="46"/>
+    </row>
+    <row r="66" spans="1:6" s="50" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A66" s="46"/>
+      <c r="B66" s="47"/>
+      <c r="C66" s="51">
+        <v>8.5</v>
+      </c>
+      <c r="D66" s="52">
+        <v>350</v>
+      </c>
+      <c r="E66" s="49"/>
+      <c r="F66" s="46"/>
+    </row>
+    <row r="67" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A67" s="21"/>
+      <c r="B67" s="145"/>
+      <c r="C67" s="145"/>
+      <c r="D67" s="145"/>
+      <c r="E67" s="28"/>
+      <c r="F67" s="21"/>
+    </row>
+    <row r="68" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A68" s="21"/>
+      <c r="B68" s="145"/>
+      <c r="C68" s="145"/>
+      <c r="D68" s="145"/>
+      <c r="E68" s="28"/>
+      <c r="F68" s="21"/>
+    </row>
+    <row r="69" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A69" s="21"/>
+      <c r="B69" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="C69" s="26"/>
+      <c r="D69" s="26"/>
+      <c r="E69" s="29">
+        <f>D66*C66</f>
+        <v>2975</v>
+      </c>
+      <c r="F69" s="21"/>
+    </row>
+    <row r="70" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A70" s="21"/>
+      <c r="B70" s="34" t="s">
+        <v>12</v>
+      </c>
+      <c r="C70" s="26"/>
+      <c r="D70" s="26"/>
+      <c r="E70" s="30">
+        <v>0</v>
+      </c>
+      <c r="F70" s="21"/>
+    </row>
+    <row r="71" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A71" s="21"/>
+      <c r="B71" s="34" t="s">
+        <v>13</v>
+      </c>
+      <c r="C71" s="26"/>
+      <c r="D71" s="26"/>
+      <c r="E71" s="30">
+        <v>0</v>
+      </c>
+      <c r="F71" s="21"/>
+    </row>
+    <row r="72" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A72" s="21"/>
+      <c r="B72" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="C72" s="26"/>
+      <c r="D72" s="26"/>
+      <c r="E72" s="29">
+        <f>SUM(E69:E71)</f>
+        <v>2975</v>
+      </c>
+      <c r="F72" s="21"/>
+    </row>
+    <row r="73" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A73" s="21"/>
+      <c r="B73" s="26" t="s">
+        <v>5</v>
+      </c>
+      <c r="C73" s="31">
+        <v>0.05</v>
+      </c>
+      <c r="D73" s="26"/>
+      <c r="E73" s="35">
+        <f>ROUND(E72*C73,2)</f>
+        <v>148.75</v>
+      </c>
+      <c r="F73" s="21"/>
+    </row>
+    <row r="74" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A74" s="21"/>
+      <c r="B74" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="C74" s="42">
+        <v>9.9750000000000005E-2</v>
+      </c>
+      <c r="D74" s="26"/>
+      <c r="E74" s="43">
+        <f>ROUND(E72*C74,2)</f>
+        <v>296.76</v>
+      </c>
+      <c r="F74" s="21"/>
+    </row>
+    <row r="75" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A75" s="21"/>
+      <c r="B75" s="26"/>
+      <c r="C75" s="26"/>
+      <c r="D75" s="26"/>
+      <c r="E75" s="32"/>
+      <c r="F75" s="21"/>
+    </row>
+    <row r="76" spans="1:6" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="21"/>
+      <c r="B76" s="25" t="s">
+        <v>16</v>
+      </c>
+      <c r="C76" s="26"/>
+      <c r="D76" s="26"/>
+      <c r="E76" s="33">
+        <f>SUM(E72:E74)</f>
+        <v>3420.51</v>
+      </c>
+      <c r="F76" s="21"/>
+    </row>
+    <row r="77" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A77" s="21"/>
+      <c r="B77" s="149"/>
+      <c r="C77" s="149"/>
+      <c r="D77" s="149"/>
+      <c r="E77" s="36"/>
+      <c r="F77" s="21"/>
+    </row>
+    <row r="78" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+      <c r="A78" s="21"/>
+      <c r="B78" s="146" t="s">
+        <v>18</v>
+      </c>
+      <c r="C78" s="146"/>
+      <c r="D78" s="146"/>
+      <c r="E78" s="36">
+        <v>0</v>
+      </c>
+      <c r="F78" s="21"/>
+    </row>
+    <row r="79" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+      <c r="A79" s="21"/>
+      <c r="B79" s="149"/>
+      <c r="C79" s="149"/>
+      <c r="D79" s="149"/>
+      <c r="E79" s="36"/>
+      <c r="F79" s="21"/>
+    </row>
+    <row r="80" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A80" s="21"/>
+      <c r="B80" s="37" t="s">
+        <v>17</v>
+      </c>
+      <c r="C80" s="38"/>
+      <c r="D80" s="38"/>
+      <c r="E80" s="39">
+        <f>E76-E78</f>
+        <v>3420.51</v>
+      </c>
+      <c r="F80" s="21"/>
+    </row>
+    <row r="81" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A81" s="21"/>
+      <c r="B81" s="21"/>
+      <c r="C81" s="21"/>
+      <c r="D81" s="21"/>
+      <c r="E81" s="21"/>
+      <c r="F81" s="21"/>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A82" s="21"/>
+      <c r="B82" s="21"/>
+      <c r="C82" s="21"/>
+      <c r="D82" s="21"/>
+      <c r="E82" s="21"/>
+      <c r="F82" s="21"/>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A83" s="21"/>
+      <c r="B83" s="143"/>
+      <c r="C83" s="143"/>
+      <c r="D83" s="143"/>
+      <c r="E83" s="143"/>
+      <c r="F83" s="21"/>
+    </row>
+    <row r="84" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A84" s="151" t="s">
+        <v>29</v>
+      </c>
+      <c r="B84" s="151"/>
+      <c r="C84" s="151"/>
+      <c r="D84" s="151"/>
+      <c r="E84" s="151"/>
+      <c r="F84" s="151"/>
+    </row>
+    <row r="85" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A85" s="147" t="s">
+        <v>30</v>
+      </c>
+      <c r="B85" s="147"/>
+      <c r="C85" s="147"/>
+      <c r="D85" s="147"/>
+      <c r="E85" s="147"/>
+      <c r="F85" s="147"/>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A86" s="21"/>
+      <c r="B86" s="21"/>
+      <c r="C86" s="21"/>
+      <c r="D86" s="21"/>
+      <c r="E86" s="21"/>
+      <c r="F86" s="21"/>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A87" s="21"/>
+      <c r="B87" s="144"/>
+      <c r="C87" s="144"/>
+      <c r="D87" s="144"/>
+      <c r="E87" s="144"/>
+      <c r="F87" s="21"/>
+    </row>
+    <row r="88" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+      <c r="A88" s="150" t="s">
+        <v>7</v>
+      </c>
+      <c r="B88" s="150"/>
+      <c r="C88" s="150"/>
+      <c r="D88" s="150"/>
+      <c r="E88" s="150"/>
+      <c r="F88" s="150"/>
+    </row>
+    <row r="90" spans="1:6" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B90" s="141"/>
+      <c r="C90" s="142"/>
+      <c r="D90" s="142"/>
     </row>
     <row r="91" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="92" spans="1:6" x14ac:dyDescent="0.2">
@@ -3626,7 +5303,7 @@
     <mergeCell ref="B87:E87"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B77:B79 B12:B20 B33:B68" xr:uid="{9872749B-12C9-405E-8FB9-B369F1A7434D}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B77:B79 B12:B20 B33:B68" xr:uid="{0752F961-DE68-4C99-B978-FD2C8C740CFF}">
       <formula1>Liste_Activités</formula1>
     </dataValidation>
   </dataValidations>
@@ -3638,15 +5315,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB7E2FEB-1A1B-435C-983E-EC4F4D401881}">
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E09EE0B7-D48F-463F-AB70-7B1459EC40F2}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A12:F92"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A46" zoomScale="80" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView view="pageBreakPreview" topLeftCell="A28" zoomScale="80" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
+      <selection activeCell="B67" sqref="B67:D67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3699,7 +5376,7 @@
     <row r="21" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A21" s="17"/>
       <c r="B21" s="25" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C21" s="21"/>
       <c r="D21" s="21"/>
@@ -3768,7 +5445,7 @@
         <v>11</v>
       </c>
       <c r="E28" s="27" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="F28" s="21"/>
     </row>
@@ -3781,14 +5458,14 @@
       <c r="F29" s="20"/>
     </row>
     <row r="30" spans="1:6" s="40" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="144" t="s">
+      <c r="A30" s="148" t="s">
         <v>0</v>
       </c>
-      <c r="B30" s="144"/>
-      <c r="C30" s="144"/>
-      <c r="D30" s="144"/>
-      <c r="E30" s="144"/>
-      <c r="F30" s="144"/>
+      <c r="B30" s="148"/>
+      <c r="C30" s="148"/>
+      <c r="D30" s="148"/>
+      <c r="E30" s="148"/>
+      <c r="F30" s="148"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" s="17"/>
@@ -3809,269 +5486,265 @@
     </row>
     <row r="33" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A33" s="21"/>
-      <c r="B33" s="143"/>
-      <c r="C33" s="143"/>
-      <c r="D33" s="143"/>
+      <c r="B33" s="145"/>
+      <c r="C33" s="145"/>
+      <c r="D33" s="145"/>
       <c r="E33" s="28"/>
       <c r="F33" s="21"/>
     </row>
     <row r="34" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A34" s="21"/>
-      <c r="B34" s="143" t="s">
-        <v>69</v>
-      </c>
-      <c r="C34" s="143"/>
-      <c r="D34" s="143"/>
+      <c r="B34" s="145" t="s">
+        <v>75</v>
+      </c>
+      <c r="C34" s="145"/>
+      <c r="D34" s="145"/>
       <c r="E34" s="28"/>
       <c r="F34" s="21"/>
     </row>
     <row r="35" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A35" s="21"/>
-      <c r="B35" s="143"/>
-      <c r="C35" s="143"/>
-      <c r="D35" s="143"/>
+      <c r="B35" s="145"/>
+      <c r="C35" s="145"/>
+      <c r="D35" s="145"/>
       <c r="E35" s="28"/>
       <c r="F35" s="21"/>
     </row>
     <row r="36" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A36" s="21"/>
-      <c r="B36" s="143" t="s">
-        <v>34</v>
-      </c>
-      <c r="C36" s="143"/>
-      <c r="D36" s="143"/>
+      <c r="B36" s="145" t="s">
+        <v>61</v>
+      </c>
+      <c r="C36" s="145"/>
+      <c r="D36" s="145"/>
       <c r="E36" s="28"/>
       <c r="F36" s="21"/>
     </row>
     <row r="37" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A37" s="21"/>
-      <c r="B37" s="143"/>
-      <c r="C37" s="143"/>
-      <c r="D37" s="143"/>
+      <c r="B37" s="145"/>
+      <c r="C37" s="145"/>
+      <c r="D37" s="145"/>
       <c r="E37" s="28"/>
       <c r="F37" s="21"/>
     </row>
     <row r="38" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A38" s="21"/>
-      <c r="B38" s="143" t="s">
-        <v>9</v>
-      </c>
-      <c r="C38" s="143"/>
-      <c r="D38" s="143"/>
+      <c r="B38" s="145" t="s">
+        <v>49</v>
+      </c>
+      <c r="C38" s="145"/>
+      <c r="D38" s="145"/>
       <c r="E38" s="28"/>
       <c r="F38" s="21"/>
     </row>
     <row r="39" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A39" s="21"/>
-      <c r="B39" s="143"/>
-      <c r="C39" s="143"/>
-      <c r="D39" s="143"/>
+      <c r="B39" s="145"/>
+      <c r="C39" s="145"/>
+      <c r="D39" s="145"/>
       <c r="E39" s="28"/>
       <c r="F39" s="21"/>
     </row>
     <row r="40" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A40" s="21"/>
-      <c r="B40" s="143" t="s">
-        <v>70</v>
-      </c>
-      <c r="C40" s="143"/>
-      <c r="D40" s="143"/>
+      <c r="B40" s="145" t="s">
+        <v>76</v>
+      </c>
+      <c r="C40" s="145"/>
+      <c r="D40" s="145"/>
       <c r="E40" s="28"/>
       <c r="F40" s="21"/>
     </row>
     <row r="41" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A41" s="21"/>
-      <c r="B41" s="143"/>
-      <c r="C41" s="143"/>
-      <c r="D41" s="143"/>
+      <c r="B41" s="145"/>
+      <c r="C41" s="145"/>
+      <c r="D41" s="145"/>
       <c r="E41" s="28"/>
       <c r="F41" s="21"/>
     </row>
     <row r="42" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A42" s="21"/>
-      <c r="B42" s="143" t="s">
-        <v>61</v>
-      </c>
-      <c r="C42" s="143"/>
-      <c r="D42" s="143"/>
+      <c r="B42" s="145"/>
+      <c r="C42" s="145"/>
+      <c r="D42" s="145"/>
       <c r="E42" s="28"/>
       <c r="F42" s="21"/>
     </row>
     <row r="43" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A43" s="21"/>
-      <c r="B43" s="143"/>
-      <c r="C43" s="143"/>
-      <c r="D43" s="143"/>
+      <c r="B43" s="145"/>
+      <c r="C43" s="145"/>
+      <c r="D43" s="145"/>
       <c r="E43" s="28"/>
       <c r="F43" s="21"/>
     </row>
     <row r="44" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A44" s="21"/>
-      <c r="B44" s="143" t="s">
-        <v>71</v>
-      </c>
-      <c r="C44" s="143"/>
-      <c r="D44" s="143"/>
+      <c r="B44" s="145"/>
+      <c r="C44" s="145"/>
+      <c r="D44" s="145"/>
       <c r="E44" s="28"/>
       <c r="F44" s="21"/>
     </row>
     <row r="45" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A45" s="21"/>
-      <c r="B45" s="143"/>
-      <c r="C45" s="143"/>
-      <c r="D45" s="143"/>
+      <c r="B45" s="145"/>
+      <c r="C45" s="145"/>
+      <c r="D45" s="145"/>
       <c r="E45" s="28"/>
       <c r="F45" s="21"/>
     </row>
     <row r="46" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A46" s="21"/>
-      <c r="B46" s="143"/>
-      <c r="C46" s="143"/>
-      <c r="D46" s="143"/>
+      <c r="B46" s="145"/>
+      <c r="C46" s="145"/>
+      <c r="D46" s="145"/>
       <c r="E46" s="28"/>
       <c r="F46" s="21"/>
     </row>
     <row r="47" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A47" s="21"/>
-      <c r="B47" s="143"/>
-      <c r="C47" s="143"/>
-      <c r="D47" s="143"/>
+      <c r="B47" s="145"/>
+      <c r="C47" s="145"/>
+      <c r="D47" s="145"/>
       <c r="E47" s="28"/>
       <c r="F47" s="21"/>
     </row>
     <row r="48" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A48" s="21"/>
-      <c r="B48" s="143"/>
-      <c r="C48" s="143"/>
-      <c r="D48" s="143"/>
+      <c r="B48" s="145"/>
+      <c r="C48" s="145"/>
+      <c r="D48" s="145"/>
       <c r="E48" s="28"/>
       <c r="F48" s="21"/>
     </row>
     <row r="49" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A49" s="21"/>
-      <c r="B49" s="143"/>
-      <c r="C49" s="143"/>
-      <c r="D49" s="143"/>
+      <c r="B49" s="145"/>
+      <c r="C49" s="145"/>
+      <c r="D49" s="145"/>
       <c r="E49" s="28"/>
       <c r="F49" s="21"/>
     </row>
     <row r="50" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A50" s="21"/>
-      <c r="B50" s="143"/>
-      <c r="C50" s="143"/>
-      <c r="D50" s="143"/>
+      <c r="B50" s="145"/>
+      <c r="C50" s="145"/>
+      <c r="D50" s="145"/>
       <c r="E50" s="28"/>
       <c r="F50" s="21"/>
     </row>
     <row r="51" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A51" s="21"/>
-      <c r="B51" s="143"/>
-      <c r="C51" s="143"/>
-      <c r="D51" s="143"/>
+      <c r="B51" s="145"/>
+      <c r="C51" s="145"/>
+      <c r="D51" s="145"/>
       <c r="E51" s="28"/>
       <c r="F51" s="21"/>
     </row>
     <row r="52" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A52" s="21"/>
-      <c r="B52" s="143"/>
-      <c r="C52" s="143"/>
-      <c r="D52" s="143"/>
+      <c r="B52" s="145"/>
+      <c r="C52" s="145"/>
+      <c r="D52" s="145"/>
       <c r="E52" s="28"/>
       <c r="F52" s="21"/>
     </row>
     <row r="53" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A53" s="21"/>
-      <c r="B53" s="143"/>
-      <c r="C53" s="143"/>
-      <c r="D53" s="143"/>
+      <c r="B53" s="145"/>
+      <c r="C53" s="145"/>
+      <c r="D53" s="145"/>
       <c r="E53" s="28"/>
       <c r="F53" s="21"/>
     </row>
     <row r="54" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A54" s="21"/>
-      <c r="B54" s="143"/>
-      <c r="C54" s="143"/>
-      <c r="D54" s="143"/>
+      <c r="B54" s="145"/>
+      <c r="C54" s="145"/>
+      <c r="D54" s="145"/>
       <c r="E54" s="28"/>
       <c r="F54" s="21"/>
     </row>
     <row r="55" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A55" s="21"/>
-      <c r="B55" s="143"/>
-      <c r="C55" s="143"/>
-      <c r="D55" s="143"/>
+      <c r="B55" s="145"/>
+      <c r="C55" s="145"/>
+      <c r="D55" s="145"/>
       <c r="E55" s="28"/>
       <c r="F55" s="21"/>
     </row>
     <row r="56" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A56" s="21"/>
-      <c r="B56" s="143"/>
-      <c r="C56" s="143"/>
-      <c r="D56" s="143"/>
+      <c r="B56" s="145"/>
+      <c r="C56" s="145"/>
+      <c r="D56" s="145"/>
       <c r="E56" s="28"/>
       <c r="F56" s="21"/>
     </row>
     <row r="57" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A57" s="21"/>
-      <c r="B57" s="143"/>
-      <c r="C57" s="143"/>
-      <c r="D57" s="143"/>
+      <c r="B57" s="145"/>
+      <c r="C57" s="145"/>
+      <c r="D57" s="145"/>
       <c r="E57" s="28"/>
       <c r="F57" s="21"/>
     </row>
     <row r="58" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A58" s="21"/>
-      <c r="B58" s="143"/>
-      <c r="C58" s="143"/>
-      <c r="D58" s="143"/>
+      <c r="B58" s="145"/>
+      <c r="C58" s="145"/>
+      <c r="D58" s="145"/>
       <c r="E58" s="28"/>
       <c r="F58" s="21"/>
     </row>
     <row r="59" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A59" s="21"/>
-      <c r="B59" s="143"/>
-      <c r="C59" s="143"/>
-      <c r="D59" s="143"/>
+      <c r="B59" s="145"/>
+      <c r="C59" s="145"/>
+      <c r="D59" s="145"/>
       <c r="E59" s="28"/>
       <c r="F59" s="21"/>
     </row>
     <row r="60" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A60" s="21"/>
-      <c r="B60" s="143"/>
-      <c r="C60" s="143"/>
-      <c r="D60" s="143"/>
+      <c r="B60" s="145"/>
+      <c r="C60" s="145"/>
+      <c r="D60" s="145"/>
       <c r="E60" s="28"/>
       <c r="F60" s="21"/>
     </row>
     <row r="61" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A61" s="21"/>
-      <c r="B61" s="143"/>
-      <c r="C61" s="143"/>
-      <c r="D61" s="143"/>
+      <c r="B61" s="145"/>
+      <c r="C61" s="145"/>
+      <c r="D61" s="145"/>
       <c r="E61" s="28"/>
       <c r="F61" s="21"/>
     </row>
     <row r="62" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A62" s="21"/>
-      <c r="B62" s="143"/>
-      <c r="C62" s="143"/>
-      <c r="D62" s="143"/>
+      <c r="B62" s="145"/>
+      <c r="C62" s="145"/>
+      <c r="D62" s="145"/>
       <c r="E62" s="28"/>
       <c r="F62" s="21"/>
     </row>
     <row r="63" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A63" s="21"/>
-      <c r="B63" s="143"/>
-      <c r="C63" s="143"/>
-      <c r="D63" s="143"/>
+      <c r="B63" s="145"/>
+      <c r="C63" s="145"/>
+      <c r="D63" s="145"/>
       <c r="E63" s="28"/>
       <c r="F63" s="21"/>
     </row>
     <row r="64" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A64" s="21"/>
-      <c r="B64" s="143"/>
-      <c r="C64" s="143"/>
-      <c r="D64" s="143"/>
+      <c r="B64" s="145"/>
+      <c r="C64" s="145"/>
+      <c r="D64" s="145"/>
       <c r="E64" s="28"/>
       <c r="F64" s="21"/>
     </row>
@@ -4091,7 +5764,7 @@
       <c r="A66" s="46"/>
       <c r="B66" s="47"/>
       <c r="C66" s="51">
-        <v>8.5</v>
+        <v>6.5</v>
       </c>
       <c r="D66" s="52">
         <v>350</v>
@@ -4101,17 +5774,17 @@
     </row>
     <row r="67" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A67" s="21"/>
-      <c r="B67" s="143"/>
-      <c r="C67" s="143"/>
-      <c r="D67" s="143"/>
+      <c r="B67" s="145"/>
+      <c r="C67" s="145"/>
+      <c r="D67" s="145"/>
       <c r="E67" s="28"/>
       <c r="F67" s="21"/>
     </row>
     <row r="68" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="21"/>
-      <c r="B68" s="143"/>
-      <c r="C68" s="143"/>
-      <c r="D68" s="143"/>
+      <c r="B68" s="145"/>
+      <c r="C68" s="145"/>
+      <c r="D68" s="145"/>
       <c r="E68" s="28"/>
       <c r="F68" s="21"/>
     </row>
@@ -4124,7 +5797,7 @@
       <c r="D69" s="26"/>
       <c r="E69" s="29">
         <f>D66*C66</f>
-        <v>2975</v>
+        <v>2275</v>
       </c>
       <c r="F69" s="21"/>
     </row>
@@ -4161,7 +5834,7 @@
       <c r="D72" s="26"/>
       <c r="E72" s="29">
         <f>SUM(E69:E71)</f>
-        <v>2975</v>
+        <v>2275</v>
       </c>
       <c r="F72" s="21"/>
     </row>
@@ -4176,7 +5849,7 @@
       <c r="D73" s="26"/>
       <c r="E73" s="35">
         <f>ROUND(E72*C73,2)</f>
-        <v>148.75</v>
+        <v>113.75</v>
       </c>
       <c r="F73" s="21"/>
     </row>
@@ -4191,7 +5864,7 @@
       <c r="D74" s="26"/>
       <c r="E74" s="43">
         <f>ROUND(E72*C74,2)</f>
-        <v>296.76</v>
+        <v>226.93</v>
       </c>
       <c r="F74" s="21"/>
     </row>
@@ -4212,25 +5885,25 @@
       <c r="D76" s="26"/>
       <c r="E76" s="33">
         <f>SUM(E72:E74)</f>
-        <v>3420.51</v>
+        <v>2615.6799999999998</v>
       </c>
       <c r="F76" s="21"/>
     </row>
     <row r="77" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A77" s="21"/>
-      <c r="B77" s="145"/>
-      <c r="C77" s="145"/>
-      <c r="D77" s="145"/>
+      <c r="B77" s="149"/>
+      <c r="C77" s="149"/>
+      <c r="D77" s="149"/>
       <c r="E77" s="36"/>
       <c r="F77" s="21"/>
     </row>
     <row r="78" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A78" s="21"/>
-      <c r="B78" s="150" t="s">
+      <c r="B78" s="146" t="s">
         <v>18</v>
       </c>
-      <c r="C78" s="150"/>
-      <c r="D78" s="150"/>
+      <c r="C78" s="146"/>
+      <c r="D78" s="146"/>
       <c r="E78" s="36">
         <v>0</v>
       </c>
@@ -4238,9 +5911,9 @@
     </row>
     <row r="79" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A79" s="21"/>
-      <c r="B79" s="145"/>
-      <c r="C79" s="145"/>
-      <c r="D79" s="145"/>
+      <c r="B79" s="149"/>
+      <c r="C79" s="149"/>
+      <c r="D79" s="149"/>
       <c r="E79" s="36"/>
       <c r="F79" s="21"/>
     </row>
@@ -4253,7 +5926,7 @@
       <c r="D80" s="38"/>
       <c r="E80" s="39">
         <f>E76-E78</f>
-        <v>3420.51</v>
+        <v>2615.6799999999998</v>
       </c>
       <c r="F80" s="21"/>
     </row>
@@ -4275,31 +5948,31 @@
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A83" s="21"/>
-      <c r="B83" s="148"/>
-      <c r="C83" s="148"/>
-      <c r="D83" s="148"/>
-      <c r="E83" s="148"/>
+      <c r="B83" s="143"/>
+      <c r="C83" s="143"/>
+      <c r="D83" s="143"/>
+      <c r="E83" s="143"/>
       <c r="F83" s="21"/>
     </row>
     <row r="84" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A84" s="142" t="s">
+      <c r="A84" s="151" t="s">
         <v>29</v>
       </c>
-      <c r="B84" s="142"/>
-      <c r="C84" s="142"/>
-      <c r="D84" s="142"/>
-      <c r="E84" s="142"/>
-      <c r="F84" s="142"/>
+      <c r="B84" s="151"/>
+      <c r="C84" s="151"/>
+      <c r="D84" s="151"/>
+      <c r="E84" s="151"/>
+      <c r="F84" s="151"/>
     </row>
     <row r="85" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A85" s="151" t="s">
+      <c r="A85" s="147" t="s">
         <v>30</v>
       </c>
-      <c r="B85" s="151"/>
-      <c r="C85" s="151"/>
-      <c r="D85" s="151"/>
-      <c r="E85" s="151"/>
-      <c r="F85" s="151"/>
+      <c r="B85" s="147"/>
+      <c r="C85" s="147"/>
+      <c r="D85" s="147"/>
+      <c r="E85" s="147"/>
+      <c r="F85" s="147"/>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A86" s="21"/>
@@ -4311,26 +5984,26 @@
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A87" s="21"/>
-      <c r="B87" s="149"/>
-      <c r="C87" s="149"/>
-      <c r="D87" s="149"/>
-      <c r="E87" s="149"/>
+      <c r="B87" s="144"/>
+      <c r="C87" s="144"/>
+      <c r="D87" s="144"/>
+      <c r="E87" s="144"/>
       <c r="F87" s="21"/>
     </row>
     <row r="88" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A88" s="141" t="s">
+      <c r="A88" s="150" t="s">
         <v>7</v>
       </c>
-      <c r="B88" s="141"/>
-      <c r="C88" s="141"/>
-      <c r="D88" s="141"/>
-      <c r="E88" s="141"/>
-      <c r="F88" s="141"/>
+      <c r="B88" s="150"/>
+      <c r="C88" s="150"/>
+      <c r="D88" s="150"/>
+      <c r="E88" s="150"/>
+      <c r="F88" s="150"/>
     </row>
     <row r="90" spans="1:6" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B90" s="146"/>
-      <c r="C90" s="147"/>
-      <c r="D90" s="147"/>
+      <c r="B90" s="141"/>
+      <c r="C90" s="142"/>
+      <c r="D90" s="142"/>
     </row>
     <row r="91" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="92" spans="1:6" x14ac:dyDescent="0.2">
@@ -4386,7 +6059,7 @@
     <mergeCell ref="B42:D42"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B77:B79 B12:B20 B33:B68" xr:uid="{0752F961-DE68-4C99-B978-FD2C8C740CFF}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B77:B79 B12:B20 B33:B68" xr:uid="{F6D62F01-B071-416A-A335-64C08A8AD521}">
       <formula1>Liste_Activités</formula1>
     </dataValidation>
   </dataValidations>
@@ -4398,8 +6071,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E09EE0B7-D48F-463F-AB70-7B1459EC40F2}">
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{348EF412-CDC9-4E8B-972E-43AAD8A51529}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -4459,7 +6132,7 @@
     <row r="21" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A21" s="17"/>
       <c r="B21" s="25" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="C21" s="21"/>
       <c r="D21" s="21"/>
@@ -4528,7 +6201,7 @@
         <v>11</v>
       </c>
       <c r="E28" s="27" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="F28" s="21"/>
     </row>
@@ -4541,14 +6214,14 @@
       <c r="F29" s="20"/>
     </row>
     <row r="30" spans="1:6" s="40" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="144" t="s">
+      <c r="A30" s="148" t="s">
         <v>0</v>
       </c>
-      <c r="B30" s="144"/>
-      <c r="C30" s="144"/>
-      <c r="D30" s="144"/>
-      <c r="E30" s="144"/>
-      <c r="F30" s="144"/>
+      <c r="B30" s="148"/>
+      <c r="C30" s="148"/>
+      <c r="D30" s="148"/>
+      <c r="E30" s="148"/>
+      <c r="F30" s="148"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" s="17"/>
@@ -4569,265 +6242,263 @@
     </row>
     <row r="33" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A33" s="21"/>
-      <c r="B33" s="143"/>
-      <c r="C33" s="143"/>
-      <c r="D33" s="143"/>
+      <c r="B33" s="145"/>
+      <c r="C33" s="145"/>
+      <c r="D33" s="145"/>
       <c r="E33" s="28"/>
       <c r="F33" s="21"/>
     </row>
     <row r="34" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A34" s="21"/>
-      <c r="B34" s="143" t="s">
-        <v>75</v>
-      </c>
-      <c r="C34" s="143"/>
-      <c r="D34" s="143"/>
+      <c r="B34" s="145" t="s">
+        <v>79</v>
+      </c>
+      <c r="C34" s="145"/>
+      <c r="D34" s="145"/>
       <c r="E34" s="28"/>
       <c r="F34" s="21"/>
     </row>
     <row r="35" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A35" s="21"/>
-      <c r="B35" s="143"/>
-      <c r="C35" s="143"/>
-      <c r="D35" s="143"/>
+      <c r="B35" s="145"/>
+      <c r="C35" s="145"/>
+      <c r="D35" s="145"/>
       <c r="E35" s="28"/>
       <c r="F35" s="21"/>
     </row>
     <row r="36" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A36" s="21"/>
-      <c r="B36" s="143" t="s">
-        <v>61</v>
-      </c>
-      <c r="C36" s="143"/>
-      <c r="D36" s="143"/>
+      <c r="B36" s="145" t="s">
+        <v>80</v>
+      </c>
+      <c r="C36" s="145"/>
+      <c r="D36" s="145"/>
       <c r="E36" s="28"/>
       <c r="F36" s="21"/>
     </row>
     <row r="37" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A37" s="21"/>
-      <c r="B37" s="143"/>
-      <c r="C37" s="143"/>
-      <c r="D37" s="143"/>
+      <c r="B37" s="145"/>
+      <c r="C37" s="145"/>
+      <c r="D37" s="145"/>
       <c r="E37" s="28"/>
       <c r="F37" s="21"/>
     </row>
     <row r="38" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A38" s="21"/>
-      <c r="B38" s="143" t="s">
-        <v>49</v>
-      </c>
-      <c r="C38" s="143"/>
-      <c r="D38" s="143"/>
+      <c r="B38" s="145" t="s">
+        <v>81</v>
+      </c>
+      <c r="C38" s="145"/>
+      <c r="D38" s="145"/>
       <c r="E38" s="28"/>
       <c r="F38" s="21"/>
     </row>
     <row r="39" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A39" s="21"/>
-      <c r="B39" s="143"/>
-      <c r="C39" s="143"/>
-      <c r="D39" s="143"/>
+      <c r="B39" s="145"/>
+      <c r="C39" s="145"/>
+      <c r="D39" s="145"/>
       <c r="E39" s="28"/>
       <c r="F39" s="21"/>
     </row>
     <row r="40" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A40" s="21"/>
-      <c r="B40" s="143" t="s">
-        <v>76</v>
-      </c>
-      <c r="C40" s="143"/>
-      <c r="D40" s="143"/>
+      <c r="B40" s="145"/>
+      <c r="C40" s="145"/>
+      <c r="D40" s="145"/>
       <c r="E40" s="28"/>
       <c r="F40" s="21"/>
     </row>
     <row r="41" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A41" s="21"/>
-      <c r="B41" s="143"/>
-      <c r="C41" s="143"/>
-      <c r="D41" s="143"/>
+      <c r="B41" s="145"/>
+      <c r="C41" s="145"/>
+      <c r="D41" s="145"/>
       <c r="E41" s="28"/>
       <c r="F41" s="21"/>
     </row>
     <row r="42" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A42" s="21"/>
-      <c r="B42" s="143"/>
-      <c r="C42" s="143"/>
-      <c r="D42" s="143"/>
+      <c r="B42" s="145"/>
+      <c r="C42" s="145"/>
+      <c r="D42" s="145"/>
       <c r="E42" s="28"/>
       <c r="F42" s="21"/>
     </row>
     <row r="43" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A43" s="21"/>
-      <c r="B43" s="143"/>
-      <c r="C43" s="143"/>
-      <c r="D43" s="143"/>
+      <c r="B43" s="145"/>
+      <c r="C43" s="145"/>
+      <c r="D43" s="145"/>
       <c r="E43" s="28"/>
       <c r="F43" s="21"/>
     </row>
     <row r="44" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A44" s="21"/>
-      <c r="B44" s="143"/>
-      <c r="C44" s="143"/>
-      <c r="D44" s="143"/>
+      <c r="B44" s="145"/>
+      <c r="C44" s="145"/>
+      <c r="D44" s="145"/>
       <c r="E44" s="28"/>
       <c r="F44" s="21"/>
     </row>
     <row r="45" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A45" s="21"/>
-      <c r="B45" s="143"/>
-      <c r="C45" s="143"/>
-      <c r="D45" s="143"/>
+      <c r="B45" s="145"/>
+      <c r="C45" s="145"/>
+      <c r="D45" s="145"/>
       <c r="E45" s="28"/>
       <c r="F45" s="21"/>
     </row>
     <row r="46" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A46" s="21"/>
-      <c r="B46" s="143"/>
-      <c r="C46" s="143"/>
-      <c r="D46" s="143"/>
+      <c r="B46" s="145"/>
+      <c r="C46" s="145"/>
+      <c r="D46" s="145"/>
       <c r="E46" s="28"/>
       <c r="F46" s="21"/>
     </row>
     <row r="47" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A47" s="21"/>
-      <c r="B47" s="143"/>
-      <c r="C47" s="143"/>
-      <c r="D47" s="143"/>
+      <c r="B47" s="145"/>
+      <c r="C47" s="145"/>
+      <c r="D47" s="145"/>
       <c r="E47" s="28"/>
       <c r="F47" s="21"/>
     </row>
     <row r="48" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A48" s="21"/>
-      <c r="B48" s="143"/>
-      <c r="C48" s="143"/>
-      <c r="D48" s="143"/>
+      <c r="B48" s="145"/>
+      <c r="C48" s="145"/>
+      <c r="D48" s="145"/>
       <c r="E48" s="28"/>
       <c r="F48" s="21"/>
     </row>
     <row r="49" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A49" s="21"/>
-      <c r="B49" s="143"/>
-      <c r="C49" s="143"/>
-      <c r="D49" s="143"/>
+      <c r="B49" s="145"/>
+      <c r="C49" s="145"/>
+      <c r="D49" s="145"/>
       <c r="E49" s="28"/>
       <c r="F49" s="21"/>
     </row>
     <row r="50" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A50" s="21"/>
-      <c r="B50" s="143"/>
-      <c r="C50" s="143"/>
-      <c r="D50" s="143"/>
+      <c r="B50" s="145"/>
+      <c r="C50" s="145"/>
+      <c r="D50" s="145"/>
       <c r="E50" s="28"/>
       <c r="F50" s="21"/>
     </row>
     <row r="51" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A51" s="21"/>
-      <c r="B51" s="143"/>
-      <c r="C51" s="143"/>
-      <c r="D51" s="143"/>
+      <c r="B51" s="145"/>
+      <c r="C51" s="145"/>
+      <c r="D51" s="145"/>
       <c r="E51" s="28"/>
       <c r="F51" s="21"/>
     </row>
     <row r="52" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A52" s="21"/>
-      <c r="B52" s="143"/>
-      <c r="C52" s="143"/>
-      <c r="D52" s="143"/>
+      <c r="B52" s="145"/>
+      <c r="C52" s="145"/>
+      <c r="D52" s="145"/>
       <c r="E52" s="28"/>
       <c r="F52" s="21"/>
     </row>
     <row r="53" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A53" s="21"/>
-      <c r="B53" s="143"/>
-      <c r="C53" s="143"/>
-      <c r="D53" s="143"/>
+      <c r="B53" s="145"/>
+      <c r="C53" s="145"/>
+      <c r="D53" s="145"/>
       <c r="E53" s="28"/>
       <c r="F53" s="21"/>
     </row>
     <row r="54" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A54" s="21"/>
-      <c r="B54" s="143"/>
-      <c r="C54" s="143"/>
-      <c r="D54" s="143"/>
+      <c r="B54" s="145"/>
+      <c r="C54" s="145"/>
+      <c r="D54" s="145"/>
       <c r="E54" s="28"/>
       <c r="F54" s="21"/>
     </row>
     <row r="55" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A55" s="21"/>
-      <c r="B55" s="143"/>
-      <c r="C55" s="143"/>
-      <c r="D55" s="143"/>
+      <c r="B55" s="145"/>
+      <c r="C55" s="145"/>
+      <c r="D55" s="145"/>
       <c r="E55" s="28"/>
       <c r="F55" s="21"/>
     </row>
     <row r="56" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A56" s="21"/>
-      <c r="B56" s="143"/>
-      <c r="C56" s="143"/>
-      <c r="D56" s="143"/>
+      <c r="B56" s="145"/>
+      <c r="C56" s="145"/>
+      <c r="D56" s="145"/>
       <c r="E56" s="28"/>
       <c r="F56" s="21"/>
     </row>
     <row r="57" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A57" s="21"/>
-      <c r="B57" s="143"/>
-      <c r="C57" s="143"/>
-      <c r="D57" s="143"/>
+      <c r="B57" s="145"/>
+      <c r="C57" s="145"/>
+      <c r="D57" s="145"/>
       <c r="E57" s="28"/>
       <c r="F57" s="21"/>
     </row>
     <row r="58" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A58" s="21"/>
-      <c r="B58" s="143"/>
-      <c r="C58" s="143"/>
-      <c r="D58" s="143"/>
+      <c r="B58" s="145"/>
+      <c r="C58" s="145"/>
+      <c r="D58" s="145"/>
       <c r="E58" s="28"/>
       <c r="F58" s="21"/>
     </row>
     <row r="59" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A59" s="21"/>
-      <c r="B59" s="143"/>
-      <c r="C59" s="143"/>
-      <c r="D59" s="143"/>
+      <c r="B59" s="145"/>
+      <c r="C59" s="145"/>
+      <c r="D59" s="145"/>
       <c r="E59" s="28"/>
       <c r="F59" s="21"/>
     </row>
     <row r="60" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A60" s="21"/>
-      <c r="B60" s="143"/>
-      <c r="C60" s="143"/>
-      <c r="D60" s="143"/>
+      <c r="B60" s="145"/>
+      <c r="C60" s="145"/>
+      <c r="D60" s="145"/>
       <c r="E60" s="28"/>
       <c r="F60" s="21"/>
     </row>
     <row r="61" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A61" s="21"/>
-      <c r="B61" s="143"/>
-      <c r="C61" s="143"/>
-      <c r="D61" s="143"/>
+      <c r="B61" s="145"/>
+      <c r="C61" s="145"/>
+      <c r="D61" s="145"/>
       <c r="E61" s="28"/>
       <c r="F61" s="21"/>
     </row>
     <row r="62" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A62" s="21"/>
-      <c r="B62" s="143"/>
-      <c r="C62" s="143"/>
-      <c r="D62" s="143"/>
+      <c r="B62" s="145"/>
+      <c r="C62" s="145"/>
+      <c r="D62" s="145"/>
       <c r="E62" s="28"/>
       <c r="F62" s="21"/>
     </row>
     <row r="63" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A63" s="21"/>
-      <c r="B63" s="143"/>
-      <c r="C63" s="143"/>
-      <c r="D63" s="143"/>
+      <c r="B63" s="145"/>
+      <c r="C63" s="145"/>
+      <c r="D63" s="145"/>
       <c r="E63" s="28"/>
       <c r="F63" s="21"/>
     </row>
     <row r="64" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A64" s="21"/>
-      <c r="B64" s="143"/>
-      <c r="C64" s="143"/>
-      <c r="D64" s="143"/>
+      <c r="B64" s="145"/>
+      <c r="C64" s="145"/>
+      <c r="D64" s="145"/>
       <c r="E64" s="28"/>
       <c r="F64" s="21"/>
     </row>
@@ -4847,7 +6518,7 @@
       <c r="A66" s="46"/>
       <c r="B66" s="47"/>
       <c r="C66" s="51">
-        <v>6.5</v>
+        <v>2.25</v>
       </c>
       <c r="D66" s="52">
         <v>350</v>
@@ -4857,17 +6528,17 @@
     </row>
     <row r="67" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A67" s="21"/>
-      <c r="B67" s="143"/>
-      <c r="C67" s="143"/>
-      <c r="D67" s="143"/>
+      <c r="B67" s="145"/>
+      <c r="C67" s="145"/>
+      <c r="D67" s="145"/>
       <c r="E67" s="28"/>
       <c r="F67" s="21"/>
     </row>
     <row r="68" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="21"/>
-      <c r="B68" s="143"/>
-      <c r="C68" s="143"/>
-      <c r="D68" s="143"/>
+      <c r="B68" s="145"/>
+      <c r="C68" s="145"/>
+      <c r="D68" s="145"/>
       <c r="E68" s="28"/>
       <c r="F68" s="21"/>
     </row>
@@ -4880,7 +6551,7 @@
       <c r="D69" s="26"/>
       <c r="E69" s="29">
         <f>D66*C66</f>
-        <v>2275</v>
+        <v>787.5</v>
       </c>
       <c r="F69" s="21"/>
     </row>
@@ -4917,7 +6588,7 @@
       <c r="D72" s="26"/>
       <c r="E72" s="29">
         <f>SUM(E69:E71)</f>
-        <v>2275</v>
+        <v>787.5</v>
       </c>
       <c r="F72" s="21"/>
     </row>
@@ -4932,7 +6603,7 @@
       <c r="D73" s="26"/>
       <c r="E73" s="35">
         <f>ROUND(E72*C73,2)</f>
-        <v>113.75</v>
+        <v>39.380000000000003</v>
       </c>
       <c r="F73" s="21"/>
     </row>
@@ -4947,7 +6618,7 @@
       <c r="D74" s="26"/>
       <c r="E74" s="43">
         <f>ROUND(E72*C74,2)</f>
-        <v>226.93</v>
+        <v>78.55</v>
       </c>
       <c r="F74" s="21"/>
     </row>
@@ -4968,25 +6639,25 @@
       <c r="D76" s="26"/>
       <c r="E76" s="33">
         <f>SUM(E72:E74)</f>
-        <v>2615.6799999999998</v>
+        <v>905.43</v>
       </c>
       <c r="F76" s="21"/>
     </row>
     <row r="77" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A77" s="21"/>
-      <c r="B77" s="145"/>
-      <c r="C77" s="145"/>
-      <c r="D77" s="145"/>
+      <c r="B77" s="149"/>
+      <c r="C77" s="149"/>
+      <c r="D77" s="149"/>
       <c r="E77" s="36"/>
       <c r="F77" s="21"/>
     </row>
     <row r="78" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A78" s="21"/>
-      <c r="B78" s="150" t="s">
+      <c r="B78" s="146" t="s">
         <v>18</v>
       </c>
-      <c r="C78" s="150"/>
-      <c r="D78" s="150"/>
+      <c r="C78" s="146"/>
+      <c r="D78" s="146"/>
       <c r="E78" s="36">
         <v>0</v>
       </c>
@@ -4994,9 +6665,9 @@
     </row>
     <row r="79" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A79" s="21"/>
-      <c r="B79" s="145"/>
-      <c r="C79" s="145"/>
-      <c r="D79" s="145"/>
+      <c r="B79" s="149"/>
+      <c r="C79" s="149"/>
+      <c r="D79" s="149"/>
       <c r="E79" s="36"/>
       <c r="F79" s="21"/>
     </row>
@@ -5009,7 +6680,7 @@
       <c r="D80" s="38"/>
       <c r="E80" s="39">
         <f>E76-E78</f>
-        <v>2615.6799999999998</v>
+        <v>905.43</v>
       </c>
       <c r="F80" s="21"/>
     </row>
@@ -5031,31 +6702,31 @@
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A83" s="21"/>
-      <c r="B83" s="148"/>
-      <c r="C83" s="148"/>
-      <c r="D83" s="148"/>
-      <c r="E83" s="148"/>
+      <c r="B83" s="143"/>
+      <c r="C83" s="143"/>
+      <c r="D83" s="143"/>
+      <c r="E83" s="143"/>
       <c r="F83" s="21"/>
     </row>
     <row r="84" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A84" s="142" t="s">
+      <c r="A84" s="151" t="s">
         <v>29</v>
       </c>
-      <c r="B84" s="142"/>
-      <c r="C84" s="142"/>
-      <c r="D84" s="142"/>
-      <c r="E84" s="142"/>
-      <c r="F84" s="142"/>
+      <c r="B84" s="151"/>
+      <c r="C84" s="151"/>
+      <c r="D84" s="151"/>
+      <c r="E84" s="151"/>
+      <c r="F84" s="151"/>
     </row>
     <row r="85" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A85" s="151" t="s">
+      <c r="A85" s="147" t="s">
         <v>30</v>
       </c>
-      <c r="B85" s="151"/>
-      <c r="C85" s="151"/>
-      <c r="D85" s="151"/>
-      <c r="E85" s="151"/>
-      <c r="F85" s="151"/>
+      <c r="B85" s="147"/>
+      <c r="C85" s="147"/>
+      <c r="D85" s="147"/>
+      <c r="E85" s="147"/>
+      <c r="F85" s="147"/>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A86" s="21"/>
@@ -5067,26 +6738,26 @@
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A87" s="21"/>
-      <c r="B87" s="149"/>
-      <c r="C87" s="149"/>
-      <c r="D87" s="149"/>
-      <c r="E87" s="149"/>
+      <c r="B87" s="144"/>
+      <c r="C87" s="144"/>
+      <c r="D87" s="144"/>
+      <c r="E87" s="144"/>
       <c r="F87" s="21"/>
     </row>
     <row r="88" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A88" s="141" t="s">
+      <c r="A88" s="150" t="s">
         <v>7</v>
       </c>
-      <c r="B88" s="141"/>
-      <c r="C88" s="141"/>
-      <c r="D88" s="141"/>
-      <c r="E88" s="141"/>
-      <c r="F88" s="141"/>
+      <c r="B88" s="150"/>
+      <c r="C88" s="150"/>
+      <c r="D88" s="150"/>
+      <c r="E88" s="150"/>
+      <c r="F88" s="150"/>
     </row>
     <row r="90" spans="1:6" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B90" s="146"/>
-      <c r="C90" s="147"/>
-      <c r="D90" s="147"/>
+      <c r="B90" s="141"/>
+      <c r="C90" s="142"/>
+      <c r="D90" s="142"/>
     </row>
     <row r="91" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="92" spans="1:6" x14ac:dyDescent="0.2">
@@ -5142,760 +6813,6 @@
     <mergeCell ref="B87:E87"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B77:B79 B12:B20 B33:B68" xr:uid="{F6D62F01-B071-416A-A335-64C08A8AD521}">
-      <formula1>Liste_Activités</formula1>
-    </dataValidation>
-  </dataValidations>
-  <printOptions horizontalCentered="1"/>
-  <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
-  <pageSetup paperSize="131" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
-  <headerFooter scaleWithDoc="0" alignWithMargins="0"/>
-  <drawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{348EF412-CDC9-4E8B-972E-43AAD8A51529}">
-  <sheetPr>
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
-  <dimension ref="A12:F92"/>
-  <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A28" zoomScale="80" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="B67" sqref="B67:D67"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="5.140625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="120" style="2" customWidth="1"/>
-    <col min="3" max="3" width="11.5703125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="17.5703125" style="2" customWidth="1"/>
-    <col min="5" max="5" width="17.7109375" style="2" customWidth="1"/>
-    <col min="6" max="6" width="10.5703125" style="2" customWidth="1"/>
-    <col min="7" max="16384" width="11.42578125" style="2"/>
-  </cols>
-  <sheetData>
-    <row r="12" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B12" s="3"/>
-      <c r="E12" s="4"/>
-    </row>
-    <row r="13" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B13" s="3"/>
-      <c r="E13" s="4"/>
-    </row>
-    <row r="14" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B14" s="3"/>
-      <c r="E14" s="4"/>
-    </row>
-    <row r="15" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B15" s="3"/>
-      <c r="E15" s="4"/>
-    </row>
-    <row r="16" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B16" s="3"/>
-      <c r="E16" s="4"/>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B17" s="3"/>
-      <c r="E17" s="4"/>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B18" s="3"/>
-      <c r="E18" s="4"/>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B19" s="3"/>
-      <c r="E19" s="4"/>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B20" s="3"/>
-      <c r="E20" s="4"/>
-    </row>
-    <row r="21" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A21" s="17"/>
-      <c r="B21" s="25" t="s">
-        <v>78</v>
-      </c>
-      <c r="C21" s="21"/>
-      <c r="D21" s="21"/>
-      <c r="E21" s="21"/>
-      <c r="F21" s="21"/>
-    </row>
-    <row r="22" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A22" s="17"/>
-      <c r="B22" s="26"/>
-      <c r="C22" s="21"/>
-      <c r="D22" s="21"/>
-      <c r="E22" s="21"/>
-      <c r="F22" s="21"/>
-    </row>
-    <row r="23" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A23" s="17"/>
-      <c r="B23" s="26"/>
-      <c r="C23" s="21"/>
-      <c r="D23" s="21"/>
-      <c r="E23" s="21"/>
-      <c r="F23" s="21"/>
-    </row>
-    <row r="24" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A24" s="17"/>
-      <c r="B24" s="25" t="s">
-        <v>41</v>
-      </c>
-      <c r="C24" s="21"/>
-      <c r="D24" s="21"/>
-      <c r="E24" s="21"/>
-      <c r="F24" s="21"/>
-    </row>
-    <row r="25" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A25" s="17"/>
-      <c r="B25" s="25" t="s">
-        <v>40</v>
-      </c>
-      <c r="C25" s="21"/>
-      <c r="D25" s="21"/>
-      <c r="E25" s="21"/>
-      <c r="F25" s="21"/>
-    </row>
-    <row r="26" spans="1:6" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="17"/>
-      <c r="B26" s="53" t="s">
-        <v>66</v>
-      </c>
-      <c r="C26" s="21"/>
-      <c r="D26" s="21"/>
-      <c r="E26" s="21"/>
-      <c r="F26" s="21"/>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A27" s="18"/>
-      <c r="B27" s="21"/>
-      <c r="C27" s="23"/>
-      <c r="D27" s="23"/>
-      <c r="E27" s="24"/>
-      <c r="F27" s="21"/>
-    </row>
-    <row r="28" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A28" s="17"/>
-      <c r="B28" s="23"/>
-      <c r="C28" s="23"/>
-      <c r="D28" s="27" t="s">
-        <v>11</v>
-      </c>
-      <c r="E28" s="27" t="s">
-        <v>77</v>
-      </c>
-      <c r="F28" s="21"/>
-    </row>
-    <row r="29" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="19"/>
-      <c r="B29" s="19"/>
-      <c r="C29" s="19"/>
-      <c r="D29" s="19"/>
-      <c r="E29" s="19"/>
-      <c r="F29" s="20"/>
-    </row>
-    <row r="30" spans="1:6" s="40" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="144" t="s">
-        <v>0</v>
-      </c>
-      <c r="B30" s="144"/>
-      <c r="C30" s="144"/>
-      <c r="D30" s="144"/>
-      <c r="E30" s="144"/>
-      <c r="F30" s="144"/>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A31" s="17"/>
-      <c r="B31" s="18"/>
-      <c r="C31" s="17"/>
-      <c r="D31" s="17"/>
-      <c r="E31" s="17"/>
-    </row>
-    <row r="32" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A32" s="21"/>
-      <c r="B32" s="22" t="s">
-        <v>6</v>
-      </c>
-      <c r="C32" s="22"/>
-      <c r="D32" s="22"/>
-      <c r="E32" s="28"/>
-      <c r="F32" s="21"/>
-    </row>
-    <row r="33" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A33" s="21"/>
-      <c r="B33" s="143"/>
-      <c r="C33" s="143"/>
-      <c r="D33" s="143"/>
-      <c r="E33" s="28"/>
-      <c r="F33" s="21"/>
-    </row>
-    <row r="34" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A34" s="21"/>
-      <c r="B34" s="143" t="s">
-        <v>79</v>
-      </c>
-      <c r="C34" s="143"/>
-      <c r="D34" s="143"/>
-      <c r="E34" s="28"/>
-      <c r="F34" s="21"/>
-    </row>
-    <row r="35" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A35" s="21"/>
-      <c r="B35" s="143"/>
-      <c r="C35" s="143"/>
-      <c r="D35" s="143"/>
-      <c r="E35" s="28"/>
-      <c r="F35" s="21"/>
-    </row>
-    <row r="36" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A36" s="21"/>
-      <c r="B36" s="143" t="s">
-        <v>80</v>
-      </c>
-      <c r="C36" s="143"/>
-      <c r="D36" s="143"/>
-      <c r="E36" s="28"/>
-      <c r="F36" s="21"/>
-    </row>
-    <row r="37" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A37" s="21"/>
-      <c r="B37" s="143"/>
-      <c r="C37" s="143"/>
-      <c r="D37" s="143"/>
-      <c r="E37" s="28"/>
-      <c r="F37" s="21"/>
-    </row>
-    <row r="38" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A38" s="21"/>
-      <c r="B38" s="143" t="s">
-        <v>81</v>
-      </c>
-      <c r="C38" s="143"/>
-      <c r="D38" s="143"/>
-      <c r="E38" s="28"/>
-      <c r="F38" s="21"/>
-    </row>
-    <row r="39" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A39" s="21"/>
-      <c r="B39" s="143"/>
-      <c r="C39" s="143"/>
-      <c r="D39" s="143"/>
-      <c r="E39" s="28"/>
-      <c r="F39" s="21"/>
-    </row>
-    <row r="40" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A40" s="21"/>
-      <c r="B40" s="143"/>
-      <c r="C40" s="143"/>
-      <c r="D40" s="143"/>
-      <c r="E40" s="28"/>
-      <c r="F40" s="21"/>
-    </row>
-    <row r="41" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A41" s="21"/>
-      <c r="B41" s="143"/>
-      <c r="C41" s="143"/>
-      <c r="D41" s="143"/>
-      <c r="E41" s="28"/>
-      <c r="F41" s="21"/>
-    </row>
-    <row r="42" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A42" s="21"/>
-      <c r="B42" s="143"/>
-      <c r="C42" s="143"/>
-      <c r="D42" s="143"/>
-      <c r="E42" s="28"/>
-      <c r="F42" s="21"/>
-    </row>
-    <row r="43" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A43" s="21"/>
-      <c r="B43" s="143"/>
-      <c r="C43" s="143"/>
-      <c r="D43" s="143"/>
-      <c r="E43" s="28"/>
-      <c r="F43" s="21"/>
-    </row>
-    <row r="44" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A44" s="21"/>
-      <c r="B44" s="143"/>
-      <c r="C44" s="143"/>
-      <c r="D44" s="143"/>
-      <c r="E44" s="28"/>
-      <c r="F44" s="21"/>
-    </row>
-    <row r="45" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A45" s="21"/>
-      <c r="B45" s="143"/>
-      <c r="C45" s="143"/>
-      <c r="D45" s="143"/>
-      <c r="E45" s="28"/>
-      <c r="F45" s="21"/>
-    </row>
-    <row r="46" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A46" s="21"/>
-      <c r="B46" s="143"/>
-      <c r="C46" s="143"/>
-      <c r="D46" s="143"/>
-      <c r="E46" s="28"/>
-      <c r="F46" s="21"/>
-    </row>
-    <row r="47" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A47" s="21"/>
-      <c r="B47" s="143"/>
-      <c r="C47" s="143"/>
-      <c r="D47" s="143"/>
-      <c r="E47" s="28"/>
-      <c r="F47" s="21"/>
-    </row>
-    <row r="48" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A48" s="21"/>
-      <c r="B48" s="143"/>
-      <c r="C48" s="143"/>
-      <c r="D48" s="143"/>
-      <c r="E48" s="28"/>
-      <c r="F48" s="21"/>
-    </row>
-    <row r="49" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A49" s="21"/>
-      <c r="B49" s="143"/>
-      <c r="C49" s="143"/>
-      <c r="D49" s="143"/>
-      <c r="E49" s="28"/>
-      <c r="F49" s="21"/>
-    </row>
-    <row r="50" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A50" s="21"/>
-      <c r="B50" s="143"/>
-      <c r="C50" s="143"/>
-      <c r="D50" s="143"/>
-      <c r="E50" s="28"/>
-      <c r="F50" s="21"/>
-    </row>
-    <row r="51" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A51" s="21"/>
-      <c r="B51" s="143"/>
-      <c r="C51" s="143"/>
-      <c r="D51" s="143"/>
-      <c r="E51" s="28"/>
-      <c r="F51" s="21"/>
-    </row>
-    <row r="52" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A52" s="21"/>
-      <c r="B52" s="143"/>
-      <c r="C52" s="143"/>
-      <c r="D52" s="143"/>
-      <c r="E52" s="28"/>
-      <c r="F52" s="21"/>
-    </row>
-    <row r="53" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A53" s="21"/>
-      <c r="B53" s="143"/>
-      <c r="C53" s="143"/>
-      <c r="D53" s="143"/>
-      <c r="E53" s="28"/>
-      <c r="F53" s="21"/>
-    </row>
-    <row r="54" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A54" s="21"/>
-      <c r="B54" s="143"/>
-      <c r="C54" s="143"/>
-      <c r="D54" s="143"/>
-      <c r="E54" s="28"/>
-      <c r="F54" s="21"/>
-    </row>
-    <row r="55" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A55" s="21"/>
-      <c r="B55" s="143"/>
-      <c r="C55" s="143"/>
-      <c r="D55" s="143"/>
-      <c r="E55" s="28"/>
-      <c r="F55" s="21"/>
-    </row>
-    <row r="56" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A56" s="21"/>
-      <c r="B56" s="143"/>
-      <c r="C56" s="143"/>
-      <c r="D56" s="143"/>
-      <c r="E56" s="28"/>
-      <c r="F56" s="21"/>
-    </row>
-    <row r="57" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A57" s="21"/>
-      <c r="B57" s="143"/>
-      <c r="C57" s="143"/>
-      <c r="D57" s="143"/>
-      <c r="E57" s="28"/>
-      <c r="F57" s="21"/>
-    </row>
-    <row r="58" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A58" s="21"/>
-      <c r="B58" s="143"/>
-      <c r="C58" s="143"/>
-      <c r="D58" s="143"/>
-      <c r="E58" s="28"/>
-      <c r="F58" s="21"/>
-    </row>
-    <row r="59" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A59" s="21"/>
-      <c r="B59" s="143"/>
-      <c r="C59" s="143"/>
-      <c r="D59" s="143"/>
-      <c r="E59" s="28"/>
-      <c r="F59" s="21"/>
-    </row>
-    <row r="60" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A60" s="21"/>
-      <c r="B60" s="143"/>
-      <c r="C60" s="143"/>
-      <c r="D60" s="143"/>
-      <c r="E60" s="28"/>
-      <c r="F60" s="21"/>
-    </row>
-    <row r="61" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A61" s="21"/>
-      <c r="B61" s="143"/>
-      <c r="C61" s="143"/>
-      <c r="D61" s="143"/>
-      <c r="E61" s="28"/>
-      <c r="F61" s="21"/>
-    </row>
-    <row r="62" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A62" s="21"/>
-      <c r="B62" s="143"/>
-      <c r="C62" s="143"/>
-      <c r="D62" s="143"/>
-      <c r="E62" s="28"/>
-      <c r="F62" s="21"/>
-    </row>
-    <row r="63" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A63" s="21"/>
-      <c r="B63" s="143"/>
-      <c r="C63" s="143"/>
-      <c r="D63" s="143"/>
-      <c r="E63" s="28"/>
-      <c r="F63" s="21"/>
-    </row>
-    <row r="64" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A64" s="21"/>
-      <c r="B64" s="143"/>
-      <c r="C64" s="143"/>
-      <c r="D64" s="143"/>
-      <c r="E64" s="28"/>
-      <c r="F64" s="21"/>
-    </row>
-    <row r="65" spans="1:6" s="50" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A65" s="46"/>
-      <c r="B65" s="47"/>
-      <c r="C65" s="48" t="s">
-        <v>37</v>
-      </c>
-      <c r="D65" s="48" t="s">
-        <v>38</v>
-      </c>
-      <c r="E65" s="49"/>
-      <c r="F65" s="46"/>
-    </row>
-    <row r="66" spans="1:6" s="50" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A66" s="46"/>
-      <c r="B66" s="47"/>
-      <c r="C66" s="51">
-        <v>2.25</v>
-      </c>
-      <c r="D66" s="52">
-        <v>350</v>
-      </c>
-      <c r="E66" s="49"/>
-      <c r="F66" s="46"/>
-    </row>
-    <row r="67" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A67" s="21"/>
-      <c r="B67" s="143"/>
-      <c r="C67" s="143"/>
-      <c r="D67" s="143"/>
-      <c r="E67" s="28"/>
-      <c r="F67" s="21"/>
-    </row>
-    <row r="68" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="21"/>
-      <c r="B68" s="143"/>
-      <c r="C68" s="143"/>
-      <c r="D68" s="143"/>
-      <c r="E68" s="28"/>
-      <c r="F68" s="21"/>
-    </row>
-    <row r="69" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="21"/>
-      <c r="B69" s="25" t="s">
-        <v>15</v>
-      </c>
-      <c r="C69" s="26"/>
-      <c r="D69" s="26"/>
-      <c r="E69" s="29">
-        <f>D66*C66</f>
-        <v>787.5</v>
-      </c>
-      <c r="F69" s="21"/>
-    </row>
-    <row r="70" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A70" s="21"/>
-      <c r="B70" s="34" t="s">
-        <v>12</v>
-      </c>
-      <c r="C70" s="26"/>
-      <c r="D70" s="26"/>
-      <c r="E70" s="30">
-        <v>0</v>
-      </c>
-      <c r="F70" s="21"/>
-    </row>
-    <row r="71" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A71" s="21"/>
-      <c r="B71" s="34" t="s">
-        <v>13</v>
-      </c>
-      <c r="C71" s="26"/>
-      <c r="D71" s="26"/>
-      <c r="E71" s="30">
-        <v>0</v>
-      </c>
-      <c r="F71" s="21"/>
-    </row>
-    <row r="72" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A72" s="21"/>
-      <c r="B72" s="25" t="s">
-        <v>14</v>
-      </c>
-      <c r="C72" s="26"/>
-      <c r="D72" s="26"/>
-      <c r="E72" s="29">
-        <f>SUM(E69:E71)</f>
-        <v>787.5</v>
-      </c>
-      <c r="F72" s="21"/>
-    </row>
-    <row r="73" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A73" s="21"/>
-      <c r="B73" s="26" t="s">
-        <v>5</v>
-      </c>
-      <c r="C73" s="31">
-        <v>0.05</v>
-      </c>
-      <c r="D73" s="26"/>
-      <c r="E73" s="35">
-        <f>ROUND(E72*C73,2)</f>
-        <v>39.380000000000003</v>
-      </c>
-      <c r="F73" s="21"/>
-    </row>
-    <row r="74" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A74" s="21"/>
-      <c r="B74" s="26" t="s">
-        <v>4</v>
-      </c>
-      <c r="C74" s="42">
-        <v>9.9750000000000005E-2</v>
-      </c>
-      <c r="D74" s="26"/>
-      <c r="E74" s="43">
-        <f>ROUND(E72*C74,2)</f>
-        <v>78.55</v>
-      </c>
-      <c r="F74" s="21"/>
-    </row>
-    <row r="75" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A75" s="21"/>
-      <c r="B75" s="26"/>
-      <c r="C75" s="26"/>
-      <c r="D75" s="26"/>
-      <c r="E75" s="32"/>
-      <c r="F75" s="21"/>
-    </row>
-    <row r="76" spans="1:6" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="21"/>
-      <c r="B76" s="25" t="s">
-        <v>16</v>
-      </c>
-      <c r="C76" s="26"/>
-      <c r="D76" s="26"/>
-      <c r="E76" s="33">
-        <f>SUM(E72:E74)</f>
-        <v>905.43</v>
-      </c>
-      <c r="F76" s="21"/>
-    </row>
-    <row r="77" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A77" s="21"/>
-      <c r="B77" s="145"/>
-      <c r="C77" s="145"/>
-      <c r="D77" s="145"/>
-      <c r="E77" s="36"/>
-      <c r="F77" s="21"/>
-    </row>
-    <row r="78" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A78" s="21"/>
-      <c r="B78" s="150" t="s">
-        <v>18</v>
-      </c>
-      <c r="C78" s="150"/>
-      <c r="D78" s="150"/>
-      <c r="E78" s="36">
-        <v>0</v>
-      </c>
-      <c r="F78" s="21"/>
-    </row>
-    <row r="79" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A79" s="21"/>
-      <c r="B79" s="145"/>
-      <c r="C79" s="145"/>
-      <c r="D79" s="145"/>
-      <c r="E79" s="36"/>
-      <c r="F79" s="21"/>
-    </row>
-    <row r="80" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A80" s="21"/>
-      <c r="B80" s="37" t="s">
-        <v>17</v>
-      </c>
-      <c r="C80" s="38"/>
-      <c r="D80" s="38"/>
-      <c r="E80" s="39">
-        <f>E76-E78</f>
-        <v>905.43</v>
-      </c>
-      <c r="F80" s="21"/>
-    </row>
-    <row r="81" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A81" s="21"/>
-      <c r="B81" s="21"/>
-      <c r="C81" s="21"/>
-      <c r="D81" s="21"/>
-      <c r="E81" s="21"/>
-      <c r="F81" s="21"/>
-    </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A82" s="21"/>
-      <c r="B82" s="21"/>
-      <c r="C82" s="21"/>
-      <c r="D82" s="21"/>
-      <c r="E82" s="21"/>
-      <c r="F82" s="21"/>
-    </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A83" s="21"/>
-      <c r="B83" s="148"/>
-      <c r="C83" s="148"/>
-      <c r="D83" s="148"/>
-      <c r="E83" s="148"/>
-      <c r="F83" s="21"/>
-    </row>
-    <row r="84" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A84" s="142" t="s">
-        <v>29</v>
-      </c>
-      <c r="B84" s="142"/>
-      <c r="C84" s="142"/>
-      <c r="D84" s="142"/>
-      <c r="E84" s="142"/>
-      <c r="F84" s="142"/>
-    </row>
-    <row r="85" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A85" s="151" t="s">
-        <v>30</v>
-      </c>
-      <c r="B85" s="151"/>
-      <c r="C85" s="151"/>
-      <c r="D85" s="151"/>
-      <c r="E85" s="151"/>
-      <c r="F85" s="151"/>
-    </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A86" s="21"/>
-      <c r="B86" s="21"/>
-      <c r="C86" s="21"/>
-      <c r="D86" s="21"/>
-      <c r="E86" s="21"/>
-      <c r="F86" s="21"/>
-    </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A87" s="21"/>
-      <c r="B87" s="149"/>
-      <c r="C87" s="149"/>
-      <c r="D87" s="149"/>
-      <c r="E87" s="149"/>
-      <c r="F87" s="21"/>
-    </row>
-    <row r="88" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A88" s="141" t="s">
-        <v>7</v>
-      </c>
-      <c r="B88" s="141"/>
-      <c r="C88" s="141"/>
-      <c r="D88" s="141"/>
-      <c r="E88" s="141"/>
-      <c r="F88" s="141"/>
-    </row>
-    <row r="90" spans="1:6" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B90" s="146"/>
-      <c r="C90" s="147"/>
-      <c r="D90" s="147"/>
-    </row>
-    <row r="91" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B92" s="16"/>
-      <c r="C92" s="16"/>
-      <c r="D92" s="16"/>
-    </row>
-  </sheetData>
-  <mergeCells count="44">
-    <mergeCell ref="A88:F88"/>
-    <mergeCell ref="B90:D90"/>
-    <mergeCell ref="B78:D78"/>
-    <mergeCell ref="B79:D79"/>
-    <mergeCell ref="B83:E83"/>
-    <mergeCell ref="A84:F84"/>
-    <mergeCell ref="A85:F85"/>
-    <mergeCell ref="B87:E87"/>
-    <mergeCell ref="B77:D77"/>
-    <mergeCell ref="B56:D56"/>
-    <mergeCell ref="B57:D57"/>
-    <mergeCell ref="B58:D58"/>
-    <mergeCell ref="B59:D59"/>
-    <mergeCell ref="B60:D60"/>
-    <mergeCell ref="B61:D61"/>
-    <mergeCell ref="B62:D62"/>
-    <mergeCell ref="B63:D63"/>
-    <mergeCell ref="B64:D64"/>
-    <mergeCell ref="B67:D67"/>
-    <mergeCell ref="B68:D68"/>
-    <mergeCell ref="B55:D55"/>
-    <mergeCell ref="B44:D44"/>
-    <mergeCell ref="B45:D45"/>
-    <mergeCell ref="B46:D46"/>
-    <mergeCell ref="B47:D47"/>
-    <mergeCell ref="B48:D48"/>
-    <mergeCell ref="B49:D49"/>
-    <mergeCell ref="B50:D50"/>
-    <mergeCell ref="B51:D51"/>
-    <mergeCell ref="B52:D52"/>
-    <mergeCell ref="B53:D53"/>
-    <mergeCell ref="B54:D54"/>
-    <mergeCell ref="B43:D43"/>
-    <mergeCell ref="A30:F30"/>
-    <mergeCell ref="B33:D33"/>
-    <mergeCell ref="B34:D34"/>
-    <mergeCell ref="B35:D35"/>
-    <mergeCell ref="B36:D36"/>
-    <mergeCell ref="B37:D37"/>
-    <mergeCell ref="B38:D38"/>
-    <mergeCell ref="B39:D39"/>
-    <mergeCell ref="B40:D40"/>
-    <mergeCell ref="B41:D41"/>
-    <mergeCell ref="B42:D42"/>
-  </mergeCells>
-  <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B77:B79 B12:B20 B33:B68" xr:uid="{9303906B-CFAA-4A70-97E9-B126FD508437}">
       <formula1>Liste_Activités</formula1>
     </dataValidation>
@@ -6051,14 +6968,14 @@
       <c r="F29" s="20"/>
     </row>
     <row r="30" spans="1:6" s="40" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="144" t="s">
+      <c r="A30" s="148" t="s">
         <v>0</v>
       </c>
-      <c r="B30" s="144"/>
-      <c r="C30" s="144"/>
-      <c r="D30" s="144"/>
-      <c r="E30" s="144"/>
-      <c r="F30" s="144"/>
+      <c r="B30" s="148"/>
+      <c r="C30" s="148"/>
+      <c r="D30" s="148"/>
+      <c r="E30" s="148"/>
+      <c r="F30" s="148"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" s="17"/>
@@ -6079,257 +6996,257 @@
     </row>
     <row r="33" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A33" s="21"/>
-      <c r="B33" s="143"/>
-      <c r="C33" s="143"/>
-      <c r="D33" s="143"/>
+      <c r="B33" s="145"/>
+      <c r="C33" s="145"/>
+      <c r="D33" s="145"/>
       <c r="E33" s="28"/>
       <c r="F33" s="21"/>
     </row>
     <row r="34" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="21"/>
-      <c r="B34" s="143" t="s">
+      <c r="B34" s="145" t="s">
         <v>85</v>
       </c>
-      <c r="C34" s="143"/>
-      <c r="D34" s="143"/>
+      <c r="C34" s="145"/>
+      <c r="D34" s="145"/>
       <c r="E34" s="28"/>
       <c r="F34" s="21"/>
     </row>
     <row r="35" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A35" s="21"/>
-      <c r="B35" s="143"/>
-      <c r="C35" s="143"/>
-      <c r="D35" s="143"/>
+      <c r="B35" s="145"/>
+      <c r="C35" s="145"/>
+      <c r="D35" s="145"/>
       <c r="E35" s="28"/>
       <c r="F35" s="21"/>
     </row>
     <row r="36" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A36" s="21"/>
-      <c r="B36" s="143" t="s">
+      <c r="B36" s="145" t="s">
         <v>49</v>
       </c>
-      <c r="C36" s="143"/>
-      <c r="D36" s="143"/>
+      <c r="C36" s="145"/>
+      <c r="D36" s="145"/>
       <c r="E36" s="28"/>
       <c r="F36" s="21"/>
     </row>
     <row r="37" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A37" s="21"/>
-      <c r="B37" s="143"/>
-      <c r="C37" s="143"/>
-      <c r="D37" s="143"/>
+      <c r="B37" s="145"/>
+      <c r="C37" s="145"/>
+      <c r="D37" s="145"/>
       <c r="E37" s="28"/>
       <c r="F37" s="21"/>
     </row>
     <row r="38" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A38" s="21"/>
-      <c r="B38" s="143" t="s">
+      <c r="B38" s="145" t="s">
         <v>86</v>
       </c>
-      <c r="C38" s="143"/>
-      <c r="D38" s="143"/>
+      <c r="C38" s="145"/>
+      <c r="D38" s="145"/>
       <c r="E38" s="28"/>
       <c r="F38" s="21"/>
     </row>
     <row r="39" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A39" s="21"/>
-      <c r="B39" s="143"/>
-      <c r="C39" s="143"/>
-      <c r="D39" s="143"/>
+      <c r="B39" s="145"/>
+      <c r="C39" s="145"/>
+      <c r="D39" s="145"/>
       <c r="E39" s="28"/>
       <c r="F39" s="21"/>
     </row>
     <row r="40" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A40" s="21"/>
-      <c r="B40" s="143" t="s">
+      <c r="B40" s="145" t="s">
         <v>87</v>
       </c>
-      <c r="C40" s="143"/>
-      <c r="D40" s="143"/>
+      <c r="C40" s="145"/>
+      <c r="D40" s="145"/>
       <c r="E40" s="28"/>
       <c r="F40" s="21"/>
     </row>
     <row r="41" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A41" s="21"/>
-      <c r="B41" s="143"/>
-      <c r="C41" s="143"/>
-      <c r="D41" s="143"/>
+      <c r="B41" s="145"/>
+      <c r="C41" s="145"/>
+      <c r="D41" s="145"/>
       <c r="E41" s="28"/>
       <c r="F41" s="21"/>
     </row>
     <row r="42" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A42" s="21"/>
-      <c r="B42" s="143"/>
-      <c r="C42" s="143"/>
-      <c r="D42" s="143"/>
+      <c r="B42" s="145"/>
+      <c r="C42" s="145"/>
+      <c r="D42" s="145"/>
       <c r="E42" s="28"/>
       <c r="F42" s="21"/>
     </row>
     <row r="43" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A43" s="21"/>
-      <c r="B43" s="143"/>
-      <c r="C43" s="143"/>
-      <c r="D43" s="143"/>
+      <c r="B43" s="145"/>
+      <c r="C43" s="145"/>
+      <c r="D43" s="145"/>
       <c r="E43" s="28"/>
       <c r="F43" s="21"/>
     </row>
     <row r="44" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A44" s="21"/>
-      <c r="B44" s="143"/>
-      <c r="C44" s="143"/>
-      <c r="D44" s="143"/>
+      <c r="B44" s="145"/>
+      <c r="C44" s="145"/>
+      <c r="D44" s="145"/>
       <c r="E44" s="28"/>
       <c r="F44" s="21"/>
     </row>
     <row r="45" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A45" s="21"/>
-      <c r="B45" s="143"/>
-      <c r="C45" s="143"/>
-      <c r="D45" s="143"/>
+      <c r="B45" s="145"/>
+      <c r="C45" s="145"/>
+      <c r="D45" s="145"/>
       <c r="E45" s="28"/>
       <c r="F45" s="21"/>
     </row>
     <row r="46" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A46" s="21"/>
-      <c r="B46" s="143"/>
-      <c r="C46" s="143"/>
-      <c r="D46" s="143"/>
+      <c r="B46" s="145"/>
+      <c r="C46" s="145"/>
+      <c r="D46" s="145"/>
       <c r="E46" s="28"/>
       <c r="F46" s="21"/>
     </row>
     <row r="47" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A47" s="21"/>
-      <c r="B47" s="143"/>
-      <c r="C47" s="143"/>
-      <c r="D47" s="143"/>
+      <c r="B47" s="145"/>
+      <c r="C47" s="145"/>
+      <c r="D47" s="145"/>
       <c r="E47" s="28"/>
       <c r="F47" s="21"/>
     </row>
     <row r="48" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A48" s="21"/>
-      <c r="B48" s="143"/>
-      <c r="C48" s="143"/>
-      <c r="D48" s="143"/>
+      <c r="B48" s="145"/>
+      <c r="C48" s="145"/>
+      <c r="D48" s="145"/>
       <c r="E48" s="28"/>
       <c r="F48" s="21"/>
     </row>
     <row r="49" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A49" s="21"/>
-      <c r="B49" s="143"/>
-      <c r="C49" s="143"/>
-      <c r="D49" s="143"/>
+      <c r="B49" s="145"/>
+      <c r="C49" s="145"/>
+      <c r="D49" s="145"/>
       <c r="E49" s="28"/>
       <c r="F49" s="21"/>
     </row>
     <row r="50" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A50" s="21"/>
-      <c r="B50" s="143"/>
-      <c r="C50" s="143"/>
-      <c r="D50" s="143"/>
+      <c r="B50" s="145"/>
+      <c r="C50" s="145"/>
+      <c r="D50" s="145"/>
       <c r="E50" s="28"/>
       <c r="F50" s="21"/>
     </row>
     <row r="51" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A51" s="21"/>
-      <c r="B51" s="143"/>
-      <c r="C51" s="143"/>
-      <c r="D51" s="143"/>
+      <c r="B51" s="145"/>
+      <c r="C51" s="145"/>
+      <c r="D51" s="145"/>
       <c r="E51" s="28"/>
       <c r="F51" s="21"/>
     </row>
     <row r="52" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A52" s="21"/>
-      <c r="B52" s="143"/>
-      <c r="C52" s="143"/>
-      <c r="D52" s="143"/>
+      <c r="B52" s="145"/>
+      <c r="C52" s="145"/>
+      <c r="D52" s="145"/>
       <c r="E52" s="28"/>
       <c r="F52" s="21"/>
     </row>
     <row r="53" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A53" s="21"/>
-      <c r="B53" s="143"/>
-      <c r="C53" s="143"/>
-      <c r="D53" s="143"/>
+      <c r="B53" s="145"/>
+      <c r="C53" s="145"/>
+      <c r="D53" s="145"/>
       <c r="E53" s="28"/>
       <c r="F53" s="21"/>
     </row>
     <row r="54" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A54" s="21"/>
-      <c r="B54" s="143"/>
-      <c r="C54" s="143"/>
-      <c r="D54" s="143"/>
+      <c r="B54" s="145"/>
+      <c r="C54" s="145"/>
+      <c r="D54" s="145"/>
       <c r="E54" s="28"/>
       <c r="F54" s="21"/>
     </row>
     <row r="55" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A55" s="21"/>
-      <c r="B55" s="143"/>
-      <c r="C55" s="143"/>
-      <c r="D55" s="143"/>
+      <c r="B55" s="145"/>
+      <c r="C55" s="145"/>
+      <c r="D55" s="145"/>
       <c r="E55" s="28"/>
       <c r="F55" s="21"/>
     </row>
     <row r="56" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A56" s="21"/>
-      <c r="B56" s="143"/>
-      <c r="C56" s="143"/>
-      <c r="D56" s="143"/>
+      <c r="B56" s="145"/>
+      <c r="C56" s="145"/>
+      <c r="D56" s="145"/>
       <c r="E56" s="28"/>
       <c r="F56" s="21"/>
     </row>
     <row r="57" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A57" s="21"/>
-      <c r="B57" s="143"/>
-      <c r="C57" s="143"/>
-      <c r="D57" s="143"/>
+      <c r="B57" s="145"/>
+      <c r="C57" s="145"/>
+      <c r="D57" s="145"/>
       <c r="E57" s="28"/>
       <c r="F57" s="21"/>
     </row>
     <row r="58" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A58" s="21"/>
-      <c r="B58" s="143"/>
-      <c r="C58" s="143"/>
-      <c r="D58" s="143"/>
+      <c r="B58" s="145"/>
+      <c r="C58" s="145"/>
+      <c r="D58" s="145"/>
       <c r="E58" s="28"/>
       <c r="F58" s="21"/>
     </row>
     <row r="59" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A59" s="21"/>
-      <c r="B59" s="143"/>
-      <c r="C59" s="143"/>
-      <c r="D59" s="143"/>
+      <c r="B59" s="145"/>
+      <c r="C59" s="145"/>
+      <c r="D59" s="145"/>
       <c r="E59" s="28"/>
       <c r="F59" s="21"/>
     </row>
     <row r="60" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A60" s="21"/>
-      <c r="B60" s="143"/>
-      <c r="C60" s="143"/>
-      <c r="D60" s="143"/>
+      <c r="B60" s="145"/>
+      <c r="C60" s="145"/>
+      <c r="D60" s="145"/>
       <c r="E60" s="28"/>
       <c r="F60" s="21"/>
     </row>
     <row r="61" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A61" s="21"/>
-      <c r="B61" s="143"/>
-      <c r="C61" s="143"/>
-      <c r="D61" s="143"/>
+      <c r="B61" s="145"/>
+      <c r="C61" s="145"/>
+      <c r="D61" s="145"/>
       <c r="E61" s="28"/>
       <c r="F61" s="21"/>
     </row>
     <row r="62" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A62" s="21"/>
-      <c r="B62" s="143"/>
-      <c r="C62" s="143"/>
-      <c r="D62" s="143"/>
+      <c r="B62" s="145"/>
+      <c r="C62" s="145"/>
+      <c r="D62" s="145"/>
       <c r="E62" s="28"/>
       <c r="F62" s="21"/>
     </row>
     <row r="63" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A63" s="21"/>
-      <c r="B63" s="143"/>
-      <c r="C63" s="143"/>
-      <c r="D63" s="143"/>
+      <c r="B63" s="145"/>
+      <c r="C63" s="145"/>
+      <c r="D63" s="145"/>
       <c r="E63" s="28"/>
       <c r="F63" s="21"/>
     </row>
@@ -6359,17 +7276,17 @@
     </row>
     <row r="66" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A66" s="21"/>
-      <c r="B66" s="143"/>
-      <c r="C66" s="143"/>
-      <c r="D66" s="143"/>
+      <c r="B66" s="145"/>
+      <c r="C66" s="145"/>
+      <c r="D66" s="145"/>
       <c r="E66" s="28"/>
       <c r="F66" s="21"/>
     </row>
     <row r="67" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="21"/>
-      <c r="B67" s="143"/>
-      <c r="C67" s="143"/>
-      <c r="D67" s="143"/>
+      <c r="B67" s="145"/>
+      <c r="C67" s="145"/>
+      <c r="D67" s="145"/>
       <c r="E67" s="28"/>
       <c r="F67" s="21"/>
     </row>
@@ -6476,19 +7393,19 @@
     </row>
     <row r="76" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A76" s="21"/>
-      <c r="B76" s="145"/>
-      <c r="C76" s="145"/>
-      <c r="D76" s="145"/>
+      <c r="B76" s="149"/>
+      <c r="C76" s="149"/>
+      <c r="D76" s="149"/>
       <c r="E76" s="36"/>
       <c r="F76" s="21"/>
     </row>
     <row r="77" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A77" s="21"/>
-      <c r="B77" s="150" t="s">
+      <c r="B77" s="146" t="s">
         <v>18</v>
       </c>
-      <c r="C77" s="150"/>
-      <c r="D77" s="150"/>
+      <c r="C77" s="146"/>
+      <c r="D77" s="146"/>
       <c r="E77" s="36">
         <v>0</v>
       </c>
@@ -6496,9 +7413,9 @@
     </row>
     <row r="78" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A78" s="21"/>
-      <c r="B78" s="145"/>
-      <c r="C78" s="145"/>
-      <c r="D78" s="145"/>
+      <c r="B78" s="149"/>
+      <c r="C78" s="149"/>
+      <c r="D78" s="149"/>
       <c r="E78" s="36"/>
       <c r="F78" s="21"/>
     </row>
@@ -6533,31 +7450,31 @@
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A82" s="21"/>
-      <c r="B82" s="148"/>
-      <c r="C82" s="148"/>
-      <c r="D82" s="148"/>
-      <c r="E82" s="148"/>
+      <c r="B82" s="143"/>
+      <c r="C82" s="143"/>
+      <c r="D82" s="143"/>
+      <c r="E82" s="143"/>
       <c r="F82" s="21"/>
     </row>
     <row r="83" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A83" s="142" t="s">
+      <c r="A83" s="151" t="s">
         <v>29</v>
       </c>
-      <c r="B83" s="142"/>
-      <c r="C83" s="142"/>
-      <c r="D83" s="142"/>
-      <c r="E83" s="142"/>
-      <c r="F83" s="142"/>
+      <c r="B83" s="151"/>
+      <c r="C83" s="151"/>
+      <c r="D83" s="151"/>
+      <c r="E83" s="151"/>
+      <c r="F83" s="151"/>
     </row>
     <row r="84" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A84" s="151" t="s">
+      <c r="A84" s="147" t="s">
         <v>30</v>
       </c>
-      <c r="B84" s="151"/>
-      <c r="C84" s="151"/>
-      <c r="D84" s="151"/>
-      <c r="E84" s="151"/>
-      <c r="F84" s="151"/>
+      <c r="B84" s="147"/>
+      <c r="C84" s="147"/>
+      <c r="D84" s="147"/>
+      <c r="E84" s="147"/>
+      <c r="F84" s="147"/>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A85" s="21"/>
@@ -6569,26 +7486,26 @@
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A86" s="21"/>
-      <c r="B86" s="149"/>
-      <c r="C86" s="149"/>
-      <c r="D86" s="149"/>
-      <c r="E86" s="149"/>
+      <c r="B86" s="144"/>
+      <c r="C86" s="144"/>
+      <c r="D86" s="144"/>
+      <c r="E86" s="144"/>
       <c r="F86" s="21"/>
     </row>
     <row r="87" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A87" s="141" t="s">
+      <c r="A87" s="150" t="s">
         <v>7</v>
       </c>
-      <c r="B87" s="141"/>
-      <c r="C87" s="141"/>
-      <c r="D87" s="141"/>
-      <c r="E87" s="141"/>
-      <c r="F87" s="141"/>
+      <c r="B87" s="150"/>
+      <c r="C87" s="150"/>
+      <c r="D87" s="150"/>
+      <c r="E87" s="150"/>
+      <c r="F87" s="150"/>
     </row>
     <row r="89" spans="1:6" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B89" s="146"/>
-      <c r="C89" s="147"/>
-      <c r="D89" s="147"/>
+      <c r="B89" s="141"/>
+      <c r="C89" s="142"/>
+      <c r="D89" s="142"/>
     </row>
     <row r="90" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="91" spans="1:6" x14ac:dyDescent="0.2">
@@ -6598,17 +7515,26 @@
     </row>
   </sheetData>
   <mergeCells count="43">
-    <mergeCell ref="B37:D37"/>
-    <mergeCell ref="A30:F30"/>
-    <mergeCell ref="B33:D33"/>
-    <mergeCell ref="B34:D34"/>
-    <mergeCell ref="B35:D35"/>
-    <mergeCell ref="B36:D36"/>
-    <mergeCell ref="B38:D38"/>
-    <mergeCell ref="B39:D39"/>
-    <mergeCell ref="B40:D40"/>
-    <mergeCell ref="B41:D41"/>
-    <mergeCell ref="B42:D42"/>
+    <mergeCell ref="A87:F87"/>
+    <mergeCell ref="B89:D89"/>
+    <mergeCell ref="B77:D77"/>
+    <mergeCell ref="B78:D78"/>
+    <mergeCell ref="B82:E82"/>
+    <mergeCell ref="A83:F83"/>
+    <mergeCell ref="A84:F84"/>
+    <mergeCell ref="B86:E86"/>
+    <mergeCell ref="B76:D76"/>
+    <mergeCell ref="B55:D55"/>
+    <mergeCell ref="B56:D56"/>
+    <mergeCell ref="B57:D57"/>
+    <mergeCell ref="B58:D58"/>
+    <mergeCell ref="B59:D59"/>
+    <mergeCell ref="B60:D60"/>
+    <mergeCell ref="B61:D61"/>
+    <mergeCell ref="B62:D62"/>
+    <mergeCell ref="B63:D63"/>
+    <mergeCell ref="B66:D66"/>
+    <mergeCell ref="B67:D67"/>
     <mergeCell ref="B54:D54"/>
     <mergeCell ref="B43:D43"/>
     <mergeCell ref="B44:D44"/>
@@ -6621,26 +7547,17 @@
     <mergeCell ref="B51:D51"/>
     <mergeCell ref="B52:D52"/>
     <mergeCell ref="B53:D53"/>
-    <mergeCell ref="B76:D76"/>
-    <mergeCell ref="B55:D55"/>
-    <mergeCell ref="B56:D56"/>
-    <mergeCell ref="B57:D57"/>
-    <mergeCell ref="B58:D58"/>
-    <mergeCell ref="B59:D59"/>
-    <mergeCell ref="B60:D60"/>
-    <mergeCell ref="B61:D61"/>
-    <mergeCell ref="B62:D62"/>
-    <mergeCell ref="B63:D63"/>
-    <mergeCell ref="B66:D66"/>
-    <mergeCell ref="B67:D67"/>
-    <mergeCell ref="A87:F87"/>
-    <mergeCell ref="B89:D89"/>
-    <mergeCell ref="B77:D77"/>
-    <mergeCell ref="B78:D78"/>
-    <mergeCell ref="B82:E82"/>
-    <mergeCell ref="A83:F83"/>
-    <mergeCell ref="A84:F84"/>
-    <mergeCell ref="B86:E86"/>
+    <mergeCell ref="B38:D38"/>
+    <mergeCell ref="B39:D39"/>
+    <mergeCell ref="B40:D40"/>
+    <mergeCell ref="B41:D41"/>
+    <mergeCell ref="B42:D42"/>
+    <mergeCell ref="B37:D37"/>
+    <mergeCell ref="A30:F30"/>
+    <mergeCell ref="B33:D33"/>
+    <mergeCell ref="B34:D34"/>
+    <mergeCell ref="B35:D35"/>
+    <mergeCell ref="B36:D36"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B76:B78 B12:B20 B33:B67" xr:uid="{367D8FD4-445A-4E0E-92AB-9CF210262489}">
@@ -7884,7 +8801,7 @@
   </sheetPr>
   <dimension ref="A1:F88"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:F88"/>
     </sheetView>
   </sheetViews>
@@ -8716,12 +9633,12 @@
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="A88:F88"/>
     <mergeCell ref="A30:E30"/>
     <mergeCell ref="B81:C81"/>
     <mergeCell ref="B83:E83"/>
     <mergeCell ref="A84:E84"/>
     <mergeCell ref="A85:E85"/>
-    <mergeCell ref="A88:F88"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>

--- a/Factures_Excel/1502 - Sina.xlsx
+++ b/Factures_Excel/1502 - Sina.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28827"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\Administration\APP\GCF\Factures_Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\VBA\GC_FISCALITÉ\Factures_Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9D7170C-012D-425B-9F43-16BD322D969D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FEB2DDC-8A83-4DC9-AF23-1F574A7A43E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="06-03-20" sheetId="4" r:id="rId1"/>
@@ -23,6 +23,7 @@
     <sheet name="2024-10-13 - 24-24522" sheetId="11" r:id="rId8"/>
     <sheet name="2025-03-30 - 25-24833" sheetId="13" r:id="rId9"/>
     <sheet name="2025-05-17 - 25-24931" sheetId="14" r:id="rId10"/>
+    <sheet name="2025-06-01 - 25-25043" sheetId="17" r:id="rId11"/>
   </sheets>
   <definedNames>
     <definedName name="Liste_Activités">Activités!$C$5:$C$45</definedName>
@@ -41,6 +42,7 @@
     <definedName name="_xlnm.Print_Area" localSheetId="7">'2024-10-13 - 24-24522'!$A$1:$F$89</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="8">'2025-03-30 - 25-24833'!$A$1:$F$88</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="9">'2025-05-17 - 25-24931'!$A$1:$F$88</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="10">'2025-06-01 - 25-25043'!$A$1:$F$88</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="3">'29-04-23'!$A$1:$F$89</definedName>
     <definedName name="Zone_impres_MI">#REF!</definedName>
   </definedNames>
@@ -60,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="118">
   <si>
     <t>NOTE D'HONORAIRES</t>
   </si>
@@ -407,6 +409,15 @@
   </si>
   <si>
     <t xml:space="preserve"> - Recherches et analyses fiscales requises;</t>
+  </si>
+  <si>
+    <t>Le 1 JUIN 2025</t>
+  </si>
+  <si>
+    <t>25-25043</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   - TEST</t>
   </si>
 </sst>
 </file>
@@ -1225,6 +1236,21 @@
     <xf numFmtId="168" fontId="34" fillId="3" borderId="15" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -1237,27 +1263,12 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" indent="1" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1285,14 +1296,14 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="34" fillId="3" borderId="14" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="34" fillId="3" borderId="15" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="9">
@@ -1439,6 +1450,72 @@
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing10.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11265" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C8136B8B-544D-BEAF-147A-4F46BFDF2190}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="12192000" cy="3314700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -2336,14 +2413,14 @@
       <c r="F29" s="20"/>
     </row>
     <row r="30" spans="1:6" s="40" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="148" t="s">
+      <c r="A30" s="144" t="s">
         <v>0</v>
       </c>
-      <c r="B30" s="148"/>
-      <c r="C30" s="148"/>
-      <c r="D30" s="148"/>
-      <c r="E30" s="148"/>
-      <c r="F30" s="148"/>
+      <c r="B30" s="144"/>
+      <c r="C30" s="144"/>
+      <c r="D30" s="144"/>
+      <c r="E30" s="144"/>
+      <c r="F30" s="144"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" s="17"/>
@@ -2364,259 +2441,259 @@
     </row>
     <row r="33" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A33" s="21"/>
-      <c r="B33" s="145"/>
-      <c r="C33" s="145"/>
-      <c r="D33" s="145"/>
+      <c r="B33" s="143"/>
+      <c r="C33" s="143"/>
+      <c r="D33" s="143"/>
       <c r="E33" s="28"/>
       <c r="F33" s="21"/>
     </row>
     <row r="34" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A34" s="21"/>
-      <c r="B34" s="145"/>
-      <c r="C34" s="145"/>
-      <c r="D34" s="145"/>
+      <c r="B34" s="143"/>
+      <c r="C34" s="143"/>
+      <c r="D34" s="143"/>
       <c r="E34" s="28"/>
       <c r="F34" s="21"/>
     </row>
     <row r="35" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A35" s="21"/>
-      <c r="B35" s="145" t="s">
+      <c r="B35" s="143" t="s">
         <v>10</v>
       </c>
-      <c r="C35" s="145"/>
-      <c r="D35" s="145"/>
+      <c r="C35" s="143"/>
+      <c r="D35" s="143"/>
       <c r="E35" s="28"/>
       <c r="F35" s="21"/>
     </row>
     <row r="36" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A36" s="21"/>
-      <c r="B36" s="145"/>
-      <c r="C36" s="145"/>
-      <c r="D36" s="145"/>
+      <c r="B36" s="143"/>
+      <c r="C36" s="143"/>
+      <c r="D36" s="143"/>
       <c r="E36" s="28"/>
       <c r="F36" s="21"/>
     </row>
     <row r="37" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A37" s="21"/>
-      <c r="B37" s="145"/>
-      <c r="C37" s="145"/>
-      <c r="D37" s="145"/>
+      <c r="B37" s="143"/>
+      <c r="C37" s="143"/>
+      <c r="D37" s="143"/>
       <c r="E37" s="28"/>
       <c r="F37" s="21"/>
     </row>
     <row r="38" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A38" s="21"/>
-      <c r="B38" s="145"/>
-      <c r="C38" s="145"/>
-      <c r="D38" s="145"/>
+      <c r="B38" s="143"/>
+      <c r="C38" s="143"/>
+      <c r="D38" s="143"/>
       <c r="E38" s="28"/>
       <c r="F38" s="21"/>
     </row>
     <row r="39" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A39" s="21"/>
-      <c r="B39" s="145"/>
-      <c r="C39" s="145"/>
-      <c r="D39" s="145"/>
+      <c r="B39" s="143"/>
+      <c r="C39" s="143"/>
+      <c r="D39" s="143"/>
       <c r="E39" s="28"/>
       <c r="F39" s="21"/>
     </row>
     <row r="40" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A40" s="21"/>
-      <c r="B40" s="145"/>
-      <c r="C40" s="145"/>
-      <c r="D40" s="145"/>
+      <c r="B40" s="143"/>
+      <c r="C40" s="143"/>
+      <c r="D40" s="143"/>
       <c r="E40" s="28"/>
       <c r="F40" s="21"/>
     </row>
     <row r="41" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A41" s="21"/>
-      <c r="B41" s="145"/>
-      <c r="C41" s="145"/>
-      <c r="D41" s="145"/>
+      <c r="B41" s="143"/>
+      <c r="C41" s="143"/>
+      <c r="D41" s="143"/>
       <c r="E41" s="28"/>
       <c r="F41" s="21"/>
     </row>
     <row r="42" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A42" s="21"/>
-      <c r="B42" s="145"/>
-      <c r="C42" s="145"/>
-      <c r="D42" s="145"/>
+      <c r="B42" s="143"/>
+      <c r="C42" s="143"/>
+      <c r="D42" s="143"/>
       <c r="E42" s="28"/>
       <c r="F42" s="21"/>
     </row>
     <row r="43" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A43" s="21"/>
-      <c r="B43" s="145"/>
-      <c r="C43" s="145"/>
-      <c r="D43" s="145"/>
+      <c r="B43" s="143"/>
+      <c r="C43" s="143"/>
+      <c r="D43" s="143"/>
       <c r="E43" s="28"/>
       <c r="F43" s="21"/>
     </row>
     <row r="44" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A44" s="21"/>
-      <c r="B44" s="145"/>
-      <c r="C44" s="145"/>
-      <c r="D44" s="145"/>
+      <c r="B44" s="143"/>
+      <c r="C44" s="143"/>
+      <c r="D44" s="143"/>
       <c r="E44" s="28"/>
       <c r="F44" s="21"/>
     </row>
     <row r="45" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A45" s="21"/>
-      <c r="B45" s="145"/>
-      <c r="C45" s="145"/>
-      <c r="D45" s="145"/>
+      <c r="B45" s="143"/>
+      <c r="C45" s="143"/>
+      <c r="D45" s="143"/>
       <c r="E45" s="28"/>
       <c r="F45" s="21"/>
     </row>
     <row r="46" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A46" s="21"/>
-      <c r="B46" s="145"/>
-      <c r="C46" s="145"/>
-      <c r="D46" s="145"/>
+      <c r="B46" s="143"/>
+      <c r="C46" s="143"/>
+      <c r="D46" s="143"/>
       <c r="E46" s="28"/>
       <c r="F46" s="21"/>
     </row>
     <row r="47" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A47" s="21"/>
-      <c r="B47" s="145"/>
-      <c r="C47" s="145"/>
-      <c r="D47" s="145"/>
+      <c r="B47" s="143"/>
+      <c r="C47" s="143"/>
+      <c r="D47" s="143"/>
       <c r="E47" s="28"/>
       <c r="F47" s="21"/>
     </row>
     <row r="48" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A48" s="21"/>
-      <c r="B48" s="145"/>
-      <c r="C48" s="145"/>
-      <c r="D48" s="145"/>
+      <c r="B48" s="143"/>
+      <c r="C48" s="143"/>
+      <c r="D48" s="143"/>
       <c r="E48" s="28"/>
       <c r="F48" s="21"/>
     </row>
     <row r="49" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A49" s="21"/>
-      <c r="B49" s="145"/>
-      <c r="C49" s="145"/>
-      <c r="D49" s="145"/>
+      <c r="B49" s="143"/>
+      <c r="C49" s="143"/>
+      <c r="D49" s="143"/>
       <c r="E49" s="28"/>
       <c r="F49" s="21"/>
     </row>
     <row r="50" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A50" s="21"/>
-      <c r="B50" s="145"/>
-      <c r="C50" s="145"/>
-      <c r="D50" s="145"/>
+      <c r="B50" s="143"/>
+      <c r="C50" s="143"/>
+      <c r="D50" s="143"/>
       <c r="E50" s="28"/>
       <c r="F50" s="21"/>
     </row>
     <row r="51" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A51" s="21"/>
-      <c r="B51" s="145"/>
-      <c r="C51" s="145"/>
-      <c r="D51" s="145"/>
+      <c r="B51" s="143"/>
+      <c r="C51" s="143"/>
+      <c r="D51" s="143"/>
       <c r="E51" s="28"/>
       <c r="F51" s="21"/>
     </row>
     <row r="52" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A52" s="21"/>
-      <c r="B52" s="145"/>
-      <c r="C52" s="145"/>
-      <c r="D52" s="145"/>
+      <c r="B52" s="143"/>
+      <c r="C52" s="143"/>
+      <c r="D52" s="143"/>
       <c r="E52" s="28"/>
       <c r="F52" s="21"/>
     </row>
     <row r="53" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A53" s="21"/>
-      <c r="B53" s="145"/>
-      <c r="C53" s="145"/>
-      <c r="D53" s="145"/>
+      <c r="B53" s="143"/>
+      <c r="C53" s="143"/>
+      <c r="D53" s="143"/>
       <c r="E53" s="28"/>
       <c r="F53" s="21"/>
     </row>
     <row r="54" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A54" s="21"/>
-      <c r="B54" s="145"/>
-      <c r="C54" s="145"/>
-      <c r="D54" s="145"/>
+      <c r="B54" s="143"/>
+      <c r="C54" s="143"/>
+      <c r="D54" s="143"/>
       <c r="E54" s="28"/>
       <c r="F54" s="21"/>
     </row>
     <row r="55" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A55" s="21"/>
-      <c r="B55" s="145"/>
-      <c r="C55" s="145"/>
-      <c r="D55" s="145"/>
+      <c r="B55" s="143"/>
+      <c r="C55" s="143"/>
+      <c r="D55" s="143"/>
       <c r="E55" s="28"/>
       <c r="F55" s="21"/>
     </row>
     <row r="56" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A56" s="21"/>
-      <c r="B56" s="145"/>
-      <c r="C56" s="145"/>
-      <c r="D56" s="145"/>
+      <c r="B56" s="143"/>
+      <c r="C56" s="143"/>
+      <c r="D56" s="143"/>
       <c r="E56" s="28"/>
       <c r="F56" s="21"/>
     </row>
     <row r="57" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A57" s="21"/>
-      <c r="B57" s="145"/>
-      <c r="C57" s="145"/>
-      <c r="D57" s="145"/>
+      <c r="B57" s="143"/>
+      <c r="C57" s="143"/>
+      <c r="D57" s="143"/>
       <c r="E57" s="28"/>
       <c r="F57" s="21"/>
     </row>
     <row r="58" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A58" s="21"/>
-      <c r="B58" s="145"/>
-      <c r="C58" s="145"/>
-      <c r="D58" s="145"/>
+      <c r="B58" s="143"/>
+      <c r="C58" s="143"/>
+      <c r="D58" s="143"/>
       <c r="E58" s="28"/>
       <c r="F58" s="21"/>
     </row>
     <row r="59" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A59" s="21"/>
-      <c r="B59" s="145"/>
-      <c r="C59" s="145"/>
-      <c r="D59" s="145"/>
+      <c r="B59" s="143"/>
+      <c r="C59" s="143"/>
+      <c r="D59" s="143"/>
       <c r="E59" s="28"/>
       <c r="F59" s="21"/>
     </row>
     <row r="60" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A60" s="21"/>
-      <c r="B60" s="145"/>
-      <c r="C60" s="145"/>
-      <c r="D60" s="145"/>
+      <c r="B60" s="143"/>
+      <c r="C60" s="143"/>
+      <c r="D60" s="143"/>
       <c r="E60" s="28"/>
       <c r="F60" s="21"/>
     </row>
     <row r="61" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A61" s="21"/>
-      <c r="B61" s="145"/>
-      <c r="C61" s="145"/>
-      <c r="D61" s="145"/>
+      <c r="B61" s="143"/>
+      <c r="C61" s="143"/>
+      <c r="D61" s="143"/>
       <c r="E61" s="28"/>
       <c r="F61" s="21"/>
     </row>
     <row r="62" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A62" s="21"/>
-      <c r="B62" s="145"/>
-      <c r="C62" s="145"/>
-      <c r="D62" s="145"/>
+      <c r="B62" s="143"/>
+      <c r="C62" s="143"/>
+      <c r="D62" s="143"/>
       <c r="E62" s="28"/>
       <c r="F62" s="21"/>
     </row>
     <row r="63" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A63" s="21"/>
-      <c r="B63" s="145"/>
-      <c r="C63" s="145"/>
-      <c r="D63" s="145"/>
+      <c r="B63" s="143"/>
+      <c r="C63" s="143"/>
+      <c r="D63" s="143"/>
       <c r="E63" s="28"/>
       <c r="F63" s="21"/>
     </row>
     <row r="64" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A64" s="21"/>
-      <c r="B64" s="145"/>
-      <c r="C64" s="145"/>
-      <c r="D64" s="145"/>
+      <c r="B64" s="143"/>
+      <c r="C64" s="143"/>
+      <c r="D64" s="143"/>
       <c r="E64" s="28"/>
       <c r="F64" s="21"/>
     </row>
@@ -2646,17 +2723,17 @@
     </row>
     <row r="67" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A67" s="21"/>
-      <c r="B67" s="145"/>
-      <c r="C67" s="145"/>
-      <c r="D67" s="145"/>
+      <c r="B67" s="143"/>
+      <c r="C67" s="143"/>
+      <c r="D67" s="143"/>
       <c r="E67" s="28"/>
       <c r="F67" s="21"/>
     </row>
     <row r="68" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="21"/>
-      <c r="B68" s="145"/>
-      <c r="C68" s="145"/>
-      <c r="D68" s="145"/>
+      <c r="B68" s="143"/>
+      <c r="C68" s="143"/>
+      <c r="D68" s="143"/>
       <c r="E68" s="28"/>
       <c r="F68" s="21"/>
     </row>
@@ -2763,19 +2840,19 @@
     </row>
     <row r="77" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A77" s="21"/>
-      <c r="B77" s="149"/>
-      <c r="C77" s="149"/>
-      <c r="D77" s="149"/>
+      <c r="B77" s="145"/>
+      <c r="C77" s="145"/>
+      <c r="D77" s="145"/>
       <c r="E77" s="36"/>
       <c r="F77" s="21"/>
     </row>
     <row r="78" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A78" s="21"/>
-      <c r="B78" s="146" t="s">
+      <c r="B78" s="150" t="s">
         <v>18</v>
       </c>
-      <c r="C78" s="146"/>
-      <c r="D78" s="146"/>
+      <c r="C78" s="150"/>
+      <c r="D78" s="150"/>
       <c r="E78" s="36">
         <v>0</v>
       </c>
@@ -2783,9 +2860,9 @@
     </row>
     <row r="79" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A79" s="21"/>
-      <c r="B79" s="149"/>
-      <c r="C79" s="149"/>
-      <c r="D79" s="149"/>
+      <c r="B79" s="145"/>
+      <c r="C79" s="145"/>
+      <c r="D79" s="145"/>
       <c r="E79" s="36"/>
       <c r="F79" s="21"/>
     </row>
@@ -2820,31 +2897,31 @@
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A83" s="21"/>
-      <c r="B83" s="143"/>
-      <c r="C83" s="143"/>
-      <c r="D83" s="143"/>
-      <c r="E83" s="143"/>
+      <c r="B83" s="148"/>
+      <c r="C83" s="148"/>
+      <c r="D83" s="148"/>
+      <c r="E83" s="148"/>
       <c r="F83" s="21"/>
     </row>
     <row r="84" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A84" s="151" t="s">
+      <c r="A84" s="142" t="s">
         <v>29</v>
       </c>
-      <c r="B84" s="151"/>
-      <c r="C84" s="151"/>
-      <c r="D84" s="151"/>
-      <c r="E84" s="151"/>
-      <c r="F84" s="151"/>
+      <c r="B84" s="142"/>
+      <c r="C84" s="142"/>
+      <c r="D84" s="142"/>
+      <c r="E84" s="142"/>
+      <c r="F84" s="142"/>
     </row>
     <row r="85" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A85" s="147" t="s">
+      <c r="A85" s="151" t="s">
         <v>30</v>
       </c>
-      <c r="B85" s="147"/>
-      <c r="C85" s="147"/>
-      <c r="D85" s="147"/>
-      <c r="E85" s="147"/>
-      <c r="F85" s="147"/>
+      <c r="B85" s="151"/>
+      <c r="C85" s="151"/>
+      <c r="D85" s="151"/>
+      <c r="E85" s="151"/>
+      <c r="F85" s="151"/>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A86" s="21"/>
@@ -2856,26 +2933,26 @@
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A87" s="21"/>
-      <c r="B87" s="144"/>
-      <c r="C87" s="144"/>
-      <c r="D87" s="144"/>
-      <c r="E87" s="144"/>
+      <c r="B87" s="149"/>
+      <c r="C87" s="149"/>
+      <c r="D87" s="149"/>
+      <c r="E87" s="149"/>
       <c r="F87" s="21"/>
     </row>
     <row r="88" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A88" s="150" t="s">
+      <c r="A88" s="141" t="s">
         <v>7</v>
       </c>
-      <c r="B88" s="150"/>
-      <c r="C88" s="150"/>
-      <c r="D88" s="150"/>
-      <c r="E88" s="150"/>
-      <c r="F88" s="150"/>
+      <c r="B88" s="141"/>
+      <c r="C88" s="141"/>
+      <c r="D88" s="141"/>
+      <c r="E88" s="141"/>
+      <c r="F88" s="141"/>
     </row>
     <row r="90" spans="1:6" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B90" s="141"/>
-      <c r="C90" s="142"/>
-      <c r="D90" s="142"/>
+      <c r="B90" s="146"/>
+      <c r="C90" s="147"/>
+      <c r="D90" s="147"/>
     </row>
     <row r="91" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="92" spans="1:6" x14ac:dyDescent="0.2">
@@ -2885,34 +2962,6 @@
     </row>
   </sheetData>
   <mergeCells count="44">
-    <mergeCell ref="A88:F88"/>
-    <mergeCell ref="A84:F84"/>
-    <mergeCell ref="B33:D33"/>
-    <mergeCell ref="B34:D34"/>
-    <mergeCell ref="B64:D64"/>
-    <mergeCell ref="B67:D67"/>
-    <mergeCell ref="B68:D68"/>
-    <mergeCell ref="B59:D59"/>
-    <mergeCell ref="B60:D60"/>
-    <mergeCell ref="B61:D61"/>
-    <mergeCell ref="B62:D62"/>
-    <mergeCell ref="B63:D63"/>
-    <mergeCell ref="B53:D53"/>
-    <mergeCell ref="A30:F30"/>
-    <mergeCell ref="B79:D79"/>
-    <mergeCell ref="B51:D51"/>
-    <mergeCell ref="B52:D52"/>
-    <mergeCell ref="B46:D46"/>
-    <mergeCell ref="B47:D47"/>
-    <mergeCell ref="B48:D48"/>
-    <mergeCell ref="B49:D49"/>
-    <mergeCell ref="B50:D50"/>
-    <mergeCell ref="B54:D54"/>
-    <mergeCell ref="B56:D56"/>
-    <mergeCell ref="B57:D57"/>
-    <mergeCell ref="B58:D58"/>
-    <mergeCell ref="B77:D77"/>
-    <mergeCell ref="B55:D55"/>
     <mergeCell ref="B90:D90"/>
     <mergeCell ref="B83:E83"/>
     <mergeCell ref="B87:E87"/>
@@ -2929,6 +2978,34 @@
     <mergeCell ref="B45:D45"/>
     <mergeCell ref="B78:D78"/>
     <mergeCell ref="A85:F85"/>
+    <mergeCell ref="A30:F30"/>
+    <mergeCell ref="B79:D79"/>
+    <mergeCell ref="B51:D51"/>
+    <mergeCell ref="B52:D52"/>
+    <mergeCell ref="B46:D46"/>
+    <mergeCell ref="B47:D47"/>
+    <mergeCell ref="B48:D48"/>
+    <mergeCell ref="B49:D49"/>
+    <mergeCell ref="B50:D50"/>
+    <mergeCell ref="B54:D54"/>
+    <mergeCell ref="B56:D56"/>
+    <mergeCell ref="B57:D57"/>
+    <mergeCell ref="B58:D58"/>
+    <mergeCell ref="B77:D77"/>
+    <mergeCell ref="B55:D55"/>
+    <mergeCell ref="A88:F88"/>
+    <mergeCell ref="A84:F84"/>
+    <mergeCell ref="B33:D33"/>
+    <mergeCell ref="B34:D34"/>
+    <mergeCell ref="B64:D64"/>
+    <mergeCell ref="B67:D67"/>
+    <mergeCell ref="B68:D68"/>
+    <mergeCell ref="B59:D59"/>
+    <mergeCell ref="B60:D60"/>
+    <mergeCell ref="B61:D61"/>
+    <mergeCell ref="B62:D62"/>
+    <mergeCell ref="B63:D63"/>
+    <mergeCell ref="B53:D53"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <dataValidations count="1">
@@ -2938,7 +3015,7 @@
   </dataValidations>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
-  <pageSetup paperSize="131" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <pageSetup paperSize="131" scale="33" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
   <headerFooter scaleWithDoc="0" alignWithMargins="0"/>
   <drawing r:id="rId2"/>
 </worksheet>
@@ -2946,7 +3023,844 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E792292E-775E-438B-81CE-FD756145F553}">
-  <sheetPr>
+  <sheetPr codeName="Feuil10">
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:F88"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:F88"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="5.140625" customWidth="1"/>
+    <col min="2" max="2" width="120" customWidth="1"/>
+    <col min="3" max="3" width="11.5703125" customWidth="1"/>
+    <col min="4" max="4" width="17.5703125" customWidth="1"/>
+    <col min="5" max="5" width="17.7109375" customWidth="1"/>
+    <col min="6" max="6" width="10.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="118"/>
+      <c r="B1" s="118"/>
+      <c r="C1" s="118"/>
+      <c r="D1" s="116"/>
+      <c r="E1" s="115"/>
+      <c r="F1" s="115"/>
+    </row>
+    <row r="2" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="118"/>
+      <c r="B2" s="118"/>
+      <c r="C2" s="118"/>
+      <c r="D2" s="116"/>
+      <c r="E2" s="115"/>
+      <c r="F2" s="115"/>
+    </row>
+    <row r="3" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="118"/>
+      <c r="B3" s="118"/>
+      <c r="C3" s="118"/>
+      <c r="D3" s="116"/>
+      <c r="E3" s="115"/>
+      <c r="F3" s="115"/>
+    </row>
+    <row r="4" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="118"/>
+      <c r="B4" s="118"/>
+      <c r="C4" s="118"/>
+      <c r="D4" s="116"/>
+      <c r="E4" s="115"/>
+      <c r="F4" s="115"/>
+    </row>
+    <row r="5" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="118"/>
+      <c r="B5" s="118"/>
+      <c r="C5" s="118"/>
+      <c r="D5" s="116"/>
+      <c r="E5" s="115"/>
+      <c r="F5" s="115"/>
+    </row>
+    <row r="6" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="118"/>
+      <c r="B6" s="118"/>
+      <c r="C6" s="118"/>
+      <c r="D6" s="116"/>
+      <c r="E6" s="115"/>
+      <c r="F6" s="115"/>
+    </row>
+    <row r="7" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="118"/>
+      <c r="B7" s="118"/>
+      <c r="C7" s="118"/>
+      <c r="D7" s="116"/>
+      <c r="E7" s="115"/>
+      <c r="F7" s="115"/>
+    </row>
+    <row r="8" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="118"/>
+      <c r="B8" s="118"/>
+      <c r="C8" s="118"/>
+      <c r="D8" s="116"/>
+      <c r="E8" s="115"/>
+      <c r="F8" s="115"/>
+    </row>
+    <row r="9" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="118"/>
+      <c r="B9" s="118"/>
+      <c r="C9" s="118"/>
+      <c r="D9" s="119"/>
+      <c r="E9" s="115"/>
+      <c r="F9" s="115"/>
+    </row>
+    <row r="10" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="118"/>
+      <c r="B10" s="118"/>
+      <c r="C10" s="118"/>
+      <c r="D10" s="116"/>
+      <c r="E10" s="115"/>
+      <c r="F10" s="115"/>
+    </row>
+    <row r="11" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="118"/>
+      <c r="B11" s="118"/>
+      <c r="C11" s="118"/>
+      <c r="D11" s="116"/>
+      <c r="E11" s="115"/>
+      <c r="F11" s="115"/>
+    </row>
+    <row r="12" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="118"/>
+      <c r="B12" s="117"/>
+      <c r="C12" s="117"/>
+      <c r="D12" s="116"/>
+      <c r="E12" s="115"/>
+      <c r="F12" s="115"/>
+    </row>
+    <row r="13" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="118"/>
+      <c r="B13" s="117"/>
+      <c r="C13" s="117"/>
+      <c r="D13" s="116"/>
+      <c r="E13" s="115"/>
+      <c r="F13" s="115"/>
+    </row>
+    <row r="14" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="118"/>
+      <c r="B14" s="117"/>
+      <c r="C14" s="117"/>
+      <c r="D14" s="116"/>
+      <c r="E14" s="115"/>
+      <c r="F14" s="115"/>
+    </row>
+    <row r="15" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="118"/>
+      <c r="B15" s="117"/>
+      <c r="C15" s="117"/>
+      <c r="D15" s="116"/>
+      <c r="E15" s="115"/>
+      <c r="F15" s="115"/>
+    </row>
+    <row r="16" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="118"/>
+      <c r="B16" s="117"/>
+      <c r="C16" s="117"/>
+      <c r="D16" s="116"/>
+      <c r="E16" s="115"/>
+      <c r="F16" s="115"/>
+    </row>
+    <row r="17" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="118"/>
+      <c r="B17" s="117"/>
+      <c r="C17" s="117"/>
+      <c r="D17" s="116"/>
+      <c r="E17" s="115"/>
+      <c r="F17" s="115"/>
+    </row>
+    <row r="18" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="118"/>
+      <c r="B18" s="117"/>
+      <c r="C18" s="117"/>
+      <c r="D18" s="116"/>
+      <c r="E18" s="115"/>
+      <c r="F18" s="115"/>
+    </row>
+    <row r="19" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="118"/>
+      <c r="B19" s="117"/>
+      <c r="C19" s="117"/>
+      <c r="D19" s="116"/>
+      <c r="E19" s="115"/>
+      <c r="F19" s="115"/>
+    </row>
+    <row r="20" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="118"/>
+      <c r="B20" s="117"/>
+      <c r="C20" s="117"/>
+      <c r="D20" s="116"/>
+      <c r="E20" s="115"/>
+      <c r="F20" s="115"/>
+    </row>
+    <row r="21" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="61"/>
+      <c r="B21" s="77" t="s">
+        <v>111</v>
+      </c>
+      <c r="C21" s="77"/>
+      <c r="D21" s="60"/>
+      <c r="E21" s="59"/>
+      <c r="F21" s="59"/>
+    </row>
+    <row r="22" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="61"/>
+      <c r="B22" s="61"/>
+      <c r="C22" s="61"/>
+      <c r="D22" s="60"/>
+      <c r="E22" s="59"/>
+      <c r="F22" s="59"/>
+    </row>
+    <row r="23" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="61"/>
+      <c r="B23" s="77" t="s">
+        <v>101</v>
+      </c>
+      <c r="C23" s="77"/>
+      <c r="D23" s="60"/>
+      <c r="E23" s="59"/>
+      <c r="F23" s="59"/>
+    </row>
+    <row r="24" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="61"/>
+      <c r="B24" s="114" t="s">
+        <v>100</v>
+      </c>
+      <c r="C24" s="61"/>
+      <c r="D24" s="60"/>
+      <c r="E24" s="59"/>
+      <c r="F24" s="59"/>
+    </row>
+    <row r="25" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="61"/>
+      <c r="B25" s="61" t="s">
+        <v>99</v>
+      </c>
+      <c r="C25" s="61"/>
+      <c r="D25" s="60"/>
+      <c r="E25" s="59"/>
+      <c r="F25" s="59"/>
+    </row>
+    <row r="26" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="61"/>
+      <c r="B26" s="61" t="s">
+        <v>98</v>
+      </c>
+      <c r="C26" s="61"/>
+      <c r="D26" s="60"/>
+      <c r="E26" s="59"/>
+      <c r="F26" s="59"/>
+    </row>
+    <row r="27" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="77"/>
+      <c r="B27" s="61" t="s">
+        <v>97</v>
+      </c>
+      <c r="C27" s="61"/>
+      <c r="D27" s="113"/>
+      <c r="E27" s="112"/>
+      <c r="F27" s="112"/>
+    </row>
+    <row r="28" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="61"/>
+      <c r="B28" s="77"/>
+      <c r="C28" s="77"/>
+      <c r="D28" s="112" t="s">
+        <v>11</v>
+      </c>
+      <c r="E28" s="111" t="s">
+        <v>112</v>
+      </c>
+      <c r="F28" s="111"/>
+    </row>
+    <row r="29" spans="1:6" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="110"/>
+      <c r="B29" s="110"/>
+      <c r="C29" s="110"/>
+      <c r="D29" s="109"/>
+      <c r="E29" s="108"/>
+      <c r="F29" s="108"/>
+    </row>
+    <row r="30" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="154" t="s">
+        <v>0</v>
+      </c>
+      <c r="B30" s="154"/>
+      <c r="C30" s="154"/>
+      <c r="D30" s="154"/>
+      <c r="E30" s="154"/>
+      <c r="F30" s="107"/>
+    </row>
+    <row r="31" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="106"/>
+      <c r="B31" s="106"/>
+      <c r="C31" s="106"/>
+      <c r="D31" s="106"/>
+      <c r="E31" s="106"/>
+      <c r="F31" s="106"/>
+    </row>
+    <row r="32" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="82"/>
+      <c r="B32" s="56" t="s">
+        <v>6</v>
+      </c>
+      <c r="C32" s="105"/>
+      <c r="D32" s="104"/>
+      <c r="E32" s="103"/>
+      <c r="F32" s="103"/>
+    </row>
+    <row r="33" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="82"/>
+      <c r="B33" s="82"/>
+      <c r="C33" s="82"/>
+      <c r="D33" s="104"/>
+      <c r="E33" s="103"/>
+      <c r="F33" s="103"/>
+    </row>
+    <row r="34" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="82"/>
+      <c r="B34" s="100" t="s">
+        <v>105</v>
+      </c>
+      <c r="C34" s="120"/>
+      <c r="D34" s="85"/>
+      <c r="E34" s="85"/>
+      <c r="F34" s="85"/>
+    </row>
+    <row r="35" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="82"/>
+      <c r="B35" s="100" t="s">
+        <v>90</v>
+      </c>
+      <c r="C35" s="121"/>
+      <c r="D35" s="85"/>
+      <c r="E35" s="85"/>
+      <c r="F35" s="85"/>
+    </row>
+    <row r="36" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="82"/>
+      <c r="B36" s="100" t="s">
+        <v>2</v>
+      </c>
+      <c r="C36" s="120"/>
+      <c r="D36" s="85"/>
+      <c r="E36" s="85"/>
+      <c r="F36" s="85"/>
+    </row>
+    <row r="37" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="82"/>
+      <c r="B37" s="100" t="s">
+        <v>90</v>
+      </c>
+      <c r="C37" s="120"/>
+      <c r="D37" s="85"/>
+      <c r="E37" s="85"/>
+      <c r="F37" s="85"/>
+    </row>
+    <row r="38" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="82"/>
+      <c r="B38" s="100" t="s">
+        <v>61</v>
+      </c>
+      <c r="C38" s="120"/>
+      <c r="D38" s="85"/>
+      <c r="E38" s="85"/>
+      <c r="F38" s="85"/>
+    </row>
+    <row r="39" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="82"/>
+      <c r="B39" s="100" t="s">
+        <v>90</v>
+      </c>
+      <c r="C39" s="120"/>
+      <c r="D39" s="85"/>
+      <c r="E39" s="85"/>
+      <c r="F39" s="85"/>
+    </row>
+    <row r="40" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="82"/>
+      <c r="B40" s="100" t="s">
+        <v>113</v>
+      </c>
+      <c r="C40" s="121"/>
+      <c r="D40" s="85"/>
+      <c r="E40" s="85"/>
+      <c r="F40" s="85"/>
+    </row>
+    <row r="41" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="82"/>
+      <c r="B41" s="100" t="s">
+        <v>90</v>
+      </c>
+      <c r="C41" s="120"/>
+      <c r="D41" s="85"/>
+      <c r="E41" s="85"/>
+      <c r="F41" s="85"/>
+    </row>
+    <row r="42" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="82"/>
+      <c r="B42" s="100" t="s">
+        <v>114</v>
+      </c>
+      <c r="C42" s="120"/>
+      <c r="D42" s="85"/>
+      <c r="E42" s="85"/>
+      <c r="F42" s="85"/>
+    </row>
+    <row r="43" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="82"/>
+      <c r="B43" s="100"/>
+      <c r="C43" s="120"/>
+      <c r="D43" s="85"/>
+      <c r="E43" s="85"/>
+      <c r="F43" s="85"/>
+    </row>
+    <row r="44" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="82"/>
+      <c r="B44" s="100"/>
+      <c r="C44" s="120"/>
+      <c r="D44" s="85"/>
+      <c r="E44" s="85"/>
+      <c r="F44" s="85"/>
+    </row>
+    <row r="45" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="82"/>
+      <c r="B45" s="100"/>
+      <c r="C45" s="120"/>
+      <c r="D45" s="85"/>
+      <c r="E45" s="85"/>
+      <c r="F45" s="85"/>
+    </row>
+    <row r="46" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="82"/>
+      <c r="B46" s="100"/>
+      <c r="C46" s="120"/>
+      <c r="D46" s="85"/>
+      <c r="E46" s="85"/>
+      <c r="F46" s="85"/>
+    </row>
+    <row r="47" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="82"/>
+      <c r="B47" s="100"/>
+      <c r="C47" s="120"/>
+      <c r="D47" s="85"/>
+      <c r="E47" s="85"/>
+      <c r="F47" s="85"/>
+    </row>
+    <row r="48" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="82"/>
+      <c r="B48" s="100"/>
+      <c r="C48" s="120"/>
+      <c r="D48" s="85"/>
+      <c r="E48" s="85"/>
+      <c r="F48" s="85"/>
+    </row>
+    <row r="49" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="82"/>
+      <c r="B49" s="100"/>
+      <c r="C49" s="120"/>
+      <c r="D49" s="85"/>
+      <c r="E49" s="85"/>
+      <c r="F49" s="85"/>
+    </row>
+    <row r="50" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="82"/>
+      <c r="B50" s="100"/>
+      <c r="C50" s="122"/>
+      <c r="D50" s="122"/>
+      <c r="E50" s="85"/>
+      <c r="F50" s="85"/>
+    </row>
+    <row r="51" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A51" s="82"/>
+      <c r="B51" s="100"/>
+      <c r="C51" s="120"/>
+      <c r="D51" s="85"/>
+      <c r="E51" s="85"/>
+      <c r="F51" s="85"/>
+    </row>
+    <row r="52" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A52" s="82"/>
+      <c r="B52" s="100"/>
+      <c r="C52" s="120"/>
+      <c r="D52" s="85"/>
+      <c r="E52" s="85"/>
+      <c r="F52" s="85"/>
+    </row>
+    <row r="53" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A53" s="82"/>
+      <c r="B53" s="100"/>
+      <c r="C53" s="120"/>
+      <c r="D53" s="85"/>
+      <c r="E53" s="85"/>
+      <c r="F53" s="85"/>
+    </row>
+    <row r="54" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A54" s="82"/>
+      <c r="B54" s="100"/>
+      <c r="C54" s="120"/>
+      <c r="D54" s="85"/>
+      <c r="E54" s="85"/>
+      <c r="F54" s="85"/>
+    </row>
+    <row r="55" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A55" s="82"/>
+      <c r="B55" s="100"/>
+      <c r="C55" s="120"/>
+      <c r="D55" s="85"/>
+      <c r="E55" s="85"/>
+      <c r="F55" s="85"/>
+    </row>
+    <row r="56" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A56" s="82"/>
+      <c r="B56" s="100"/>
+      <c r="C56" s="120"/>
+      <c r="D56" s="85"/>
+      <c r="E56" s="85"/>
+      <c r="F56" s="85"/>
+    </row>
+    <row r="57" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A57" s="82"/>
+      <c r="B57" s="100"/>
+      <c r="C57" s="120"/>
+      <c r="D57" s="85"/>
+      <c r="E57" s="85"/>
+      <c r="F57" s="85"/>
+    </row>
+    <row r="58" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A58" s="82"/>
+      <c r="B58" s="100"/>
+      <c r="C58" s="120"/>
+      <c r="D58" s="85"/>
+      <c r="E58" s="85"/>
+      <c r="F58" s="85"/>
+    </row>
+    <row r="59" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A59" s="82"/>
+      <c r="B59" s="100"/>
+      <c r="C59" s="120"/>
+      <c r="D59" s="85"/>
+      <c r="E59" s="85"/>
+      <c r="F59" s="85"/>
+    </row>
+    <row r="60" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A60" s="82"/>
+      <c r="B60" s="100"/>
+      <c r="C60" s="120"/>
+      <c r="D60" s="85"/>
+      <c r="E60" s="85"/>
+      <c r="F60" s="85"/>
+    </row>
+    <row r="61" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A61" s="82"/>
+      <c r="B61" s="100"/>
+      <c r="C61" s="120"/>
+      <c r="D61" s="85"/>
+      <c r="E61" s="85"/>
+      <c r="F61" s="85"/>
+    </row>
+    <row r="62" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A62" s="82"/>
+      <c r="B62" s="100"/>
+      <c r="C62" s="120"/>
+      <c r="D62" s="85"/>
+      <c r="E62" s="85"/>
+      <c r="F62" s="85"/>
+    </row>
+    <row r="63" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A63" s="82"/>
+      <c r="B63" s="123"/>
+      <c r="C63" s="124"/>
+      <c r="D63" s="125"/>
+      <c r="E63" s="85"/>
+      <c r="F63" s="85"/>
+    </row>
+    <row r="64" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A64" s="82"/>
+      <c r="B64" s="123"/>
+      <c r="C64" s="126"/>
+      <c r="D64" s="103"/>
+      <c r="E64" s="85"/>
+      <c r="F64" s="85"/>
+    </row>
+    <row r="65" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A65" s="82"/>
+      <c r="B65" s="100"/>
+      <c r="C65" s="127" t="s">
+        <v>37</v>
+      </c>
+      <c r="D65" s="128" t="s">
+        <v>38</v>
+      </c>
+      <c r="E65" s="85"/>
+      <c r="F65" s="85"/>
+    </row>
+    <row r="66" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A66" s="82"/>
+      <c r="B66" s="100"/>
+      <c r="C66" s="129">
+        <v>15.5</v>
+      </c>
+      <c r="D66" s="130">
+        <v>385</v>
+      </c>
+      <c r="E66" s="131"/>
+      <c r="F66" s="131"/>
+    </row>
+    <row r="67" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A67" s="82"/>
+      <c r="B67" s="123"/>
+      <c r="C67" s="129"/>
+      <c r="D67" s="130"/>
+      <c r="E67" s="85"/>
+      <c r="F67" s="85"/>
+    </row>
+    <row r="68" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A68" s="82"/>
+      <c r="B68" s="123"/>
+      <c r="C68" s="83"/>
+      <c r="D68" s="83"/>
+      <c r="E68" s="83"/>
+      <c r="F68" s="82"/>
+    </row>
+    <row r="69" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A69" s="61"/>
+      <c r="B69" s="66" t="s">
+        <v>15</v>
+      </c>
+      <c r="C69" s="66"/>
+      <c r="D69" s="60"/>
+      <c r="E69" s="132">
+        <v>5967.5</v>
+      </c>
+      <c r="F69" s="132"/>
+    </row>
+    <row r="70" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A70" s="61"/>
+      <c r="B70" s="80" t="s">
+        <v>12</v>
+      </c>
+      <c r="C70" s="73"/>
+      <c r="D70" s="60"/>
+      <c r="E70" s="133">
+        <v>0</v>
+      </c>
+      <c r="F70" s="133"/>
+    </row>
+    <row r="71" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A71" s="61"/>
+      <c r="B71" s="134" t="s">
+        <v>88</v>
+      </c>
+      <c r="C71" s="73"/>
+      <c r="D71" s="60"/>
+      <c r="E71" s="133">
+        <v>0</v>
+      </c>
+      <c r="F71" s="133"/>
+    </row>
+    <row r="72" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A72" s="61"/>
+      <c r="B72" s="134" t="s">
+        <v>13</v>
+      </c>
+      <c r="C72" s="73"/>
+      <c r="D72" s="60"/>
+      <c r="E72" s="133">
+        <v>0</v>
+      </c>
+      <c r="F72" s="133"/>
+    </row>
+    <row r="73" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A73" s="61"/>
+      <c r="B73" s="77" t="s">
+        <v>14</v>
+      </c>
+      <c r="C73" s="66"/>
+      <c r="D73" s="60"/>
+      <c r="E73" s="76">
+        <v>5967.5</v>
+      </c>
+      <c r="F73" s="76"/>
+    </row>
+    <row r="74" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A74" s="61"/>
+      <c r="B74" s="73" t="s">
+        <v>5</v>
+      </c>
+      <c r="C74" s="135">
+        <v>0.05</v>
+      </c>
+      <c r="D74" s="73"/>
+      <c r="E74" s="71">
+        <v>298.38</v>
+      </c>
+      <c r="F74" s="71"/>
+    </row>
+    <row r="75" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A75" s="61"/>
+      <c r="B75" s="64" t="s">
+        <v>4</v>
+      </c>
+      <c r="C75" s="136">
+        <v>9.9750000000000005E-2</v>
+      </c>
+      <c r="D75" s="73"/>
+      <c r="E75" s="72">
+        <v>595.26</v>
+      </c>
+      <c r="F75" s="71"/>
+    </row>
+    <row r="76" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A76" s="61"/>
+      <c r="B76" s="56"/>
+      <c r="C76" s="61"/>
+      <c r="D76" s="60"/>
+      <c r="E76" s="59"/>
+      <c r="F76" s="59"/>
+    </row>
+    <row r="77" spans="1:6" ht="15.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="61"/>
+      <c r="B77" s="70" t="s">
+        <v>16</v>
+      </c>
+      <c r="C77" s="66"/>
+      <c r="D77" s="69"/>
+      <c r="E77" s="137">
+        <v>6861.14</v>
+      </c>
+      <c r="F77" s="138"/>
+    </row>
+    <row r="78" spans="1:6" ht="15.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A78" s="61"/>
+      <c r="B78" s="64"/>
+      <c r="C78" s="64"/>
+      <c r="D78" s="64"/>
+      <c r="E78" s="65"/>
+      <c r="F78" s="64"/>
+    </row>
+    <row r="79" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A79" s="61"/>
+      <c r="B79" s="56" t="s">
+        <v>18</v>
+      </c>
+      <c r="C79" s="64"/>
+      <c r="D79" s="60"/>
+      <c r="E79" s="59">
+        <v>0</v>
+      </c>
+      <c r="F79" s="59"/>
+    </row>
+    <row r="80" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A80" s="61"/>
+      <c r="B80" s="66"/>
+      <c r="C80" s="64"/>
+      <c r="D80" s="64"/>
+      <c r="E80" s="65"/>
+      <c r="F80" s="64"/>
+    </row>
+    <row r="81" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A81" s="61"/>
+      <c r="B81" s="162" t="s">
+        <v>17</v>
+      </c>
+      <c r="C81" s="163"/>
+      <c r="D81" s="139"/>
+      <c r="E81" s="140">
+        <v>6861.14</v>
+      </c>
+      <c r="F81" s="59"/>
+    </row>
+    <row r="82" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A82" s="61"/>
+      <c r="B82" s="61"/>
+      <c r="C82" s="61"/>
+      <c r="D82" s="60"/>
+      <c r="E82" s="59"/>
+      <c r="F82" s="59"/>
+    </row>
+    <row r="83" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A83" s="58"/>
+      <c r="B83" s="157"/>
+      <c r="C83" s="158"/>
+      <c r="D83" s="158"/>
+      <c r="E83" s="158"/>
+      <c r="F83" s="57"/>
+    </row>
+    <row r="84" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A84" s="159" t="s">
+        <v>29</v>
+      </c>
+      <c r="B84" s="159"/>
+      <c r="C84" s="159"/>
+      <c r="D84" s="159"/>
+      <c r="E84" s="159"/>
+      <c r="F84" s="56"/>
+    </row>
+    <row r="85" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A85" s="160" t="s">
+        <v>30</v>
+      </c>
+      <c r="B85" s="160"/>
+      <c r="C85" s="160"/>
+      <c r="D85" s="160"/>
+      <c r="E85" s="160"/>
+      <c r="F85" s="46"/>
+    </row>
+    <row r="86" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A86" s="55"/>
+      <c r="B86" s="55"/>
+      <c r="C86" s="55"/>
+      <c r="D86" s="55"/>
+      <c r="E86" s="55"/>
+      <c r="F86" s="46"/>
+    </row>
+    <row r="87" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A87" s="55"/>
+      <c r="B87" s="55"/>
+      <c r="C87" s="55"/>
+      <c r="D87" s="55"/>
+      <c r="E87" s="55"/>
+      <c r="F87" s="46"/>
+    </row>
+    <row r="88" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A88" s="161" t="s">
+        <v>7</v>
+      </c>
+      <c r="B88" s="161"/>
+      <c r="C88" s="161"/>
+      <c r="D88" s="161"/>
+      <c r="E88" s="161"/>
+      <c r="F88" s="161"/>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="A88:F88"/>
+    <mergeCell ref="A30:E30"/>
+    <mergeCell ref="B81:C81"/>
+    <mergeCell ref="B83:E83"/>
+    <mergeCell ref="A84:E84"/>
+    <mergeCell ref="A85:E85"/>
+  </mergeCells>
+  <printOptions horizontalCentered="1"/>
+  <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
+  <pageSetup paperSize="119" scale="63" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2AE08D3-610A-4DAC-A0A9-CBA544E64B30}">
+  <sheetPr codeName="Feuil11">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:F88"/>
@@ -3128,7 +4042,7 @@
     <row r="21" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="61"/>
       <c r="B21" s="77" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="C21" s="77"/>
       <c r="D21" s="60"/>
@@ -3201,7 +4115,7 @@
         <v>11</v>
       </c>
       <c r="E28" s="111" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="F28" s="111"/>
     </row>
@@ -3252,7 +4166,7 @@
     <row r="34" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="82"/>
       <c r="B34" s="100" t="s">
-        <v>105</v>
+        <v>117</v>
       </c>
       <c r="C34" s="120"/>
       <c r="D34" s="85"/>
@@ -3261,9 +4175,7 @@
     </row>
     <row r="35" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="82"/>
-      <c r="B35" s="100" t="s">
-        <v>90</v>
-      </c>
+      <c r="B35" s="100"/>
       <c r="C35" s="121"/>
       <c r="D35" s="85"/>
       <c r="E35" s="85"/>
@@ -3271,9 +4183,7 @@
     </row>
     <row r="36" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="82"/>
-      <c r="B36" s="100" t="s">
-        <v>2</v>
-      </c>
+      <c r="B36" s="100"/>
       <c r="C36" s="120"/>
       <c r="D36" s="85"/>
       <c r="E36" s="85"/>
@@ -3281,9 +4191,7 @@
     </row>
     <row r="37" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="82"/>
-      <c r="B37" s="100" t="s">
-        <v>90</v>
-      </c>
+      <c r="B37" s="100"/>
       <c r="C37" s="120"/>
       <c r="D37" s="85"/>
       <c r="E37" s="85"/>
@@ -3291,9 +4199,7 @@
     </row>
     <row r="38" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="82"/>
-      <c r="B38" s="100" t="s">
-        <v>61</v>
-      </c>
+      <c r="B38" s="100"/>
       <c r="C38" s="120"/>
       <c r="D38" s="85"/>
       <c r="E38" s="85"/>
@@ -3301,9 +4207,7 @@
     </row>
     <row r="39" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="82"/>
-      <c r="B39" s="100" t="s">
-        <v>90</v>
-      </c>
+      <c r="B39" s="100"/>
       <c r="C39" s="120"/>
       <c r="D39" s="85"/>
       <c r="E39" s="85"/>
@@ -3311,9 +4215,7 @@
     </row>
     <row r="40" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="82"/>
-      <c r="B40" s="100" t="s">
-        <v>113</v>
-      </c>
+      <c r="B40" s="100"/>
       <c r="C40" s="121"/>
       <c r="D40" s="85"/>
       <c r="E40" s="85"/>
@@ -3321,9 +4223,7 @@
     </row>
     <row r="41" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="82"/>
-      <c r="B41" s="100" t="s">
-        <v>90</v>
-      </c>
+      <c r="B41" s="100"/>
       <c r="C41" s="120"/>
       <c r="D41" s="85"/>
       <c r="E41" s="85"/>
@@ -3331,9 +4231,7 @@
     </row>
     <row r="42" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="82"/>
-      <c r="B42" s="100" t="s">
-        <v>114</v>
-      </c>
+      <c r="B42" s="100"/>
       <c r="C42" s="120"/>
       <c r="D42" s="85"/>
       <c r="E42" s="85"/>
@@ -3518,24 +4416,16 @@
     <row r="65" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="82"/>
       <c r="B65" s="100"/>
-      <c r="C65" s="127" t="s">
-        <v>37</v>
-      </c>
-      <c r="D65" s="128" t="s">
-        <v>38</v>
-      </c>
+      <c r="C65" s="127"/>
+      <c r="D65" s="128"/>
       <c r="E65" s="85"/>
       <c r="F65" s="85"/>
     </row>
     <row r="66" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="82"/>
       <c r="B66" s="100"/>
-      <c r="C66" s="129">
-        <v>15.5</v>
-      </c>
-      <c r="D66" s="130">
-        <v>385</v>
-      </c>
+      <c r="C66" s="129"/>
+      <c r="D66" s="130"/>
       <c r="E66" s="131"/>
       <c r="F66" s="131"/>
     </row>
@@ -3563,7 +4453,7 @@
       <c r="C69" s="66"/>
       <c r="D69" s="60"/>
       <c r="E69" s="132">
-        <v>5967.5</v>
+        <v>2175.25</v>
       </c>
       <c r="F69" s="132"/>
     </row>
@@ -3611,7 +4501,7 @@
       <c r="C73" s="66"/>
       <c r="D73" s="60"/>
       <c r="E73" s="76">
-        <v>5967.5</v>
+        <v>2175.25</v>
       </c>
       <c r="F73" s="76"/>
     </row>
@@ -3620,12 +4510,12 @@
       <c r="B74" s="73" t="s">
         <v>5</v>
       </c>
-      <c r="C74" s="135">
+      <c r="C74" s="75">
         <v>0.05</v>
       </c>
       <c r="D74" s="73"/>
       <c r="E74" s="71">
-        <v>298.38</v>
+        <v>108.76</v>
       </c>
       <c r="F74" s="71"/>
     </row>
@@ -3634,12 +4524,12 @@
       <c r="B75" s="64" t="s">
         <v>4</v>
       </c>
-      <c r="C75" s="136">
+      <c r="C75" s="74">
         <v>9.9750000000000005E-2</v>
       </c>
       <c r="D75" s="73"/>
       <c r="E75" s="72">
-        <v>595.26</v>
+        <v>216.98</v>
       </c>
       <c r="F75" s="71"/>
     </row>
@@ -3659,7 +4549,7 @@
       <c r="C77" s="66"/>
       <c r="D77" s="69"/>
       <c r="E77" s="137">
-        <v>6861.14</v>
+        <v>2500.9900000000002</v>
       </c>
       <c r="F77" s="138"/>
     </row>
@@ -3693,13 +4583,13 @@
     </row>
     <row r="81" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="61"/>
-      <c r="B81" s="161" t="s">
+      <c r="B81" s="162" t="s">
         <v>17</v>
       </c>
-      <c r="C81" s="162"/>
+      <c r="C81" s="163"/>
       <c r="D81" s="139"/>
       <c r="E81" s="140">
-        <v>6861.14</v>
+        <v>2500.9900000000002</v>
       </c>
       <c r="F81" s="59"/>
     </row>
@@ -3756,14 +4646,14 @@
       <c r="F87" s="46"/>
     </row>
     <row r="88" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A88" s="163" t="s">
+      <c r="A88" s="161" t="s">
         <v>7</v>
       </c>
-      <c r="B88" s="163"/>
-      <c r="C88" s="163"/>
-      <c r="D88" s="163"/>
-      <c r="E88" s="163"/>
-      <c r="F88" s="163"/>
+      <c r="B88" s="161"/>
+      <c r="C88" s="161"/>
+      <c r="D88" s="161"/>
+      <c r="E88" s="161"/>
+      <c r="F88" s="161"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -3776,14 +4666,14 @@
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
-  <pageSetup paperSize="119" scale="63" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <pageSetup scale="56" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A1A7FFE-ECFF-4220-8C15-9528E0EB9B1F}">
-  <sheetPr>
+  <sheetPr codeName="Feuil3">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A12:F92"/>
@@ -3924,14 +4814,14 @@
       <c r="F29" s="20"/>
     </row>
     <row r="30" spans="1:6" s="40" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="148" t="s">
+      <c r="A30" s="144" t="s">
         <v>0</v>
       </c>
-      <c r="B30" s="148"/>
-      <c r="C30" s="148"/>
-      <c r="D30" s="148"/>
-      <c r="E30" s="148"/>
-      <c r="F30" s="148"/>
+      <c r="B30" s="144"/>
+      <c r="C30" s="144"/>
+      <c r="D30" s="144"/>
+      <c r="E30" s="144"/>
+      <c r="F30" s="144"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" s="17"/>
@@ -3952,283 +4842,283 @@
     </row>
     <row r="33" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A33" s="21"/>
-      <c r="B33" s="145"/>
-      <c r="C33" s="145"/>
-      <c r="D33" s="145"/>
+      <c r="B33" s="143"/>
+      <c r="C33" s="143"/>
+      <c r="D33" s="143"/>
       <c r="E33" s="28"/>
       <c r="F33" s="21"/>
     </row>
     <row r="34" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A34" s="21"/>
-      <c r="B34" s="145" t="s">
+      <c r="B34" s="143" t="s">
         <v>67</v>
       </c>
-      <c r="C34" s="145"/>
-      <c r="D34" s="145"/>
+      <c r="C34" s="143"/>
+      <c r="D34" s="143"/>
       <c r="E34" s="28"/>
       <c r="F34" s="21"/>
     </row>
     <row r="35" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A35" s="21"/>
-      <c r="B35" s="145"/>
-      <c r="C35" s="145"/>
-      <c r="D35" s="145"/>
+      <c r="B35" s="143"/>
+      <c r="C35" s="143"/>
+      <c r="D35" s="143"/>
       <c r="E35" s="28"/>
       <c r="F35" s="21"/>
     </row>
     <row r="36" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A36" s="21"/>
-      <c r="B36" s="145" t="s">
+      <c r="B36" s="143" t="s">
         <v>50</v>
       </c>
-      <c r="C36" s="145"/>
-      <c r="D36" s="145"/>
+      <c r="C36" s="143"/>
+      <c r="D36" s="143"/>
       <c r="E36" s="28"/>
       <c r="F36" s="21"/>
     </row>
     <row r="37" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A37" s="21"/>
-      <c r="B37" s="145"/>
-      <c r="C37" s="145"/>
-      <c r="D37" s="145"/>
+      <c r="B37" s="143"/>
+      <c r="C37" s="143"/>
+      <c r="D37" s="143"/>
       <c r="E37" s="28"/>
       <c r="F37" s="21"/>
     </row>
     <row r="38" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A38" s="21"/>
-      <c r="B38" s="145" t="s">
+      <c r="B38" s="143" t="s">
         <v>32</v>
       </c>
-      <c r="C38" s="145"/>
-      <c r="D38" s="145"/>
+      <c r="C38" s="143"/>
+      <c r="D38" s="143"/>
       <c r="E38" s="28"/>
       <c r="F38" s="21"/>
     </row>
     <row r="39" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A39" s="21"/>
-      <c r="B39" s="145"/>
-      <c r="C39" s="145"/>
-      <c r="D39" s="145"/>
+      <c r="B39" s="143"/>
+      <c r="C39" s="143"/>
+      <c r="D39" s="143"/>
       <c r="E39" s="28"/>
       <c r="F39" s="21"/>
     </row>
     <row r="40" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A40" s="21"/>
-      <c r="B40" s="145" t="s">
+      <c r="B40" s="143" t="s">
         <v>2</v>
       </c>
-      <c r="C40" s="145"/>
-      <c r="D40" s="145"/>
+      <c r="C40" s="143"/>
+      <c r="D40" s="143"/>
       <c r="E40" s="28"/>
       <c r="F40" s="21"/>
     </row>
     <row r="41" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A41" s="21"/>
-      <c r="B41" s="145"/>
-      <c r="C41" s="145"/>
-      <c r="D41" s="145"/>
+      <c r="B41" s="143"/>
+      <c r="C41" s="143"/>
+      <c r="D41" s="143"/>
       <c r="E41" s="28"/>
       <c r="F41" s="21"/>
     </row>
     <row r="42" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A42" s="21"/>
-      <c r="B42" s="145" t="s">
+      <c r="B42" s="143" t="s">
         <v>21</v>
       </c>
-      <c r="C42" s="145"/>
-      <c r="D42" s="145"/>
+      <c r="C42" s="143"/>
+      <c r="D42" s="143"/>
       <c r="E42" s="28"/>
       <c r="F42" s="21"/>
     </row>
     <row r="43" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A43" s="21"/>
-      <c r="B43" s="145"/>
-      <c r="C43" s="145"/>
-      <c r="D43" s="145"/>
+      <c r="B43" s="143"/>
+      <c r="C43" s="143"/>
+      <c r="D43" s="143"/>
       <c r="E43" s="28"/>
       <c r="F43" s="21"/>
     </row>
     <row r="44" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A44" s="21"/>
-      <c r="B44" s="145" t="s">
+      <c r="B44" s="143" t="s">
         <v>51</v>
       </c>
-      <c r="C44" s="145"/>
-      <c r="D44" s="145"/>
+      <c r="C44" s="143"/>
+      <c r="D44" s="143"/>
       <c r="E44" s="28"/>
       <c r="F44" s="21"/>
     </row>
     <row r="45" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A45" s="21"/>
-      <c r="B45" s="145"/>
-      <c r="C45" s="145"/>
-      <c r="D45" s="145"/>
+      <c r="B45" s="143"/>
+      <c r="C45" s="143"/>
+      <c r="D45" s="143"/>
       <c r="E45" s="28"/>
       <c r="F45" s="21"/>
     </row>
     <row r="46" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A46" s="21"/>
-      <c r="B46" s="145" t="s">
+      <c r="B46" s="143" t="s">
         <v>52</v>
       </c>
-      <c r="C46" s="145"/>
-      <c r="D46" s="145"/>
+      <c r="C46" s="143"/>
+      <c r="D46" s="143"/>
       <c r="E46" s="28"/>
       <c r="F46" s="21"/>
     </row>
     <row r="47" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A47" s="21"/>
-      <c r="B47" s="145"/>
-      <c r="C47" s="145"/>
-      <c r="D47" s="145"/>
+      <c r="B47" s="143"/>
+      <c r="C47" s="143"/>
+      <c r="D47" s="143"/>
       <c r="E47" s="28"/>
       <c r="F47" s="21"/>
     </row>
     <row r="48" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A48" s="21"/>
-      <c r="B48" s="145" t="s">
+      <c r="B48" s="143" t="s">
         <v>54</v>
       </c>
-      <c r="C48" s="145"/>
-      <c r="D48" s="145"/>
+      <c r="C48" s="143"/>
+      <c r="D48" s="143"/>
       <c r="E48" s="28"/>
       <c r="F48" s="21"/>
     </row>
     <row r="49" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A49" s="21"/>
-      <c r="B49" s="145"/>
-      <c r="C49" s="145"/>
-      <c r="D49" s="145"/>
+      <c r="B49" s="143"/>
+      <c r="C49" s="143"/>
+      <c r="D49" s="143"/>
       <c r="E49" s="28"/>
       <c r="F49" s="21"/>
     </row>
     <row r="50" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A50" s="21"/>
-      <c r="B50" s="145" t="s">
+      <c r="B50" s="143" t="s">
         <v>20</v>
       </c>
-      <c r="C50" s="145"/>
-      <c r="D50" s="145"/>
+      <c r="C50" s="143"/>
+      <c r="D50" s="143"/>
       <c r="E50" s="28"/>
       <c r="F50" s="21"/>
     </row>
     <row r="51" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A51" s="21"/>
-      <c r="B51" s="145"/>
-      <c r="C51" s="145"/>
-      <c r="D51" s="145"/>
+      <c r="B51" s="143"/>
+      <c r="C51" s="143"/>
+      <c r="D51" s="143"/>
       <c r="E51" s="28"/>
       <c r="F51" s="21"/>
     </row>
     <row r="52" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A52" s="21"/>
-      <c r="B52" s="145" t="s">
+      <c r="B52" s="143" t="s">
         <v>22</v>
       </c>
-      <c r="C52" s="145"/>
-      <c r="D52" s="145"/>
+      <c r="C52" s="143"/>
+      <c r="D52" s="143"/>
       <c r="E52" s="28"/>
       <c r="F52" s="21"/>
     </row>
     <row r="53" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A53" s="21"/>
-      <c r="B53" s="145"/>
-      <c r="C53" s="145"/>
-      <c r="D53" s="145"/>
+      <c r="B53" s="143"/>
+      <c r="C53" s="143"/>
+      <c r="D53" s="143"/>
       <c r="E53" s="28"/>
       <c r="F53" s="21"/>
     </row>
     <row r="54" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A54" s="21"/>
-      <c r="B54" s="145" t="s">
+      <c r="B54" s="143" t="s">
         <v>33</v>
       </c>
-      <c r="C54" s="145"/>
-      <c r="D54" s="145"/>
+      <c r="C54" s="143"/>
+      <c r="D54" s="143"/>
       <c r="E54" s="28"/>
       <c r="F54" s="21"/>
     </row>
     <row r="55" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A55" s="21"/>
-      <c r="B55" s="145"/>
-      <c r="C55" s="145"/>
-      <c r="D55" s="145"/>
+      <c r="B55" s="143"/>
+      <c r="C55" s="143"/>
+      <c r="D55" s="143"/>
       <c r="E55" s="28"/>
       <c r="F55" s="21"/>
     </row>
     <row r="56" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A56" s="21"/>
-      <c r="B56" s="145" t="s">
+      <c r="B56" s="143" t="s">
         <v>34</v>
       </c>
-      <c r="C56" s="145"/>
-      <c r="D56" s="145"/>
+      <c r="C56" s="143"/>
+      <c r="D56" s="143"/>
       <c r="E56" s="28"/>
       <c r="F56" s="21"/>
     </row>
     <row r="57" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A57" s="21"/>
-      <c r="B57" s="145"/>
-      <c r="C57" s="145"/>
-      <c r="D57" s="145"/>
+      <c r="B57" s="143"/>
+      <c r="C57" s="143"/>
+      <c r="D57" s="143"/>
       <c r="E57" s="28"/>
       <c r="F57" s="21"/>
     </row>
     <row r="58" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A58" s="21"/>
-      <c r="B58" s="145" t="s">
+      <c r="B58" s="143" t="s">
         <v>61</v>
       </c>
-      <c r="C58" s="145"/>
-      <c r="D58" s="145"/>
+      <c r="C58" s="143"/>
+      <c r="D58" s="143"/>
       <c r="E58" s="28"/>
       <c r="F58" s="21"/>
     </row>
     <row r="59" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A59" s="21"/>
-      <c r="B59" s="145"/>
-      <c r="C59" s="145"/>
-      <c r="D59" s="145"/>
+      <c r="B59" s="143"/>
+      <c r="C59" s="143"/>
+      <c r="D59" s="143"/>
       <c r="E59" s="28"/>
       <c r="F59" s="21"/>
     </row>
     <row r="60" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A60" s="21"/>
-      <c r="B60" s="145"/>
-      <c r="C60" s="145"/>
-      <c r="D60" s="145"/>
+      <c r="B60" s="143"/>
+      <c r="C60" s="143"/>
+      <c r="D60" s="143"/>
       <c r="E60" s="28"/>
       <c r="F60" s="21"/>
     </row>
     <row r="61" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A61" s="21"/>
-      <c r="B61" s="145"/>
-      <c r="C61" s="145"/>
-      <c r="D61" s="145"/>
+      <c r="B61" s="143"/>
+      <c r="C61" s="143"/>
+      <c r="D61" s="143"/>
       <c r="E61" s="28"/>
       <c r="F61" s="21"/>
     </row>
     <row r="62" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A62" s="21"/>
-      <c r="B62" s="145"/>
-      <c r="C62" s="145"/>
-      <c r="D62" s="145"/>
+      <c r="B62" s="143"/>
+      <c r="C62" s="143"/>
+      <c r="D62" s="143"/>
       <c r="E62" s="28"/>
       <c r="F62" s="21"/>
     </row>
     <row r="63" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A63" s="21"/>
-      <c r="B63" s="145"/>
-      <c r="C63" s="145"/>
-      <c r="D63" s="145"/>
+      <c r="B63" s="143"/>
+      <c r="C63" s="143"/>
+      <c r="D63" s="143"/>
       <c r="E63" s="28"/>
       <c r="F63" s="21"/>
     </row>
     <row r="64" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A64" s="21"/>
-      <c r="B64" s="145"/>
-      <c r="C64" s="145"/>
-      <c r="D64" s="145"/>
+      <c r="B64" s="143"/>
+      <c r="C64" s="143"/>
+      <c r="D64" s="143"/>
       <c r="E64" s="28"/>
       <c r="F64" s="21"/>
     </row>
@@ -4258,17 +5148,17 @@
     </row>
     <row r="67" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A67" s="21"/>
-      <c r="B67" s="145"/>
-      <c r="C67" s="145"/>
-      <c r="D67" s="145"/>
+      <c r="B67" s="143"/>
+      <c r="C67" s="143"/>
+      <c r="D67" s="143"/>
       <c r="E67" s="28"/>
       <c r="F67" s="21"/>
     </row>
     <row r="68" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="21"/>
-      <c r="B68" s="145"/>
-      <c r="C68" s="145"/>
-      <c r="D68" s="145"/>
+      <c r="B68" s="143"/>
+      <c r="C68" s="143"/>
+      <c r="D68" s="143"/>
       <c r="E68" s="28"/>
       <c r="F68" s="21"/>
     </row>
@@ -4375,19 +5265,19 @@
     </row>
     <row r="77" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A77" s="21"/>
-      <c r="B77" s="149"/>
-      <c r="C77" s="149"/>
-      <c r="D77" s="149"/>
+      <c r="B77" s="145"/>
+      <c r="C77" s="145"/>
+      <c r="D77" s="145"/>
       <c r="E77" s="36"/>
       <c r="F77" s="21"/>
     </row>
     <row r="78" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A78" s="21"/>
-      <c r="B78" s="146" t="s">
+      <c r="B78" s="150" t="s">
         <v>18</v>
       </c>
-      <c r="C78" s="146"/>
-      <c r="D78" s="146"/>
+      <c r="C78" s="150"/>
+      <c r="D78" s="150"/>
       <c r="E78" s="36">
         <v>0</v>
       </c>
@@ -4395,9 +5285,9 @@
     </row>
     <row r="79" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A79" s="21"/>
-      <c r="B79" s="149"/>
-      <c r="C79" s="149"/>
-      <c r="D79" s="149"/>
+      <c r="B79" s="145"/>
+      <c r="C79" s="145"/>
+      <c r="D79" s="145"/>
       <c r="E79" s="36"/>
       <c r="F79" s="21"/>
     </row>
@@ -4432,31 +5322,31 @@
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A83" s="21"/>
-      <c r="B83" s="143"/>
-      <c r="C83" s="143"/>
-      <c r="D83" s="143"/>
-      <c r="E83" s="143"/>
+      <c r="B83" s="148"/>
+      <c r="C83" s="148"/>
+      <c r="D83" s="148"/>
+      <c r="E83" s="148"/>
       <c r="F83" s="21"/>
     </row>
     <row r="84" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A84" s="151" t="s">
+      <c r="A84" s="142" t="s">
         <v>29</v>
       </c>
-      <c r="B84" s="151"/>
-      <c r="C84" s="151"/>
-      <c r="D84" s="151"/>
-      <c r="E84" s="151"/>
-      <c r="F84" s="151"/>
+      <c r="B84" s="142"/>
+      <c r="C84" s="142"/>
+      <c r="D84" s="142"/>
+      <c r="E84" s="142"/>
+      <c r="F84" s="142"/>
     </row>
     <row r="85" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A85" s="147" t="s">
+      <c r="A85" s="151" t="s">
         <v>30</v>
       </c>
-      <c r="B85" s="147"/>
-      <c r="C85" s="147"/>
-      <c r="D85" s="147"/>
-      <c r="E85" s="147"/>
-      <c r="F85" s="147"/>
+      <c r="B85" s="151"/>
+      <c r="C85" s="151"/>
+      <c r="D85" s="151"/>
+      <c r="E85" s="151"/>
+      <c r="F85" s="151"/>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A86" s="21"/>
@@ -4468,26 +5358,786 @@
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A87" s="21"/>
-      <c r="B87" s="144"/>
-      <c r="C87" s="144"/>
-      <c r="D87" s="144"/>
-      <c r="E87" s="144"/>
+      <c r="B87" s="149"/>
+      <c r="C87" s="149"/>
+      <c r="D87" s="149"/>
+      <c r="E87" s="149"/>
       <c r="F87" s="21"/>
     </row>
     <row r="88" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A88" s="150" t="s">
+      <c r="A88" s="141" t="s">
         <v>7</v>
       </c>
-      <c r="B88" s="150"/>
-      <c r="C88" s="150"/>
-      <c r="D88" s="150"/>
-      <c r="E88" s="150"/>
-      <c r="F88" s="150"/>
+      <c r="B88" s="141"/>
+      <c r="C88" s="141"/>
+      <c r="D88" s="141"/>
+      <c r="E88" s="141"/>
+      <c r="F88" s="141"/>
     </row>
     <row r="90" spans="1:6" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B90" s="141"/>
-      <c r="C90" s="142"/>
-      <c r="D90" s="142"/>
+      <c r="B90" s="146"/>
+      <c r="C90" s="147"/>
+      <c r="D90" s="147"/>
+    </row>
+    <row r="91" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B92" s="16"/>
+      <c r="C92" s="16"/>
+      <c r="D92" s="16"/>
+    </row>
+  </sheetData>
+  <mergeCells count="44">
+    <mergeCell ref="B43:D43"/>
+    <mergeCell ref="A30:F30"/>
+    <mergeCell ref="B33:D33"/>
+    <mergeCell ref="B34:D34"/>
+    <mergeCell ref="B35:D35"/>
+    <mergeCell ref="B36:D36"/>
+    <mergeCell ref="B37:D37"/>
+    <mergeCell ref="B38:D38"/>
+    <mergeCell ref="B39:D39"/>
+    <mergeCell ref="B40:D40"/>
+    <mergeCell ref="B41:D41"/>
+    <mergeCell ref="B42:D42"/>
+    <mergeCell ref="B55:D55"/>
+    <mergeCell ref="B44:D44"/>
+    <mergeCell ref="B45:D45"/>
+    <mergeCell ref="B46:D46"/>
+    <mergeCell ref="B47:D47"/>
+    <mergeCell ref="B48:D48"/>
+    <mergeCell ref="B49:D49"/>
+    <mergeCell ref="B50:D50"/>
+    <mergeCell ref="B51:D51"/>
+    <mergeCell ref="B52:D52"/>
+    <mergeCell ref="B53:D53"/>
+    <mergeCell ref="B54:D54"/>
+    <mergeCell ref="B77:D77"/>
+    <mergeCell ref="B56:D56"/>
+    <mergeCell ref="B57:D57"/>
+    <mergeCell ref="B58:D58"/>
+    <mergeCell ref="B59:D59"/>
+    <mergeCell ref="B60:D60"/>
+    <mergeCell ref="B61:D61"/>
+    <mergeCell ref="B62:D62"/>
+    <mergeCell ref="B63:D63"/>
+    <mergeCell ref="B64:D64"/>
+    <mergeCell ref="B67:D67"/>
+    <mergeCell ref="B68:D68"/>
+    <mergeCell ref="A88:F88"/>
+    <mergeCell ref="B90:D90"/>
+    <mergeCell ref="B78:D78"/>
+    <mergeCell ref="B79:D79"/>
+    <mergeCell ref="B83:E83"/>
+    <mergeCell ref="A84:F84"/>
+    <mergeCell ref="A85:F85"/>
+    <mergeCell ref="B87:E87"/>
+  </mergeCells>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B77:B79 B12:B20 B33:B68" xr:uid="{9872749B-12C9-405E-8FB9-B369F1A7434D}">
+      <formula1>Liste_Activités</formula1>
+    </dataValidation>
+  </dataValidations>
+  <printOptions horizontalCentered="1"/>
+  <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
+  <pageSetup paperSize="131" scale="33" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <headerFooter scaleWithDoc="0" alignWithMargins="0"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB7E2FEB-1A1B-435C-983E-EC4F4D401881}">
+  <sheetPr codeName="Feuil4">
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A12:F92"/>
+  <sheetViews>
+    <sheetView view="pageBreakPreview" topLeftCell="A46" zoomScale="80" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="5.140625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="120" style="2" customWidth="1"/>
+    <col min="3" max="3" width="11.5703125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="17.5703125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="17.7109375" style="2" customWidth="1"/>
+    <col min="6" max="6" width="10.5703125" style="2" customWidth="1"/>
+    <col min="7" max="16384" width="11.42578125" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="12" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B12" s="3"/>
+      <c r="E12" s="4"/>
+    </row>
+    <row r="13" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B13" s="3"/>
+      <c r="E13" s="4"/>
+    </row>
+    <row r="14" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B14" s="3"/>
+      <c r="E14" s="4"/>
+    </row>
+    <row r="15" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B15" s="3"/>
+      <c r="E15" s="4"/>
+    </row>
+    <row r="16" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B16" s="3"/>
+      <c r="E16" s="4"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B17" s="3"/>
+      <c r="E17" s="4"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B18" s="3"/>
+      <c r="E18" s="4"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B19" s="3"/>
+      <c r="E19" s="4"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B20" s="3"/>
+      <c r="E20" s="4"/>
+    </row>
+    <row r="21" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+      <c r="A21" s="17"/>
+      <c r="B21" s="25" t="s">
+        <v>72</v>
+      </c>
+      <c r="C21" s="21"/>
+      <c r="D21" s="21"/>
+      <c r="E21" s="21"/>
+      <c r="F21" s="21"/>
+    </row>
+    <row r="22" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+      <c r="A22" s="17"/>
+      <c r="B22" s="26"/>
+      <c r="C22" s="21"/>
+      <c r="D22" s="21"/>
+      <c r="E22" s="21"/>
+      <c r="F22" s="21"/>
+    </row>
+    <row r="23" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+      <c r="A23" s="17"/>
+      <c r="B23" s="26"/>
+      <c r="C23" s="21"/>
+      <c r="D23" s="21"/>
+      <c r="E23" s="21"/>
+      <c r="F23" s="21"/>
+    </row>
+    <row r="24" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+      <c r="A24" s="17"/>
+      <c r="B24" s="25" t="s">
+        <v>41</v>
+      </c>
+      <c r="C24" s="21"/>
+      <c r="D24" s="21"/>
+      <c r="E24" s="21"/>
+      <c r="F24" s="21"/>
+    </row>
+    <row r="25" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+      <c r="A25" s="17"/>
+      <c r="B25" s="25" t="s">
+        <v>40</v>
+      </c>
+      <c r="C25" s="21"/>
+      <c r="D25" s="21"/>
+      <c r="E25" s="21"/>
+      <c r="F25" s="21"/>
+    </row>
+    <row r="26" spans="1:6" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="17"/>
+      <c r="B26" s="53" t="s">
+        <v>66</v>
+      </c>
+      <c r="C26" s="21"/>
+      <c r="D26" s="21"/>
+      <c r="E26" s="21"/>
+      <c r="F26" s="21"/>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A27" s="18"/>
+      <c r="B27" s="21"/>
+      <c r="C27" s="23"/>
+      <c r="D27" s="23"/>
+      <c r="E27" s="24"/>
+      <c r="F27" s="21"/>
+    </row>
+    <row r="28" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+      <c r="A28" s="17"/>
+      <c r="B28" s="23"/>
+      <c r="C28" s="23"/>
+      <c r="D28" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="E28" s="27" t="s">
+        <v>68</v>
+      </c>
+      <c r="F28" s="21"/>
+    </row>
+    <row r="29" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="19"/>
+      <c r="B29" s="19"/>
+      <c r="C29" s="19"/>
+      <c r="D29" s="19"/>
+      <c r="E29" s="19"/>
+      <c r="F29" s="20"/>
+    </row>
+    <row r="30" spans="1:6" s="40" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="144" t="s">
+        <v>0</v>
+      </c>
+      <c r="B30" s="144"/>
+      <c r="C30" s="144"/>
+      <c r="D30" s="144"/>
+      <c r="E30" s="144"/>
+      <c r="F30" s="144"/>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A31" s="17"/>
+      <c r="B31" s="18"/>
+      <c r="C31" s="17"/>
+      <c r="D31" s="17"/>
+      <c r="E31" s="17"/>
+    </row>
+    <row r="32" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A32" s="21"/>
+      <c r="B32" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="C32" s="22"/>
+      <c r="D32" s="22"/>
+      <c r="E32" s="28"/>
+      <c r="F32" s="21"/>
+    </row>
+    <row r="33" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A33" s="21"/>
+      <c r="B33" s="143"/>
+      <c r="C33" s="143"/>
+      <c r="D33" s="143"/>
+      <c r="E33" s="28"/>
+      <c r="F33" s="21"/>
+    </row>
+    <row r="34" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A34" s="21"/>
+      <c r="B34" s="143" t="s">
+        <v>69</v>
+      </c>
+      <c r="C34" s="143"/>
+      <c r="D34" s="143"/>
+      <c r="E34" s="28"/>
+      <c r="F34" s="21"/>
+    </row>
+    <row r="35" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A35" s="21"/>
+      <c r="B35" s="143"/>
+      <c r="C35" s="143"/>
+      <c r="D35" s="143"/>
+      <c r="E35" s="28"/>
+      <c r="F35" s="21"/>
+    </row>
+    <row r="36" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A36" s="21"/>
+      <c r="B36" s="143" t="s">
+        <v>34</v>
+      </c>
+      <c r="C36" s="143"/>
+      <c r="D36" s="143"/>
+      <c r="E36" s="28"/>
+      <c r="F36" s="21"/>
+    </row>
+    <row r="37" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A37" s="21"/>
+      <c r="B37" s="143"/>
+      <c r="C37" s="143"/>
+      <c r="D37" s="143"/>
+      <c r="E37" s="28"/>
+      <c r="F37" s="21"/>
+    </row>
+    <row r="38" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A38" s="21"/>
+      <c r="B38" s="143" t="s">
+        <v>9</v>
+      </c>
+      <c r="C38" s="143"/>
+      <c r="D38" s="143"/>
+      <c r="E38" s="28"/>
+      <c r="F38" s="21"/>
+    </row>
+    <row r="39" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A39" s="21"/>
+      <c r="B39" s="143"/>
+      <c r="C39" s="143"/>
+      <c r="D39" s="143"/>
+      <c r="E39" s="28"/>
+      <c r="F39" s="21"/>
+    </row>
+    <row r="40" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A40" s="21"/>
+      <c r="B40" s="143" t="s">
+        <v>70</v>
+      </c>
+      <c r="C40" s="143"/>
+      <c r="D40" s="143"/>
+      <c r="E40" s="28"/>
+      <c r="F40" s="21"/>
+    </row>
+    <row r="41" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A41" s="21"/>
+      <c r="B41" s="143"/>
+      <c r="C41" s="143"/>
+      <c r="D41" s="143"/>
+      <c r="E41" s="28"/>
+      <c r="F41" s="21"/>
+    </row>
+    <row r="42" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A42" s="21"/>
+      <c r="B42" s="143" t="s">
+        <v>61</v>
+      </c>
+      <c r="C42" s="143"/>
+      <c r="D42" s="143"/>
+      <c r="E42" s="28"/>
+      <c r="F42" s="21"/>
+    </row>
+    <row r="43" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A43" s="21"/>
+      <c r="B43" s="143"/>
+      <c r="C43" s="143"/>
+      <c r="D43" s="143"/>
+      <c r="E43" s="28"/>
+      <c r="F43" s="21"/>
+    </row>
+    <row r="44" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A44" s="21"/>
+      <c r="B44" s="143" t="s">
+        <v>71</v>
+      </c>
+      <c r="C44" s="143"/>
+      <c r="D44" s="143"/>
+      <c r="E44" s="28"/>
+      <c r="F44" s="21"/>
+    </row>
+    <row r="45" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A45" s="21"/>
+      <c r="B45" s="143"/>
+      <c r="C45" s="143"/>
+      <c r="D45" s="143"/>
+      <c r="E45" s="28"/>
+      <c r="F45" s="21"/>
+    </row>
+    <row r="46" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A46" s="21"/>
+      <c r="B46" s="143"/>
+      <c r="C46" s="143"/>
+      <c r="D46" s="143"/>
+      <c r="E46" s="28"/>
+      <c r="F46" s="21"/>
+    </row>
+    <row r="47" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A47" s="21"/>
+      <c r="B47" s="143"/>
+      <c r="C47" s="143"/>
+      <c r="D47" s="143"/>
+      <c r="E47" s="28"/>
+      <c r="F47" s="21"/>
+    </row>
+    <row r="48" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A48" s="21"/>
+      <c r="B48" s="143"/>
+      <c r="C48" s="143"/>
+      <c r="D48" s="143"/>
+      <c r="E48" s="28"/>
+      <c r="F48" s="21"/>
+    </row>
+    <row r="49" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A49" s="21"/>
+      <c r="B49" s="143"/>
+      <c r="C49" s="143"/>
+      <c r="D49" s="143"/>
+      <c r="E49" s="28"/>
+      <c r="F49" s="21"/>
+    </row>
+    <row r="50" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A50" s="21"/>
+      <c r="B50" s="143"/>
+      <c r="C50" s="143"/>
+      <c r="D50" s="143"/>
+      <c r="E50" s="28"/>
+      <c r="F50" s="21"/>
+    </row>
+    <row r="51" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A51" s="21"/>
+      <c r="B51" s="143"/>
+      <c r="C51" s="143"/>
+      <c r="D51" s="143"/>
+      <c r="E51" s="28"/>
+      <c r="F51" s="21"/>
+    </row>
+    <row r="52" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A52" s="21"/>
+      <c r="B52" s="143"/>
+      <c r="C52" s="143"/>
+      <c r="D52" s="143"/>
+      <c r="E52" s="28"/>
+      <c r="F52" s="21"/>
+    </row>
+    <row r="53" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A53" s="21"/>
+      <c r="B53" s="143"/>
+      <c r="C53" s="143"/>
+      <c r="D53" s="143"/>
+      <c r="E53" s="28"/>
+      <c r="F53" s="21"/>
+    </row>
+    <row r="54" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A54" s="21"/>
+      <c r="B54" s="143"/>
+      <c r="C54" s="143"/>
+      <c r="D54" s="143"/>
+      <c r="E54" s="28"/>
+      <c r="F54" s="21"/>
+    </row>
+    <row r="55" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A55" s="21"/>
+      <c r="B55" s="143"/>
+      <c r="C55" s="143"/>
+      <c r="D55" s="143"/>
+      <c r="E55" s="28"/>
+      <c r="F55" s="21"/>
+    </row>
+    <row r="56" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A56" s="21"/>
+      <c r="B56" s="143"/>
+      <c r="C56" s="143"/>
+      <c r="D56" s="143"/>
+      <c r="E56" s="28"/>
+      <c r="F56" s="21"/>
+    </row>
+    <row r="57" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A57" s="21"/>
+      <c r="B57" s="143"/>
+      <c r="C57" s="143"/>
+      <c r="D57" s="143"/>
+      <c r="E57" s="28"/>
+      <c r="F57" s="21"/>
+    </row>
+    <row r="58" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A58" s="21"/>
+      <c r="B58" s="143"/>
+      <c r="C58" s="143"/>
+      <c r="D58" s="143"/>
+      <c r="E58" s="28"/>
+      <c r="F58" s="21"/>
+    </row>
+    <row r="59" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A59" s="21"/>
+      <c r="B59" s="143"/>
+      <c r="C59" s="143"/>
+      <c r="D59" s="143"/>
+      <c r="E59" s="28"/>
+      <c r="F59" s="21"/>
+    </row>
+    <row r="60" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A60" s="21"/>
+      <c r="B60" s="143"/>
+      <c r="C60" s="143"/>
+      <c r="D60" s="143"/>
+      <c r="E60" s="28"/>
+      <c r="F60" s="21"/>
+    </row>
+    <row r="61" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A61" s="21"/>
+      <c r="B61" s="143"/>
+      <c r="C61" s="143"/>
+      <c r="D61" s="143"/>
+      <c r="E61" s="28"/>
+      <c r="F61" s="21"/>
+    </row>
+    <row r="62" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A62" s="21"/>
+      <c r="B62" s="143"/>
+      <c r="C62" s="143"/>
+      <c r="D62" s="143"/>
+      <c r="E62" s="28"/>
+      <c r="F62" s="21"/>
+    </row>
+    <row r="63" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A63" s="21"/>
+      <c r="B63" s="143"/>
+      <c r="C63" s="143"/>
+      <c r="D63" s="143"/>
+      <c r="E63" s="28"/>
+      <c r="F63" s="21"/>
+    </row>
+    <row r="64" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A64" s="21"/>
+      <c r="B64" s="143"/>
+      <c r="C64" s="143"/>
+      <c r="D64" s="143"/>
+      <c r="E64" s="28"/>
+      <c r="F64" s="21"/>
+    </row>
+    <row r="65" spans="1:6" s="50" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A65" s="46"/>
+      <c r="B65" s="47"/>
+      <c r="C65" s="48" t="s">
+        <v>37</v>
+      </c>
+      <c r="D65" s="48" t="s">
+        <v>38</v>
+      </c>
+      <c r="E65" s="49"/>
+      <c r="F65" s="46"/>
+    </row>
+    <row r="66" spans="1:6" s="50" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A66" s="46"/>
+      <c r="B66" s="47"/>
+      <c r="C66" s="51">
+        <v>8.5</v>
+      </c>
+      <c r="D66" s="52">
+        <v>350</v>
+      </c>
+      <c r="E66" s="49"/>
+      <c r="F66" s="46"/>
+    </row>
+    <row r="67" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A67" s="21"/>
+      <c r="B67" s="143"/>
+      <c r="C67" s="143"/>
+      <c r="D67" s="143"/>
+      <c r="E67" s="28"/>
+      <c r="F67" s="21"/>
+    </row>
+    <row r="68" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A68" s="21"/>
+      <c r="B68" s="143"/>
+      <c r="C68" s="143"/>
+      <c r="D68" s="143"/>
+      <c r="E68" s="28"/>
+      <c r="F68" s="21"/>
+    </row>
+    <row r="69" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A69" s="21"/>
+      <c r="B69" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="C69" s="26"/>
+      <c r="D69" s="26"/>
+      <c r="E69" s="29">
+        <f>D66*C66</f>
+        <v>2975</v>
+      </c>
+      <c r="F69" s="21"/>
+    </row>
+    <row r="70" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A70" s="21"/>
+      <c r="B70" s="34" t="s">
+        <v>12</v>
+      </c>
+      <c r="C70" s="26"/>
+      <c r="D70" s="26"/>
+      <c r="E70" s="30">
+        <v>0</v>
+      </c>
+      <c r="F70" s="21"/>
+    </row>
+    <row r="71" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A71" s="21"/>
+      <c r="B71" s="34" t="s">
+        <v>13</v>
+      </c>
+      <c r="C71" s="26"/>
+      <c r="D71" s="26"/>
+      <c r="E71" s="30">
+        <v>0</v>
+      </c>
+      <c r="F71" s="21"/>
+    </row>
+    <row r="72" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A72" s="21"/>
+      <c r="B72" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="C72" s="26"/>
+      <c r="D72" s="26"/>
+      <c r="E72" s="29">
+        <f>SUM(E69:E71)</f>
+        <v>2975</v>
+      </c>
+      <c r="F72" s="21"/>
+    </row>
+    <row r="73" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A73" s="21"/>
+      <c r="B73" s="26" t="s">
+        <v>5</v>
+      </c>
+      <c r="C73" s="31">
+        <v>0.05</v>
+      </c>
+      <c r="D73" s="26"/>
+      <c r="E73" s="35">
+        <f>ROUND(E72*C73,2)</f>
+        <v>148.75</v>
+      </c>
+      <c r="F73" s="21"/>
+    </row>
+    <row r="74" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A74" s="21"/>
+      <c r="B74" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="C74" s="42">
+        <v>9.9750000000000005E-2</v>
+      </c>
+      <c r="D74" s="26"/>
+      <c r="E74" s="43">
+        <f>ROUND(E72*C74,2)</f>
+        <v>296.76</v>
+      </c>
+      <c r="F74" s="21"/>
+    </row>
+    <row r="75" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A75" s="21"/>
+      <c r="B75" s="26"/>
+      <c r="C75" s="26"/>
+      <c r="D75" s="26"/>
+      <c r="E75" s="32"/>
+      <c r="F75" s="21"/>
+    </row>
+    <row r="76" spans="1:6" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="21"/>
+      <c r="B76" s="25" t="s">
+        <v>16</v>
+      </c>
+      <c r="C76" s="26"/>
+      <c r="D76" s="26"/>
+      <c r="E76" s="33">
+        <f>SUM(E72:E74)</f>
+        <v>3420.51</v>
+      </c>
+      <c r="F76" s="21"/>
+    </row>
+    <row r="77" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A77" s="21"/>
+      <c r="B77" s="145"/>
+      <c r="C77" s="145"/>
+      <c r="D77" s="145"/>
+      <c r="E77" s="36"/>
+      <c r="F77" s="21"/>
+    </row>
+    <row r="78" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+      <c r="A78" s="21"/>
+      <c r="B78" s="150" t="s">
+        <v>18</v>
+      </c>
+      <c r="C78" s="150"/>
+      <c r="D78" s="150"/>
+      <c r="E78" s="36">
+        <v>0</v>
+      </c>
+      <c r="F78" s="21"/>
+    </row>
+    <row r="79" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+      <c r="A79" s="21"/>
+      <c r="B79" s="145"/>
+      <c r="C79" s="145"/>
+      <c r="D79" s="145"/>
+      <c r="E79" s="36"/>
+      <c r="F79" s="21"/>
+    </row>
+    <row r="80" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A80" s="21"/>
+      <c r="B80" s="37" t="s">
+        <v>17</v>
+      </c>
+      <c r="C80" s="38"/>
+      <c r="D80" s="38"/>
+      <c r="E80" s="39">
+        <f>E76-E78</f>
+        <v>3420.51</v>
+      </c>
+      <c r="F80" s="21"/>
+    </row>
+    <row r="81" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A81" s="21"/>
+      <c r="B81" s="21"/>
+      <c r="C81" s="21"/>
+      <c r="D81" s="21"/>
+      <c r="E81" s="21"/>
+      <c r="F81" s="21"/>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A82" s="21"/>
+      <c r="B82" s="21"/>
+      <c r="C82" s="21"/>
+      <c r="D82" s="21"/>
+      <c r="E82" s="21"/>
+      <c r="F82" s="21"/>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A83" s="21"/>
+      <c r="B83" s="148"/>
+      <c r="C83" s="148"/>
+      <c r="D83" s="148"/>
+      <c r="E83" s="148"/>
+      <c r="F83" s="21"/>
+    </row>
+    <row r="84" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A84" s="142" t="s">
+        <v>29</v>
+      </c>
+      <c r="B84" s="142"/>
+      <c r="C84" s="142"/>
+      <c r="D84" s="142"/>
+      <c r="E84" s="142"/>
+      <c r="F84" s="142"/>
+    </row>
+    <row r="85" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A85" s="151" t="s">
+        <v>30</v>
+      </c>
+      <c r="B85" s="151"/>
+      <c r="C85" s="151"/>
+      <c r="D85" s="151"/>
+      <c r="E85" s="151"/>
+      <c r="F85" s="151"/>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A86" s="21"/>
+      <c r="B86" s="21"/>
+      <c r="C86" s="21"/>
+      <c r="D86" s="21"/>
+      <c r="E86" s="21"/>
+      <c r="F86" s="21"/>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A87" s="21"/>
+      <c r="B87" s="149"/>
+      <c r="C87" s="149"/>
+      <c r="D87" s="149"/>
+      <c r="E87" s="149"/>
+      <c r="F87" s="21"/>
+    </row>
+    <row r="88" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+      <c r="A88" s="141" t="s">
+        <v>7</v>
+      </c>
+      <c r="B88" s="141"/>
+      <c r="C88" s="141"/>
+      <c r="D88" s="141"/>
+      <c r="E88" s="141"/>
+      <c r="F88" s="141"/>
+    </row>
+    <row r="90" spans="1:6" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B90" s="146"/>
+      <c r="C90" s="147"/>
+      <c r="D90" s="147"/>
     </row>
     <row r="91" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="92" spans="1:6" x14ac:dyDescent="0.2">
@@ -4543,27 +6193,27 @@
     <mergeCell ref="B42:D42"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B77:B79 B12:B20 B33:B68" xr:uid="{9872749B-12C9-405E-8FB9-B369F1A7434D}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B77:B79 B12:B20 B33:B68" xr:uid="{0752F961-DE68-4C99-B978-FD2C8C740CFF}">
       <formula1>Liste_Activités</formula1>
     </dataValidation>
   </dataValidations>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
-  <pageSetup paperSize="131" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <pageSetup paperSize="131" scale="33" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
   <headerFooter scaleWithDoc="0" alignWithMargins="0"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB7E2FEB-1A1B-435C-983E-EC4F4D401881}">
-  <sheetPr>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E09EE0B7-D48F-463F-AB70-7B1459EC40F2}">
+  <sheetPr codeName="Feuil5">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A12:F92"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A46" zoomScale="80" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView view="pageBreakPreview" topLeftCell="A28" zoomScale="80" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
+      <selection activeCell="B67" sqref="B67:D67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -4616,7 +6266,7 @@
     <row r="21" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A21" s="17"/>
       <c r="B21" s="25" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C21" s="21"/>
       <c r="D21" s="21"/>
@@ -4685,7 +6335,7 @@
         <v>11</v>
       </c>
       <c r="E28" s="27" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="F28" s="21"/>
     </row>
@@ -4698,14 +6348,14 @@
       <c r="F29" s="20"/>
     </row>
     <row r="30" spans="1:6" s="40" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="148" t="s">
+      <c r="A30" s="144" t="s">
         <v>0</v>
       </c>
-      <c r="B30" s="148"/>
-      <c r="C30" s="148"/>
-      <c r="D30" s="148"/>
-      <c r="E30" s="148"/>
-      <c r="F30" s="148"/>
+      <c r="B30" s="144"/>
+      <c r="C30" s="144"/>
+      <c r="D30" s="144"/>
+      <c r="E30" s="144"/>
+      <c r="F30" s="144"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" s="17"/>
@@ -4726,269 +6376,265 @@
     </row>
     <row r="33" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A33" s="21"/>
-      <c r="B33" s="145"/>
-      <c r="C33" s="145"/>
-      <c r="D33" s="145"/>
+      <c r="B33" s="143"/>
+      <c r="C33" s="143"/>
+      <c r="D33" s="143"/>
       <c r="E33" s="28"/>
       <c r="F33" s="21"/>
     </row>
     <row r="34" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A34" s="21"/>
-      <c r="B34" s="145" t="s">
-        <v>69</v>
-      </c>
-      <c r="C34" s="145"/>
-      <c r="D34" s="145"/>
+      <c r="B34" s="143" t="s">
+        <v>75</v>
+      </c>
+      <c r="C34" s="143"/>
+      <c r="D34" s="143"/>
       <c r="E34" s="28"/>
       <c r="F34" s="21"/>
     </row>
     <row r="35" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A35" s="21"/>
-      <c r="B35" s="145"/>
-      <c r="C35" s="145"/>
-      <c r="D35" s="145"/>
+      <c r="B35" s="143"/>
+      <c r="C35" s="143"/>
+      <c r="D35" s="143"/>
       <c r="E35" s="28"/>
       <c r="F35" s="21"/>
     </row>
     <row r="36" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A36" s="21"/>
-      <c r="B36" s="145" t="s">
-        <v>34</v>
-      </c>
-      <c r="C36" s="145"/>
-      <c r="D36" s="145"/>
+      <c r="B36" s="143" t="s">
+        <v>61</v>
+      </c>
+      <c r="C36" s="143"/>
+      <c r="D36" s="143"/>
       <c r="E36" s="28"/>
       <c r="F36" s="21"/>
     </row>
     <row r="37" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A37" s="21"/>
-      <c r="B37" s="145"/>
-      <c r="C37" s="145"/>
-      <c r="D37" s="145"/>
+      <c r="B37" s="143"/>
+      <c r="C37" s="143"/>
+      <c r="D37" s="143"/>
       <c r="E37" s="28"/>
       <c r="F37" s="21"/>
     </row>
     <row r="38" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A38" s="21"/>
-      <c r="B38" s="145" t="s">
-        <v>9</v>
-      </c>
-      <c r="C38" s="145"/>
-      <c r="D38" s="145"/>
+      <c r="B38" s="143" t="s">
+        <v>49</v>
+      </c>
+      <c r="C38" s="143"/>
+      <c r="D38" s="143"/>
       <c r="E38" s="28"/>
       <c r="F38" s="21"/>
     </row>
     <row r="39" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A39" s="21"/>
-      <c r="B39" s="145"/>
-      <c r="C39" s="145"/>
-      <c r="D39" s="145"/>
+      <c r="B39" s="143"/>
+      <c r="C39" s="143"/>
+      <c r="D39" s="143"/>
       <c r="E39" s="28"/>
       <c r="F39" s="21"/>
     </row>
     <row r="40" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A40" s="21"/>
-      <c r="B40" s="145" t="s">
-        <v>70</v>
-      </c>
-      <c r="C40" s="145"/>
-      <c r="D40" s="145"/>
+      <c r="B40" s="143" t="s">
+        <v>76</v>
+      </c>
+      <c r="C40" s="143"/>
+      <c r="D40" s="143"/>
       <c r="E40" s="28"/>
       <c r="F40" s="21"/>
     </row>
     <row r="41" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A41" s="21"/>
-      <c r="B41" s="145"/>
-      <c r="C41" s="145"/>
-      <c r="D41" s="145"/>
+      <c r="B41" s="143"/>
+      <c r="C41" s="143"/>
+      <c r="D41" s="143"/>
       <c r="E41" s="28"/>
       <c r="F41" s="21"/>
     </row>
     <row r="42" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A42" s="21"/>
-      <c r="B42" s="145" t="s">
-        <v>61</v>
-      </c>
-      <c r="C42" s="145"/>
-      <c r="D42" s="145"/>
+      <c r="B42" s="143"/>
+      <c r="C42" s="143"/>
+      <c r="D42" s="143"/>
       <c r="E42" s="28"/>
       <c r="F42" s="21"/>
     </row>
     <row r="43" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A43" s="21"/>
-      <c r="B43" s="145"/>
-      <c r="C43" s="145"/>
-      <c r="D43" s="145"/>
+      <c r="B43" s="143"/>
+      <c r="C43" s="143"/>
+      <c r="D43" s="143"/>
       <c r="E43" s="28"/>
       <c r="F43" s="21"/>
     </row>
     <row r="44" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A44" s="21"/>
-      <c r="B44" s="145" t="s">
-        <v>71</v>
-      </c>
-      <c r="C44" s="145"/>
-      <c r="D44" s="145"/>
+      <c r="B44" s="143"/>
+      <c r="C44" s="143"/>
+      <c r="D44" s="143"/>
       <c r="E44" s="28"/>
       <c r="F44" s="21"/>
     </row>
     <row r="45" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A45" s="21"/>
-      <c r="B45" s="145"/>
-      <c r="C45" s="145"/>
-      <c r="D45" s="145"/>
+      <c r="B45" s="143"/>
+      <c r="C45" s="143"/>
+      <c r="D45" s="143"/>
       <c r="E45" s="28"/>
       <c r="F45" s="21"/>
     </row>
     <row r="46" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A46" s="21"/>
-      <c r="B46" s="145"/>
-      <c r="C46" s="145"/>
-      <c r="D46" s="145"/>
+      <c r="B46" s="143"/>
+      <c r="C46" s="143"/>
+      <c r="D46" s="143"/>
       <c r="E46" s="28"/>
       <c r="F46" s="21"/>
     </row>
     <row r="47" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A47" s="21"/>
-      <c r="B47" s="145"/>
-      <c r="C47" s="145"/>
-      <c r="D47" s="145"/>
+      <c r="B47" s="143"/>
+      <c r="C47" s="143"/>
+      <c r="D47" s="143"/>
       <c r="E47" s="28"/>
       <c r="F47" s="21"/>
     </row>
     <row r="48" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A48" s="21"/>
-      <c r="B48" s="145"/>
-      <c r="C48" s="145"/>
-      <c r="D48" s="145"/>
+      <c r="B48" s="143"/>
+      <c r="C48" s="143"/>
+      <c r="D48" s="143"/>
       <c r="E48" s="28"/>
       <c r="F48" s="21"/>
     </row>
     <row r="49" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A49" s="21"/>
-      <c r="B49" s="145"/>
-      <c r="C49" s="145"/>
-      <c r="D49" s="145"/>
+      <c r="B49" s="143"/>
+      <c r="C49" s="143"/>
+      <c r="D49" s="143"/>
       <c r="E49" s="28"/>
       <c r="F49" s="21"/>
     </row>
     <row r="50" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A50" s="21"/>
-      <c r="B50" s="145"/>
-      <c r="C50" s="145"/>
-      <c r="D50" s="145"/>
+      <c r="B50" s="143"/>
+      <c r="C50" s="143"/>
+      <c r="D50" s="143"/>
       <c r="E50" s="28"/>
       <c r="F50" s="21"/>
     </row>
     <row r="51" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A51" s="21"/>
-      <c r="B51" s="145"/>
-      <c r="C51" s="145"/>
-      <c r="D51" s="145"/>
+      <c r="B51" s="143"/>
+      <c r="C51" s="143"/>
+      <c r="D51" s="143"/>
       <c r="E51" s="28"/>
       <c r="F51" s="21"/>
     </row>
     <row r="52" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A52" s="21"/>
-      <c r="B52" s="145"/>
-      <c r="C52" s="145"/>
-      <c r="D52" s="145"/>
+      <c r="B52" s="143"/>
+      <c r="C52" s="143"/>
+      <c r="D52" s="143"/>
       <c r="E52" s="28"/>
       <c r="F52" s="21"/>
     </row>
     <row r="53" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A53" s="21"/>
-      <c r="B53" s="145"/>
-      <c r="C53" s="145"/>
-      <c r="D53" s="145"/>
+      <c r="B53" s="143"/>
+      <c r="C53" s="143"/>
+      <c r="D53" s="143"/>
       <c r="E53" s="28"/>
       <c r="F53" s="21"/>
     </row>
     <row r="54" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A54" s="21"/>
-      <c r="B54" s="145"/>
-      <c r="C54" s="145"/>
-      <c r="D54" s="145"/>
+      <c r="B54" s="143"/>
+      <c r="C54" s="143"/>
+      <c r="D54" s="143"/>
       <c r="E54" s="28"/>
       <c r="F54" s="21"/>
     </row>
     <row r="55" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A55" s="21"/>
-      <c r="B55" s="145"/>
-      <c r="C55" s="145"/>
-      <c r="D55" s="145"/>
+      <c r="B55" s="143"/>
+      <c r="C55" s="143"/>
+      <c r="D55" s="143"/>
       <c r="E55" s="28"/>
       <c r="F55" s="21"/>
     </row>
     <row r="56" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A56" s="21"/>
-      <c r="B56" s="145"/>
-      <c r="C56" s="145"/>
-      <c r="D56" s="145"/>
+      <c r="B56" s="143"/>
+      <c r="C56" s="143"/>
+      <c r="D56" s="143"/>
       <c r="E56" s="28"/>
       <c r="F56" s="21"/>
     </row>
     <row r="57" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A57" s="21"/>
-      <c r="B57" s="145"/>
-      <c r="C57" s="145"/>
-      <c r="D57" s="145"/>
+      <c r="B57" s="143"/>
+      <c r="C57" s="143"/>
+      <c r="D57" s="143"/>
       <c r="E57" s="28"/>
       <c r="F57" s="21"/>
     </row>
     <row r="58" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A58" s="21"/>
-      <c r="B58" s="145"/>
-      <c r="C58" s="145"/>
-      <c r="D58" s="145"/>
+      <c r="B58" s="143"/>
+      <c r="C58" s="143"/>
+      <c r="D58" s="143"/>
       <c r="E58" s="28"/>
       <c r="F58" s="21"/>
     </row>
     <row r="59" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A59" s="21"/>
-      <c r="B59" s="145"/>
-      <c r="C59" s="145"/>
-      <c r="D59" s="145"/>
+      <c r="B59" s="143"/>
+      <c r="C59" s="143"/>
+      <c r="D59" s="143"/>
       <c r="E59" s="28"/>
       <c r="F59" s="21"/>
     </row>
     <row r="60" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A60" s="21"/>
-      <c r="B60" s="145"/>
-      <c r="C60" s="145"/>
-      <c r="D60" s="145"/>
+      <c r="B60" s="143"/>
+      <c r="C60" s="143"/>
+      <c r="D60" s="143"/>
       <c r="E60" s="28"/>
       <c r="F60" s="21"/>
     </row>
     <row r="61" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A61" s="21"/>
-      <c r="B61" s="145"/>
-      <c r="C61" s="145"/>
-      <c r="D61" s="145"/>
+      <c r="B61" s="143"/>
+      <c r="C61" s="143"/>
+      <c r="D61" s="143"/>
       <c r="E61" s="28"/>
       <c r="F61" s="21"/>
     </row>
     <row r="62" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A62" s="21"/>
-      <c r="B62" s="145"/>
-      <c r="C62" s="145"/>
-      <c r="D62" s="145"/>
+      <c r="B62" s="143"/>
+      <c r="C62" s="143"/>
+      <c r="D62" s="143"/>
       <c r="E62" s="28"/>
       <c r="F62" s="21"/>
     </row>
     <row r="63" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A63" s="21"/>
-      <c r="B63" s="145"/>
-      <c r="C63" s="145"/>
-      <c r="D63" s="145"/>
+      <c r="B63" s="143"/>
+      <c r="C63" s="143"/>
+      <c r="D63" s="143"/>
       <c r="E63" s="28"/>
       <c r="F63" s="21"/>
     </row>
     <row r="64" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A64" s="21"/>
-      <c r="B64" s="145"/>
-      <c r="C64" s="145"/>
-      <c r="D64" s="145"/>
+      <c r="B64" s="143"/>
+      <c r="C64" s="143"/>
+      <c r="D64" s="143"/>
       <c r="E64" s="28"/>
       <c r="F64" s="21"/>
     </row>
@@ -5008,7 +6654,7 @@
       <c r="A66" s="46"/>
       <c r="B66" s="47"/>
       <c r="C66" s="51">
-        <v>8.5</v>
+        <v>6.5</v>
       </c>
       <c r="D66" s="52">
         <v>350</v>
@@ -5018,17 +6664,17 @@
     </row>
     <row r="67" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A67" s="21"/>
-      <c r="B67" s="145"/>
-      <c r="C67" s="145"/>
-      <c r="D67" s="145"/>
+      <c r="B67" s="143"/>
+      <c r="C67" s="143"/>
+      <c r="D67" s="143"/>
       <c r="E67" s="28"/>
       <c r="F67" s="21"/>
     </row>
     <row r="68" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="21"/>
-      <c r="B68" s="145"/>
-      <c r="C68" s="145"/>
-      <c r="D68" s="145"/>
+      <c r="B68" s="143"/>
+      <c r="C68" s="143"/>
+      <c r="D68" s="143"/>
       <c r="E68" s="28"/>
       <c r="F68" s="21"/>
     </row>
@@ -5041,7 +6687,7 @@
       <c r="D69" s="26"/>
       <c r="E69" s="29">
         <f>D66*C66</f>
-        <v>2975</v>
+        <v>2275</v>
       </c>
       <c r="F69" s="21"/>
     </row>
@@ -5078,7 +6724,7 @@
       <c r="D72" s="26"/>
       <c r="E72" s="29">
         <f>SUM(E69:E71)</f>
-        <v>2975</v>
+        <v>2275</v>
       </c>
       <c r="F72" s="21"/>
     </row>
@@ -5093,7 +6739,7 @@
       <c r="D73" s="26"/>
       <c r="E73" s="35">
         <f>ROUND(E72*C73,2)</f>
-        <v>148.75</v>
+        <v>113.75</v>
       </c>
       <c r="F73" s="21"/>
     </row>
@@ -5108,7 +6754,7 @@
       <c r="D74" s="26"/>
       <c r="E74" s="43">
         <f>ROUND(E72*C74,2)</f>
-        <v>296.76</v>
+        <v>226.93</v>
       </c>
       <c r="F74" s="21"/>
     </row>
@@ -5129,25 +6775,25 @@
       <c r="D76" s="26"/>
       <c r="E76" s="33">
         <f>SUM(E72:E74)</f>
-        <v>3420.51</v>
+        <v>2615.6799999999998</v>
       </c>
       <c r="F76" s="21"/>
     </row>
     <row r="77" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A77" s="21"/>
-      <c r="B77" s="149"/>
-      <c r="C77" s="149"/>
-      <c r="D77" s="149"/>
+      <c r="B77" s="145"/>
+      <c r="C77" s="145"/>
+      <c r="D77" s="145"/>
       <c r="E77" s="36"/>
       <c r="F77" s="21"/>
     </row>
     <row r="78" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A78" s="21"/>
-      <c r="B78" s="146" t="s">
+      <c r="B78" s="150" t="s">
         <v>18</v>
       </c>
-      <c r="C78" s="146"/>
-      <c r="D78" s="146"/>
+      <c r="C78" s="150"/>
+      <c r="D78" s="150"/>
       <c r="E78" s="36">
         <v>0</v>
       </c>
@@ -5155,9 +6801,9 @@
     </row>
     <row r="79" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A79" s="21"/>
-      <c r="B79" s="149"/>
-      <c r="C79" s="149"/>
-      <c r="D79" s="149"/>
+      <c r="B79" s="145"/>
+      <c r="C79" s="145"/>
+      <c r="D79" s="145"/>
       <c r="E79" s="36"/>
       <c r="F79" s="21"/>
     </row>
@@ -5170,7 +6816,7 @@
       <c r="D80" s="38"/>
       <c r="E80" s="39">
         <f>E76-E78</f>
-        <v>3420.51</v>
+        <v>2615.6799999999998</v>
       </c>
       <c r="F80" s="21"/>
     </row>
@@ -5192,31 +6838,31 @@
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A83" s="21"/>
-      <c r="B83" s="143"/>
-      <c r="C83" s="143"/>
-      <c r="D83" s="143"/>
-      <c r="E83" s="143"/>
+      <c r="B83" s="148"/>
+      <c r="C83" s="148"/>
+      <c r="D83" s="148"/>
+      <c r="E83" s="148"/>
       <c r="F83" s="21"/>
     </row>
     <row r="84" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A84" s="151" t="s">
+      <c r="A84" s="142" t="s">
         <v>29</v>
       </c>
-      <c r="B84" s="151"/>
-      <c r="C84" s="151"/>
-      <c r="D84" s="151"/>
-      <c r="E84" s="151"/>
-      <c r="F84" s="151"/>
+      <c r="B84" s="142"/>
+      <c r="C84" s="142"/>
+      <c r="D84" s="142"/>
+      <c r="E84" s="142"/>
+      <c r="F84" s="142"/>
     </row>
     <row r="85" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A85" s="147" t="s">
+      <c r="A85" s="151" t="s">
         <v>30</v>
       </c>
-      <c r="B85" s="147"/>
-      <c r="C85" s="147"/>
-      <c r="D85" s="147"/>
-      <c r="E85" s="147"/>
-      <c r="F85" s="147"/>
+      <c r="B85" s="151"/>
+      <c r="C85" s="151"/>
+      <c r="D85" s="151"/>
+      <c r="E85" s="151"/>
+      <c r="F85" s="151"/>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A86" s="21"/>
@@ -5228,26 +6874,26 @@
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A87" s="21"/>
-      <c r="B87" s="144"/>
-      <c r="C87" s="144"/>
-      <c r="D87" s="144"/>
-      <c r="E87" s="144"/>
+      <c r="B87" s="149"/>
+      <c r="C87" s="149"/>
+      <c r="D87" s="149"/>
+      <c r="E87" s="149"/>
       <c r="F87" s="21"/>
     </row>
     <row r="88" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A88" s="150" t="s">
+      <c r="A88" s="141" t="s">
         <v>7</v>
       </c>
-      <c r="B88" s="150"/>
-      <c r="C88" s="150"/>
-      <c r="D88" s="150"/>
-      <c r="E88" s="150"/>
-      <c r="F88" s="150"/>
+      <c r="B88" s="141"/>
+      <c r="C88" s="141"/>
+      <c r="D88" s="141"/>
+      <c r="E88" s="141"/>
+      <c r="F88" s="141"/>
     </row>
     <row r="90" spans="1:6" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B90" s="141"/>
-      <c r="C90" s="142"/>
-      <c r="D90" s="142"/>
+      <c r="B90" s="146"/>
+      <c r="C90" s="147"/>
+      <c r="D90" s="147"/>
     </row>
     <row r="91" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="92" spans="1:6" x14ac:dyDescent="0.2">
@@ -5303,21 +6949,21 @@
     <mergeCell ref="B87:E87"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B77:B79 B12:B20 B33:B68" xr:uid="{0752F961-DE68-4C99-B978-FD2C8C740CFF}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B77:B79 B12:B20 B33:B68" xr:uid="{F6D62F01-B071-416A-A335-64C08A8AD521}">
       <formula1>Liste_Activités</formula1>
     </dataValidation>
   </dataValidations>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
-  <pageSetup paperSize="131" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <pageSetup paperSize="131" scale="33" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
   <headerFooter scaleWithDoc="0" alignWithMargins="0"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E09EE0B7-D48F-463F-AB70-7B1459EC40F2}">
-  <sheetPr>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{348EF412-CDC9-4E8B-972E-43AAD8A51529}">
+  <sheetPr codeName="Feuil6">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A12:F92"/>
@@ -5376,7 +7022,7 @@
     <row r="21" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A21" s="17"/>
       <c r="B21" s="25" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="C21" s="21"/>
       <c r="D21" s="21"/>
@@ -5445,7 +7091,7 @@
         <v>11</v>
       </c>
       <c r="E28" s="27" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="F28" s="21"/>
     </row>
@@ -5458,14 +7104,14 @@
       <c r="F29" s="20"/>
     </row>
     <row r="30" spans="1:6" s="40" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="148" t="s">
+      <c r="A30" s="144" t="s">
         <v>0</v>
       </c>
-      <c r="B30" s="148"/>
-      <c r="C30" s="148"/>
-      <c r="D30" s="148"/>
-      <c r="E30" s="148"/>
-      <c r="F30" s="148"/>
+      <c r="B30" s="144"/>
+      <c r="C30" s="144"/>
+      <c r="D30" s="144"/>
+      <c r="E30" s="144"/>
+      <c r="F30" s="144"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" s="17"/>
@@ -5486,265 +7132,263 @@
     </row>
     <row r="33" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A33" s="21"/>
-      <c r="B33" s="145"/>
-      <c r="C33" s="145"/>
-      <c r="D33" s="145"/>
+      <c r="B33" s="143"/>
+      <c r="C33" s="143"/>
+      <c r="D33" s="143"/>
       <c r="E33" s="28"/>
       <c r="F33" s="21"/>
     </row>
     <row r="34" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A34" s="21"/>
-      <c r="B34" s="145" t="s">
-        <v>75</v>
-      </c>
-      <c r="C34" s="145"/>
-      <c r="D34" s="145"/>
+      <c r="B34" s="143" t="s">
+        <v>79</v>
+      </c>
+      <c r="C34" s="143"/>
+      <c r="D34" s="143"/>
       <c r="E34" s="28"/>
       <c r="F34" s="21"/>
     </row>
     <row r="35" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A35" s="21"/>
-      <c r="B35" s="145"/>
-      <c r="C35" s="145"/>
-      <c r="D35" s="145"/>
+      <c r="B35" s="143"/>
+      <c r="C35" s="143"/>
+      <c r="D35" s="143"/>
       <c r="E35" s="28"/>
       <c r="F35" s="21"/>
     </row>
     <row r="36" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A36" s="21"/>
-      <c r="B36" s="145" t="s">
-        <v>61</v>
-      </c>
-      <c r="C36" s="145"/>
-      <c r="D36" s="145"/>
+      <c r="B36" s="143" t="s">
+        <v>80</v>
+      </c>
+      <c r="C36" s="143"/>
+      <c r="D36" s="143"/>
       <c r="E36" s="28"/>
       <c r="F36" s="21"/>
     </row>
     <row r="37" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A37" s="21"/>
-      <c r="B37" s="145"/>
-      <c r="C37" s="145"/>
-      <c r="D37" s="145"/>
+      <c r="B37" s="143"/>
+      <c r="C37" s="143"/>
+      <c r="D37" s="143"/>
       <c r="E37" s="28"/>
       <c r="F37" s="21"/>
     </row>
     <row r="38" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A38" s="21"/>
-      <c r="B38" s="145" t="s">
-        <v>49</v>
-      </c>
-      <c r="C38" s="145"/>
-      <c r="D38" s="145"/>
+      <c r="B38" s="143" t="s">
+        <v>81</v>
+      </c>
+      <c r="C38" s="143"/>
+      <c r="D38" s="143"/>
       <c r="E38" s="28"/>
       <c r="F38" s="21"/>
     </row>
     <row r="39" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A39" s="21"/>
-      <c r="B39" s="145"/>
-      <c r="C39" s="145"/>
-      <c r="D39" s="145"/>
+      <c r="B39" s="143"/>
+      <c r="C39" s="143"/>
+      <c r="D39" s="143"/>
       <c r="E39" s="28"/>
       <c r="F39" s="21"/>
     </row>
     <row r="40" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A40" s="21"/>
-      <c r="B40" s="145" t="s">
-        <v>76</v>
-      </c>
-      <c r="C40" s="145"/>
-      <c r="D40" s="145"/>
+      <c r="B40" s="143"/>
+      <c r="C40" s="143"/>
+      <c r="D40" s="143"/>
       <c r="E40" s="28"/>
       <c r="F40" s="21"/>
     </row>
     <row r="41" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A41" s="21"/>
-      <c r="B41" s="145"/>
-      <c r="C41" s="145"/>
-      <c r="D41" s="145"/>
+      <c r="B41" s="143"/>
+      <c r="C41" s="143"/>
+      <c r="D41" s="143"/>
       <c r="E41" s="28"/>
       <c r="F41" s="21"/>
     </row>
     <row r="42" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A42" s="21"/>
-      <c r="B42" s="145"/>
-      <c r="C42" s="145"/>
-      <c r="D42" s="145"/>
+      <c r="B42" s="143"/>
+      <c r="C42" s="143"/>
+      <c r="D42" s="143"/>
       <c r="E42" s="28"/>
       <c r="F42" s="21"/>
     </row>
     <row r="43" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A43" s="21"/>
-      <c r="B43" s="145"/>
-      <c r="C43" s="145"/>
-      <c r="D43" s="145"/>
+      <c r="B43" s="143"/>
+      <c r="C43" s="143"/>
+      <c r="D43" s="143"/>
       <c r="E43" s="28"/>
       <c r="F43" s="21"/>
     </row>
     <row r="44" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A44" s="21"/>
-      <c r="B44" s="145"/>
-      <c r="C44" s="145"/>
-      <c r="D44" s="145"/>
+      <c r="B44" s="143"/>
+      <c r="C44" s="143"/>
+      <c r="D44" s="143"/>
       <c r="E44" s="28"/>
       <c r="F44" s="21"/>
     </row>
     <row r="45" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A45" s="21"/>
-      <c r="B45" s="145"/>
-      <c r="C45" s="145"/>
-      <c r="D45" s="145"/>
+      <c r="B45" s="143"/>
+      <c r="C45" s="143"/>
+      <c r="D45" s="143"/>
       <c r="E45" s="28"/>
       <c r="F45" s="21"/>
     </row>
     <row r="46" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A46" s="21"/>
-      <c r="B46" s="145"/>
-      <c r="C46" s="145"/>
-      <c r="D46" s="145"/>
+      <c r="B46" s="143"/>
+      <c r="C46" s="143"/>
+      <c r="D46" s="143"/>
       <c r="E46" s="28"/>
       <c r="F46" s="21"/>
     </row>
     <row r="47" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A47" s="21"/>
-      <c r="B47" s="145"/>
-      <c r="C47" s="145"/>
-      <c r="D47" s="145"/>
+      <c r="B47" s="143"/>
+      <c r="C47" s="143"/>
+      <c r="D47" s="143"/>
       <c r="E47" s="28"/>
       <c r="F47" s="21"/>
     </row>
     <row r="48" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A48" s="21"/>
-      <c r="B48" s="145"/>
-      <c r="C48" s="145"/>
-      <c r="D48" s="145"/>
+      <c r="B48" s="143"/>
+      <c r="C48" s="143"/>
+      <c r="D48" s="143"/>
       <c r="E48" s="28"/>
       <c r="F48" s="21"/>
     </row>
     <row r="49" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A49" s="21"/>
-      <c r="B49" s="145"/>
-      <c r="C49" s="145"/>
-      <c r="D49" s="145"/>
+      <c r="B49" s="143"/>
+      <c r="C49" s="143"/>
+      <c r="D49" s="143"/>
       <c r="E49" s="28"/>
       <c r="F49" s="21"/>
     </row>
     <row r="50" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A50" s="21"/>
-      <c r="B50" s="145"/>
-      <c r="C50" s="145"/>
-      <c r="D50" s="145"/>
+      <c r="B50" s="143"/>
+      <c r="C50" s="143"/>
+      <c r="D50" s="143"/>
       <c r="E50" s="28"/>
       <c r="F50" s="21"/>
     </row>
     <row r="51" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A51" s="21"/>
-      <c r="B51" s="145"/>
-      <c r="C51" s="145"/>
-      <c r="D51" s="145"/>
+      <c r="B51" s="143"/>
+      <c r="C51" s="143"/>
+      <c r="D51" s="143"/>
       <c r="E51" s="28"/>
       <c r="F51" s="21"/>
     </row>
     <row r="52" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A52" s="21"/>
-      <c r="B52" s="145"/>
-      <c r="C52" s="145"/>
-      <c r="D52" s="145"/>
+      <c r="B52" s="143"/>
+      <c r="C52" s="143"/>
+      <c r="D52" s="143"/>
       <c r="E52" s="28"/>
       <c r="F52" s="21"/>
     </row>
     <row r="53" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A53" s="21"/>
-      <c r="B53" s="145"/>
-      <c r="C53" s="145"/>
-      <c r="D53" s="145"/>
+      <c r="B53" s="143"/>
+      <c r="C53" s="143"/>
+      <c r="D53" s="143"/>
       <c r="E53" s="28"/>
       <c r="F53" s="21"/>
     </row>
     <row r="54" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A54" s="21"/>
-      <c r="B54" s="145"/>
-      <c r="C54" s="145"/>
-      <c r="D54" s="145"/>
+      <c r="B54" s="143"/>
+      <c r="C54" s="143"/>
+      <c r="D54" s="143"/>
       <c r="E54" s="28"/>
       <c r="F54" s="21"/>
     </row>
     <row r="55" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A55" s="21"/>
-      <c r="B55" s="145"/>
-      <c r="C55" s="145"/>
-      <c r="D55" s="145"/>
+      <c r="B55" s="143"/>
+      <c r="C55" s="143"/>
+      <c r="D55" s="143"/>
       <c r="E55" s="28"/>
       <c r="F55" s="21"/>
     </row>
     <row r="56" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A56" s="21"/>
-      <c r="B56" s="145"/>
-      <c r="C56" s="145"/>
-      <c r="D56" s="145"/>
+      <c r="B56" s="143"/>
+      <c r="C56" s="143"/>
+      <c r="D56" s="143"/>
       <c r="E56" s="28"/>
       <c r="F56" s="21"/>
     </row>
     <row r="57" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A57" s="21"/>
-      <c r="B57" s="145"/>
-      <c r="C57" s="145"/>
-      <c r="D57" s="145"/>
+      <c r="B57" s="143"/>
+      <c r="C57" s="143"/>
+      <c r="D57" s="143"/>
       <c r="E57" s="28"/>
       <c r="F57" s="21"/>
     </row>
     <row r="58" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A58" s="21"/>
-      <c r="B58" s="145"/>
-      <c r="C58" s="145"/>
-      <c r="D58" s="145"/>
+      <c r="B58" s="143"/>
+      <c r="C58" s="143"/>
+      <c r="D58" s="143"/>
       <c r="E58" s="28"/>
       <c r="F58" s="21"/>
     </row>
     <row r="59" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A59" s="21"/>
-      <c r="B59" s="145"/>
-      <c r="C59" s="145"/>
-      <c r="D59" s="145"/>
+      <c r="B59" s="143"/>
+      <c r="C59" s="143"/>
+      <c r="D59" s="143"/>
       <c r="E59" s="28"/>
       <c r="F59" s="21"/>
     </row>
     <row r="60" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A60" s="21"/>
-      <c r="B60" s="145"/>
-      <c r="C60" s="145"/>
-      <c r="D60" s="145"/>
+      <c r="B60" s="143"/>
+      <c r="C60" s="143"/>
+      <c r="D60" s="143"/>
       <c r="E60" s="28"/>
       <c r="F60" s="21"/>
     </row>
     <row r="61" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A61" s="21"/>
-      <c r="B61" s="145"/>
-      <c r="C61" s="145"/>
-      <c r="D61" s="145"/>
+      <c r="B61" s="143"/>
+      <c r="C61" s="143"/>
+      <c r="D61" s="143"/>
       <c r="E61" s="28"/>
       <c r="F61" s="21"/>
     </row>
     <row r="62" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A62" s="21"/>
-      <c r="B62" s="145"/>
-      <c r="C62" s="145"/>
-      <c r="D62" s="145"/>
+      <c r="B62" s="143"/>
+      <c r="C62" s="143"/>
+      <c r="D62" s="143"/>
       <c r="E62" s="28"/>
       <c r="F62" s="21"/>
     </row>
     <row r="63" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A63" s="21"/>
-      <c r="B63" s="145"/>
-      <c r="C63" s="145"/>
-      <c r="D63" s="145"/>
+      <c r="B63" s="143"/>
+      <c r="C63" s="143"/>
+      <c r="D63" s="143"/>
       <c r="E63" s="28"/>
       <c r="F63" s="21"/>
     </row>
     <row r="64" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A64" s="21"/>
-      <c r="B64" s="145"/>
-      <c r="C64" s="145"/>
-      <c r="D64" s="145"/>
+      <c r="B64" s="143"/>
+      <c r="C64" s="143"/>
+      <c r="D64" s="143"/>
       <c r="E64" s="28"/>
       <c r="F64" s="21"/>
     </row>
@@ -5764,7 +7408,7 @@
       <c r="A66" s="46"/>
       <c r="B66" s="47"/>
       <c r="C66" s="51">
-        <v>6.5</v>
+        <v>2.25</v>
       </c>
       <c r="D66" s="52">
         <v>350</v>
@@ -5774,17 +7418,17 @@
     </row>
     <row r="67" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A67" s="21"/>
-      <c r="B67" s="145"/>
-      <c r="C67" s="145"/>
-      <c r="D67" s="145"/>
+      <c r="B67" s="143"/>
+      <c r="C67" s="143"/>
+      <c r="D67" s="143"/>
       <c r="E67" s="28"/>
       <c r="F67" s="21"/>
     </row>
     <row r="68" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="21"/>
-      <c r="B68" s="145"/>
-      <c r="C68" s="145"/>
-      <c r="D68" s="145"/>
+      <c r="B68" s="143"/>
+      <c r="C68" s="143"/>
+      <c r="D68" s="143"/>
       <c r="E68" s="28"/>
       <c r="F68" s="21"/>
     </row>
@@ -5797,7 +7441,7 @@
       <c r="D69" s="26"/>
       <c r="E69" s="29">
         <f>D66*C66</f>
-        <v>2275</v>
+        <v>787.5</v>
       </c>
       <c r="F69" s="21"/>
     </row>
@@ -5834,7 +7478,7 @@
       <c r="D72" s="26"/>
       <c r="E72" s="29">
         <f>SUM(E69:E71)</f>
-        <v>2275</v>
+        <v>787.5</v>
       </c>
       <c r="F72" s="21"/>
     </row>
@@ -5849,7 +7493,7 @@
       <c r="D73" s="26"/>
       <c r="E73" s="35">
         <f>ROUND(E72*C73,2)</f>
-        <v>113.75</v>
+        <v>39.380000000000003</v>
       </c>
       <c r="F73" s="21"/>
     </row>
@@ -5864,7 +7508,7 @@
       <c r="D74" s="26"/>
       <c r="E74" s="43">
         <f>ROUND(E72*C74,2)</f>
-        <v>226.93</v>
+        <v>78.55</v>
       </c>
       <c r="F74" s="21"/>
     </row>
@@ -5885,25 +7529,25 @@
       <c r="D76" s="26"/>
       <c r="E76" s="33">
         <f>SUM(E72:E74)</f>
-        <v>2615.6799999999998</v>
+        <v>905.43</v>
       </c>
       <c r="F76" s="21"/>
     </row>
     <row r="77" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A77" s="21"/>
-      <c r="B77" s="149"/>
-      <c r="C77" s="149"/>
-      <c r="D77" s="149"/>
+      <c r="B77" s="145"/>
+      <c r="C77" s="145"/>
+      <c r="D77" s="145"/>
       <c r="E77" s="36"/>
       <c r="F77" s="21"/>
     </row>
     <row r="78" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A78" s="21"/>
-      <c r="B78" s="146" t="s">
+      <c r="B78" s="150" t="s">
         <v>18</v>
       </c>
-      <c r="C78" s="146"/>
-      <c r="D78" s="146"/>
+      <c r="C78" s="150"/>
+      <c r="D78" s="150"/>
       <c r="E78" s="36">
         <v>0</v>
       </c>
@@ -5911,9 +7555,9 @@
     </row>
     <row r="79" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A79" s="21"/>
-      <c r="B79" s="149"/>
-      <c r="C79" s="149"/>
-      <c r="D79" s="149"/>
+      <c r="B79" s="145"/>
+      <c r="C79" s="145"/>
+      <c r="D79" s="145"/>
       <c r="E79" s="36"/>
       <c r="F79" s="21"/>
     </row>
@@ -5926,7 +7570,7 @@
       <c r="D80" s="38"/>
       <c r="E80" s="39">
         <f>E76-E78</f>
-        <v>2615.6799999999998</v>
+        <v>905.43</v>
       </c>
       <c r="F80" s="21"/>
     </row>
@@ -5948,31 +7592,31 @@
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A83" s="21"/>
-      <c r="B83" s="143"/>
-      <c r="C83" s="143"/>
-      <c r="D83" s="143"/>
-      <c r="E83" s="143"/>
+      <c r="B83" s="148"/>
+      <c r="C83" s="148"/>
+      <c r="D83" s="148"/>
+      <c r="E83" s="148"/>
       <c r="F83" s="21"/>
     </row>
     <row r="84" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A84" s="151" t="s">
+      <c r="A84" s="142" t="s">
         <v>29</v>
       </c>
-      <c r="B84" s="151"/>
-      <c r="C84" s="151"/>
-      <c r="D84" s="151"/>
-      <c r="E84" s="151"/>
-      <c r="F84" s="151"/>
+      <c r="B84" s="142"/>
+      <c r="C84" s="142"/>
+      <c r="D84" s="142"/>
+      <c r="E84" s="142"/>
+      <c r="F84" s="142"/>
     </row>
     <row r="85" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A85" s="147" t="s">
+      <c r="A85" s="151" t="s">
         <v>30</v>
       </c>
-      <c r="B85" s="147"/>
-      <c r="C85" s="147"/>
-      <c r="D85" s="147"/>
-      <c r="E85" s="147"/>
-      <c r="F85" s="147"/>
+      <c r="B85" s="151"/>
+      <c r="C85" s="151"/>
+      <c r="D85" s="151"/>
+      <c r="E85" s="151"/>
+      <c r="F85" s="151"/>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A86" s="21"/>
@@ -5984,26 +7628,26 @@
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A87" s="21"/>
-      <c r="B87" s="144"/>
-      <c r="C87" s="144"/>
-      <c r="D87" s="144"/>
-      <c r="E87" s="144"/>
+      <c r="B87" s="149"/>
+      <c r="C87" s="149"/>
+      <c r="D87" s="149"/>
+      <c r="E87" s="149"/>
       <c r="F87" s="21"/>
     </row>
     <row r="88" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A88" s="150" t="s">
+      <c r="A88" s="141" t="s">
         <v>7</v>
       </c>
-      <c r="B88" s="150"/>
-      <c r="C88" s="150"/>
-      <c r="D88" s="150"/>
-      <c r="E88" s="150"/>
-      <c r="F88" s="150"/>
+      <c r="B88" s="141"/>
+      <c r="C88" s="141"/>
+      <c r="D88" s="141"/>
+      <c r="E88" s="141"/>
+      <c r="F88" s="141"/>
     </row>
     <row r="90" spans="1:6" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B90" s="141"/>
-      <c r="C90" s="142"/>
-      <c r="D90" s="142"/>
+      <c r="B90" s="146"/>
+      <c r="C90" s="147"/>
+      <c r="D90" s="147"/>
     </row>
     <row r="91" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="92" spans="1:6" x14ac:dyDescent="0.2">
@@ -6059,767 +7703,13 @@
     <mergeCell ref="B42:D42"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B77:B79 B12:B20 B33:B68" xr:uid="{F6D62F01-B071-416A-A335-64C08A8AD521}">
-      <formula1>Liste_Activités</formula1>
-    </dataValidation>
-  </dataValidations>
-  <printOptions horizontalCentered="1"/>
-  <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
-  <pageSetup paperSize="131" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
-  <headerFooter scaleWithDoc="0" alignWithMargins="0"/>
-  <drawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{348EF412-CDC9-4E8B-972E-43AAD8A51529}">
-  <sheetPr>
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
-  <dimension ref="A12:F92"/>
-  <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A28" zoomScale="80" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="B67" sqref="B67:D67"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="5.140625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="120" style="2" customWidth="1"/>
-    <col min="3" max="3" width="11.5703125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="17.5703125" style="2" customWidth="1"/>
-    <col min="5" max="5" width="17.7109375" style="2" customWidth="1"/>
-    <col min="6" max="6" width="10.5703125" style="2" customWidth="1"/>
-    <col min="7" max="16384" width="11.42578125" style="2"/>
-  </cols>
-  <sheetData>
-    <row r="12" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B12" s="3"/>
-      <c r="E12" s="4"/>
-    </row>
-    <row r="13" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B13" s="3"/>
-      <c r="E13" s="4"/>
-    </row>
-    <row r="14" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B14" s="3"/>
-      <c r="E14" s="4"/>
-    </row>
-    <row r="15" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B15" s="3"/>
-      <c r="E15" s="4"/>
-    </row>
-    <row r="16" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B16" s="3"/>
-      <c r="E16" s="4"/>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B17" s="3"/>
-      <c r="E17" s="4"/>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B18" s="3"/>
-      <c r="E18" s="4"/>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B19" s="3"/>
-      <c r="E19" s="4"/>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B20" s="3"/>
-      <c r="E20" s="4"/>
-    </row>
-    <row r="21" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A21" s="17"/>
-      <c r="B21" s="25" t="s">
-        <v>78</v>
-      </c>
-      <c r="C21" s="21"/>
-      <c r="D21" s="21"/>
-      <c r="E21" s="21"/>
-      <c r="F21" s="21"/>
-    </row>
-    <row r="22" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A22" s="17"/>
-      <c r="B22" s="26"/>
-      <c r="C22" s="21"/>
-      <c r="D22" s="21"/>
-      <c r="E22" s="21"/>
-      <c r="F22" s="21"/>
-    </row>
-    <row r="23" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A23" s="17"/>
-      <c r="B23" s="26"/>
-      <c r="C23" s="21"/>
-      <c r="D23" s="21"/>
-      <c r="E23" s="21"/>
-      <c r="F23" s="21"/>
-    </row>
-    <row r="24" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A24" s="17"/>
-      <c r="B24" s="25" t="s">
-        <v>41</v>
-      </c>
-      <c r="C24" s="21"/>
-      <c r="D24" s="21"/>
-      <c r="E24" s="21"/>
-      <c r="F24" s="21"/>
-    </row>
-    <row r="25" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A25" s="17"/>
-      <c r="B25" s="25" t="s">
-        <v>40</v>
-      </c>
-      <c r="C25" s="21"/>
-      <c r="D25" s="21"/>
-      <c r="E25" s="21"/>
-      <c r="F25" s="21"/>
-    </row>
-    <row r="26" spans="1:6" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="17"/>
-      <c r="B26" s="53" t="s">
-        <v>66</v>
-      </c>
-      <c r="C26" s="21"/>
-      <c r="D26" s="21"/>
-      <c r="E26" s="21"/>
-      <c r="F26" s="21"/>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A27" s="18"/>
-      <c r="B27" s="21"/>
-      <c r="C27" s="23"/>
-      <c r="D27" s="23"/>
-      <c r="E27" s="24"/>
-      <c r="F27" s="21"/>
-    </row>
-    <row r="28" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A28" s="17"/>
-      <c r="B28" s="23"/>
-      <c r="C28" s="23"/>
-      <c r="D28" s="27" t="s">
-        <v>11</v>
-      </c>
-      <c r="E28" s="27" t="s">
-        <v>77</v>
-      </c>
-      <c r="F28" s="21"/>
-    </row>
-    <row r="29" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="19"/>
-      <c r="B29" s="19"/>
-      <c r="C29" s="19"/>
-      <c r="D29" s="19"/>
-      <c r="E29" s="19"/>
-      <c r="F29" s="20"/>
-    </row>
-    <row r="30" spans="1:6" s="40" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="148" t="s">
-        <v>0</v>
-      </c>
-      <c r="B30" s="148"/>
-      <c r="C30" s="148"/>
-      <c r="D30" s="148"/>
-      <c r="E30" s="148"/>
-      <c r="F30" s="148"/>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A31" s="17"/>
-      <c r="B31" s="18"/>
-      <c r="C31" s="17"/>
-      <c r="D31" s="17"/>
-      <c r="E31" s="17"/>
-    </row>
-    <row r="32" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A32" s="21"/>
-      <c r="B32" s="22" t="s">
-        <v>6</v>
-      </c>
-      <c r="C32" s="22"/>
-      <c r="D32" s="22"/>
-      <c r="E32" s="28"/>
-      <c r="F32" s="21"/>
-    </row>
-    <row r="33" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A33" s="21"/>
-      <c r="B33" s="145"/>
-      <c r="C33" s="145"/>
-      <c r="D33" s="145"/>
-      <c r="E33" s="28"/>
-      <c r="F33" s="21"/>
-    </row>
-    <row r="34" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A34" s="21"/>
-      <c r="B34" s="145" t="s">
-        <v>79</v>
-      </c>
-      <c r="C34" s="145"/>
-      <c r="D34" s="145"/>
-      <c r="E34" s="28"/>
-      <c r="F34" s="21"/>
-    </row>
-    <row r="35" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A35" s="21"/>
-      <c r="B35" s="145"/>
-      <c r="C35" s="145"/>
-      <c r="D35" s="145"/>
-      <c r="E35" s="28"/>
-      <c r="F35" s="21"/>
-    </row>
-    <row r="36" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A36" s="21"/>
-      <c r="B36" s="145" t="s">
-        <v>80</v>
-      </c>
-      <c r="C36" s="145"/>
-      <c r="D36" s="145"/>
-      <c r="E36" s="28"/>
-      <c r="F36" s="21"/>
-    </row>
-    <row r="37" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A37" s="21"/>
-      <c r="B37" s="145"/>
-      <c r="C37" s="145"/>
-      <c r="D37" s="145"/>
-      <c r="E37" s="28"/>
-      <c r="F37" s="21"/>
-    </row>
-    <row r="38" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A38" s="21"/>
-      <c r="B38" s="145" t="s">
-        <v>81</v>
-      </c>
-      <c r="C38" s="145"/>
-      <c r="D38" s="145"/>
-      <c r="E38" s="28"/>
-      <c r="F38" s="21"/>
-    </row>
-    <row r="39" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A39" s="21"/>
-      <c r="B39" s="145"/>
-      <c r="C39" s="145"/>
-      <c r="D39" s="145"/>
-      <c r="E39" s="28"/>
-      <c r="F39" s="21"/>
-    </row>
-    <row r="40" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A40" s="21"/>
-      <c r="B40" s="145"/>
-      <c r="C40" s="145"/>
-      <c r="D40" s="145"/>
-      <c r="E40" s="28"/>
-      <c r="F40" s="21"/>
-    </row>
-    <row r="41" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A41" s="21"/>
-      <c r="B41" s="145"/>
-      <c r="C41" s="145"/>
-      <c r="D41" s="145"/>
-      <c r="E41" s="28"/>
-      <c r="F41" s="21"/>
-    </row>
-    <row r="42" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A42" s="21"/>
-      <c r="B42" s="145"/>
-      <c r="C42" s="145"/>
-      <c r="D42" s="145"/>
-      <c r="E42" s="28"/>
-      <c r="F42" s="21"/>
-    </row>
-    <row r="43" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A43" s="21"/>
-      <c r="B43" s="145"/>
-      <c r="C43" s="145"/>
-      <c r="D43" s="145"/>
-      <c r="E43" s="28"/>
-      <c r="F43" s="21"/>
-    </row>
-    <row r="44" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A44" s="21"/>
-      <c r="B44" s="145"/>
-      <c r="C44" s="145"/>
-      <c r="D44" s="145"/>
-      <c r="E44" s="28"/>
-      <c r="F44" s="21"/>
-    </row>
-    <row r="45" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A45" s="21"/>
-      <c r="B45" s="145"/>
-      <c r="C45" s="145"/>
-      <c r="D45" s="145"/>
-      <c r="E45" s="28"/>
-      <c r="F45" s="21"/>
-    </row>
-    <row r="46" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A46" s="21"/>
-      <c r="B46" s="145"/>
-      <c r="C46" s="145"/>
-      <c r="D46" s="145"/>
-      <c r="E46" s="28"/>
-      <c r="F46" s="21"/>
-    </row>
-    <row r="47" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A47" s="21"/>
-      <c r="B47" s="145"/>
-      <c r="C47" s="145"/>
-      <c r="D47" s="145"/>
-      <c r="E47" s="28"/>
-      <c r="F47" s="21"/>
-    </row>
-    <row r="48" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A48" s="21"/>
-      <c r="B48" s="145"/>
-      <c r="C48" s="145"/>
-      <c r="D48" s="145"/>
-      <c r="E48" s="28"/>
-      <c r="F48" s="21"/>
-    </row>
-    <row r="49" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A49" s="21"/>
-      <c r="B49" s="145"/>
-      <c r="C49" s="145"/>
-      <c r="D49" s="145"/>
-      <c r="E49" s="28"/>
-      <c r="F49" s="21"/>
-    </row>
-    <row r="50" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A50" s="21"/>
-      <c r="B50" s="145"/>
-      <c r="C50" s="145"/>
-      <c r="D50" s="145"/>
-      <c r="E50" s="28"/>
-      <c r="F50" s="21"/>
-    </row>
-    <row r="51" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A51" s="21"/>
-      <c r="B51" s="145"/>
-      <c r="C51" s="145"/>
-      <c r="D51" s="145"/>
-      <c r="E51" s="28"/>
-      <c r="F51" s="21"/>
-    </row>
-    <row r="52" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A52" s="21"/>
-      <c r="B52" s="145"/>
-      <c r="C52" s="145"/>
-      <c r="D52" s="145"/>
-      <c r="E52" s="28"/>
-      <c r="F52" s="21"/>
-    </row>
-    <row r="53" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A53" s="21"/>
-      <c r="B53" s="145"/>
-      <c r="C53" s="145"/>
-      <c r="D53" s="145"/>
-      <c r="E53" s="28"/>
-      <c r="F53" s="21"/>
-    </row>
-    <row r="54" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A54" s="21"/>
-      <c r="B54" s="145"/>
-      <c r="C54" s="145"/>
-      <c r="D54" s="145"/>
-      <c r="E54" s="28"/>
-      <c r="F54" s="21"/>
-    </row>
-    <row r="55" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A55" s="21"/>
-      <c r="B55" s="145"/>
-      <c r="C55" s="145"/>
-      <c r="D55" s="145"/>
-      <c r="E55" s="28"/>
-      <c r="F55" s="21"/>
-    </row>
-    <row r="56" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A56" s="21"/>
-      <c r="B56" s="145"/>
-      <c r="C56" s="145"/>
-      <c r="D56" s="145"/>
-      <c r="E56" s="28"/>
-      <c r="F56" s="21"/>
-    </row>
-    <row r="57" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A57" s="21"/>
-      <c r="B57" s="145"/>
-      <c r="C57" s="145"/>
-      <c r="D57" s="145"/>
-      <c r="E57" s="28"/>
-      <c r="F57" s="21"/>
-    </row>
-    <row r="58" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A58" s="21"/>
-      <c r="B58" s="145"/>
-      <c r="C58" s="145"/>
-      <c r="D58" s="145"/>
-      <c r="E58" s="28"/>
-      <c r="F58" s="21"/>
-    </row>
-    <row r="59" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A59" s="21"/>
-      <c r="B59" s="145"/>
-      <c r="C59" s="145"/>
-      <c r="D59" s="145"/>
-      <c r="E59" s="28"/>
-      <c r="F59" s="21"/>
-    </row>
-    <row r="60" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A60" s="21"/>
-      <c r="B60" s="145"/>
-      <c r="C60" s="145"/>
-      <c r="D60" s="145"/>
-      <c r="E60" s="28"/>
-      <c r="F60" s="21"/>
-    </row>
-    <row r="61" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A61" s="21"/>
-      <c r="B61" s="145"/>
-      <c r="C61" s="145"/>
-      <c r="D61" s="145"/>
-      <c r="E61" s="28"/>
-      <c r="F61" s="21"/>
-    </row>
-    <row r="62" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A62" s="21"/>
-      <c r="B62" s="145"/>
-      <c r="C62" s="145"/>
-      <c r="D62" s="145"/>
-      <c r="E62" s="28"/>
-      <c r="F62" s="21"/>
-    </row>
-    <row r="63" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A63" s="21"/>
-      <c r="B63" s="145"/>
-      <c r="C63" s="145"/>
-      <c r="D63" s="145"/>
-      <c r="E63" s="28"/>
-      <c r="F63" s="21"/>
-    </row>
-    <row r="64" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A64" s="21"/>
-      <c r="B64" s="145"/>
-      <c r="C64" s="145"/>
-      <c r="D64" s="145"/>
-      <c r="E64" s="28"/>
-      <c r="F64" s="21"/>
-    </row>
-    <row r="65" spans="1:6" s="50" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A65" s="46"/>
-      <c r="B65" s="47"/>
-      <c r="C65" s="48" t="s">
-        <v>37</v>
-      </c>
-      <c r="D65" s="48" t="s">
-        <v>38</v>
-      </c>
-      <c r="E65" s="49"/>
-      <c r="F65" s="46"/>
-    </row>
-    <row r="66" spans="1:6" s="50" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A66" s="46"/>
-      <c r="B66" s="47"/>
-      <c r="C66" s="51">
-        <v>2.25</v>
-      </c>
-      <c r="D66" s="52">
-        <v>350</v>
-      </c>
-      <c r="E66" s="49"/>
-      <c r="F66" s="46"/>
-    </row>
-    <row r="67" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A67" s="21"/>
-      <c r="B67" s="145"/>
-      <c r="C67" s="145"/>
-      <c r="D67" s="145"/>
-      <c r="E67" s="28"/>
-      <c r="F67" s="21"/>
-    </row>
-    <row r="68" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="21"/>
-      <c r="B68" s="145"/>
-      <c r="C68" s="145"/>
-      <c r="D68" s="145"/>
-      <c r="E68" s="28"/>
-      <c r="F68" s="21"/>
-    </row>
-    <row r="69" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="21"/>
-      <c r="B69" s="25" t="s">
-        <v>15</v>
-      </c>
-      <c r="C69" s="26"/>
-      <c r="D69" s="26"/>
-      <c r="E69" s="29">
-        <f>D66*C66</f>
-        <v>787.5</v>
-      </c>
-      <c r="F69" s="21"/>
-    </row>
-    <row r="70" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A70" s="21"/>
-      <c r="B70" s="34" t="s">
-        <v>12</v>
-      </c>
-      <c r="C70" s="26"/>
-      <c r="D70" s="26"/>
-      <c r="E70" s="30">
-        <v>0</v>
-      </c>
-      <c r="F70" s="21"/>
-    </row>
-    <row r="71" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A71" s="21"/>
-      <c r="B71" s="34" t="s">
-        <v>13</v>
-      </c>
-      <c r="C71" s="26"/>
-      <c r="D71" s="26"/>
-      <c r="E71" s="30">
-        <v>0</v>
-      </c>
-      <c r="F71" s="21"/>
-    </row>
-    <row r="72" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A72" s="21"/>
-      <c r="B72" s="25" t="s">
-        <v>14</v>
-      </c>
-      <c r="C72" s="26"/>
-      <c r="D72" s="26"/>
-      <c r="E72" s="29">
-        <f>SUM(E69:E71)</f>
-        <v>787.5</v>
-      </c>
-      <c r="F72" s="21"/>
-    </row>
-    <row r="73" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A73" s="21"/>
-      <c r="B73" s="26" t="s">
-        <v>5</v>
-      </c>
-      <c r="C73" s="31">
-        <v>0.05</v>
-      </c>
-      <c r="D73" s="26"/>
-      <c r="E73" s="35">
-        <f>ROUND(E72*C73,2)</f>
-        <v>39.380000000000003</v>
-      </c>
-      <c r="F73" s="21"/>
-    </row>
-    <row r="74" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A74" s="21"/>
-      <c r="B74" s="26" t="s">
-        <v>4</v>
-      </c>
-      <c r="C74" s="42">
-        <v>9.9750000000000005E-2</v>
-      </c>
-      <c r="D74" s="26"/>
-      <c r="E74" s="43">
-        <f>ROUND(E72*C74,2)</f>
-        <v>78.55</v>
-      </c>
-      <c r="F74" s="21"/>
-    </row>
-    <row r="75" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A75" s="21"/>
-      <c r="B75" s="26"/>
-      <c r="C75" s="26"/>
-      <c r="D75" s="26"/>
-      <c r="E75" s="32"/>
-      <c r="F75" s="21"/>
-    </row>
-    <row r="76" spans="1:6" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="21"/>
-      <c r="B76" s="25" t="s">
-        <v>16</v>
-      </c>
-      <c r="C76" s="26"/>
-      <c r="D76" s="26"/>
-      <c r="E76" s="33">
-        <f>SUM(E72:E74)</f>
-        <v>905.43</v>
-      </c>
-      <c r="F76" s="21"/>
-    </row>
-    <row r="77" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A77" s="21"/>
-      <c r="B77" s="149"/>
-      <c r="C77" s="149"/>
-      <c r="D77" s="149"/>
-      <c r="E77" s="36"/>
-      <c r="F77" s="21"/>
-    </row>
-    <row r="78" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A78" s="21"/>
-      <c r="B78" s="146" t="s">
-        <v>18</v>
-      </c>
-      <c r="C78" s="146"/>
-      <c r="D78" s="146"/>
-      <c r="E78" s="36">
-        <v>0</v>
-      </c>
-      <c r="F78" s="21"/>
-    </row>
-    <row r="79" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A79" s="21"/>
-      <c r="B79" s="149"/>
-      <c r="C79" s="149"/>
-      <c r="D79" s="149"/>
-      <c r="E79" s="36"/>
-      <c r="F79" s="21"/>
-    </row>
-    <row r="80" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A80" s="21"/>
-      <c r="B80" s="37" t="s">
-        <v>17</v>
-      </c>
-      <c r="C80" s="38"/>
-      <c r="D80" s="38"/>
-      <c r="E80" s="39">
-        <f>E76-E78</f>
-        <v>905.43</v>
-      </c>
-      <c r="F80" s="21"/>
-    </row>
-    <row r="81" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A81" s="21"/>
-      <c r="B81" s="21"/>
-      <c r="C81" s="21"/>
-      <c r="D81" s="21"/>
-      <c r="E81" s="21"/>
-      <c r="F81" s="21"/>
-    </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A82" s="21"/>
-      <c r="B82" s="21"/>
-      <c r="C82" s="21"/>
-      <c r="D82" s="21"/>
-      <c r="E82" s="21"/>
-      <c r="F82" s="21"/>
-    </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A83" s="21"/>
-      <c r="B83" s="143"/>
-      <c r="C83" s="143"/>
-      <c r="D83" s="143"/>
-      <c r="E83" s="143"/>
-      <c r="F83" s="21"/>
-    </row>
-    <row r="84" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A84" s="151" t="s">
-        <v>29</v>
-      </c>
-      <c r="B84" s="151"/>
-      <c r="C84" s="151"/>
-      <c r="D84" s="151"/>
-      <c r="E84" s="151"/>
-      <c r="F84" s="151"/>
-    </row>
-    <row r="85" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A85" s="147" t="s">
-        <v>30</v>
-      </c>
-      <c r="B85" s="147"/>
-      <c r="C85" s="147"/>
-      <c r="D85" s="147"/>
-      <c r="E85" s="147"/>
-      <c r="F85" s="147"/>
-    </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A86" s="21"/>
-      <c r="B86" s="21"/>
-      <c r="C86" s="21"/>
-      <c r="D86" s="21"/>
-      <c r="E86" s="21"/>
-      <c r="F86" s="21"/>
-    </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A87" s="21"/>
-      <c r="B87" s="144"/>
-      <c r="C87" s="144"/>
-      <c r="D87" s="144"/>
-      <c r="E87" s="144"/>
-      <c r="F87" s="21"/>
-    </row>
-    <row r="88" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A88" s="150" t="s">
-        <v>7</v>
-      </c>
-      <c r="B88" s="150"/>
-      <c r="C88" s="150"/>
-      <c r="D88" s="150"/>
-      <c r="E88" s="150"/>
-      <c r="F88" s="150"/>
-    </row>
-    <row r="90" spans="1:6" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B90" s="141"/>
-      <c r="C90" s="142"/>
-      <c r="D90" s="142"/>
-    </row>
-    <row r="91" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B92" s="16"/>
-      <c r="C92" s="16"/>
-      <c r="D92" s="16"/>
-    </row>
-  </sheetData>
-  <mergeCells count="44">
-    <mergeCell ref="B43:D43"/>
-    <mergeCell ref="A30:F30"/>
-    <mergeCell ref="B33:D33"/>
-    <mergeCell ref="B34:D34"/>
-    <mergeCell ref="B35:D35"/>
-    <mergeCell ref="B36:D36"/>
-    <mergeCell ref="B37:D37"/>
-    <mergeCell ref="B38:D38"/>
-    <mergeCell ref="B39:D39"/>
-    <mergeCell ref="B40:D40"/>
-    <mergeCell ref="B41:D41"/>
-    <mergeCell ref="B42:D42"/>
-    <mergeCell ref="B55:D55"/>
-    <mergeCell ref="B44:D44"/>
-    <mergeCell ref="B45:D45"/>
-    <mergeCell ref="B46:D46"/>
-    <mergeCell ref="B47:D47"/>
-    <mergeCell ref="B48:D48"/>
-    <mergeCell ref="B49:D49"/>
-    <mergeCell ref="B50:D50"/>
-    <mergeCell ref="B51:D51"/>
-    <mergeCell ref="B52:D52"/>
-    <mergeCell ref="B53:D53"/>
-    <mergeCell ref="B54:D54"/>
-    <mergeCell ref="B77:D77"/>
-    <mergeCell ref="B56:D56"/>
-    <mergeCell ref="B57:D57"/>
-    <mergeCell ref="B58:D58"/>
-    <mergeCell ref="B59:D59"/>
-    <mergeCell ref="B60:D60"/>
-    <mergeCell ref="B61:D61"/>
-    <mergeCell ref="B62:D62"/>
-    <mergeCell ref="B63:D63"/>
-    <mergeCell ref="B64:D64"/>
-    <mergeCell ref="B67:D67"/>
-    <mergeCell ref="B68:D68"/>
-    <mergeCell ref="A88:F88"/>
-    <mergeCell ref="B90:D90"/>
-    <mergeCell ref="B78:D78"/>
-    <mergeCell ref="B79:D79"/>
-    <mergeCell ref="B83:E83"/>
-    <mergeCell ref="A84:F84"/>
-    <mergeCell ref="A85:F85"/>
-    <mergeCell ref="B87:E87"/>
-  </mergeCells>
-  <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B77:B79 B12:B20 B33:B68" xr:uid="{9303906B-CFAA-4A70-97E9-B126FD508437}">
       <formula1>Liste_Activités</formula1>
     </dataValidation>
   </dataValidations>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
-  <pageSetup paperSize="131" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <pageSetup paperSize="131" scale="33" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
   <headerFooter scaleWithDoc="0" alignWithMargins="0"/>
   <drawing r:id="rId2"/>
 </worksheet>
@@ -6827,7 +7717,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64A3F771-9D2F-4D38-9932-0923D0DCD9B0}">
-  <sheetPr>
+  <sheetPr codeName="Feuil7">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A12:F91"/>
@@ -6968,14 +7858,14 @@
       <c r="F29" s="20"/>
     </row>
     <row r="30" spans="1:6" s="40" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="148" t="s">
+      <c r="A30" s="144" t="s">
         <v>0</v>
       </c>
-      <c r="B30" s="148"/>
-      <c r="C30" s="148"/>
-      <c r="D30" s="148"/>
-      <c r="E30" s="148"/>
-      <c r="F30" s="148"/>
+      <c r="B30" s="144"/>
+      <c r="C30" s="144"/>
+      <c r="D30" s="144"/>
+      <c r="E30" s="144"/>
+      <c r="F30" s="144"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" s="17"/>
@@ -6996,257 +7886,257 @@
     </row>
     <row r="33" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A33" s="21"/>
-      <c r="B33" s="145"/>
-      <c r="C33" s="145"/>
-      <c r="D33" s="145"/>
+      <c r="B33" s="143"/>
+      <c r="C33" s="143"/>
+      <c r="D33" s="143"/>
       <c r="E33" s="28"/>
       <c r="F33" s="21"/>
     </row>
     <row r="34" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="21"/>
-      <c r="B34" s="145" t="s">
+      <c r="B34" s="143" t="s">
         <v>85</v>
       </c>
-      <c r="C34" s="145"/>
-      <c r="D34" s="145"/>
+      <c r="C34" s="143"/>
+      <c r="D34" s="143"/>
       <c r="E34" s="28"/>
       <c r="F34" s="21"/>
     </row>
     <row r="35" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A35" s="21"/>
-      <c r="B35" s="145"/>
-      <c r="C35" s="145"/>
-      <c r="D35" s="145"/>
+      <c r="B35" s="143"/>
+      <c r="C35" s="143"/>
+      <c r="D35" s="143"/>
       <c r="E35" s="28"/>
       <c r="F35" s="21"/>
     </row>
     <row r="36" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A36" s="21"/>
-      <c r="B36" s="145" t="s">
+      <c r="B36" s="143" t="s">
         <v>49</v>
       </c>
-      <c r="C36" s="145"/>
-      <c r="D36" s="145"/>
+      <c r="C36" s="143"/>
+      <c r="D36" s="143"/>
       <c r="E36" s="28"/>
       <c r="F36" s="21"/>
     </row>
     <row r="37" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A37" s="21"/>
-      <c r="B37" s="145"/>
-      <c r="C37" s="145"/>
-      <c r="D37" s="145"/>
+      <c r="B37" s="143"/>
+      <c r="C37" s="143"/>
+      <c r="D37" s="143"/>
       <c r="E37" s="28"/>
       <c r="F37" s="21"/>
     </row>
     <row r="38" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A38" s="21"/>
-      <c r="B38" s="145" t="s">
+      <c r="B38" s="143" t="s">
         <v>86</v>
       </c>
-      <c r="C38" s="145"/>
-      <c r="D38" s="145"/>
+      <c r="C38" s="143"/>
+      <c r="D38" s="143"/>
       <c r="E38" s="28"/>
       <c r="F38" s="21"/>
     </row>
     <row r="39" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A39" s="21"/>
-      <c r="B39" s="145"/>
-      <c r="C39" s="145"/>
-      <c r="D39" s="145"/>
+      <c r="B39" s="143"/>
+      <c r="C39" s="143"/>
+      <c r="D39" s="143"/>
       <c r="E39" s="28"/>
       <c r="F39" s="21"/>
     </row>
     <row r="40" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A40" s="21"/>
-      <c r="B40" s="145" t="s">
+      <c r="B40" s="143" t="s">
         <v>87</v>
       </c>
-      <c r="C40" s="145"/>
-      <c r="D40" s="145"/>
+      <c r="C40" s="143"/>
+      <c r="D40" s="143"/>
       <c r="E40" s="28"/>
       <c r="F40" s="21"/>
     </row>
     <row r="41" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A41" s="21"/>
-      <c r="B41" s="145"/>
-      <c r="C41" s="145"/>
-      <c r="D41" s="145"/>
+      <c r="B41" s="143"/>
+      <c r="C41" s="143"/>
+      <c r="D41" s="143"/>
       <c r="E41" s="28"/>
       <c r="F41" s="21"/>
     </row>
     <row r="42" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A42" s="21"/>
-      <c r="B42" s="145"/>
-      <c r="C42" s="145"/>
-      <c r="D42" s="145"/>
+      <c r="B42" s="143"/>
+      <c r="C42" s="143"/>
+      <c r="D42" s="143"/>
       <c r="E42" s="28"/>
       <c r="F42" s="21"/>
     </row>
     <row r="43" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A43" s="21"/>
-      <c r="B43" s="145"/>
-      <c r="C43" s="145"/>
-      <c r="D43" s="145"/>
+      <c r="B43" s="143"/>
+      <c r="C43" s="143"/>
+      <c r="D43" s="143"/>
       <c r="E43" s="28"/>
       <c r="F43" s="21"/>
     </row>
     <row r="44" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A44" s="21"/>
-      <c r="B44" s="145"/>
-      <c r="C44" s="145"/>
-      <c r="D44" s="145"/>
+      <c r="B44" s="143"/>
+      <c r="C44" s="143"/>
+      <c r="D44" s="143"/>
       <c r="E44" s="28"/>
       <c r="F44" s="21"/>
     </row>
     <row r="45" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A45" s="21"/>
-      <c r="B45" s="145"/>
-      <c r="C45" s="145"/>
-      <c r="D45" s="145"/>
+      <c r="B45" s="143"/>
+      <c r="C45" s="143"/>
+      <c r="D45" s="143"/>
       <c r="E45" s="28"/>
       <c r="F45" s="21"/>
     </row>
     <row r="46" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A46" s="21"/>
-      <c r="B46" s="145"/>
-      <c r="C46" s="145"/>
-      <c r="D46" s="145"/>
+      <c r="B46" s="143"/>
+      <c r="C46" s="143"/>
+      <c r="D46" s="143"/>
       <c r="E46" s="28"/>
       <c r="F46" s="21"/>
     </row>
     <row r="47" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A47" s="21"/>
-      <c r="B47" s="145"/>
-      <c r="C47" s="145"/>
-      <c r="D47" s="145"/>
+      <c r="B47" s="143"/>
+      <c r="C47" s="143"/>
+      <c r="D47" s="143"/>
       <c r="E47" s="28"/>
       <c r="F47" s="21"/>
     </row>
     <row r="48" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A48" s="21"/>
-      <c r="B48" s="145"/>
-      <c r="C48" s="145"/>
-      <c r="D48" s="145"/>
+      <c r="B48" s="143"/>
+      <c r="C48" s="143"/>
+      <c r="D48" s="143"/>
       <c r="E48" s="28"/>
       <c r="F48" s="21"/>
     </row>
     <row r="49" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A49" s="21"/>
-      <c r="B49" s="145"/>
-      <c r="C49" s="145"/>
-      <c r="D49" s="145"/>
+      <c r="B49" s="143"/>
+      <c r="C49" s="143"/>
+      <c r="D49" s="143"/>
       <c r="E49" s="28"/>
       <c r="F49" s="21"/>
     </row>
     <row r="50" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A50" s="21"/>
-      <c r="B50" s="145"/>
-      <c r="C50" s="145"/>
-      <c r="D50" s="145"/>
+      <c r="B50" s="143"/>
+      <c r="C50" s="143"/>
+      <c r="D50" s="143"/>
       <c r="E50" s="28"/>
       <c r="F50" s="21"/>
     </row>
     <row r="51" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A51" s="21"/>
-      <c r="B51" s="145"/>
-      <c r="C51" s="145"/>
-      <c r="D51" s="145"/>
+      <c r="B51" s="143"/>
+      <c r="C51" s="143"/>
+      <c r="D51" s="143"/>
       <c r="E51" s="28"/>
       <c r="F51" s="21"/>
     </row>
     <row r="52" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A52" s="21"/>
-      <c r="B52" s="145"/>
-      <c r="C52" s="145"/>
-      <c r="D52" s="145"/>
+      <c r="B52" s="143"/>
+      <c r="C52" s="143"/>
+      <c r="D52" s="143"/>
       <c r="E52" s="28"/>
       <c r="F52" s="21"/>
     </row>
     <row r="53" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A53" s="21"/>
-      <c r="B53" s="145"/>
-      <c r="C53" s="145"/>
-      <c r="D53" s="145"/>
+      <c r="B53" s="143"/>
+      <c r="C53" s="143"/>
+      <c r="D53" s="143"/>
       <c r="E53" s="28"/>
       <c r="F53" s="21"/>
     </row>
     <row r="54" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A54" s="21"/>
-      <c r="B54" s="145"/>
-      <c r="C54" s="145"/>
-      <c r="D54" s="145"/>
+      <c r="B54" s="143"/>
+      <c r="C54" s="143"/>
+      <c r="D54" s="143"/>
       <c r="E54" s="28"/>
       <c r="F54" s="21"/>
     </row>
     <row r="55" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A55" s="21"/>
-      <c r="B55" s="145"/>
-      <c r="C55" s="145"/>
-      <c r="D55" s="145"/>
+      <c r="B55" s="143"/>
+      <c r="C55" s="143"/>
+      <c r="D55" s="143"/>
       <c r="E55" s="28"/>
       <c r="F55" s="21"/>
     </row>
     <row r="56" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A56" s="21"/>
-      <c r="B56" s="145"/>
-      <c r="C56" s="145"/>
-      <c r="D56" s="145"/>
+      <c r="B56" s="143"/>
+      <c r="C56" s="143"/>
+      <c r="D56" s="143"/>
       <c r="E56" s="28"/>
       <c r="F56" s="21"/>
     </row>
     <row r="57" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A57" s="21"/>
-      <c r="B57" s="145"/>
-      <c r="C57" s="145"/>
-      <c r="D57" s="145"/>
+      <c r="B57" s="143"/>
+      <c r="C57" s="143"/>
+      <c r="D57" s="143"/>
       <c r="E57" s="28"/>
       <c r="F57" s="21"/>
     </row>
     <row r="58" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A58" s="21"/>
-      <c r="B58" s="145"/>
-      <c r="C58" s="145"/>
-      <c r="D58" s="145"/>
+      <c r="B58" s="143"/>
+      <c r="C58" s="143"/>
+      <c r="D58" s="143"/>
       <c r="E58" s="28"/>
       <c r="F58" s="21"/>
     </row>
     <row r="59" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A59" s="21"/>
-      <c r="B59" s="145"/>
-      <c r="C59" s="145"/>
-      <c r="D59" s="145"/>
+      <c r="B59" s="143"/>
+      <c r="C59" s="143"/>
+      <c r="D59" s="143"/>
       <c r="E59" s="28"/>
       <c r="F59" s="21"/>
     </row>
     <row r="60" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A60" s="21"/>
-      <c r="B60" s="145"/>
-      <c r="C60" s="145"/>
-      <c r="D60" s="145"/>
+      <c r="B60" s="143"/>
+      <c r="C60" s="143"/>
+      <c r="D60" s="143"/>
       <c r="E60" s="28"/>
       <c r="F60" s="21"/>
     </row>
     <row r="61" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A61" s="21"/>
-      <c r="B61" s="145"/>
-      <c r="C61" s="145"/>
-      <c r="D61" s="145"/>
+      <c r="B61" s="143"/>
+      <c r="C61" s="143"/>
+      <c r="D61" s="143"/>
       <c r="E61" s="28"/>
       <c r="F61" s="21"/>
     </row>
     <row r="62" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A62" s="21"/>
-      <c r="B62" s="145"/>
-      <c r="C62" s="145"/>
-      <c r="D62" s="145"/>
+      <c r="B62" s="143"/>
+      <c r="C62" s="143"/>
+      <c r="D62" s="143"/>
       <c r="E62" s="28"/>
       <c r="F62" s="21"/>
     </row>
     <row r="63" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A63" s="21"/>
-      <c r="B63" s="145"/>
-      <c r="C63" s="145"/>
-      <c r="D63" s="145"/>
+      <c r="B63" s="143"/>
+      <c r="C63" s="143"/>
+      <c r="D63" s="143"/>
       <c r="E63" s="28"/>
       <c r="F63" s="21"/>
     </row>
@@ -7276,17 +8166,17 @@
     </row>
     <row r="66" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A66" s="21"/>
-      <c r="B66" s="145"/>
-      <c r="C66" s="145"/>
-      <c r="D66" s="145"/>
+      <c r="B66" s="143"/>
+      <c r="C66" s="143"/>
+      <c r="D66" s="143"/>
       <c r="E66" s="28"/>
       <c r="F66" s="21"/>
     </row>
     <row r="67" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="21"/>
-      <c r="B67" s="145"/>
-      <c r="C67" s="145"/>
-      <c r="D67" s="145"/>
+      <c r="B67" s="143"/>
+      <c r="C67" s="143"/>
+      <c r="D67" s="143"/>
       <c r="E67" s="28"/>
       <c r="F67" s="21"/>
     </row>
@@ -7393,19 +8283,19 @@
     </row>
     <row r="76" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A76" s="21"/>
-      <c r="B76" s="149"/>
-      <c r="C76" s="149"/>
-      <c r="D76" s="149"/>
+      <c r="B76" s="145"/>
+      <c r="C76" s="145"/>
+      <c r="D76" s="145"/>
       <c r="E76" s="36"/>
       <c r="F76" s="21"/>
     </row>
     <row r="77" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A77" s="21"/>
-      <c r="B77" s="146" t="s">
+      <c r="B77" s="150" t="s">
         <v>18</v>
       </c>
-      <c r="C77" s="146"/>
-      <c r="D77" s="146"/>
+      <c r="C77" s="150"/>
+      <c r="D77" s="150"/>
       <c r="E77" s="36">
         <v>0</v>
       </c>
@@ -7413,9 +8303,9 @@
     </row>
     <row r="78" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A78" s="21"/>
-      <c r="B78" s="149"/>
-      <c r="C78" s="149"/>
-      <c r="D78" s="149"/>
+      <c r="B78" s="145"/>
+      <c r="C78" s="145"/>
+      <c r="D78" s="145"/>
       <c r="E78" s="36"/>
       <c r="F78" s="21"/>
     </row>
@@ -7450,31 +8340,31 @@
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A82" s="21"/>
-      <c r="B82" s="143"/>
-      <c r="C82" s="143"/>
-      <c r="D82" s="143"/>
-      <c r="E82" s="143"/>
+      <c r="B82" s="148"/>
+      <c r="C82" s="148"/>
+      <c r="D82" s="148"/>
+      <c r="E82" s="148"/>
       <c r="F82" s="21"/>
     </row>
     <row r="83" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A83" s="151" t="s">
+      <c r="A83" s="142" t="s">
         <v>29</v>
       </c>
-      <c r="B83" s="151"/>
-      <c r="C83" s="151"/>
-      <c r="D83" s="151"/>
-      <c r="E83" s="151"/>
-      <c r="F83" s="151"/>
+      <c r="B83" s="142"/>
+      <c r="C83" s="142"/>
+      <c r="D83" s="142"/>
+      <c r="E83" s="142"/>
+      <c r="F83" s="142"/>
     </row>
     <row r="84" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A84" s="147" t="s">
+      <c r="A84" s="151" t="s">
         <v>30</v>
       </c>
-      <c r="B84" s="147"/>
-      <c r="C84" s="147"/>
-      <c r="D84" s="147"/>
-      <c r="E84" s="147"/>
-      <c r="F84" s="147"/>
+      <c r="B84" s="151"/>
+      <c r="C84" s="151"/>
+      <c r="D84" s="151"/>
+      <c r="E84" s="151"/>
+      <c r="F84" s="151"/>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A85" s="21"/>
@@ -7486,26 +8376,26 @@
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A86" s="21"/>
-      <c r="B86" s="144"/>
-      <c r="C86" s="144"/>
-      <c r="D86" s="144"/>
-      <c r="E86" s="144"/>
+      <c r="B86" s="149"/>
+      <c r="C86" s="149"/>
+      <c r="D86" s="149"/>
+      <c r="E86" s="149"/>
       <c r="F86" s="21"/>
     </row>
     <row r="87" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A87" s="150" t="s">
+      <c r="A87" s="141" t="s">
         <v>7</v>
       </c>
-      <c r="B87" s="150"/>
-      <c r="C87" s="150"/>
-      <c r="D87" s="150"/>
-      <c r="E87" s="150"/>
-      <c r="F87" s="150"/>
+      <c r="B87" s="141"/>
+      <c r="C87" s="141"/>
+      <c r="D87" s="141"/>
+      <c r="E87" s="141"/>
+      <c r="F87" s="141"/>
     </row>
     <row r="89" spans="1:6" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B89" s="141"/>
-      <c r="C89" s="142"/>
-      <c r="D89" s="142"/>
+      <c r="B89" s="146"/>
+      <c r="C89" s="147"/>
+      <c r="D89" s="147"/>
     </row>
     <row r="90" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="91" spans="1:6" x14ac:dyDescent="0.2">
@@ -7515,14 +8405,29 @@
     </row>
   </sheetData>
   <mergeCells count="43">
-    <mergeCell ref="A87:F87"/>
-    <mergeCell ref="B89:D89"/>
-    <mergeCell ref="B77:D77"/>
-    <mergeCell ref="B78:D78"/>
-    <mergeCell ref="B82:E82"/>
-    <mergeCell ref="A83:F83"/>
-    <mergeCell ref="A84:F84"/>
-    <mergeCell ref="B86:E86"/>
+    <mergeCell ref="B37:D37"/>
+    <mergeCell ref="A30:F30"/>
+    <mergeCell ref="B33:D33"/>
+    <mergeCell ref="B34:D34"/>
+    <mergeCell ref="B35:D35"/>
+    <mergeCell ref="B36:D36"/>
+    <mergeCell ref="B38:D38"/>
+    <mergeCell ref="B39:D39"/>
+    <mergeCell ref="B40:D40"/>
+    <mergeCell ref="B41:D41"/>
+    <mergeCell ref="B42:D42"/>
+    <mergeCell ref="B54:D54"/>
+    <mergeCell ref="B43:D43"/>
+    <mergeCell ref="B44:D44"/>
+    <mergeCell ref="B45:D45"/>
+    <mergeCell ref="B46:D46"/>
+    <mergeCell ref="B47:D47"/>
+    <mergeCell ref="B48:D48"/>
+    <mergeCell ref="B49:D49"/>
+    <mergeCell ref="B50:D50"/>
+    <mergeCell ref="B51:D51"/>
+    <mergeCell ref="B52:D52"/>
+    <mergeCell ref="B53:D53"/>
     <mergeCell ref="B76:D76"/>
     <mergeCell ref="B55:D55"/>
     <mergeCell ref="B56:D56"/>
@@ -7535,29 +8440,14 @@
     <mergeCell ref="B63:D63"/>
     <mergeCell ref="B66:D66"/>
     <mergeCell ref="B67:D67"/>
-    <mergeCell ref="B54:D54"/>
-    <mergeCell ref="B43:D43"/>
-    <mergeCell ref="B44:D44"/>
-    <mergeCell ref="B45:D45"/>
-    <mergeCell ref="B46:D46"/>
-    <mergeCell ref="B47:D47"/>
-    <mergeCell ref="B48:D48"/>
-    <mergeCell ref="B49:D49"/>
-    <mergeCell ref="B50:D50"/>
-    <mergeCell ref="B51:D51"/>
-    <mergeCell ref="B52:D52"/>
-    <mergeCell ref="B53:D53"/>
-    <mergeCell ref="B38:D38"/>
-    <mergeCell ref="B39:D39"/>
-    <mergeCell ref="B40:D40"/>
-    <mergeCell ref="B41:D41"/>
-    <mergeCell ref="B42:D42"/>
-    <mergeCell ref="B37:D37"/>
-    <mergeCell ref="A30:F30"/>
-    <mergeCell ref="B33:D33"/>
-    <mergeCell ref="B34:D34"/>
-    <mergeCell ref="B35:D35"/>
-    <mergeCell ref="B36:D36"/>
+    <mergeCell ref="A87:F87"/>
+    <mergeCell ref="B89:D89"/>
+    <mergeCell ref="B77:D77"/>
+    <mergeCell ref="B78:D78"/>
+    <mergeCell ref="B82:E82"/>
+    <mergeCell ref="A83:F83"/>
+    <mergeCell ref="A84:F84"/>
+    <mergeCell ref="B86:E86"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B76:B78 B12:B20 B33:B67" xr:uid="{367D8FD4-445A-4E0E-92AB-9CF210262489}">
@@ -7566,7 +8456,7 @@
   </dataValidations>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
-  <pageSetup paperSize="131" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <pageSetup paperSize="131" scale="33" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
   <headerFooter scaleWithDoc="0" alignWithMargins="0"/>
   <drawing r:id="rId2"/>
 </worksheet>
@@ -7949,14 +8839,14 @@
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.78740157499999996" right="0.78740157499999996" top="0.984251969" bottom="0.984251969" header="0.4921259845" footer="0.4921259845"/>
-  <pageSetup scale="74" orientation="portrait" r:id="rId1"/>
+  <pageSetup scale="65" orientation="portrait" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B80EE29-99B3-400F-AA52-F25A0DE855F1}">
-  <sheetPr>
+  <sheetPr codeName="Feuil8">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:F88"/>
@@ -8796,7 +9686,7 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27F5D0D9-1E5F-4327-956B-EA116086E1AA}">
-  <sheetPr>
+  <sheetPr codeName="Feuil9">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:F88"/>
@@ -9559,10 +10449,10 @@
     </row>
     <row r="81" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="61"/>
-      <c r="B81" s="161" t="s">
+      <c r="B81" s="162" t="s">
         <v>17</v>
       </c>
-      <c r="C81" s="162"/>
+      <c r="C81" s="163"/>
       <c r="D81" s="139"/>
       <c r="E81" s="140">
         <v>10140.799999999999</v>
@@ -9622,14 +10512,14 @@
       <c r="F87" s="46"/>
     </row>
     <row r="88" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A88" s="163" t="s">
+      <c r="A88" s="161" t="s">
         <v>7</v>
       </c>
-      <c r="B88" s="163"/>
-      <c r="C88" s="163"/>
-      <c r="D88" s="163"/>
-      <c r="E88" s="163"/>
-      <c r="F88" s="163"/>
+      <c r="B88" s="161"/>
+      <c r="C88" s="161"/>
+      <c r="D88" s="161"/>
+      <c r="E88" s="161"/>
+      <c r="F88" s="161"/>
     </row>
   </sheetData>
   <mergeCells count="6">
